--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miaodt\git\cs-2d-game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan\git\cs-2d-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070A5A8D-4709-4FDC-B01F-8B3D3F60B1E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Overview" sheetId="2" r:id="rId1"/>
@@ -526,7 +527,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -762,8 +763,8 @@
       <xdr:rowOff>103663</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1628775" cy="352469"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -929,7 +930,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -1263,7 +1264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1404,10 +1405,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -1638,12 +1639,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2444,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="6">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>19</v>
@@ -2467,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="6">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>19</v>
@@ -2490,7 +2491,7 @@
         <v>11</v>
       </c>
       <c r="F42" s="6">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>19</v>

--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan\git\cs-2d-game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miaodt\git\cs-2d-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070A5A8D-4709-4FDC-B01F-8B3D3F60B1E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Overview" sheetId="2" r:id="rId1"/>
-    <sheet name="Weapons-Overview" sheetId="3" r:id="rId2"/>
-    <sheet name="Weapons" sheetId="1" r:id="rId3"/>
+    <sheet name="Units" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="Weapons-Overview" sheetId="3" r:id="rId4"/>
+    <sheet name="Weapons" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="376">
   <si>
     <t>physical</t>
   </si>
@@ -125,33 +126,6 @@
     <t>Stat total vary depending on unit type. Current stat totals:</t>
   </si>
   <si>
-    <t>170-200 = horde units</t>
-  </si>
-  <si>
-    <t>170- 250= common units</t>
-  </si>
-  <si>
-    <t>250-300 = standard units</t>
-  </si>
-  <si>
-    <t>300-350 = boss units</t>
-  </si>
-  <si>
-    <t>350-400 = unique boss units</t>
-  </si>
-  <si>
-    <t>400-500 = dragon units, legendary units</t>
-  </si>
-  <si>
-    <t>500+ = godly unit</t>
-  </si>
-  <si>
-    <t>Obtainable unit max stat total ~300.</t>
-  </si>
-  <si>
-    <t>Get 1-2 stat points per level that permanently increase a chosen stat by 1 point.</t>
-  </si>
-  <si>
     <t>Wicked Spear</t>
   </si>
   <si>
@@ -509,9 +483,6 @@
     <t>Four(?) skills</t>
   </si>
   <si>
-    <t>Units come with 2-4 skills be default, can inherit skills by sacrificing other units at alters?</t>
-  </si>
-  <si>
     <t>Skill scrolls can also be obtained from shops and as rewards in chests/etc</t>
   </si>
   <si>
@@ -522,13 +493,676 @@
   </si>
   <si>
     <t>Gain Health +40 and Amr/Res +20.</t>
+  </si>
+  <si>
+    <t>Atral Blessing</t>
+  </si>
+  <si>
+    <t>Chaos Blessing</t>
+  </si>
+  <si>
+    <t>After combat restore 10 Health to all allies.</t>
+  </si>
+  <si>
+    <t>After combat deal 10 damage to all allies.</t>
+  </si>
+  <si>
+    <t>Griphin's Tome</t>
+  </si>
+  <si>
+    <t>Gain Health +40, Speed +20, Focus +15, and Resistance +10.</t>
+  </si>
+  <si>
+    <t>Units come with 2-4 skills by default, can inherit skills by sacrificing other units at alters?</t>
+  </si>
+  <si>
+    <t>Amor - one armor slot, low level/rarity armor give just flat stat bonuses, can upgrade armor to new tiers</t>
+  </si>
+  <si>
+    <t>Higher tier armor can give other passive bonuses as well</t>
+  </si>
+  <si>
+    <t>Trinket - one trinket slot, same effects as armor</t>
+  </si>
+  <si>
+    <t>Type Availability</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Damage Type</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Rarity</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Spd</t>
+  </si>
+  <si>
+    <t>Str</t>
+  </si>
+  <si>
+    <t>Fcs</t>
+  </si>
+  <si>
+    <t>Amr</t>
+  </si>
+  <si>
+    <t>Res</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Looter</t>
+  </si>
+  <si>
+    <t>Heavy Looter</t>
+  </si>
+  <si>
+    <t>Deviant</t>
+  </si>
+  <si>
+    <t>Possesed Deviant</t>
+  </si>
+  <si>
+    <t>Possesed Traveler</t>
+  </si>
+  <si>
+    <t>Rouge Traveler</t>
+  </si>
+  <si>
+    <t>Light Bowman</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>Possesed Hunter</t>
+  </si>
+  <si>
+    <t>Summoner</t>
+  </si>
+  <si>
+    <t>Kensick Legionnaire</t>
+  </si>
+  <si>
+    <t>Kensick Knight</t>
+  </si>
+  <si>
+    <t>Kensick Royal Legionaire</t>
+  </si>
+  <si>
+    <t>Kensick Royal Knight</t>
+  </si>
+  <si>
+    <t>Kensick Royal Guard</t>
+  </si>
+  <si>
+    <t>Kensick Royal Conjurer</t>
+  </si>
+  <si>
+    <t>Dark Knight</t>
+  </si>
+  <si>
+    <t>Griphin</t>
+  </si>
+  <si>
+    <t>Order Vigilite</t>
+  </si>
+  <si>
+    <t>Unit Type</t>
+  </si>
+  <si>
+    <t>Beast</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>Demon</t>
+  </si>
+  <si>
+    <t>Spirit</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t>Factions/Elements</t>
+  </si>
+  <si>
+    <t>Faction/Element</t>
+  </si>
+  <si>
+    <t>All units and skills have a faction/element. Certain factions deal more damage to units of other factions.</t>
+  </si>
+  <si>
+    <t>Weapons have no element, and instead always deal the same damage type as the unit it is equipped to.</t>
+  </si>
+  <si>
+    <t>Mage Knight</t>
+  </si>
+  <si>
+    <t>Order Vigilite with unique equipment</t>
+  </si>
+  <si>
+    <t>Akera the Pained</t>
+  </si>
+  <si>
+    <t>Loath the Forgotten</t>
+  </si>
+  <si>
+    <t>Phenton the Fire</t>
+  </si>
+  <si>
+    <t>Ixe the Hated</t>
+  </si>
+  <si>
+    <t>Acytus the Rich</t>
+  </si>
+  <si>
+    <t>Octeous the Immotal</t>
+  </si>
+  <si>
+    <t>Drakon</t>
+  </si>
+  <si>
+    <t>Renegade Archer</t>
+  </si>
+  <si>
+    <t>Renegade Swordsman</t>
+  </si>
+  <si>
+    <t>Rouge Looter</t>
+  </si>
+  <si>
+    <t>Rouge Mage</t>
+  </si>
+  <si>
+    <t>Bonus damage = 110% normal damage (subject to change)</t>
+  </si>
+  <si>
+    <t>NEW TOTALS</t>
+  </si>
+  <si>
+    <t>Stats at level</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Base Mult</t>
+  </si>
+  <si>
+    <t>Base Mult for HP</t>
+  </si>
+  <si>
+    <t>800+ = godly units</t>
+  </si>
+  <si>
+    <t>650-800 = dragon units, legendary units</t>
+  </si>
+  <si>
+    <t>Chaos Vigilite</t>
+  </si>
+  <si>
+    <t>Chaos Vigilite with unique equipment</t>
+  </si>
+  <si>
+    <t>Severin's Axe</t>
+  </si>
+  <si>
+    <t>Gain 25% Physical Penetration.</t>
+  </si>
+  <si>
+    <t>Shade</t>
+  </si>
+  <si>
+    <t>Fallen Kingsguard</t>
+  </si>
+  <si>
+    <t>Fallen King</t>
+  </si>
+  <si>
+    <t>Lost</t>
+  </si>
+  <si>
+    <t>350-500 = standard units</t>
+  </si>
+  <si>
+    <t>Devourer</t>
+  </si>
+  <si>
+    <t>Mercenary Knight</t>
+  </si>
+  <si>
+    <t>Elite Mercenary Conjurer</t>
+  </si>
+  <si>
+    <t>Shadow Knight</t>
+  </si>
+  <si>
+    <t>Mercenary Legionary</t>
+  </si>
+  <si>
+    <t>Elite Mercenary Legionary</t>
+  </si>
+  <si>
+    <t>Voidwalker</t>
+  </si>
+  <si>
+    <t>Forgotten Knight</t>
+  </si>
+  <si>
+    <t>Infantry Mage</t>
+  </si>
+  <si>
+    <t>Mercenary Ranger</t>
+  </si>
+  <si>
+    <t>Infatry</t>
+  </si>
+  <si>
+    <t>250-350 = common units, early game units</t>
+  </si>
+  <si>
+    <t>Aversus</t>
+  </si>
+  <si>
+    <t>Angered Forestling</t>
+  </si>
+  <si>
+    <t>Wild Boar</t>
+  </si>
+  <si>
+    <t>Wolf</t>
+  </si>
+  <si>
+    <t>horde beast</t>
+  </si>
+  <si>
+    <t>Alpha Wolf</t>
+  </si>
+  <si>
+    <t>Arcane Wolf</t>
+  </si>
+  <si>
+    <t>Araknid</t>
+  </si>
+  <si>
+    <t>humanoid spiders</t>
+  </si>
+  <si>
+    <t>Beast Mage</t>
+  </si>
+  <si>
+    <t>Araknae</t>
+  </si>
+  <si>
+    <t>Knight Beast</t>
+  </si>
+  <si>
+    <t>Decayed Lord</t>
+  </si>
+  <si>
+    <t>horde king</t>
+  </si>
+  <si>
+    <t>Ancient One</t>
+  </si>
+  <si>
+    <t>Arcane Ancient</t>
+  </si>
+  <si>
+    <t>Raurd</t>
+  </si>
+  <si>
+    <t>champion of the ancients</t>
+  </si>
+  <si>
+    <t>Vior</t>
+  </si>
+  <si>
+    <t>Yrsk</t>
+  </si>
+  <si>
+    <t>Ashkr</t>
+  </si>
+  <si>
+    <t>leader of the ancients (trees)</t>
+  </si>
+  <si>
+    <t>Mage Beast</t>
+  </si>
+  <si>
+    <t>Draugsk</t>
+  </si>
+  <si>
+    <t>dead ancient</t>
+  </si>
+  <si>
+    <t>Old One</t>
+  </si>
+  <si>
+    <t>old forest men</t>
+  </si>
+  <si>
+    <t>Der Rawsk</t>
+  </si>
+  <si>
+    <t>Ginggraff</t>
+  </si>
+  <si>
+    <t>Horned rodent</t>
+  </si>
+  <si>
+    <t>Fallen Creature</t>
+  </si>
+  <si>
+    <t>Drottin Skerra</t>
+  </si>
+  <si>
+    <t>ancient lord</t>
+  </si>
+  <si>
+    <t>Mage Dragon</t>
+  </si>
+  <si>
+    <t>Yiwir</t>
+  </si>
+  <si>
+    <t>Xing Ghou</t>
+  </si>
+  <si>
+    <t>Yin Zho Lunar Priest</t>
+  </si>
+  <si>
+    <t>Yin Zho Solar Priest</t>
+  </si>
+  <si>
+    <t>Yin Zho Warrior Monk</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Korvus (Death)</t>
+  </si>
+  <si>
+    <t>lose to at end of first campaign to prestige/restart in hard mode. cities have been overtaken with raven worshippers, higher level enemeies everywhere</t>
+  </si>
+  <si>
+    <t>Crimson Knight</t>
+  </si>
+  <si>
+    <t>starter unit if start at blood lord faction</t>
+  </si>
+  <si>
+    <t>Crimson Sellsword</t>
+  </si>
+  <si>
+    <t>starter unit</t>
+  </si>
+  <si>
+    <t>Blood Worshipper</t>
+  </si>
+  <si>
+    <t>common blood faction unit</t>
+  </si>
+  <si>
+    <t>Blood Preist</t>
+  </si>
+  <si>
+    <t>Blood Priestess</t>
+  </si>
+  <si>
+    <t>Belsug</t>
+  </si>
+  <si>
+    <t>blood lord's pet, skagg</t>
+  </si>
+  <si>
+    <t>Mounted Infantry</t>
+  </si>
+  <si>
+    <t>Loyal Servant Avutie</t>
+  </si>
+  <si>
+    <t>Mother Camora</t>
+  </si>
+  <si>
+    <t>powerful healer mage, preistess leader</t>
+  </si>
+  <si>
+    <t>Blood Lord La Sanche</t>
+  </si>
+  <si>
+    <t>blood lord faction leader</t>
+  </si>
+  <si>
+    <t>Raven Conjurer</t>
+  </si>
+  <si>
+    <t>basic raven unit, found randomly in beginning of game/main campaign</t>
+  </si>
+  <si>
+    <t>Knight of the Raven</t>
+  </si>
+  <si>
+    <t>appear in raven armies</t>
+  </si>
+  <si>
+    <t>Raven Apostle</t>
+  </si>
+  <si>
+    <t>Raven</t>
+  </si>
+  <si>
+    <t>leader of raven horde, end normal mode boss</t>
+  </si>
+  <si>
+    <t>end hard mode boss</t>
+  </si>
+  <si>
+    <t>Valiant Knight</t>
+  </si>
+  <si>
+    <t>Valiant Sellsword</t>
+  </si>
+  <si>
+    <t>Highlands Méllitar</t>
+  </si>
+  <si>
+    <t>higlands - elf like cuture</t>
+  </si>
+  <si>
+    <t>Highlands Amertiér</t>
+  </si>
+  <si>
+    <t>Highlands Artilliére</t>
+  </si>
+  <si>
+    <t>Kasteillé</t>
+  </si>
+  <si>
+    <t>highland noble</t>
+  </si>
+  <si>
+    <t>Evryn</t>
+  </si>
+  <si>
+    <t>Invar</t>
+  </si>
+  <si>
+    <t>Dégracier</t>
+  </si>
+  <si>
+    <t>highland dragon lord</t>
+  </si>
+  <si>
+    <t>Knight of Goorn</t>
+  </si>
+  <si>
+    <t>lowland unit</t>
+  </si>
+  <si>
+    <t>Knight of Ezvis</t>
+  </si>
+  <si>
+    <t>Mounted Knight</t>
+  </si>
+  <si>
+    <t>Knight of Orris</t>
+  </si>
+  <si>
+    <t>Zin</t>
+  </si>
+  <si>
+    <t>lowland noble</t>
+  </si>
+  <si>
+    <t>Vez</t>
+  </si>
+  <si>
+    <t>Ar-Roz</t>
+  </si>
+  <si>
+    <t>Iv-Dras</t>
+  </si>
+  <si>
+    <t>lowland ruler - low and high folk ruled by dragons who endow them with special abilities</t>
+  </si>
+  <si>
+    <t>Fair Dragon</t>
+  </si>
+  <si>
+    <t>Wyvern's Sword</t>
+  </si>
+  <si>
+    <t>Wyvern</t>
+  </si>
+  <si>
+    <t>warped apprentice magician</t>
+  </si>
+  <si>
+    <t>Found in possesed towns, caused my uncontrolled magic wicked tome, morphing blade</t>
+  </si>
+  <si>
+    <t>nananananananananananananBATMAN</t>
+  </si>
+  <si>
+    <t>500-650 = unique units, bosses, multi-tile units</t>
+  </si>
+  <si>
+    <t>Knight of Ezis</t>
+  </si>
+  <si>
+    <t>Beast Knight</t>
+  </si>
+  <si>
+    <t>*Q, lowland noble</t>
+  </si>
+  <si>
+    <t>*Q, lowland ruler - low and high folk ruled by dragons who endow them with special abilities</t>
+  </si>
+  <si>
+    <t>battle with player, whichever survives with most health can be recruited</t>
+  </si>
+  <si>
+    <t>unique ability: set res equal to highest res on enemy team</t>
+  </si>
+  <si>
+    <t>Heretic Prisoner</t>
+  </si>
+  <si>
+    <t>frontline units for vigilite parties</t>
+  </si>
+  <si>
+    <t>Ur-Dras</t>
+  </si>
+  <si>
+    <t>*Q, fair dragon queen</t>
+  </si>
+  <si>
+    <t>Hemoplague Priest</t>
+  </si>
+  <si>
+    <t>Lunar Cultist</t>
+  </si>
+  <si>
+    <t>Lunar Priest</t>
+  </si>
+  <si>
+    <t>Lunar Devine</t>
+  </si>
+  <si>
+    <t>Crimson Worshipper</t>
+  </si>
+  <si>
+    <t>Crimson Preist</t>
+  </si>
+  <si>
+    <t>*Q, blood lord's pet, skagg, reward for completing questline</t>
+  </si>
+  <si>
+    <t>*Q, blood lord faction leader</t>
+  </si>
+  <si>
+    <t>*Q, mounted?</t>
+  </si>
+  <si>
+    <t>(Hemoplague) Lord Aima</t>
+  </si>
+  <si>
+    <t>Crimzna</t>
+  </si>
+  <si>
+    <t>*Q, powerful healer mage, defacto hemoplague leader</t>
+  </si>
+  <si>
+    <t>*Q, ancient lord</t>
+  </si>
+  <si>
+    <t>Zi Ghou</t>
+  </si>
+  <si>
+    <t>Zi Tian</t>
+  </si>
+  <si>
+    <t>Zi Yue</t>
+  </si>
+  <si>
+    <t>*Q, three lords who can cleanse Korvus's corruption</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,8 +1212,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -640,8 +1289,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5B5B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -664,11 +1325,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -731,6 +1407,61 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,6 +1470,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF5B5B"/>
       <color rgb="FFB381D9"/>
     </mruColors>
   </colors>
@@ -1264,138 +1996,449 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:B40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:J69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" t="s">
+        <v>205</v>
+      </c>
+      <c r="G22" t="s">
+        <v>206</v>
+      </c>
+      <c r="H22" t="s">
+        <v>204</v>
+      </c>
+      <c r="I22" t="s">
+        <v>203</v>
+      </c>
+      <c r="J22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="30"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="D24" s="30"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="29"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="29"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" s="29"/>
+      <c r="I27" s="29"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="F28" s="29"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" s="29"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="29"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="30"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="37" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B58" t="s">
+        <v>228</v>
+      </c>
+      <c r="C58" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="C59" s="38">
+        <f>B59*2</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>10</v>
+      </c>
+      <c r="B60" s="38">
+        <v>0.25</v>
+      </c>
+      <c r="C60" s="38">
+        <f t="shared" ref="C60:C69" si="0">B60*2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>20</v>
+      </c>
+      <c r="B61" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="C61" s="38">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>30</v>
+      </c>
+      <c r="B62" s="38">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C62" s="38">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>40</v>
+      </c>
+      <c r="B63" s="38">
+        <v>0.65</v>
+      </c>
+      <c r="C63" s="38">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>50</v>
+      </c>
+      <c r="B64" s="38">
+        <v>0.75</v>
+      </c>
+      <c r="C64" s="38">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>60</v>
+      </c>
+      <c r="B65" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="C65" s="38">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>70</v>
+      </c>
+      <c r="B66" s="38">
+        <v>0.85</v>
+      </c>
+      <c r="C66" s="38">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>80</v>
+      </c>
+      <c r="B67" s="38">
+        <v>0.9</v>
+      </c>
+      <c r="C67" s="38">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>90</v>
+      </c>
+      <c r="B68" s="38">
+        <v>0.95</v>
+      </c>
+      <c r="C68" s="38">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>100</v>
+      </c>
+      <c r="B69" s="38">
+        <v>1</v>
+      </c>
+      <c r="C69" s="38">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1405,11 +2448,4728 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L69" sqref="L69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="9" width="5.28515625" style="28" customWidth="1"/>
+    <col min="10" max="10" width="6" style="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="28">
+        <v>56</v>
+      </c>
+      <c r="E2" s="28">
+        <v>27</v>
+      </c>
+      <c r="F2" s="28">
+        <v>36</v>
+      </c>
+      <c r="G2" s="28">
+        <v>6</v>
+      </c>
+      <c r="H2" s="28">
+        <v>21</v>
+      </c>
+      <c r="I2" s="28">
+        <v>43</v>
+      </c>
+      <c r="J2" s="28">
+        <f>SUM(D2:I2)</f>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="28">
+        <v>64</v>
+      </c>
+      <c r="E3" s="28">
+        <v>25</v>
+      </c>
+      <c r="F3" s="28">
+        <v>39</v>
+      </c>
+      <c r="G3" s="28">
+        <v>3</v>
+      </c>
+      <c r="H3" s="28">
+        <v>49</v>
+      </c>
+      <c r="I3" s="28">
+        <v>19</v>
+      </c>
+      <c r="J3" s="28">
+        <f t="shared" ref="J3:J30" si="0">SUM(D3:I3)</f>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="28">
+        <v>48</v>
+      </c>
+      <c r="E4" s="28">
+        <v>30</v>
+      </c>
+      <c r="F4" s="28">
+        <v>11</v>
+      </c>
+      <c r="G4" s="28">
+        <v>44</v>
+      </c>
+      <c r="H4" s="28">
+        <v>20</v>
+      </c>
+      <c r="I4" s="28">
+        <v>28</v>
+      </c>
+      <c r="J4" s="28">
+        <f t="shared" si="0"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="28">
+        <v>49</v>
+      </c>
+      <c r="E5" s="28">
+        <v>44</v>
+      </c>
+      <c r="F5" s="28">
+        <v>0</v>
+      </c>
+      <c r="G5" s="28">
+        <v>54</v>
+      </c>
+      <c r="H5" s="28">
+        <v>23</v>
+      </c>
+      <c r="I5" s="28">
+        <v>33</v>
+      </c>
+      <c r="J5" s="28">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="28">
+        <v>34</v>
+      </c>
+      <c r="E6" s="28">
+        <v>60</v>
+      </c>
+      <c r="F6" s="28">
+        <v>0</v>
+      </c>
+      <c r="G6" s="28">
+        <v>37</v>
+      </c>
+      <c r="H6" s="28">
+        <v>20</v>
+      </c>
+      <c r="I6" s="28">
+        <v>11</v>
+      </c>
+      <c r="J6" s="28">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="28">
+        <v>45</v>
+      </c>
+      <c r="E7" s="28">
+        <v>45</v>
+      </c>
+      <c r="F7" s="28">
+        <v>45</v>
+      </c>
+      <c r="G7" s="28">
+        <v>0</v>
+      </c>
+      <c r="H7" s="28">
+        <v>11</v>
+      </c>
+      <c r="I7" s="28">
+        <v>19</v>
+      </c>
+      <c r="J7" s="28">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="28">
+        <v>36</v>
+      </c>
+      <c r="E8" s="28">
+        <v>49</v>
+      </c>
+      <c r="F8" s="28">
+        <v>39</v>
+      </c>
+      <c r="G8" s="28">
+        <v>0</v>
+      </c>
+      <c r="H8" s="28">
+        <v>16</v>
+      </c>
+      <c r="I8" s="28">
+        <v>10</v>
+      </c>
+      <c r="J8" s="28">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="28">
+        <v>29</v>
+      </c>
+      <c r="E9" s="28">
+        <v>49</v>
+      </c>
+      <c r="F9" s="28">
+        <v>0</v>
+      </c>
+      <c r="G9" s="28">
+        <v>43</v>
+      </c>
+      <c r="H9" s="28">
+        <v>16</v>
+      </c>
+      <c r="I9" s="28">
+        <v>16</v>
+      </c>
+      <c r="J9" s="28">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="28">
+        <v>62</v>
+      </c>
+      <c r="E10" s="28">
+        <v>50</v>
+      </c>
+      <c r="F10" s="28">
+        <v>28</v>
+      </c>
+      <c r="G10" s="28">
+        <v>60</v>
+      </c>
+      <c r="H10" s="28">
+        <v>34</v>
+      </c>
+      <c r="I10" s="28">
+        <v>48</v>
+      </c>
+      <c r="J10" s="28">
+        <f t="shared" si="0"/>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>221</v>
+      </c>
+      <c r="J11" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
+        <v>220</v>
+      </c>
+      <c r="J12" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
+        <v>355</v>
+      </c>
+      <c r="D13" s="28">
+        <v>45</v>
+      </c>
+      <c r="E13" s="28">
+        <v>40</v>
+      </c>
+      <c r="F13" s="28">
+        <v>45</v>
+      </c>
+      <c r="G13" s="28">
+        <v>45</v>
+      </c>
+      <c r="H13" s="28">
+        <v>40</v>
+      </c>
+      <c r="I13" s="28">
+        <v>40</v>
+      </c>
+      <c r="J13" s="28">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+      <c r="K13" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D14" s="28">
+        <v>79</v>
+      </c>
+      <c r="E14" s="28">
+        <v>49</v>
+      </c>
+      <c r="F14" s="28">
+        <v>76</v>
+      </c>
+      <c r="G14" s="28">
+        <v>48</v>
+      </c>
+      <c r="H14" s="28">
+        <v>56</v>
+      </c>
+      <c r="I14" s="28">
+        <v>60</v>
+      </c>
+      <c r="J14" s="28">
+        <f t="shared" si="0"/>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15" s="28">
+        <v>96</v>
+      </c>
+      <c r="E15" s="28">
+        <v>17</v>
+      </c>
+      <c r="F15" s="28">
+        <v>79</v>
+      </c>
+      <c r="G15" s="28">
+        <v>20</v>
+      </c>
+      <c r="H15" s="28">
+        <v>93</v>
+      </c>
+      <c r="I15" s="28">
+        <v>22</v>
+      </c>
+      <c r="J15" s="28">
+        <f t="shared" si="0"/>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D16" s="28">
+        <v>68</v>
+      </c>
+      <c r="E16" s="28">
+        <v>57</v>
+      </c>
+      <c r="F16" s="28">
+        <v>67</v>
+      </c>
+      <c r="G16" s="28">
+        <v>73</v>
+      </c>
+      <c r="H16" s="28">
+        <v>48</v>
+      </c>
+      <c r="I16" s="28">
+        <v>42</v>
+      </c>
+      <c r="J16" s="28">
+        <f>SUM(D16:I16)</f>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17" t="s">
+        <v>246</v>
+      </c>
+      <c r="D17" s="28">
+        <v>80</v>
+      </c>
+      <c r="E17" s="28">
+        <v>44</v>
+      </c>
+      <c r="F17" s="28">
+        <v>75</v>
+      </c>
+      <c r="G17" s="28">
+        <v>75</v>
+      </c>
+      <c r="H17" s="28">
+        <v>58</v>
+      </c>
+      <c r="I17" s="28">
+        <v>63</v>
+      </c>
+      <c r="J17" s="28">
+        <f t="shared" si="0"/>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="28">
+        <v>70</v>
+      </c>
+      <c r="E18" s="28">
+        <v>61</v>
+      </c>
+      <c r="F18" s="28">
+        <v>32</v>
+      </c>
+      <c r="G18" s="28">
+        <v>88</v>
+      </c>
+      <c r="H18" s="28">
+        <v>48</v>
+      </c>
+      <c r="I18" s="28">
+        <v>59</v>
+      </c>
+      <c r="J18" s="28">
+        <f t="shared" si="0"/>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21" s="28">
+        <v>43</v>
+      </c>
+      <c r="E21" s="28">
+        <v>58</v>
+      </c>
+      <c r="F21" s="28">
+        <v>36</v>
+      </c>
+      <c r="G21" s="28">
+        <v>13</v>
+      </c>
+      <c r="H21" s="28">
+        <v>23</v>
+      </c>
+      <c r="I21" s="28">
+        <v>25</v>
+      </c>
+      <c r="J21" s="28">
+        <f>SUM(D21:I21)</f>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" t="s">
+        <v>222</v>
+      </c>
+      <c r="J22" s="28">
+        <f t="shared" ref="J22:J23" si="1">SUM(D22:I22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>223</v>
+      </c>
+      <c r="J23" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" s="28">
+        <v>80</v>
+      </c>
+      <c r="E28" s="28">
+        <v>67</v>
+      </c>
+      <c r="F28" s="28">
+        <v>48</v>
+      </c>
+      <c r="G28" s="28">
+        <v>51</v>
+      </c>
+      <c r="H28" s="28">
+        <v>80</v>
+      </c>
+      <c r="I28" s="28">
+        <v>76</v>
+      </c>
+      <c r="J28" s="28">
+        <f t="shared" si="0"/>
+        <v>402</v>
+      </c>
+      <c r="K28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>205</v>
+      </c>
+      <c r="B29" t="s">
+        <v>211</v>
+      </c>
+      <c r="C29" t="s">
+        <v>199</v>
+      </c>
+      <c r="D29" s="28">
+        <v>80</v>
+      </c>
+      <c r="E29" s="28">
+        <v>67</v>
+      </c>
+      <c r="F29" s="28">
+        <v>42</v>
+      </c>
+      <c r="G29" s="28">
+        <v>51</v>
+      </c>
+      <c r="H29" s="28">
+        <v>80</v>
+      </c>
+      <c r="I29" s="28">
+        <v>72</v>
+      </c>
+      <c r="J29" s="28">
+        <f t="shared" si="0"/>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>205</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
+        <v>343</v>
+      </c>
+      <c r="D30" s="28">
+        <v>89</v>
+      </c>
+      <c r="E30" s="28">
+        <v>26</v>
+      </c>
+      <c r="F30" s="28">
+        <v>75</v>
+      </c>
+      <c r="G30" s="28">
+        <v>13</v>
+      </c>
+      <c r="H30" s="28">
+        <v>102</v>
+      </c>
+      <c r="I30" s="28">
+        <v>92</v>
+      </c>
+      <c r="J30" s="28">
+        <f t="shared" si="0"/>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>205</v>
+      </c>
+      <c r="B31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C31" t="s">
+        <v>344</v>
+      </c>
+      <c r="D31" s="28">
+        <v>124</v>
+      </c>
+      <c r="E31" s="28">
+        <v>65</v>
+      </c>
+      <c r="F31" s="28">
+        <v>49</v>
+      </c>
+      <c r="G31" s="28">
+        <v>0</v>
+      </c>
+      <c r="H31" s="28">
+        <v>52</v>
+      </c>
+      <c r="I31" s="28">
+        <v>56</v>
+      </c>
+      <c r="J31" s="28">
+        <f>SUM(D31:I31)</f>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>205</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>331</v>
+      </c>
+      <c r="D32" s="28">
+        <v>70</v>
+      </c>
+      <c r="E32" s="28">
+        <v>39</v>
+      </c>
+      <c r="F32" s="28">
+        <v>48</v>
+      </c>
+      <c r="G32" s="28">
+        <v>68</v>
+      </c>
+      <c r="H32" s="28">
+        <v>58</v>
+      </c>
+      <c r="I32" s="28">
+        <v>54</v>
+      </c>
+      <c r="J32" s="28">
+        <f t="shared" ref="J32:J38" si="2">SUM(D32:I32)</f>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>205</v>
+      </c>
+      <c r="B33" t="s">
+        <v>211</v>
+      </c>
+      <c r="C33" t="s">
+        <v>349</v>
+      </c>
+      <c r="D33" s="28">
+        <v>83</v>
+      </c>
+      <c r="E33" s="28">
+        <v>18</v>
+      </c>
+      <c r="F33" s="28">
+        <v>50</v>
+      </c>
+      <c r="G33" s="28">
+        <v>68</v>
+      </c>
+      <c r="H33" s="28">
+        <v>61</v>
+      </c>
+      <c r="I33" s="28">
+        <v>58</v>
+      </c>
+      <c r="J33" s="28">
+        <f t="shared" si="2"/>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>205</v>
+      </c>
+      <c r="B34" t="s">
+        <v>350</v>
+      </c>
+      <c r="C34" t="s">
+        <v>335</v>
+      </c>
+      <c r="D34" s="28">
+        <v>72</v>
+      </c>
+      <c r="E34" s="28">
+        <v>41</v>
+      </c>
+      <c r="F34" s="28">
+        <v>88</v>
+      </c>
+      <c r="G34" s="28">
+        <v>7</v>
+      </c>
+      <c r="H34" s="28">
+        <v>43</v>
+      </c>
+      <c r="I34" s="28">
+        <v>44</v>
+      </c>
+      <c r="J34" s="28">
+        <f t="shared" si="2"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>205</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>336</v>
+      </c>
+      <c r="D35" s="28">
+        <v>69</v>
+      </c>
+      <c r="E35" s="28">
+        <v>77</v>
+      </c>
+      <c r="F35" s="28">
+        <v>18</v>
+      </c>
+      <c r="G35" s="28">
+        <v>108</v>
+      </c>
+      <c r="H35" s="28">
+        <v>56</v>
+      </c>
+      <c r="I35" s="28">
+        <v>73</v>
+      </c>
+      <c r="J35" s="28">
+        <f t="shared" si="2"/>
+        <v>401</v>
+      </c>
+      <c r="K35" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" t="s">
+        <v>338</v>
+      </c>
+      <c r="D36" s="28">
+        <v>91</v>
+      </c>
+      <c r="E36" s="28">
+        <v>42</v>
+      </c>
+      <c r="F36" s="28">
+        <v>75</v>
+      </c>
+      <c r="G36" s="28">
+        <v>84</v>
+      </c>
+      <c r="H36" s="28">
+        <v>68</v>
+      </c>
+      <c r="I36" s="28">
+        <v>60</v>
+      </c>
+      <c r="J36" s="28">
+        <f t="shared" si="2"/>
+        <v>420</v>
+      </c>
+      <c r="K36" t="s">
+        <v>351</v>
+      </c>
+      <c r="M36" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>205</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D37" s="28">
+        <v>76</v>
+      </c>
+      <c r="E37" s="28">
+        <v>65</v>
+      </c>
+      <c r="F37" s="28">
+        <v>0</v>
+      </c>
+      <c r="G37" s="28">
+        <v>118</v>
+      </c>
+      <c r="H37" s="28">
+        <v>74</v>
+      </c>
+      <c r="I37" s="28">
+        <v>0</v>
+      </c>
+      <c r="J37" s="28">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="K37" t="s">
+        <v>351</v>
+      </c>
+      <c r="M37" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>205</v>
+      </c>
+      <c r="B38" t="s">
+        <v>202</v>
+      </c>
+      <c r="C38" t="s">
+        <v>340</v>
+      </c>
+      <c r="D38" s="28">
+        <v>120</v>
+      </c>
+      <c r="E38" s="28">
+        <v>33</v>
+      </c>
+      <c r="F38" s="28">
+        <v>51</v>
+      </c>
+      <c r="G38" s="28">
+        <v>82</v>
+      </c>
+      <c r="H38" s="28">
+        <v>86</v>
+      </c>
+      <c r="I38" s="28">
+        <v>71</v>
+      </c>
+      <c r="J38" s="28">
+        <f t="shared" si="2"/>
+        <v>443</v>
+      </c>
+      <c r="K38" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>205</v>
+      </c>
+      <c r="B39" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39" t="s">
+        <v>342</v>
+      </c>
+      <c r="D39" s="28">
+        <v>104</v>
+      </c>
+      <c r="E39" s="28">
+        <v>6</v>
+      </c>
+      <c r="F39" s="28">
+        <v>87</v>
+      </c>
+      <c r="G39" s="28">
+        <v>87</v>
+      </c>
+      <c r="H39" s="28">
+        <v>68</v>
+      </c>
+      <c r="I39" s="28">
+        <v>99</v>
+      </c>
+      <c r="J39" s="28">
+        <f>SUM(D39:I39)</f>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>205</v>
+      </c>
+      <c r="B40" t="s">
+        <v>202</v>
+      </c>
+      <c r="C40" t="s">
+        <v>357</v>
+      </c>
+      <c r="D40" s="28">
+        <v>119</v>
+      </c>
+      <c r="E40" s="28">
+        <v>4</v>
+      </c>
+      <c r="F40" s="28">
+        <v>91</v>
+      </c>
+      <c r="G40" s="28">
+        <v>93</v>
+      </c>
+      <c r="H40" s="28">
+        <v>76</v>
+      </c>
+      <c r="I40" s="28">
+        <v>111</v>
+      </c>
+      <c r="J40" s="28">
+        <f>SUM(D40:I40)</f>
+        <v>494</v>
+      </c>
+      <c r="K40" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>206</v>
+      </c>
+      <c r="B42" t="s">
+        <v>211</v>
+      </c>
+      <c r="C42" t="s">
+        <v>253</v>
+      </c>
+      <c r="D42" s="28">
+        <v>78</v>
+      </c>
+      <c r="E42" s="28">
+        <v>66</v>
+      </c>
+      <c r="F42" s="28">
+        <v>46</v>
+      </c>
+      <c r="G42" s="28">
+        <v>60</v>
+      </c>
+      <c r="H42" s="28">
+        <v>76</v>
+      </c>
+      <c r="I42" s="28">
+        <v>76</v>
+      </c>
+      <c r="J42" s="28">
+        <f>SUM(D42:I42)</f>
+        <v>402</v>
+      </c>
+      <c r="K42" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>206</v>
+      </c>
+      <c r="B43" t="s">
+        <v>211</v>
+      </c>
+      <c r="C43" t="s">
+        <v>232</v>
+      </c>
+      <c r="D43" s="28">
+        <v>74</v>
+      </c>
+      <c r="E43" s="28">
+        <v>64</v>
+      </c>
+      <c r="F43" s="28">
+        <v>46</v>
+      </c>
+      <c r="G43" s="28">
+        <v>56</v>
+      </c>
+      <c r="H43" s="28">
+        <v>76</v>
+      </c>
+      <c r="I43" s="28">
+        <v>76</v>
+      </c>
+      <c r="J43" s="28">
+        <f>SUM(D43:I43)</f>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>206</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
+        <v>244</v>
+      </c>
+      <c r="D44" s="28">
+        <v>77</v>
+      </c>
+      <c r="E44" s="28">
+        <v>16</v>
+      </c>
+      <c r="F44" s="28">
+        <v>69</v>
+      </c>
+      <c r="G44" s="28">
+        <v>13</v>
+      </c>
+      <c r="H44" s="28">
+        <v>133</v>
+      </c>
+      <c r="I44" s="28">
+        <v>62</v>
+      </c>
+      <c r="J44" s="28">
+        <f>SUM(D44:I44)</f>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>206</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" t="s">
+        <v>295</v>
+      </c>
+      <c r="D45" s="28">
+        <v>95</v>
+      </c>
+      <c r="E45" s="28">
+        <v>32</v>
+      </c>
+      <c r="F45" s="28">
+        <v>95</v>
+      </c>
+      <c r="G45" s="28">
+        <v>26</v>
+      </c>
+      <c r="H45" s="28">
+        <v>65</v>
+      </c>
+      <c r="I45" s="28">
+        <v>87</v>
+      </c>
+      <c r="J45" s="28">
+        <f t="shared" ref="J45:J53" si="3">SUM(D45:I45)</f>
+        <v>400</v>
+      </c>
+      <c r="K45" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>206</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" t="s">
+        <v>297</v>
+      </c>
+      <c r="D46" s="28">
+        <v>78</v>
+      </c>
+      <c r="E46" s="28">
+        <v>46</v>
+      </c>
+      <c r="F46" s="28">
+        <v>68</v>
+      </c>
+      <c r="G46" s="28">
+        <v>8</v>
+      </c>
+      <c r="H46" s="28">
+        <v>45</v>
+      </c>
+      <c r="I46" s="28">
+        <v>68</v>
+      </c>
+      <c r="J46" s="28">
+        <f t="shared" si="3"/>
+        <v>313</v>
+      </c>
+      <c r="K46" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>206</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" t="s">
+        <v>363</v>
+      </c>
+      <c r="D47" s="28">
+        <v>74</v>
+      </c>
+      <c r="E47" s="28">
+        <v>53</v>
+      </c>
+      <c r="F47" s="28">
+        <v>61</v>
+      </c>
+      <c r="G47" s="28">
+        <v>27</v>
+      </c>
+      <c r="H47" s="28">
+        <v>60</v>
+      </c>
+      <c r="I47" s="28">
+        <v>64</v>
+      </c>
+      <c r="J47" s="28">
+        <f t="shared" si="3"/>
+        <v>339</v>
+      </c>
+      <c r="K47" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>206</v>
+      </c>
+      <c r="B48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" t="s">
+        <v>364</v>
+      </c>
+      <c r="D48" s="28">
+        <v>74</v>
+      </c>
+      <c r="E48" s="28">
+        <v>53</v>
+      </c>
+      <c r="F48" s="28">
+        <v>26</v>
+      </c>
+      <c r="G48" s="28">
+        <v>71</v>
+      </c>
+      <c r="H48" s="28">
+        <v>49</v>
+      </c>
+      <c r="I48" s="28">
+        <v>56</v>
+      </c>
+      <c r="J48" s="28">
+        <f t="shared" si="3"/>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>206</v>
+      </c>
+      <c r="B49" t="s">
+        <v>249</v>
+      </c>
+      <c r="C49" t="s">
+        <v>359</v>
+      </c>
+      <c r="D49" s="28">
+        <v>74</v>
+      </c>
+      <c r="E49" s="28">
+        <v>53</v>
+      </c>
+      <c r="F49" s="28">
+        <v>26</v>
+      </c>
+      <c r="G49" s="28">
+        <v>71</v>
+      </c>
+      <c r="H49" s="28">
+        <v>49</v>
+      </c>
+      <c r="I49" s="28">
+        <v>56</v>
+      </c>
+      <c r="J49" s="28">
+        <f t="shared" si="3"/>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>206</v>
+      </c>
+      <c r="B50" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50" t="s">
+        <v>369</v>
+      </c>
+      <c r="D50" s="28">
+        <v>38</v>
+      </c>
+      <c r="E50" s="28">
+        <v>88</v>
+      </c>
+      <c r="F50" s="28">
+        <v>33</v>
+      </c>
+      <c r="G50" s="28">
+        <v>0</v>
+      </c>
+      <c r="H50" s="28">
+        <v>78</v>
+      </c>
+      <c r="I50" s="28">
+        <v>73</v>
+      </c>
+      <c r="J50" s="28">
+        <f t="shared" si="3"/>
+        <v>310</v>
+      </c>
+      <c r="K50" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>206</v>
+      </c>
+      <c r="B51" t="s">
+        <v>305</v>
+      </c>
+      <c r="C51" t="s">
+        <v>306</v>
+      </c>
+      <c r="D51" s="28">
+        <v>68</v>
+      </c>
+      <c r="E51" s="28">
+        <v>88</v>
+      </c>
+      <c r="F51" s="28">
+        <v>69</v>
+      </c>
+      <c r="G51" s="28">
+        <v>26</v>
+      </c>
+      <c r="H51" s="28">
+        <v>38</v>
+      </c>
+      <c r="I51" s="28">
+        <v>39</v>
+      </c>
+      <c r="J51" s="28">
+        <f t="shared" si="3"/>
+        <v>328</v>
+      </c>
+      <c r="K51" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>206</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>307</v>
+      </c>
+      <c r="D52" s="28">
+        <v>84</v>
+      </c>
+      <c r="E52" s="28">
+        <v>84</v>
+      </c>
+      <c r="F52" s="28">
+        <v>0</v>
+      </c>
+      <c r="G52" s="28">
+        <v>94</v>
+      </c>
+      <c r="H52" s="28">
+        <v>72</v>
+      </c>
+      <c r="I52" s="28">
+        <v>79</v>
+      </c>
+      <c r="J52" s="28">
+        <f t="shared" si="3"/>
+        <v>413</v>
+      </c>
+      <c r="K52" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>206</v>
+      </c>
+      <c r="B53" t="s">
+        <v>249</v>
+      </c>
+      <c r="C53" t="s">
+        <v>368</v>
+      </c>
+      <c r="D53" s="28">
+        <v>97</v>
+      </c>
+      <c r="E53" s="28">
+        <v>100</v>
+      </c>
+      <c r="F53" s="28">
+        <v>108</v>
+      </c>
+      <c r="G53" s="28">
+        <v>105</v>
+      </c>
+      <c r="H53" s="28">
+        <v>56</v>
+      </c>
+      <c r="I53" s="28">
+        <v>53</v>
+      </c>
+      <c r="J53" s="28">
+        <f t="shared" si="3"/>
+        <v>519</v>
+      </c>
+      <c r="K53" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>204</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" t="s">
+        <v>248</v>
+      </c>
+      <c r="D55" s="28">
+        <v>78</v>
+      </c>
+      <c r="E55" s="28">
+        <v>43</v>
+      </c>
+      <c r="F55" s="28">
+        <v>61</v>
+      </c>
+      <c r="G55" s="28">
+        <v>23</v>
+      </c>
+      <c r="H55" s="28">
+        <v>85</v>
+      </c>
+      <c r="I55" s="28">
+        <v>61</v>
+      </c>
+      <c r="J55" s="28">
+        <f>SUM(D55:I55)</f>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>204</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>247</v>
+      </c>
+      <c r="D56" s="28">
+        <v>62</v>
+      </c>
+      <c r="E56" s="28">
+        <v>69</v>
+      </c>
+      <c r="F56" s="28">
+        <v>30</v>
+      </c>
+      <c r="G56" s="28">
+        <v>126</v>
+      </c>
+      <c r="H56" s="28">
+        <v>30</v>
+      </c>
+      <c r="I56" s="28">
+        <v>62</v>
+      </c>
+      <c r="J56" s="28">
+        <f>SUM(D56:I56)</f>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>204</v>
+      </c>
+      <c r="B57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" t="s">
+        <v>241</v>
+      </c>
+      <c r="D57" s="28">
+        <v>90</v>
+      </c>
+      <c r="E57" s="28">
+        <v>80</v>
+      </c>
+      <c r="F57" s="28">
+        <v>96</v>
+      </c>
+      <c r="G57" s="28">
+        <v>18</v>
+      </c>
+      <c r="H57" s="28">
+        <v>43</v>
+      </c>
+      <c r="I57" s="28">
+        <v>40</v>
+      </c>
+      <c r="J57" s="28">
+        <f>SUM(D57:I57)</f>
+        <v>367</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>204</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>239</v>
+      </c>
+      <c r="D58" s="28">
+        <v>74</v>
+      </c>
+      <c r="E58" s="28">
+        <v>85</v>
+      </c>
+      <c r="F58" s="28">
+        <v>31</v>
+      </c>
+      <c r="G58" s="28">
+        <v>103</v>
+      </c>
+      <c r="H58" s="28">
+        <v>50</v>
+      </c>
+      <c r="I58" s="28">
+        <v>58</v>
+      </c>
+      <c r="J58" s="28">
+        <f>SUM(D58:I58)</f>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>204</v>
+      </c>
+      <c r="B59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" t="s">
+        <v>236</v>
+      </c>
+      <c r="D59" s="28">
+        <v>80</v>
+      </c>
+      <c r="E59" s="28">
+        <v>62</v>
+      </c>
+      <c r="F59" s="28">
+        <v>62</v>
+      </c>
+      <c r="G59" s="28">
+        <v>79</v>
+      </c>
+      <c r="H59" s="28">
+        <v>65</v>
+      </c>
+      <c r="I59" s="28">
+        <v>64</v>
+      </c>
+      <c r="J59" s="28">
+        <f>SUM(D59:I59)</f>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>204</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" t="s">
+        <v>237</v>
+      </c>
+      <c r="D60" s="28">
+        <v>84</v>
+      </c>
+      <c r="E60" s="28">
+        <v>50</v>
+      </c>
+      <c r="F60" s="28">
+        <v>74</v>
+      </c>
+      <c r="G60" s="28">
+        <v>34</v>
+      </c>
+      <c r="H60" s="28">
+        <v>73</v>
+      </c>
+      <c r="I60" s="28">
+        <v>66</v>
+      </c>
+      <c r="J60" s="28">
+        <f>SUM(D60:I60)</f>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>204</v>
+      </c>
+      <c r="B61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" t="s">
+        <v>238</v>
+      </c>
+      <c r="D61" s="28">
+        <v>104</v>
+      </c>
+      <c r="E61" s="28">
+        <v>41</v>
+      </c>
+      <c r="F61" s="28">
+        <v>83</v>
+      </c>
+      <c r="G61" s="28">
+        <v>42</v>
+      </c>
+      <c r="H61" s="28">
+        <v>85</v>
+      </c>
+      <c r="I61" s="28">
+        <v>80</v>
+      </c>
+      <c r="J61" s="28">
+        <f>SUM(D61:I61)</f>
+        <v>435</v>
+      </c>
+      <c r="K61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>203</v>
+      </c>
+      <c r="B63" t="s">
+        <v>201</v>
+      </c>
+      <c r="C63" t="s">
+        <v>219</v>
+      </c>
+      <c r="D63" s="28">
+        <v>135</v>
+      </c>
+      <c r="E63" s="28">
+        <v>47</v>
+      </c>
+      <c r="F63" s="28">
+        <v>85</v>
+      </c>
+      <c r="G63" s="28">
+        <v>31</v>
+      </c>
+      <c r="H63" s="28">
+        <v>50</v>
+      </c>
+      <c r="I63" s="28">
+        <v>48</v>
+      </c>
+      <c r="J63" s="28">
+        <f>SUM(D63:I63)</f>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>203</v>
+      </c>
+      <c r="B64" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" t="s">
+        <v>216</v>
+      </c>
+      <c r="D64" s="28">
+        <v>260</v>
+      </c>
+      <c r="E64" s="28">
+        <v>80</v>
+      </c>
+      <c r="F64" s="28">
+        <v>125</v>
+      </c>
+      <c r="G64" s="28">
+        <v>20</v>
+      </c>
+      <c r="H64" s="28">
+        <v>95</v>
+      </c>
+      <c r="I64" s="28">
+        <v>60</v>
+      </c>
+      <c r="J64" s="28">
+        <f>SUM(D64:I64)</f>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>203</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>213</v>
+      </c>
+      <c r="D65" s="28">
+        <v>272</v>
+      </c>
+      <c r="E65" s="28">
+        <v>68</v>
+      </c>
+      <c r="F65" s="28">
+        <v>20</v>
+      </c>
+      <c r="G65" s="28">
+        <v>125</v>
+      </c>
+      <c r="H65" s="28">
+        <v>36</v>
+      </c>
+      <c r="I65" s="28">
+        <v>89</v>
+      </c>
+      <c r="J65" s="28">
+        <f>SUM(D65:I65)</f>
+        <v>610</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>203</v>
+      </c>
+      <c r="B66" t="s">
+        <v>201</v>
+      </c>
+      <c r="C66" t="s">
+        <v>214</v>
+      </c>
+      <c r="D66" s="28">
+        <v>489</v>
+      </c>
+      <c r="E66" s="28">
+        <v>0</v>
+      </c>
+      <c r="F66" s="28">
+        <v>0</v>
+      </c>
+      <c r="G66" s="28">
+        <v>0</v>
+      </c>
+      <c r="H66" s="28">
+        <v>99</v>
+      </c>
+      <c r="I66" s="28">
+        <v>112</v>
+      </c>
+      <c r="J66" s="28">
+        <f>SUM(D66:I66)</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>203</v>
+      </c>
+      <c r="B67" t="s">
+        <v>201</v>
+      </c>
+      <c r="C67" t="s">
+        <v>215</v>
+      </c>
+      <c r="D67" s="28">
+        <v>210</v>
+      </c>
+      <c r="E67" s="28">
+        <v>82</v>
+      </c>
+      <c r="F67" s="28">
+        <v>138</v>
+      </c>
+      <c r="G67" s="28">
+        <v>159</v>
+      </c>
+      <c r="H67" s="28">
+        <v>35</v>
+      </c>
+      <c r="I67" s="28">
+        <v>76</v>
+      </c>
+      <c r="J67" s="28">
+        <f>SUM(D67:I67)</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>203</v>
+      </c>
+      <c r="B68" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" t="s">
+        <v>217</v>
+      </c>
+      <c r="D68" s="28">
+        <v>313</v>
+      </c>
+      <c r="E68" s="28">
+        <v>85</v>
+      </c>
+      <c r="F68" s="28">
+        <v>80</v>
+      </c>
+      <c r="G68" s="28">
+        <v>99</v>
+      </c>
+      <c r="H68" s="28">
+        <v>57</v>
+      </c>
+      <c r="I68" s="28">
+        <v>66</v>
+      </c>
+      <c r="J68" s="28">
+        <f>SUM(D68:I68)</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>203</v>
+      </c>
+      <c r="B69" t="s">
+        <v>201</v>
+      </c>
+      <c r="C69" t="s">
+        <v>218</v>
+      </c>
+      <c r="D69" s="28">
+        <v>433</v>
+      </c>
+      <c r="E69" s="28">
+        <v>12</v>
+      </c>
+      <c r="F69" s="28">
+        <v>98</v>
+      </c>
+      <c r="G69" s="28">
+        <v>90</v>
+      </c>
+      <c r="H69" s="28">
+        <v>145</v>
+      </c>
+      <c r="I69" s="28">
+        <v>89</v>
+      </c>
+      <c r="J69" s="28">
+        <f>SUM(D69:I69)</f>
+        <v>867</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" t="s">
+        <v>202</v>
+      </c>
+      <c r="C71" t="s">
+        <v>283</v>
+      </c>
+      <c r="D71" s="28">
+        <v>124</v>
+      </c>
+      <c r="E71" s="28">
+        <v>11</v>
+      </c>
+      <c r="F71" s="28">
+        <v>38</v>
+      </c>
+      <c r="G71" s="28">
+        <v>35</v>
+      </c>
+      <c r="H71" s="28">
+        <v>52</v>
+      </c>
+      <c r="I71" s="28">
+        <v>52</v>
+      </c>
+      <c r="J71" s="28">
+        <f t="shared" ref="J71:J76" si="4">SUM(D71:I71)</f>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>119</v>
+      </c>
+      <c r="B72" t="s">
+        <v>211</v>
+      </c>
+      <c r="C72" t="s">
+        <v>284</v>
+      </c>
+      <c r="D72" s="28">
+        <v>104</v>
+      </c>
+      <c r="E72" s="28">
+        <v>44</v>
+      </c>
+      <c r="F72" s="28">
+        <v>33</v>
+      </c>
+      <c r="G72" s="28">
+        <v>78</v>
+      </c>
+      <c r="H72" s="28">
+        <v>68</v>
+      </c>
+      <c r="I72" s="28">
+        <v>45</v>
+      </c>
+      <c r="J72" s="28">
+        <f t="shared" si="4"/>
+        <v>372</v>
+      </c>
+      <c r="K72" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" t="s">
+        <v>286</v>
+      </c>
+      <c r="C73" t="s">
+        <v>287</v>
+      </c>
+      <c r="D73" s="28">
+        <v>118</v>
+      </c>
+      <c r="E73" s="28">
+        <v>60</v>
+      </c>
+      <c r="F73" s="28">
+        <v>22</v>
+      </c>
+      <c r="G73" s="28">
+        <v>80</v>
+      </c>
+      <c r="H73" s="28">
+        <v>43</v>
+      </c>
+      <c r="I73" s="28">
+        <v>63</v>
+      </c>
+      <c r="J73" s="28">
+        <f t="shared" si="4"/>
+        <v>386</v>
+      </c>
+      <c r="K73" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" t="s">
+        <v>289</v>
+      </c>
+      <c r="J74" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>119</v>
+      </c>
+      <c r="C75" t="s">
+        <v>374</v>
+      </c>
+      <c r="D75" s="28">
+        <v>650</v>
+      </c>
+      <c r="E75" s="28">
+        <v>140</v>
+      </c>
+      <c r="F75" s="28">
+        <v>189</v>
+      </c>
+      <c r="G75" s="28">
+        <v>210</v>
+      </c>
+      <c r="H75" s="28">
+        <v>203</v>
+      </c>
+      <c r="I75" s="28">
+        <v>150</v>
+      </c>
+      <c r="J75" s="28">
+        <f t="shared" si="4"/>
+        <v>1542</v>
+      </c>
+      <c r="K75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>119</v>
+      </c>
+      <c r="C76" t="s">
+        <v>373</v>
+      </c>
+      <c r="D76" s="28">
+        <v>650</v>
+      </c>
+      <c r="E76" s="28">
+        <v>140</v>
+      </c>
+      <c r="F76" s="28">
+        <v>189</v>
+      </c>
+      <c r="G76" s="28">
+        <v>210</v>
+      </c>
+      <c r="H76" s="28">
+        <v>203</v>
+      </c>
+      <c r="I76" s="28">
+        <v>150</v>
+      </c>
+      <c r="J76" s="28">
+        <f t="shared" si="4"/>
+        <v>1542</v>
+      </c>
+      <c r="K76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" t="s">
+        <v>372</v>
+      </c>
+      <c r="D77" s="28">
+        <v>619</v>
+      </c>
+      <c r="E77" s="28">
+        <v>136</v>
+      </c>
+      <c r="F77" s="28">
+        <v>146</v>
+      </c>
+      <c r="G77" s="28">
+        <v>125</v>
+      </c>
+      <c r="H77" s="28">
+        <v>210</v>
+      </c>
+      <c r="I77" s="28">
+        <v>196</v>
+      </c>
+      <c r="J77" s="28">
+        <f>SUM(D77:I77)</f>
+        <v>1432</v>
+      </c>
+      <c r="K77" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>119</v>
+      </c>
+      <c r="B78" t="s">
+        <v>292</v>
+      </c>
+      <c r="C78" t="s">
+        <v>293</v>
+      </c>
+      <c r="D78" s="28">
+        <v>650</v>
+      </c>
+      <c r="E78" s="28">
+        <v>140</v>
+      </c>
+      <c r="F78" s="28">
+        <v>189</v>
+      </c>
+      <c r="G78" s="28">
+        <v>210</v>
+      </c>
+      <c r="H78" s="28">
+        <v>203</v>
+      </c>
+      <c r="I78" s="28">
+        <v>150</v>
+      </c>
+      <c r="J78" s="28">
+        <f>SUM(D78:I78)</f>
+        <v>1542</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J82:J1048576 J1:J80">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="250"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="750"/>
+        <color theme="0"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K83"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="40">
+        <v>40</v>
+      </c>
+      <c r="D1" s="40">
+        <v>45</v>
+      </c>
+      <c r="E1" s="40">
+        <v>45</v>
+      </c>
+      <c r="F1" s="40">
+        <v>20</v>
+      </c>
+      <c r="G1" s="40">
+        <v>25</v>
+      </c>
+      <c r="H1" s="40">
+        <v>30</v>
+      </c>
+      <c r="I1" s="40">
+        <v>205</v>
+      </c>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="40">
+        <v>60</v>
+      </c>
+      <c r="D2" s="40">
+        <v>20</v>
+      </c>
+      <c r="E2" s="40">
+        <v>50</v>
+      </c>
+      <c r="F2" s="40">
+        <v>5</v>
+      </c>
+      <c r="G2" s="40">
+        <v>30</v>
+      </c>
+      <c r="H2" s="40">
+        <v>35</v>
+      </c>
+      <c r="I2" s="40">
+        <v>200</v>
+      </c>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+    </row>
+    <row r="3" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="40">
+        <v>45</v>
+      </c>
+      <c r="D3" s="40">
+        <v>45</v>
+      </c>
+      <c r="E3" s="40">
+        <v>35</v>
+      </c>
+      <c r="F3" s="40">
+        <v>5</v>
+      </c>
+      <c r="G3" s="40">
+        <v>23</v>
+      </c>
+      <c r="H3" s="40">
+        <v>23</v>
+      </c>
+      <c r="I3" s="40">
+        <v>176</v>
+      </c>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="40">
+        <v>53</v>
+      </c>
+      <c r="D4" s="40">
+        <v>49</v>
+      </c>
+      <c r="E4" s="40">
+        <v>40</v>
+      </c>
+      <c r="F4" s="40">
+        <v>5</v>
+      </c>
+      <c r="G4" s="40">
+        <v>28</v>
+      </c>
+      <c r="H4" s="40">
+        <v>28</v>
+      </c>
+      <c r="I4" s="40">
+        <v>203</v>
+      </c>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" s="40">
+        <v>42</v>
+      </c>
+      <c r="D5" s="40">
+        <v>47</v>
+      </c>
+      <c r="E5" s="40">
+        <v>2</v>
+      </c>
+      <c r="F5" s="40">
+        <v>43</v>
+      </c>
+      <c r="G5" s="40">
+        <v>25</v>
+      </c>
+      <c r="H5" s="40">
+        <v>32</v>
+      </c>
+      <c r="I5" s="40">
+        <v>191</v>
+      </c>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" s="40">
+        <v>31</v>
+      </c>
+      <c r="D6" s="40">
+        <v>55</v>
+      </c>
+      <c r="E6" s="40">
+        <v>45</v>
+      </c>
+      <c r="F6" s="40">
+        <v>48</v>
+      </c>
+      <c r="G6" s="40">
+        <v>12</v>
+      </c>
+      <c r="H6" s="40">
+        <v>15</v>
+      </c>
+      <c r="I6" s="40">
+        <v>206</v>
+      </c>
+      <c r="J6" s="42"/>
+      <c r="K6" s="43" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" s="40">
+        <v>31</v>
+      </c>
+      <c r="D7" s="40">
+        <v>38</v>
+      </c>
+      <c r="E7" s="40">
+        <v>28</v>
+      </c>
+      <c r="F7" s="40">
+        <v>54</v>
+      </c>
+      <c r="G7" s="40">
+        <v>12</v>
+      </c>
+      <c r="H7" s="40">
+        <v>18</v>
+      </c>
+      <c r="I7" s="40">
+        <v>181</v>
+      </c>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="40">
+        <v>86</v>
+      </c>
+      <c r="D8" s="40">
+        <v>43</v>
+      </c>
+      <c r="E8" s="40">
+        <v>92</v>
+      </c>
+      <c r="F8" s="40">
+        <v>0</v>
+      </c>
+      <c r="G8" s="40">
+        <v>59</v>
+      </c>
+      <c r="H8" s="40">
+        <v>58</v>
+      </c>
+      <c r="I8" s="40">
+        <v>338</v>
+      </c>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" s="40">
+        <v>85</v>
+      </c>
+      <c r="D9" s="40">
+        <v>10</v>
+      </c>
+      <c r="E9" s="40">
+        <v>48</v>
+      </c>
+      <c r="F9" s="40">
+        <v>0</v>
+      </c>
+      <c r="G9" s="40">
+        <v>61</v>
+      </c>
+      <c r="H9" s="40">
+        <v>51</v>
+      </c>
+      <c r="I9" s="40">
+        <v>255</v>
+      </c>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+    </row>
+    <row r="10" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" s="40">
+        <v>70</v>
+      </c>
+      <c r="D10" s="40">
+        <v>30</v>
+      </c>
+      <c r="E10" s="40">
+        <v>0</v>
+      </c>
+      <c r="F10" s="40">
+        <v>48</v>
+      </c>
+      <c r="G10" s="40">
+        <v>46</v>
+      </c>
+      <c r="H10" s="40">
+        <v>61</v>
+      </c>
+      <c r="I10" s="40">
+        <v>255</v>
+      </c>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="40">
+        <v>124</v>
+      </c>
+      <c r="D11" s="40">
+        <v>12</v>
+      </c>
+      <c r="E11" s="40">
+        <v>76</v>
+      </c>
+      <c r="F11" s="40">
+        <v>0</v>
+      </c>
+      <c r="G11" s="40">
+        <v>48</v>
+      </c>
+      <c r="H11" s="40">
+        <v>40</v>
+      </c>
+      <c r="I11" s="40">
+        <v>300</v>
+      </c>
+      <c r="J11" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="43" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" s="40">
+        <v>95</v>
+      </c>
+      <c r="D12" s="40">
+        <v>12</v>
+      </c>
+      <c r="E12" s="40">
+        <v>105</v>
+      </c>
+      <c r="F12" s="40">
+        <v>0</v>
+      </c>
+      <c r="G12" s="40">
+        <v>44</v>
+      </c>
+      <c r="H12" s="40">
+        <v>44</v>
+      </c>
+      <c r="I12" s="40">
+        <v>300</v>
+      </c>
+      <c r="J12" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="43" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="C13" s="40">
+        <v>90</v>
+      </c>
+      <c r="D13" s="40">
+        <v>20</v>
+      </c>
+      <c r="E13" s="40">
+        <v>0</v>
+      </c>
+      <c r="F13" s="40">
+        <v>86</v>
+      </c>
+      <c r="G13" s="40">
+        <v>52</v>
+      </c>
+      <c r="H13" s="40">
+        <v>52</v>
+      </c>
+      <c r="I13" s="40">
+        <v>300</v>
+      </c>
+      <c r="J13" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="43" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="C14" s="40">
+        <v>93</v>
+      </c>
+      <c r="D14" s="40">
+        <v>45</v>
+      </c>
+      <c r="E14" s="40">
+        <v>0</v>
+      </c>
+      <c r="F14" s="40">
+        <v>86</v>
+      </c>
+      <c r="G14" s="40">
+        <v>54</v>
+      </c>
+      <c r="H14" s="40">
+        <v>57</v>
+      </c>
+      <c r="I14" s="40">
+        <v>335</v>
+      </c>
+      <c r="J14" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="43" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="C15" s="40">
+        <v>72</v>
+      </c>
+      <c r="D15" s="40">
+        <v>35</v>
+      </c>
+      <c r="E15" s="40">
+        <v>45</v>
+      </c>
+      <c r="F15" s="40">
+        <v>48</v>
+      </c>
+      <c r="G15" s="40">
+        <v>32</v>
+      </c>
+      <c r="H15" s="40">
+        <v>23</v>
+      </c>
+      <c r="I15" s="40">
+        <v>255</v>
+      </c>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="C16" s="40">
+        <v>67</v>
+      </c>
+      <c r="D16" s="40">
+        <v>52</v>
+      </c>
+      <c r="E16" s="40">
+        <v>72</v>
+      </c>
+      <c r="F16" s="40">
+        <v>22</v>
+      </c>
+      <c r="G16" s="40">
+        <v>38</v>
+      </c>
+      <c r="H16" s="40">
+        <v>30</v>
+      </c>
+      <c r="I16" s="40">
+        <v>281</v>
+      </c>
+      <c r="J16" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="42" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="C17" s="40">
+        <v>48</v>
+      </c>
+      <c r="D17" s="40">
+        <v>66</v>
+      </c>
+      <c r="E17" s="40">
+        <v>55</v>
+      </c>
+      <c r="F17" s="40">
+        <v>60</v>
+      </c>
+      <c r="G17" s="40">
+        <v>30</v>
+      </c>
+      <c r="H17" s="40">
+        <v>28</v>
+      </c>
+      <c r="I17" s="40">
+        <v>287</v>
+      </c>
+      <c r="J17" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="42"/>
+    </row>
+    <row r="18" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="C20" s="44">
+        <v>124</v>
+      </c>
+      <c r="D20" s="44">
+        <v>11</v>
+      </c>
+      <c r="E20" s="44">
+        <v>38</v>
+      </c>
+      <c r="F20" s="44">
+        <v>35</v>
+      </c>
+      <c r="G20" s="44">
+        <v>52</v>
+      </c>
+      <c r="H20" s="44">
+        <v>52</v>
+      </c>
+      <c r="I20" s="44">
+        <v>312</v>
+      </c>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+    </row>
+    <row r="21" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="C21" s="44">
+        <v>104</v>
+      </c>
+      <c r="D21" s="44">
+        <v>44</v>
+      </c>
+      <c r="E21" s="44">
+        <v>33</v>
+      </c>
+      <c r="F21" s="44">
+        <v>78</v>
+      </c>
+      <c r="G21" s="44">
+        <v>68</v>
+      </c>
+      <c r="H21" s="44">
+        <v>45</v>
+      </c>
+      <c r="I21" s="44">
+        <v>372</v>
+      </c>
+      <c r="J21" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="46" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="C22" s="44">
+        <v>118</v>
+      </c>
+      <c r="D22" s="44">
+        <v>60</v>
+      </c>
+      <c r="E22" s="44">
+        <v>22</v>
+      </c>
+      <c r="F22" s="44">
+        <v>80</v>
+      </c>
+      <c r="G22" s="44">
+        <v>43</v>
+      </c>
+      <c r="H22" s="44">
+        <v>63</v>
+      </c>
+      <c r="I22" s="44">
+        <v>386</v>
+      </c>
+      <c r="J22" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="46" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="46"/>
+      <c r="B23" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44">
+        <v>0</v>
+      </c>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+    </row>
+    <row r="24" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="46"/>
+      <c r="B24" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44">
+        <v>0</v>
+      </c>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+    </row>
+    <row r="25" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="46"/>
+      <c r="B25" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44">
+        <v>0</v>
+      </c>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+    </row>
+    <row r="26" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="46"/>
+      <c r="B26" s="45" t="s">
+        <v>291</v>
+      </c>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44">
+        <v>0</v>
+      </c>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="46"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44">
+        <v>0</v>
+      </c>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="46"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44">
+        <v>0</v>
+      </c>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="46"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44">
+        <v>0</v>
+      </c>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+    </row>
+    <row r="30" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="C30" s="44">
+        <v>1300</v>
+      </c>
+      <c r="D30" s="44">
+        <v>140</v>
+      </c>
+      <c r="E30" s="44">
+        <v>189</v>
+      </c>
+      <c r="F30" s="44">
+        <v>210</v>
+      </c>
+      <c r="G30" s="44">
+        <v>203</v>
+      </c>
+      <c r="H30" s="44">
+        <v>150</v>
+      </c>
+      <c r="I30" s="44">
+        <v>2192</v>
+      </c>
+      <c r="J30" s="46"/>
+      <c r="K30" s="43" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="C32" s="44">
+        <v>95</v>
+      </c>
+      <c r="D32" s="44">
+        <v>20</v>
+      </c>
+      <c r="E32" s="44">
+        <v>75</v>
+      </c>
+      <c r="F32" s="44">
+        <v>10</v>
+      </c>
+      <c r="G32" s="44">
+        <v>35</v>
+      </c>
+      <c r="H32" s="44">
+        <v>30</v>
+      </c>
+      <c r="I32" s="44">
+        <v>265</v>
+      </c>
+      <c r="J32" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="43" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="C33" s="44">
+        <v>78</v>
+      </c>
+      <c r="D33" s="44">
+        <v>36</v>
+      </c>
+      <c r="E33" s="44">
+        <v>68</v>
+      </c>
+      <c r="F33" s="44">
+        <v>8</v>
+      </c>
+      <c r="G33" s="44">
+        <v>29</v>
+      </c>
+      <c r="H33" s="44">
+        <v>26</v>
+      </c>
+      <c r="I33" s="44">
+        <v>245</v>
+      </c>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="C34" s="40">
+        <v>58</v>
+      </c>
+      <c r="D34" s="40">
+        <v>51</v>
+      </c>
+      <c r="E34" s="40">
+        <v>56</v>
+      </c>
+      <c r="F34" s="40">
+        <v>0</v>
+      </c>
+      <c r="G34" s="40">
+        <v>31</v>
+      </c>
+      <c r="H34" s="40">
+        <v>28</v>
+      </c>
+      <c r="I34" s="44">
+        <v>224</v>
+      </c>
+      <c r="J34" s="46"/>
+      <c r="K34" s="43" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="C35" s="40">
+        <v>62</v>
+      </c>
+      <c r="D35" s="40">
+        <v>51</v>
+      </c>
+      <c r="E35" s="40">
+        <v>58</v>
+      </c>
+      <c r="F35" s="40">
+        <v>0</v>
+      </c>
+      <c r="G35" s="40">
+        <v>35</v>
+      </c>
+      <c r="H35" s="40">
+        <v>33</v>
+      </c>
+      <c r="I35" s="44">
+        <v>239</v>
+      </c>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+    </row>
+    <row r="36" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="C36" s="40">
+        <v>59</v>
+      </c>
+      <c r="D36" s="40">
+        <v>53</v>
+      </c>
+      <c r="E36" s="40">
+        <v>0</v>
+      </c>
+      <c r="F36" s="40">
+        <v>58</v>
+      </c>
+      <c r="G36" s="40">
+        <v>33</v>
+      </c>
+      <c r="H36" s="40">
+        <v>36</v>
+      </c>
+      <c r="I36" s="44">
+        <v>239</v>
+      </c>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="C37" s="44">
+        <v>38</v>
+      </c>
+      <c r="D37" s="44">
+        <v>88</v>
+      </c>
+      <c r="E37" s="44">
+        <v>33</v>
+      </c>
+      <c r="F37" s="44">
+        <v>0</v>
+      </c>
+      <c r="G37" s="44">
+        <v>78</v>
+      </c>
+      <c r="H37" s="44">
+        <v>73</v>
+      </c>
+      <c r="I37" s="44">
+        <v>310</v>
+      </c>
+      <c r="J37" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="K37" s="43" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="C38" s="44">
+        <v>63</v>
+      </c>
+      <c r="D38" s="44">
+        <v>73</v>
+      </c>
+      <c r="E38" s="44">
+        <v>54</v>
+      </c>
+      <c r="F38" s="44">
+        <v>11</v>
+      </c>
+      <c r="G38" s="44">
+        <v>23</v>
+      </c>
+      <c r="H38" s="44">
+        <v>24</v>
+      </c>
+      <c r="I38" s="44">
+        <v>248</v>
+      </c>
+      <c r="J38" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="K38" s="46"/>
+    </row>
+    <row r="39" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="C39" s="40">
+        <v>59</v>
+      </c>
+      <c r="D39" s="40">
+        <v>64</v>
+      </c>
+      <c r="E39" s="40">
+        <v>0</v>
+      </c>
+      <c r="F39" s="40">
+        <v>64</v>
+      </c>
+      <c r="G39" s="40">
+        <v>32</v>
+      </c>
+      <c r="H39" s="40">
+        <v>39</v>
+      </c>
+      <c r="I39" s="44">
+        <v>258</v>
+      </c>
+      <c r="J39" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="K39" s="43" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="C40" s="44">
+        <v>70</v>
+      </c>
+      <c r="D40" s="44">
+        <v>77</v>
+      </c>
+      <c r="E40" s="44">
+        <v>68</v>
+      </c>
+      <c r="F40" s="44">
+        <v>65</v>
+      </c>
+      <c r="G40" s="44">
+        <v>26</v>
+      </c>
+      <c r="H40" s="44">
+        <v>23</v>
+      </c>
+      <c r="I40" s="44">
+        <v>329</v>
+      </c>
+      <c r="J40" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="K40" s="43" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="C41" s="44">
+        <v>43</v>
+      </c>
+      <c r="D41" s="44">
+        <v>40</v>
+      </c>
+      <c r="E41" s="44">
+        <v>3</v>
+      </c>
+      <c r="F41" s="44">
+        <v>45</v>
+      </c>
+      <c r="G41" s="44">
+        <v>18</v>
+      </c>
+      <c r="H41" s="44">
+        <v>23</v>
+      </c>
+      <c r="I41" s="44">
+        <v>172</v>
+      </c>
+      <c r="J41" s="46"/>
+      <c r="K41" s="43" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="C42" s="44">
+        <v>89</v>
+      </c>
+      <c r="D42" s="44">
+        <v>9</v>
+      </c>
+      <c r="E42" s="44">
+        <v>76</v>
+      </c>
+      <c r="F42" s="44">
+        <v>0</v>
+      </c>
+      <c r="G42" s="44">
+        <v>53</v>
+      </c>
+      <c r="H42" s="44">
+        <v>53</v>
+      </c>
+      <c r="I42" s="44">
+        <v>280</v>
+      </c>
+      <c r="J42" s="46"/>
+      <c r="K42" s="43" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>315</v>
+      </c>
+      <c r="C43" s="44">
+        <v>67</v>
+      </c>
+      <c r="D43" s="44">
+        <v>59</v>
+      </c>
+      <c r="E43" s="44">
+        <v>10</v>
+      </c>
+      <c r="F43" s="44">
+        <v>78</v>
+      </c>
+      <c r="G43" s="44">
+        <v>25</v>
+      </c>
+      <c r="H43" s="44">
+        <v>35</v>
+      </c>
+      <c r="I43" s="44">
+        <v>274</v>
+      </c>
+      <c r="J43" s="46"/>
+      <c r="K43" s="43" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="C44" s="44">
+        <v>104</v>
+      </c>
+      <c r="D44" s="44">
+        <v>44</v>
+      </c>
+      <c r="E44" s="44">
+        <v>22</v>
+      </c>
+      <c r="F44" s="44">
+        <v>78</v>
+      </c>
+      <c r="G44" s="44">
+        <v>68</v>
+      </c>
+      <c r="H44" s="44">
+        <v>45</v>
+      </c>
+      <c r="I44" s="44">
+        <v>361</v>
+      </c>
+      <c r="J44" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="43" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="C45" s="44">
+        <v>185</v>
+      </c>
+      <c r="D45" s="44">
+        <v>88</v>
+      </c>
+      <c r="E45" s="44">
+        <v>56</v>
+      </c>
+      <c r="F45" s="44">
+        <v>95</v>
+      </c>
+      <c r="G45" s="44">
+        <v>80</v>
+      </c>
+      <c r="H45" s="44">
+        <v>51</v>
+      </c>
+      <c r="I45" s="44">
+        <v>555</v>
+      </c>
+      <c r="J45" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="43" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="C47" s="44">
+        <v>86</v>
+      </c>
+      <c r="D47" s="44">
+        <v>34</v>
+      </c>
+      <c r="E47" s="44">
+        <v>65</v>
+      </c>
+      <c r="F47" s="44">
+        <v>5</v>
+      </c>
+      <c r="G47" s="44">
+        <v>45</v>
+      </c>
+      <c r="H47" s="44">
+        <v>30</v>
+      </c>
+      <c r="I47" s="47">
+        <v>265</v>
+      </c>
+      <c r="J47" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="46" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="C48" s="44">
+        <v>70</v>
+      </c>
+      <c r="D48" s="44">
+        <v>46</v>
+      </c>
+      <c r="E48" s="44">
+        <v>60</v>
+      </c>
+      <c r="F48" s="44">
+        <v>3</v>
+      </c>
+      <c r="G48" s="44">
+        <v>31</v>
+      </c>
+      <c r="H48" s="44">
+        <v>35</v>
+      </c>
+      <c r="I48" s="47">
+        <v>245</v>
+      </c>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="C49" s="44">
+        <v>74</v>
+      </c>
+      <c r="D49" s="44">
+        <v>44</v>
+      </c>
+      <c r="E49" s="44">
+        <v>56</v>
+      </c>
+      <c r="F49" s="44">
+        <v>49</v>
+      </c>
+      <c r="G49" s="44">
+        <v>38</v>
+      </c>
+      <c r="H49" s="44">
+        <v>35</v>
+      </c>
+      <c r="I49" s="47">
+        <v>296</v>
+      </c>
+      <c r="J49" s="46"/>
+      <c r="K49" s="43" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="C50" s="44">
+        <v>65</v>
+      </c>
+      <c r="D50" s="44">
+        <v>53</v>
+      </c>
+      <c r="E50" s="44">
+        <v>43</v>
+      </c>
+      <c r="F50" s="44">
+        <v>71</v>
+      </c>
+      <c r="G50" s="44">
+        <v>30</v>
+      </c>
+      <c r="H50" s="44">
+        <v>32</v>
+      </c>
+      <c r="I50" s="47">
+        <v>294</v>
+      </c>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
+    </row>
+    <row r="51" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="C51" s="44">
+        <v>80</v>
+      </c>
+      <c r="D51" s="44">
+        <v>32</v>
+      </c>
+      <c r="E51" s="44">
+        <v>62</v>
+      </c>
+      <c r="F51" s="44">
+        <v>29</v>
+      </c>
+      <c r="G51" s="44">
+        <v>47</v>
+      </c>
+      <c r="H51" s="44">
+        <v>48</v>
+      </c>
+      <c r="I51" s="47">
+        <v>298</v>
+      </c>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+    </row>
+    <row r="52" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="C52" s="44">
+        <v>84</v>
+      </c>
+      <c r="D52" s="44">
+        <v>53</v>
+      </c>
+      <c r="E52" s="44">
+        <v>55</v>
+      </c>
+      <c r="F52" s="44">
+        <v>54</v>
+      </c>
+      <c r="G52" s="44">
+        <v>39</v>
+      </c>
+      <c r="H52" s="44">
+        <v>33</v>
+      </c>
+      <c r="I52" s="47">
+        <v>318</v>
+      </c>
+      <c r="J52" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="46" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="C53" s="44">
+        <v>73</v>
+      </c>
+      <c r="D53" s="44">
+        <v>58</v>
+      </c>
+      <c r="E53" s="44">
+        <v>44</v>
+      </c>
+      <c r="F53" s="44">
+        <v>70</v>
+      </c>
+      <c r="G53" s="44">
+        <v>36</v>
+      </c>
+      <c r="H53" s="44">
+        <v>40</v>
+      </c>
+      <c r="I53" s="47">
+        <v>321</v>
+      </c>
+      <c r="J53" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="K53" s="46" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="C54" s="44">
+        <v>98</v>
+      </c>
+      <c r="D54" s="44">
+        <v>40</v>
+      </c>
+      <c r="E54" s="44">
+        <v>62</v>
+      </c>
+      <c r="F54" s="44">
+        <v>30</v>
+      </c>
+      <c r="G54" s="44">
+        <v>49</v>
+      </c>
+      <c r="H54" s="44">
+        <v>49</v>
+      </c>
+      <c r="I54" s="47">
+        <v>328</v>
+      </c>
+      <c r="J54" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="K54" s="46" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="B55" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="C55" s="44">
+        <v>147</v>
+      </c>
+      <c r="D55" s="44">
+        <v>52</v>
+      </c>
+      <c r="E55" s="44">
+        <v>47</v>
+      </c>
+      <c r="F55" s="44">
+        <v>63</v>
+      </c>
+      <c r="G55" s="44">
+        <v>38</v>
+      </c>
+      <c r="H55" s="44">
+        <v>40</v>
+      </c>
+      <c r="I55" s="47">
+        <v>387</v>
+      </c>
+      <c r="J55" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="K55" s="43" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="45" t="s">
+        <v>331</v>
+      </c>
+      <c r="C56" s="40">
+        <v>70</v>
+      </c>
+      <c r="D56" s="40">
+        <v>29</v>
+      </c>
+      <c r="E56" s="40">
+        <v>68</v>
+      </c>
+      <c r="F56" s="40">
+        <v>0</v>
+      </c>
+      <c r="G56" s="40">
+        <v>38</v>
+      </c>
+      <c r="H56" s="40">
+        <v>24</v>
+      </c>
+      <c r="I56" s="47">
+        <v>229</v>
+      </c>
+      <c r="J56" s="46"/>
+      <c r="K56" s="46" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="B57" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="C57" s="40">
+        <v>83</v>
+      </c>
+      <c r="D57" s="40">
+        <v>12</v>
+      </c>
+      <c r="E57" s="40">
+        <v>45</v>
+      </c>
+      <c r="F57" s="40">
+        <v>64</v>
+      </c>
+      <c r="G57" s="40">
+        <v>48</v>
+      </c>
+      <c r="H57" s="40">
+        <v>40</v>
+      </c>
+      <c r="I57" s="47">
+        <v>292</v>
+      </c>
+      <c r="J57" s="46"/>
+      <c r="K57" s="46" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="B58" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="C58" s="44">
+        <v>68</v>
+      </c>
+      <c r="D58" s="44">
+        <v>41</v>
+      </c>
+      <c r="E58" s="44">
+        <v>88</v>
+      </c>
+      <c r="F58" s="44">
+        <v>7</v>
+      </c>
+      <c r="G58" s="44">
+        <v>23</v>
+      </c>
+      <c r="H58" s="44">
+        <v>24</v>
+      </c>
+      <c r="I58" s="47">
+        <v>251</v>
+      </c>
+      <c r="J58" s="46"/>
+      <c r="K58" s="46"/>
+    </row>
+    <row r="59" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="C59" s="40">
+        <v>69</v>
+      </c>
+      <c r="D59" s="40">
+        <v>47</v>
+      </c>
+      <c r="E59" s="40">
+        <v>8</v>
+      </c>
+      <c r="F59" s="40">
+        <v>96</v>
+      </c>
+      <c r="G59" s="40">
+        <v>36</v>
+      </c>
+      <c r="H59" s="40">
+        <v>44</v>
+      </c>
+      <c r="I59" s="47">
+        <v>300</v>
+      </c>
+      <c r="J59" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="46" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="B60" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="C60" s="40">
+        <v>91</v>
+      </c>
+      <c r="D60" s="40">
+        <v>12</v>
+      </c>
+      <c r="E60" s="40">
+        <v>45</v>
+      </c>
+      <c r="F60" s="40">
+        <v>64</v>
+      </c>
+      <c r="G60" s="40">
+        <v>48</v>
+      </c>
+      <c r="H60" s="40">
+        <v>40</v>
+      </c>
+      <c r="I60" s="47">
+        <v>300</v>
+      </c>
+      <c r="J60" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="K60" s="46" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="C61" s="40">
+        <v>76</v>
+      </c>
+      <c r="D61" s="40">
+        <v>44</v>
+      </c>
+      <c r="E61" s="40">
+        <v>0</v>
+      </c>
+      <c r="F61" s="40">
+        <v>118</v>
+      </c>
+      <c r="G61" s="40">
+        <v>38</v>
+      </c>
+      <c r="H61" s="40">
+        <v>34</v>
+      </c>
+      <c r="I61" s="47">
+        <v>310</v>
+      </c>
+      <c r="J61" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="K61" s="46" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="B62" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="C62" s="40">
+        <v>120</v>
+      </c>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40">
+        <v>84</v>
+      </c>
+      <c r="H62" s="40">
+        <v>67</v>
+      </c>
+      <c r="I62" s="47">
+        <v>271</v>
+      </c>
+      <c r="J62" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" s="43" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="B63" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="C63" s="40">
+        <v>94</v>
+      </c>
+      <c r="D63" s="40">
+        <v>2</v>
+      </c>
+      <c r="E63" s="40">
+        <v>46</v>
+      </c>
+      <c r="F63" s="40">
+        <v>46</v>
+      </c>
+      <c r="G63" s="40">
+        <v>58</v>
+      </c>
+      <c r="H63" s="40">
+        <v>53</v>
+      </c>
+      <c r="I63" s="47">
+        <v>299</v>
+      </c>
+      <c r="J63" s="46"/>
+      <c r="K63" s="46"/>
+    </row>
+    <row r="64" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="47">
+        <v>0</v>
+      </c>
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
+    </row>
+    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="B65" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="C65" s="44">
+        <v>124</v>
+      </c>
+      <c r="D65" s="44">
+        <v>5</v>
+      </c>
+      <c r="E65" s="44">
+        <v>37</v>
+      </c>
+      <c r="F65" s="44">
+        <v>0</v>
+      </c>
+      <c r="G65" s="44">
+        <v>48</v>
+      </c>
+      <c r="H65" s="44">
+        <v>52</v>
+      </c>
+      <c r="I65" s="47">
+        <v>266</v>
+      </c>
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
+    </row>
+    <row r="66" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="C67" s="44">
+        <v>56</v>
+      </c>
+      <c r="D67" s="44">
+        <v>27</v>
+      </c>
+      <c r="E67" s="44">
+        <v>36</v>
+      </c>
+      <c r="F67" s="44">
+        <v>6</v>
+      </c>
+      <c r="G67" s="44">
+        <v>21</v>
+      </c>
+      <c r="H67" s="44">
+        <v>43</v>
+      </c>
+      <c r="I67" s="47">
+        <v>189</v>
+      </c>
+      <c r="J67" s="46"/>
+    </row>
+    <row r="68" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68" s="44">
+        <v>64</v>
+      </c>
+      <c r="D68" s="44">
+        <v>25</v>
+      </c>
+      <c r="E68" s="44">
+        <v>39</v>
+      </c>
+      <c r="F68" s="44">
+        <v>3</v>
+      </c>
+      <c r="G68" s="44">
+        <v>49</v>
+      </c>
+      <c r="H68" s="44">
+        <v>19</v>
+      </c>
+      <c r="I68" s="47">
+        <v>199</v>
+      </c>
+      <c r="J68" s="46"/>
+    </row>
+    <row r="69" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="C69" s="44">
+        <v>48</v>
+      </c>
+      <c r="D69" s="44">
+        <v>30</v>
+      </c>
+      <c r="E69" s="44">
+        <v>11</v>
+      </c>
+      <c r="F69" s="44">
+        <v>44</v>
+      </c>
+      <c r="G69" s="44">
+        <v>20</v>
+      </c>
+      <c r="H69" s="44">
+        <v>28</v>
+      </c>
+      <c r="I69" s="47">
+        <v>181</v>
+      </c>
+      <c r="J69" s="43" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C70" s="44">
+        <v>49</v>
+      </c>
+      <c r="D70" s="44">
+        <v>44</v>
+      </c>
+      <c r="E70" s="44">
+        <v>0</v>
+      </c>
+      <c r="F70" s="44">
+        <v>54</v>
+      </c>
+      <c r="G70" s="44">
+        <v>23</v>
+      </c>
+      <c r="H70" s="44">
+        <v>33</v>
+      </c>
+      <c r="I70" s="47">
+        <v>203</v>
+      </c>
+      <c r="J70" s="43" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C71" s="44">
+        <v>34</v>
+      </c>
+      <c r="D71" s="44">
+        <v>60</v>
+      </c>
+      <c r="E71" s="44">
+        <v>0</v>
+      </c>
+      <c r="F71" s="44">
+        <v>37</v>
+      </c>
+      <c r="G71" s="44">
+        <v>20</v>
+      </c>
+      <c r="H71" s="44">
+        <v>11</v>
+      </c>
+      <c r="I71" s="47">
+        <v>162</v>
+      </c>
+      <c r="J71" s="46"/>
+    </row>
+    <row r="72" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="C72" s="44">
+        <v>43</v>
+      </c>
+      <c r="D72" s="44">
+        <v>58</v>
+      </c>
+      <c r="E72" s="44">
+        <v>36</v>
+      </c>
+      <c r="F72" s="44">
+        <v>13</v>
+      </c>
+      <c r="G72" s="44">
+        <v>23</v>
+      </c>
+      <c r="H72" s="44">
+        <v>25</v>
+      </c>
+      <c r="I72" s="47">
+        <v>198</v>
+      </c>
+      <c r="J72" s="46"/>
+    </row>
+    <row r="73" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C73" s="40">
+        <v>45</v>
+      </c>
+      <c r="D73" s="40">
+        <v>45</v>
+      </c>
+      <c r="E73" s="40">
+        <v>45</v>
+      </c>
+      <c r="F73" s="40">
+        <v>0</v>
+      </c>
+      <c r="G73" s="40">
+        <v>11</v>
+      </c>
+      <c r="H73" s="40">
+        <v>19</v>
+      </c>
+      <c r="I73" s="47">
+        <v>165</v>
+      </c>
+      <c r="J73" s="46"/>
+    </row>
+    <row r="74" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="C74" s="40">
+        <v>36</v>
+      </c>
+      <c r="D74" s="40">
+        <v>49</v>
+      </c>
+      <c r="E74" s="40">
+        <v>39</v>
+      </c>
+      <c r="F74" s="40">
+        <v>0</v>
+      </c>
+      <c r="G74" s="40">
+        <v>16</v>
+      </c>
+      <c r="H74" s="40">
+        <v>10</v>
+      </c>
+      <c r="I74" s="47">
+        <v>150</v>
+      </c>
+      <c r="J74" s="46"/>
+    </row>
+    <row r="75" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="C75" s="40">
+        <v>29</v>
+      </c>
+      <c r="D75" s="40">
+        <v>49</v>
+      </c>
+      <c r="E75" s="40">
+        <v>0</v>
+      </c>
+      <c r="F75" s="40">
+        <v>43</v>
+      </c>
+      <c r="G75" s="40">
+        <v>16</v>
+      </c>
+      <c r="H75" s="40">
+        <v>16</v>
+      </c>
+      <c r="I75" s="47">
+        <v>153</v>
+      </c>
+      <c r="J75" s="46"/>
+    </row>
+    <row r="76" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="C76" s="44">
+        <v>50</v>
+      </c>
+      <c r="D76" s="44">
+        <v>49</v>
+      </c>
+      <c r="E76" s="44">
+        <v>0</v>
+      </c>
+      <c r="F76" s="44">
+        <v>63</v>
+      </c>
+      <c r="G76" s="44">
+        <v>7</v>
+      </c>
+      <c r="H76" s="44">
+        <v>33</v>
+      </c>
+      <c r="I76" s="47">
+        <v>202</v>
+      </c>
+      <c r="J76" s="46"/>
+    </row>
+    <row r="77" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="C77" s="40">
+        <v>77</v>
+      </c>
+      <c r="D77" s="40">
+        <v>35</v>
+      </c>
+      <c r="E77" s="40">
+        <v>45</v>
+      </c>
+      <c r="F77" s="40">
+        <v>3</v>
+      </c>
+      <c r="G77" s="40">
+        <v>50</v>
+      </c>
+      <c r="H77" s="40">
+        <v>35</v>
+      </c>
+      <c r="I77" s="47">
+        <v>245</v>
+      </c>
+      <c r="J77" s="46"/>
+    </row>
+    <row r="78" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B78" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="C78" s="40">
+        <v>85</v>
+      </c>
+      <c r="D78" s="40">
+        <v>22</v>
+      </c>
+      <c r="E78" s="40">
+        <v>55</v>
+      </c>
+      <c r="F78" s="40">
+        <v>0</v>
+      </c>
+      <c r="G78" s="40">
+        <v>69</v>
+      </c>
+      <c r="H78" s="40">
+        <v>14</v>
+      </c>
+      <c r="I78" s="47">
+        <v>245</v>
+      </c>
+      <c r="J78" s="46"/>
+    </row>
+    <row r="79" spans="1:11" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="C79" s="40">
+        <v>80</v>
+      </c>
+      <c r="D79" s="40">
+        <v>39</v>
+      </c>
+      <c r="E79" s="40">
+        <v>51</v>
+      </c>
+      <c r="F79" s="40">
+        <v>2</v>
+      </c>
+      <c r="G79" s="40">
+        <v>51</v>
+      </c>
+      <c r="H79" s="40">
+        <v>42</v>
+      </c>
+      <c r="I79" s="47">
+        <v>265</v>
+      </c>
+      <c r="J79" s="46"/>
+    </row>
+    <row r="80" spans="1:11" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B80" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="C80" s="40">
+        <v>96</v>
+      </c>
+      <c r="D80" s="40">
+        <v>17</v>
+      </c>
+      <c r="E80" s="40">
+        <v>64</v>
+      </c>
+      <c r="F80" s="40">
+        <v>0</v>
+      </c>
+      <c r="G80" s="40">
+        <v>75</v>
+      </c>
+      <c r="H80" s="40">
+        <v>8</v>
+      </c>
+      <c r="I80" s="47">
+        <v>260</v>
+      </c>
+      <c r="J80" s="46"/>
+    </row>
+    <row r="81" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="C81" s="40">
+        <v>72</v>
+      </c>
+      <c r="D81" s="40">
+        <v>30</v>
+      </c>
+      <c r="E81" s="40">
+        <v>51</v>
+      </c>
+      <c r="F81" s="40">
+        <v>32</v>
+      </c>
+      <c r="G81" s="40">
+        <v>48</v>
+      </c>
+      <c r="H81" s="40">
+        <v>42</v>
+      </c>
+      <c r="I81" s="47">
+        <v>275</v>
+      </c>
+      <c r="J81" s="46"/>
+    </row>
+    <row r="82" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="C82" s="40">
+        <v>70</v>
+      </c>
+      <c r="D82" s="40">
+        <v>42</v>
+      </c>
+      <c r="E82" s="40">
+        <v>0</v>
+      </c>
+      <c r="F82" s="40">
+        <v>50</v>
+      </c>
+      <c r="G82" s="40">
+        <v>51</v>
+      </c>
+      <c r="H82" s="40">
+        <v>42</v>
+      </c>
+      <c r="I82" s="47">
+        <v>255</v>
+      </c>
+      <c r="J82" s="46"/>
+    </row>
+    <row r="83" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B83" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="C83" s="44">
+        <v>84</v>
+      </c>
+      <c r="D83" s="44">
+        <v>15</v>
+      </c>
+      <c r="E83" s="44">
+        <v>65</v>
+      </c>
+      <c r="F83" s="44">
+        <v>5</v>
+      </c>
+      <c r="G83" s="44">
+        <v>45</v>
+      </c>
+      <c r="H83" s="44">
+        <v>40</v>
+      </c>
+      <c r="I83" s="47">
+        <v>254</v>
+      </c>
+      <c r="J83" s="43" t="s">
+        <v>347</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,44 +7181,44 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="16" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="16" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1466,13 +7226,13 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="16" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>17</v>
@@ -1481,7 +7241,7 @@
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="16" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>18</v>
@@ -1490,7 +7250,7 @@
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="16" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>19</v>
@@ -1499,38 +7259,38 @@
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="16" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="16" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="16" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1538,7 +7298,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1549,87 +7309,87 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1638,13 +7398,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H76"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M58" sqref="M58"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1660,9 +7420,30 @@
     <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>105</v>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1670,10 +7451,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>11</v>
@@ -1685,15 +7466,15 @@
         <v>17</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
@@ -1713,13 +7494,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C4" s="8">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>0</v>
@@ -1742,7 +7523,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C6" s="8">
         <v>1</v>
@@ -1754,7 +7535,7 @@
         <v>70</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1762,13 +7543,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C7" s="8">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>11</v>
@@ -1777,12 +7558,12 @@
         <v>90</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C8" s="8">
         <v>1</v>
@@ -1829,7 +7610,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C12" s="8">
         <v>2</v>
@@ -1849,7 +7630,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C13" s="8">
         <v>2</v>
@@ -1869,7 +7650,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C14" s="8">
         <v>1</v>
@@ -1889,7 +7670,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C15" s="8">
         <v>2</v>
@@ -1909,13 +7690,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C16" s="8">
         <v>2</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>11</v>
@@ -1932,13 +7713,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C17" s="8">
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>0</v>
@@ -1955,16 +7736,16 @@
         <v>1</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C18" s="8">
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F18" s="6">
         <v>45</v>
@@ -1978,16 +7759,16 @@
         <v>1</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C19" s="8">
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F19" s="6">
         <v>45</v>
@@ -2001,16 +7782,16 @@
         <v>1</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C20" s="8">
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F20" s="6">
         <v>45</v>
@@ -2047,13 +7828,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C22" s="8">
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>0</v>
@@ -2076,7 +7857,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>0</v>
@@ -2093,13 +7874,13 @@
         <v>9</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C24" s="8">
         <v>2</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>11</v>
@@ -2116,13 +7897,13 @@
         <v>9</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C25" s="8">
         <v>2</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>11</v>
@@ -2139,13 +7920,13 @@
         <v>9</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C26" s="8">
         <v>2</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>11</v>
@@ -2162,13 +7943,13 @@
         <v>9</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C27" s="8">
         <v>2</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>11</v>
@@ -2209,7 +7990,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>11</v>
@@ -2232,7 +8013,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>11</v>
@@ -2281,7 +8062,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>0</v>
@@ -2295,7 +8076,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>8</v>
@@ -2304,7 +8085,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>0</v>
@@ -2327,7 +8108,7 @@
         <v>2</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>11</v>
@@ -2370,7 +8151,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>11</v>
@@ -2387,13 +8168,13 @@
         <v>9</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C38" s="8">
         <v>1</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>11</v>
@@ -2410,13 +8191,13 @@
         <v>9</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C39" s="8">
         <v>2</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>11</v>
@@ -2430,22 +8211,22 @@
     </row>
     <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C40" s="8">
         <v>1</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F40" s="6">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>19</v>
@@ -2453,22 +8234,22 @@
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C41" s="8">
         <v>1</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F41" s="6">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>19</v>
@@ -2479,56 +8260,59 @@
         <v>9</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C42" s="8">
         <v>2</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F42" s="6">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>14</v>
+      <c r="B43" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="C43" s="8">
         <v>2</v>
       </c>
+      <c r="D43" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="E43" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F43" s="6">
         <v>45</v>
       </c>
-      <c r="G43" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="G43" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>65</v>
+        <v>234</v>
       </c>
       <c r="C44" s="8">
         <v>1</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>68</v>
+        <v>235</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>0</v>
@@ -2536,254 +8320,271 @@
       <c r="F44" s="6">
         <v>55</v>
       </c>
-      <c r="G44" s="11" t="s">
-        <v>48</v>
+      <c r="G44" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>47</v>
+      <c r="B45" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C45" s="8">
         <v>2</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="E45" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F45" s="6">
         <v>45</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="8">
+        <v>1</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="6">
+        <v>55</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B47" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="8">
+        <v>2</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="6">
+        <v>45</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="8">
+        <v>2</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="6">
+        <v>75</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="8">
-        <v>2</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" s="6" t="s">
+      <c r="C49" s="8">
+        <v>1</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" s="6">
+        <v>80</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="6">
-        <v>75</v>
-      </c>
-      <c r="G46" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="F52" s="6">
+        <v>20</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="8">
         <v>1</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" s="8">
+      <c r="E53" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="6">
+        <v>45</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F47" s="6">
-        <v>80</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="6">
-        <v>20</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" s="8">
-        <v>1</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F51" s="6">
-        <v>45</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="8">
-        <v>1</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F52" s="6">
-        <v>45</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="12"/>
-      <c r="G53" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="B54" s="12" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="C54" s="8">
         <v>1</v>
       </c>
+      <c r="D54" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="E54" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F54" s="6">
-        <v>65</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="12"/>
-      <c r="G55" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C58" s="8">
+      <c r="G55" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" s="8">
         <v>1</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F58" s="6">
-        <v>45</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C59" s="8">
-        <v>1</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F59" s="6">
-        <v>55</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>17</v>
+      <c r="E56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="6">
+        <v>65</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" s="8">
+        <v>2</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="6">
+        <v>70</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C60" s="8">
         <v>1</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="E60" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F60" s="6">
-        <v>40</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>18</v>
+        <v>45</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2791,22 +8592,19 @@
         <v>1</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C61" s="8">
         <v>1</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="E61" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F61" s="6">
         <v>55</v>
       </c>
-      <c r="G61" s="10" t="s">
-        <v>19</v>
+      <c r="G61" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2814,162 +8612,231 @@
         <v>1</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C62" s="8">
         <v>1</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F62" s="6">
-        <v>65</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C63" s="8">
         <v>1</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F63" s="6">
-        <v>65</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="C64" s="8">
+        <v>1</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F64" s="6">
         <v>65</v>
       </c>
-      <c r="G64" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="12"/>
-      <c r="G67" s="10" t="s">
+      <c r="G64" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C65" s="8">
+        <v>1</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F65" s="6">
+        <v>65</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="8">
+        <v>1</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66" s="6">
+        <v>80</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="6">
+        <v>65</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="12"/>
+      <c r="G70" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="12"/>
-      <c r="G68" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
-        <v>98</v>
-      </c>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="12"/>
+      <c r="G71" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C72" s="8">
+        <v>126</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" s="8">
         <v>1</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E75" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F75" s="6">
         <v>45</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="G75" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="12"/>
-      <c r="G73" s="9" t="s">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="12"/>
+      <c r="G76" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="12"/>
-      <c r="G74" s="10" t="s">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="12"/>
+      <c r="G77" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="12"/>
-      <c r="G75" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C76" s="8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="12"/>
+      <c r="G78" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" s="8">
         <v>1</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E76" s="6" t="s">
+      <c r="D79" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F79" s="6">
         <v>70</v>
       </c>
-      <c r="G76" s="13" t="s">
-        <v>50</v>
+      <c r="G79" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miaodt\git\cs-2d-game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan\git\cs-2d-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3DD166-C6C3-4690-8858-999A484A97CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Overview" sheetId="2" r:id="rId1"/>
@@ -18,17 +19,23 @@
     <sheet name="Weapons-Overview" sheetId="3" r:id="rId4"/>
     <sheet name="Weapons" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="378">
   <si>
     <t>physical</t>
   </si>
@@ -1156,12 +1163,18 @@
   </si>
   <si>
     <t>*Q, three lords who can cleanse Korvus's corruption</t>
+  </si>
+  <si>
+    <t>infernal nasus w/ wings</t>
+  </si>
+  <si>
+    <t>Gorgon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1996,11 +2009,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:J69"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2448,12 +2461,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L69" sqref="L69"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4008,7 +4021,7 @@
         <v>61</v>
       </c>
       <c r="J55" s="28">
-        <f>SUM(D55:I55)</f>
+        <f t="shared" ref="J55:J61" si="4">SUM(D55:I55)</f>
         <v>351</v>
       </c>
     </row>
@@ -4041,7 +4054,7 @@
         <v>62</v>
       </c>
       <c r="J56" s="28">
-        <f>SUM(D56:I56)</f>
+        <f t="shared" si="4"/>
         <v>379</v>
       </c>
     </row>
@@ -4074,7 +4087,7 @@
         <v>40</v>
       </c>
       <c r="J57" s="28">
-        <f>SUM(D57:I57)</f>
+        <f t="shared" si="4"/>
         <v>367</v>
       </c>
     </row>
@@ -4107,7 +4120,7 @@
         <v>58</v>
       </c>
       <c r="J58" s="28">
-        <f>SUM(D58:I58)</f>
+        <f t="shared" si="4"/>
         <v>401</v>
       </c>
     </row>
@@ -4140,7 +4153,7 @@
         <v>64</v>
       </c>
       <c r="J59" s="28">
-        <f>SUM(D59:I59)</f>
+        <f t="shared" si="4"/>
         <v>412</v>
       </c>
     </row>
@@ -4173,7 +4186,7 @@
         <v>66</v>
       </c>
       <c r="J60" s="28">
-        <f>SUM(D60:I60)</f>
+        <f t="shared" si="4"/>
         <v>381</v>
       </c>
     </row>
@@ -4206,7 +4219,7 @@
         <v>80</v>
       </c>
       <c r="J61" s="28">
-        <f>SUM(D61:I61)</f>
+        <f t="shared" si="4"/>
         <v>435</v>
       </c>
       <c r="K61" t="s">
@@ -4214,36 +4227,33 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>203</v>
-      </c>
       <c r="B63" t="s">
-        <v>201</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>219</v>
+        <v>377</v>
       </c>
       <c r="D63" s="28">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="E63" s="28">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F63" s="28">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="G63" s="28">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="H63" s="28">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="I63" s="28">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="J63" s="28">
-        <f>SUM(D63:I63)</f>
-        <v>396</v>
+        <f t="shared" ref="J63:J70" si="5">SUM(D63:I63)</f>
+        <v>415</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4251,32 +4261,35 @@
         <v>203</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>201</v>
       </c>
       <c r="C64" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D64" s="28">
-        <v>260</v>
+        <v>135</v>
       </c>
       <c r="E64" s="28">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="F64" s="28">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="G64" s="28">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H64" s="28">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="I64" s="28">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J64" s="28">
-        <f>SUM(D64:I64)</f>
-        <v>640</v>
+        <f t="shared" si="5"/>
+        <v>396</v>
+      </c>
+      <c r="K64" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4284,32 +4297,32 @@
         <v>203</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C65" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D65" s="28">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="E65" s="28">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F65" s="28">
+        <v>125</v>
+      </c>
+      <c r="G65" s="28">
         <v>20</v>
       </c>
-      <c r="G65" s="28">
-        <v>125</v>
-      </c>
       <c r="H65" s="28">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="I65" s="28">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="J65" s="28">
-        <f>SUM(D65:I65)</f>
-        <v>610</v>
+        <f t="shared" si="5"/>
+        <v>640</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -4317,32 +4330,32 @@
         <v>203</v>
       </c>
       <c r="B66" t="s">
-        <v>201</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D66" s="28">
-        <v>489</v>
+        <v>272</v>
       </c>
       <c r="E66" s="28">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="F66" s="28">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G66" s="28">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="H66" s="28">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="I66" s="28">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="J66" s="28">
-        <f>SUM(D66:I66)</f>
-        <v>700</v>
+        <f t="shared" si="5"/>
+        <v>610</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -4353,28 +4366,28 @@
         <v>201</v>
       </c>
       <c r="C67" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D67" s="28">
-        <v>210</v>
+        <v>489</v>
       </c>
       <c r="E67" s="28">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="F67" s="28">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="G67" s="28">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="H67" s="28">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="I67" s="28">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="J67" s="28">
-        <f>SUM(D67:I67)</f>
+        <f t="shared" si="5"/>
         <v>700</v>
       </c>
     </row>
@@ -4386,28 +4399,28 @@
         <v>201</v>
       </c>
       <c r="C68" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D68" s="28">
-        <v>313</v>
+        <v>210</v>
       </c>
       <c r="E68" s="28">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F68" s="28">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="G68" s="28">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="H68" s="28">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="I68" s="28">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="J68" s="28">
-        <f>SUM(D68:I68)</f>
+        <f t="shared" si="5"/>
         <v>700</v>
       </c>
     </row>
@@ -4419,62 +4432,62 @@
         <v>201</v>
       </c>
       <c r="C69" t="s">
+        <v>217</v>
+      </c>
+      <c r="D69" s="28">
+        <v>313</v>
+      </c>
+      <c r="E69" s="28">
+        <v>85</v>
+      </c>
+      <c r="F69" s="28">
+        <v>80</v>
+      </c>
+      <c r="G69" s="28">
+        <v>99</v>
+      </c>
+      <c r="H69" s="28">
+        <v>57</v>
+      </c>
+      <c r="I69" s="28">
+        <v>66</v>
+      </c>
+      <c r="J69" s="28">
+        <f t="shared" si="5"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" t="s">
         <v>218</v>
       </c>
-      <c r="D69" s="28">
+      <c r="D70" s="28">
         <v>433</v>
       </c>
-      <c r="E69" s="28">
+      <c r="E70" s="28">
         <v>12</v>
       </c>
-      <c r="F69" s="28">
+      <c r="F70" s="28">
         <v>98</v>
       </c>
-      <c r="G69" s="28">
+      <c r="G70" s="28">
         <v>90</v>
       </c>
-      <c r="H69" s="28">
+      <c r="H70" s="28">
         <v>145</v>
       </c>
-      <c r="I69" s="28">
+      <c r="I70" s="28">
         <v>89</v>
       </c>
-      <c r="J69" s="28">
-        <f>SUM(D69:I69)</f>
+      <c r="J70" s="28">
+        <f t="shared" si="5"/>
         <v>867</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>119</v>
-      </c>
-      <c r="B71" t="s">
-        <v>202</v>
-      </c>
-      <c r="C71" t="s">
-        <v>283</v>
-      </c>
-      <c r="D71" s="28">
-        <v>124</v>
-      </c>
-      <c r="E71" s="28">
-        <v>11</v>
-      </c>
-      <c r="F71" s="28">
-        <v>38</v>
-      </c>
-      <c r="G71" s="28">
-        <v>35</v>
-      </c>
-      <c r="H71" s="28">
-        <v>52</v>
-      </c>
-      <c r="I71" s="28">
-        <v>52</v>
-      </c>
-      <c r="J71" s="28">
-        <f t="shared" ref="J71:J76" si="4">SUM(D71:I71)</f>
-        <v>312</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4482,35 +4495,32 @@
         <v>119</v>
       </c>
       <c r="B72" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C72" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D72" s="28">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="E72" s="28">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F72" s="28">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G72" s="28">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="H72" s="28">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I72" s="28">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="J72" s="28">
-        <f t="shared" si="4"/>
-        <v>372</v>
-      </c>
-      <c r="K72" t="s">
-        <v>371</v>
+        <f t="shared" ref="J72:J77" si="6">SUM(D72:I72)</f>
+        <v>312</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4518,32 +4528,32 @@
         <v>119</v>
       </c>
       <c r="B73" t="s">
-        <v>286</v>
+        <v>211</v>
       </c>
       <c r="C73" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D73" s="28">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="E73" s="28">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F73" s="28">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G73" s="28">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H73" s="28">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="I73" s="28">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="J73" s="28">
-        <f t="shared" si="4"/>
-        <v>386</v>
+        <f t="shared" si="6"/>
+        <v>372</v>
       </c>
       <c r="K73" t="s">
         <v>371</v>
@@ -4553,15 +4563,36 @@
       <c r="A74" t="s">
         <v>119</v>
       </c>
+      <c r="B74" t="s">
+        <v>286</v>
+      </c>
       <c r="C74" t="s">
-        <v>289</v>
+        <v>287</v>
+      </c>
+      <c r="D74" s="28">
+        <v>118</v>
+      </c>
+      <c r="E74" s="28">
+        <v>60</v>
+      </c>
+      <c r="F74" s="28">
+        <v>22</v>
+      </c>
+      <c r="G74" s="28">
+        <v>80</v>
+      </c>
+      <c r="H74" s="28">
+        <v>43</v>
+      </c>
+      <c r="I74" s="28">
+        <v>63</v>
       </c>
       <c r="J74" s="28">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>386</v>
       </c>
       <c r="K74" t="s">
-        <v>4</v>
+        <v>371</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -4569,29 +4600,11 @@
         <v>119</v>
       </c>
       <c r="C75" t="s">
-        <v>374</v>
-      </c>
-      <c r="D75" s="28">
-        <v>650</v>
-      </c>
-      <c r="E75" s="28">
-        <v>140</v>
-      </c>
-      <c r="F75" s="28">
-        <v>189</v>
-      </c>
-      <c r="G75" s="28">
-        <v>210</v>
-      </c>
-      <c r="H75" s="28">
-        <v>203</v>
-      </c>
-      <c r="I75" s="28">
-        <v>150</v>
+        <v>289</v>
       </c>
       <c r="J75" s="28">
-        <f t="shared" si="4"/>
-        <v>1542</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="K75" t="s">
         <v>4</v>
@@ -4602,7 +4615,7 @@
         <v>119</v>
       </c>
       <c r="C76" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D76" s="28">
         <v>650</v>
@@ -4623,7 +4636,7 @@
         <v>150</v>
       </c>
       <c r="J76" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1542</v>
       </c>
       <c r="K76" t="s">
@@ -4635,69 +4648,102 @@
         <v>119</v>
       </c>
       <c r="C77" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D77" s="28">
-        <v>619</v>
+        <v>650</v>
       </c>
       <c r="E77" s="28">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F77" s="28">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="G77" s="28">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="H77" s="28">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I77" s="28">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="J77" s="28">
-        <f>SUM(D77:I77)</f>
-        <v>1432</v>
+        <f t="shared" si="6"/>
+        <v>1542</v>
       </c>
       <c r="K77" t="s">
-        <v>375</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>119</v>
       </c>
-      <c r="B78" t="s">
-        <v>292</v>
-      </c>
       <c r="C78" t="s">
-        <v>293</v>
+        <v>372</v>
       </c>
       <c r="D78" s="28">
-        <v>650</v>
+        <v>619</v>
       </c>
       <c r="E78" s="28">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F78" s="28">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="G78" s="28">
+        <v>125</v>
+      </c>
+      <c r="H78" s="28">
         <v>210</v>
       </c>
-      <c r="H78" s="28">
-        <v>203</v>
-      </c>
       <c r="I78" s="28">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="J78" s="28">
         <f>SUM(D78:I78)</f>
+        <v>1432</v>
+      </c>
+      <c r="K78" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79" t="s">
+        <v>292</v>
+      </c>
+      <c r="C79" t="s">
+        <v>293</v>
+      </c>
+      <c r="D79" s="28">
+        <v>650</v>
+      </c>
+      <c r="E79" s="28">
+        <v>140</v>
+      </c>
+      <c r="F79" s="28">
+        <v>189</v>
+      </c>
+      <c r="G79" s="28">
+        <v>210</v>
+      </c>
+      <c r="H79" s="28">
+        <v>203</v>
+      </c>
+      <c r="I79" s="28">
+        <v>150</v>
+      </c>
+      <c r="J79" s="28">
+        <f>SUM(D79:I79)</f>
         <v>1542</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J82:J1048576 J1:J80">
+  <conditionalFormatting sqref="J83:J1048576 J1:J81">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="250"/>
@@ -4715,7 +4761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -7165,7 +7211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7399,7 +7445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miaodt\git\cs-2d-game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan\git\cs-2d-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B3CFFC-6CF4-4043-806A-5610CEB6F3CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Overview" sheetId="2" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="Weapons-Overview" sheetId="3" r:id="rId5"/>
     <sheet name="Weapons" sheetId="1" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="477">
   <si>
     <t>physical</t>
   </si>
@@ -1117,9 +1118,6 @@
     <t>*Q, mounted?</t>
   </si>
   <si>
-    <t>(Hemoplague) Lord Aima</t>
-  </si>
-  <si>
     <t>*Q, powerful healer mage, defacto hemoplague leader</t>
   </si>
   <si>
@@ -1445,12 +1443,36 @@
   </si>
   <si>
     <t>Flower on a flaming heart</t>
+  </si>
+  <si>
+    <t>*Q, unlocked with quest</t>
+  </si>
+  <si>
+    <t>Shining Knight</t>
+  </si>
+  <si>
+    <t>Shadow Summoner</t>
+  </si>
+  <si>
+    <t>Lord Aima</t>
+  </si>
+  <si>
+    <t>Vengeful Soul</t>
+  </si>
+  <si>
+    <t>Frozen Fairy</t>
+  </si>
+  <si>
+    <t>Iceborn</t>
+  </si>
+  <si>
+    <t>Unique immunity ability</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2337,11 +2359,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:H96"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2513,7 +2535,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -2766,67 +2788,67 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2836,62 +2858,62 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B84" s="53" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B85" s="49" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B86" s="50" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B87" s="54" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B88" s="52" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -2901,12 +2923,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O104" sqref="O104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3225,7 +3247,7 @@
         <v>89</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D10" s="28">
         <v>50</v>
@@ -3258,7 +3280,7 @@
         <v>89</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D11" s="28">
         <v>65</v>
@@ -3360,7 +3382,7 @@
         <v>89</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D14" s="28">
         <v>70</v>
@@ -3385,7 +3407,7 @@
         <v>334</v>
       </c>
       <c r="K14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -3396,7 +3418,7 @@
         <v>89</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D15" s="28">
         <v>69</v>
@@ -3561,7 +3583,7 @@
         <v>89</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D20" s="28">
         <v>56</v>
@@ -3594,7 +3616,7 @@
         <v>89</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D21" s="28">
         <v>56</v>
@@ -3627,7 +3649,7 @@
         <v>89</v>
       </c>
       <c r="C22" s="54" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D22" s="28">
         <v>89</v>
@@ -3660,7 +3682,7 @@
         <v>242</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D23" s="28">
         <v>95</v>
@@ -3693,7 +3715,7 @@
         <v>55</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D24" s="28">
         <v>103</v>
@@ -3792,7 +3814,7 @@
         <v>200</v>
       </c>
       <c r="C28" s="53" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D28" s="28">
         <v>63</v>
@@ -3817,7 +3839,7 @@
         <v>267</v>
       </c>
       <c r="K28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3828,7 +3850,7 @@
         <v>200</v>
       </c>
       <c r="C29" s="53" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D29" s="28">
         <v>67</v>
@@ -3861,7 +3883,7 @@
         <v>200</v>
       </c>
       <c r="C30" s="53" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D30" s="28">
         <v>52</v>
@@ -4120,7 +4142,7 @@
         <v>300</v>
       </c>
       <c r="K37" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -4156,7 +4178,7 @@
         <v>300</v>
       </c>
       <c r="K38" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -4192,7 +4214,7 @@
         <v>300</v>
       </c>
       <c r="K39" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -4228,7 +4250,7 @@
         <v>335</v>
       </c>
       <c r="K40" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -4239,7 +4261,7 @@
         <v>268</v>
       </c>
       <c r="C41" s="53" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D41" s="28">
         <v>84</v>
@@ -4300,7 +4322,7 @@
         <v>418</v>
       </c>
       <c r="K42" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -4402,7 +4424,7 @@
         <v>554</v>
       </c>
       <c r="K45" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -4557,20 +4579,20 @@
         <v>39</v>
       </c>
       <c r="F51" s="28">
+        <v>78</v>
+      </c>
+      <c r="G51" s="28">
         <v>48</v>
       </c>
-      <c r="G51" s="28">
-        <v>68</v>
-      </c>
       <c r="H51" s="28">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="I51" s="28">
         <v>54</v>
       </c>
       <c r="J51" s="28">
         <f t="shared" ref="J51:J57" si="2">SUM(D51:I51)</f>
-        <v>337</v>
+        <v>366</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -4581,7 +4603,7 @@
         <v>210</v>
       </c>
       <c r="C52" s="54" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D52" s="28">
         <v>83</v>
@@ -4866,7 +4888,7 @@
         <v>89</v>
       </c>
       <c r="C60" s="54" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D60" s="28">
         <v>70</v>
@@ -4892,144 +4914,147 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C61" s="30"/>
+      <c r="A61" t="s">
+        <v>204</v>
+      </c>
+      <c r="B61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="D61" s="28">
+        <v>98</v>
+      </c>
+      <c r="E61" s="28">
+        <v>40</v>
+      </c>
+      <c r="F61" s="28">
+        <v>82</v>
+      </c>
+      <c r="G61" s="28">
+        <v>56</v>
+      </c>
+      <c r="H61" s="28">
+        <v>76</v>
+      </c>
+      <c r="I61" s="28">
+        <v>76</v>
+      </c>
+      <c r="J61" s="28">
+        <f>SUM(D61:I61)</f>
+        <v>428</v>
+      </c>
+      <c r="K61" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B62" t="s">
-        <v>210</v>
-      </c>
-      <c r="C62" s="53" t="s">
-        <v>246</v>
+        <v>9</v>
+      </c>
+      <c r="C62" s="49" t="s">
+        <v>320</v>
       </c>
       <c r="D62" s="28">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E62" s="28">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F62" s="28">
+        <v>64</v>
+      </c>
+      <c r="G62" s="28">
+        <v>90</v>
+      </c>
+      <c r="H62" s="28">
         <v>46</v>
       </c>
-      <c r="G62" s="28">
-        <v>60</v>
-      </c>
-      <c r="H62" s="28">
-        <v>76</v>
-      </c>
       <c r="I62" s="28">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="J62" s="28">
-        <f>SUM(D62:I62)</f>
-        <v>402</v>
+        <f t="shared" ref="J62:J63" si="3">SUM(D62:I62)</f>
+        <v>381</v>
       </c>
       <c r="K62" t="s">
-        <v>227</v>
+        <v>469</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B63" t="s">
         <v>210</v>
       </c>
-      <c r="C63" s="53" t="s">
-        <v>226</v>
+      <c r="C63" s="49" t="s">
+        <v>470</v>
       </c>
       <c r="D63" s="28">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="E63" s="28">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F63" s="28">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="G63" s="28">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="H63" s="28">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="I63" s="28">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="J63" s="28">
-        <f>SUM(D63:I63)</f>
-        <v>392</v>
+        <f t="shared" si="3"/>
+        <v>456</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>205</v>
-      </c>
-      <c r="B64" t="s">
-        <v>55</v>
-      </c>
-      <c r="C64" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="D64" s="28">
-        <v>77</v>
-      </c>
-      <c r="E64" s="28">
-        <v>16</v>
-      </c>
-      <c r="F64" s="28">
-        <v>69</v>
-      </c>
-      <c r="G64" s="28">
-        <v>13</v>
-      </c>
-      <c r="H64" s="28">
-        <v>133</v>
-      </c>
-      <c r="I64" s="28">
-        <v>62</v>
-      </c>
-      <c r="J64" s="28">
-        <f>SUM(D64:I64)</f>
-        <v>370</v>
-      </c>
+      <c r="C64" s="30"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>205</v>
       </c>
       <c r="B65" t="s">
-        <v>55</v>
-      </c>
-      <c r="C65" s="51" t="s">
-        <v>288</v>
+        <v>210</v>
+      </c>
+      <c r="C65" s="53" t="s">
+        <v>246</v>
       </c>
       <c r="D65" s="28">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E65" s="28">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="F65" s="28">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="G65" s="28">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="H65" s="28">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I65" s="28">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J65" s="28">
-        <f t="shared" ref="J65:J74" si="3">SUM(D65:I65)</f>
-        <v>400</v>
+        <f>SUM(D65:I65)</f>
+        <v>402</v>
       </c>
       <c r="K65" t="s">
-        <v>289</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -5037,35 +5062,32 @@
         <v>205</v>
       </c>
       <c r="B66" t="s">
-        <v>89</v>
-      </c>
-      <c r="C66" s="51" t="s">
-        <v>290</v>
+        <v>210</v>
+      </c>
+      <c r="C66" s="53" t="s">
+        <v>226</v>
       </c>
       <c r="D66" s="28">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E66" s="28">
+        <v>64</v>
+      </c>
+      <c r="F66" s="28">
         <v>46</v>
       </c>
-      <c r="F66" s="28">
-        <v>68</v>
-      </c>
       <c r="G66" s="28">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="H66" s="28">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I66" s="28">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="J66" s="28">
-        <f t="shared" si="3"/>
-        <v>313</v>
-      </c>
-      <c r="K66" t="s">
-        <v>291</v>
+        <f>SUM(D66:I66)</f>
+        <v>392</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -5073,35 +5095,32 @@
         <v>205</v>
       </c>
       <c r="B67" t="s">
-        <v>89</v>
-      </c>
-      <c r="C67" s="51" t="s">
-        <v>355</v>
+        <v>55</v>
+      </c>
+      <c r="C67" s="53" t="s">
+        <v>238</v>
       </c>
       <c r="D67" s="28">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E67" s="28">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="F67" s="28">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G67" s="28">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H67" s="28">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="I67" s="28">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J67" s="28">
-        <f t="shared" si="3"/>
-        <v>339</v>
-      </c>
-      <c r="K67" t="s">
-        <v>293</v>
+        <f>SUM(D67:I67)</f>
+        <v>370</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -5109,32 +5128,35 @@
         <v>205</v>
       </c>
       <c r="B68" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C68" s="51" t="s">
-        <v>356</v>
+        <v>288</v>
       </c>
       <c r="D68" s="28">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="E68" s="28">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F68" s="28">
+        <v>95</v>
+      </c>
+      <c r="G68" s="28">
         <v>26</v>
       </c>
-      <c r="G68" s="28">
-        <v>71</v>
-      </c>
       <c r="H68" s="28">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I68" s="28">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="J68" s="28">
-        <f t="shared" si="3"/>
-        <v>329</v>
+        <f t="shared" ref="J68:J78" si="4">SUM(D68:I68)</f>
+        <v>400</v>
+      </c>
+      <c r="K68" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -5142,32 +5164,35 @@
         <v>205</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" s="54" t="s">
-        <v>351</v>
+        <v>89</v>
+      </c>
+      <c r="C69" s="51" t="s">
+        <v>290</v>
       </c>
       <c r="D69" s="28">
         <v>78</v>
       </c>
       <c r="E69" s="28">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F69" s="28">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="G69" s="28">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="H69" s="28">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I69" s="28">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J69" s="28">
-        <f t="shared" si="3"/>
-        <v>367</v>
+        <f t="shared" si="4"/>
+        <v>313</v>
+      </c>
+      <c r="K69" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -5175,35 +5200,35 @@
         <v>205</v>
       </c>
       <c r="B70" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C70" s="51" t="s">
-        <v>411</v>
+        <v>355</v>
       </c>
       <c r="D70" s="28">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="E70" s="28">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="F70" s="28">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="G70" s="28">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H70" s="28">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="I70" s="28">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="J70" s="28">
-        <f t="shared" si="3"/>
-        <v>310</v>
+        <f t="shared" si="4"/>
+        <v>339</v>
       </c>
       <c r="K70" t="s">
-        <v>357</v>
+        <v>293</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -5211,35 +5236,32 @@
         <v>205</v>
       </c>
       <c r="B71" t="s">
-        <v>298</v>
-      </c>
-      <c r="C71" s="52" t="s">
-        <v>299</v>
+        <v>89</v>
+      </c>
+      <c r="C71" s="51" t="s">
+        <v>356</v>
       </c>
       <c r="D71" s="28">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E71" s="28">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="F71" s="28">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="G71" s="28">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="H71" s="28">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I71" s="28">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J71" s="28">
-        <f t="shared" si="3"/>
-        <v>328</v>
-      </c>
-      <c r="K71" t="s">
-        <v>359</v>
+        <f t="shared" si="4"/>
+        <v>329</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -5249,33 +5271,30 @@
       <c r="B72" t="s">
         <v>9</v>
       </c>
-      <c r="C72" s="52" t="s">
-        <v>300</v>
+      <c r="C72" s="54" t="s">
+        <v>351</v>
       </c>
       <c r="D72" s="28">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E72" s="28">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="F72" s="28">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G72" s="28">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H72" s="28">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="I72" s="28">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J72" s="28">
-        <f t="shared" si="3"/>
-        <v>413</v>
-      </c>
-      <c r="K72" t="s">
-        <v>361</v>
+        <f t="shared" si="4"/>
+        <v>367</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -5283,35 +5302,35 @@
         <v>205</v>
       </c>
       <c r="B73" t="s">
-        <v>242</v>
-      </c>
-      <c r="C73" s="52" t="s">
-        <v>360</v>
+        <v>200</v>
+      </c>
+      <c r="C73" s="51" t="s">
+        <v>410</v>
       </c>
       <c r="D73" s="28">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E73" s="28">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F73" s="28">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="G73" s="28">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="H73" s="28">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="I73" s="28">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="J73" s="28">
-        <f t="shared" si="3"/>
-        <v>519</v>
+        <f t="shared" si="4"/>
+        <v>310</v>
       </c>
       <c r="K73" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -5319,167 +5338,176 @@
         <v>205</v>
       </c>
       <c r="B74" t="s">
+        <v>298</v>
+      </c>
+      <c r="C74" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="D74" s="28">
+        <v>68</v>
+      </c>
+      <c r="E74" s="28">
+        <v>88</v>
+      </c>
+      <c r="F74" s="28">
+        <v>69</v>
+      </c>
+      <c r="G74" s="28">
+        <v>26</v>
+      </c>
+      <c r="H74" s="28">
+        <v>38</v>
+      </c>
+      <c r="I74" s="28">
+        <v>39</v>
+      </c>
+      <c r="J74" s="28">
+        <f t="shared" si="4"/>
+        <v>328</v>
+      </c>
+      <c r="K74" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>205</v>
+      </c>
+      <c r="B75" t="s">
         <v>9</v>
       </c>
-      <c r="C74" s="49" t="s">
-        <v>374</v>
-      </c>
-      <c r="D74" s="28">
-        <v>125</v>
-      </c>
-      <c r="E74" s="28">
-        <v>11</v>
-      </c>
-      <c r="F74" s="28">
-        <v>24</v>
-      </c>
-      <c r="G74" s="28">
-        <v>88</v>
-      </c>
-      <c r="H74" s="28">
-        <v>75</v>
-      </c>
-      <c r="I74" s="28">
-        <v>96</v>
-      </c>
-      <c r="J74" s="28">
-        <f t="shared" si="3"/>
-        <v>419</v>
-      </c>
-      <c r="K74" t="s">
-        <v>375</v>
+      <c r="C75" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="D75" s="28">
+        <v>84</v>
+      </c>
+      <c r="E75" s="28">
+        <v>84</v>
+      </c>
+      <c r="F75" s="28">
+        <v>0</v>
+      </c>
+      <c r="G75" s="28">
+        <v>94</v>
+      </c>
+      <c r="H75" s="28">
+        <v>72</v>
+      </c>
+      <c r="I75" s="28">
+        <v>79</v>
+      </c>
+      <c r="J75" s="28">
+        <f t="shared" si="4"/>
+        <v>413</v>
+      </c>
+      <c r="K75" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B76" t="s">
-        <v>55</v>
-      </c>
-      <c r="C76" s="53" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="C76" s="52" t="s">
+        <v>472</v>
       </c>
       <c r="D76" s="28">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E76" s="28">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="F76" s="28">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="G76" s="28">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="H76" s="28">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="I76" s="28">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J76" s="28">
-        <f t="shared" ref="J76:J85" si="4">SUM(D76:I76)</f>
-        <v>351</v>
+        <f t="shared" si="4"/>
+        <v>519</v>
+      </c>
+      <c r="K76" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B77" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="53" t="s">
-        <v>240</v>
+      <c r="C77" s="49" t="s">
+        <v>373</v>
       </c>
       <c r="D77" s="28">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="E77" s="28">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="F77" s="28">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G77" s="28">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="H77" s="28">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="I77" s="28">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="J77" s="28">
         <f t="shared" si="4"/>
-        <v>379</v>
+        <v>429</v>
+      </c>
+      <c r="K77" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
-      </c>
-      <c r="C78" s="53" t="s">
-        <v>235</v>
+        <v>9</v>
+      </c>
+      <c r="C78" s="49" t="s">
+        <v>471</v>
       </c>
       <c r="D78" s="28">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E78" s="28">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="F78" s="28">
+        <v>30</v>
+      </c>
+      <c r="G78" s="28">
+        <v>86</v>
+      </c>
+      <c r="H78" s="28">
+        <v>68</v>
+      </c>
+      <c r="I78" s="28">
         <v>96</v>
-      </c>
-      <c r="G78" s="28">
-        <v>18</v>
-      </c>
-      <c r="H78" s="28">
-        <v>43</v>
-      </c>
-      <c r="I78" s="28">
-        <v>40</v>
       </c>
       <c r="J78" s="28">
         <f t="shared" si="4"/>
-        <v>367</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>203</v>
-      </c>
-      <c r="B79" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="D79" s="28">
-        <v>74</v>
-      </c>
-      <c r="E79" s="28">
-        <v>85</v>
-      </c>
-      <c r="F79" s="28">
-        <v>31</v>
-      </c>
-      <c r="G79" s="28">
-        <v>103</v>
-      </c>
-      <c r="H79" s="28">
-        <v>50</v>
-      </c>
-      <c r="I79" s="28">
-        <v>58</v>
-      </c>
-      <c r="J79" s="28">
-        <f t="shared" si="4"/>
-        <v>401</v>
+        <v>428</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -5487,32 +5515,32 @@
         <v>203</v>
       </c>
       <c r="B80" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="C80" s="53" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="D80" s="28">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E80" s="28">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F80" s="28">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G80" s="28">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="H80" s="28">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="I80" s="28">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J80" s="28">
-        <f t="shared" si="4"/>
-        <v>412</v>
+        <f t="shared" ref="J80:J89" si="5">SUM(D80:I80)</f>
+        <v>351</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -5520,32 +5548,32 @@
         <v>203</v>
       </c>
       <c r="B81" t="s">
-        <v>55</v>
-      </c>
-      <c r="C81" s="54" t="s">
-        <v>231</v>
+        <v>9</v>
+      </c>
+      <c r="C81" s="53" t="s">
+        <v>240</v>
       </c>
       <c r="D81" s="28">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="E81" s="28">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F81" s="28">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="G81" s="28">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="H81" s="28">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="I81" s="28">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J81" s="28">
-        <f t="shared" si="4"/>
-        <v>381</v>
+        <f t="shared" si="5"/>
+        <v>379</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -5553,32 +5581,32 @@
         <v>203</v>
       </c>
       <c r="B82" t="s">
-        <v>55</v>
-      </c>
-      <c r="C82" s="54" t="s">
-        <v>464</v>
+        <v>89</v>
+      </c>
+      <c r="C82" s="53" t="s">
+        <v>235</v>
       </c>
       <c r="D82" s="28">
         <v>90</v>
       </c>
       <c r="E82" s="28">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="F82" s="28">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="G82" s="28">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H82" s="28">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="I82" s="28">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="J82" s="28">
-        <f t="shared" si="4"/>
-        <v>395</v>
+        <f t="shared" si="5"/>
+        <v>367</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -5586,35 +5614,32 @@
         <v>203</v>
       </c>
       <c r="B83" t="s">
-        <v>55</v>
-      </c>
-      <c r="C83" s="52" t="s">
-        <v>232</v>
+        <v>9</v>
+      </c>
+      <c r="C83" s="53" t="s">
+        <v>233</v>
       </c>
       <c r="D83" s="28">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="E83" s="28">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F83" s="28">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="G83" s="28">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="H83" s="28">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="I83" s="28">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="J83" s="28">
-        <f t="shared" si="4"/>
-        <v>435</v>
-      </c>
-      <c r="K83" t="s">
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>401</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -5624,30 +5649,30 @@
       <c r="B84" t="s">
         <v>89</v>
       </c>
-      <c r="C84" s="54" t="s">
-        <v>413</v>
+      <c r="C84" s="53" t="s">
+        <v>230</v>
       </c>
       <c r="D84" s="28">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E84" s="28">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F84" s="28">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="G84" s="28">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="H84" s="28">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="I84" s="28">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="J84" s="28">
-        <f t="shared" si="4"/>
-        <v>387</v>
+        <f t="shared" si="5"/>
+        <v>412</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -5655,170 +5680,167 @@
         <v>203</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C85" s="54" t="s">
-        <v>453</v>
+        <v>231</v>
       </c>
       <c r="D85" s="28">
+        <v>84</v>
+      </c>
+      <c r="E85" s="28">
+        <v>50</v>
+      </c>
+      <c r="F85" s="28">
+        <v>74</v>
+      </c>
+      <c r="G85" s="28">
+        <v>34</v>
+      </c>
+      <c r="H85" s="28">
+        <v>73</v>
+      </c>
+      <c r="I85" s="28">
+        <v>66</v>
+      </c>
+      <c r="J85" s="28">
+        <f t="shared" si="5"/>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>203</v>
+      </c>
+      <c r="B86" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="D86" s="28">
+        <v>90</v>
+      </c>
+      <c r="E86" s="28">
+        <v>46</v>
+      </c>
+      <c r="F86" s="28">
+        <v>79</v>
+      </c>
+      <c r="G86" s="28">
+        <v>33</v>
+      </c>
+      <c r="H86" s="28">
         <v>78</v>
       </c>
-      <c r="E85" s="28">
-        <v>72</v>
-      </c>
-      <c r="F85" s="28">
-        <v>25</v>
-      </c>
-      <c r="G85" s="28">
-        <v>78</v>
-      </c>
-      <c r="H85" s="28">
-        <v>50</v>
-      </c>
-      <c r="I85" s="28">
-        <v>89</v>
-      </c>
-      <c r="J85" s="28">
-        <f t="shared" si="4"/>
-        <v>392</v>
+      <c r="I86" s="28">
+        <v>69</v>
+      </c>
+      <c r="J86" s="28">
+        <f t="shared" si="5"/>
+        <v>395</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
-      </c>
-      <c r="C87" s="53" t="s">
-        <v>460</v>
+        <v>55</v>
+      </c>
+      <c r="C87" s="52" t="s">
+        <v>232</v>
       </c>
       <c r="D87" s="28">
+        <v>104</v>
+      </c>
+      <c r="E87" s="28">
+        <v>41</v>
+      </c>
+      <c r="F87" s="28">
+        <v>83</v>
+      </c>
+      <c r="G87" s="28">
+        <v>42</v>
+      </c>
+      <c r="H87" s="28">
         <v>85</v>
       </c>
-      <c r="E87" s="28">
-        <v>46</v>
-      </c>
-      <c r="F87" s="28">
-        <v>82</v>
-      </c>
-      <c r="G87" s="28">
-        <v>20</v>
-      </c>
-      <c r="H87" s="28">
-        <v>65</v>
-      </c>
       <c r="I87" s="28">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="J87" s="28">
-        <f t="shared" ref="J87:J98" si="5">SUM(D87:I87)</f>
-        <v>318</v>
+        <f t="shared" si="5"/>
+        <v>435</v>
+      </c>
+      <c r="K87" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="53" t="s">
-        <v>461</v>
+        <v>89</v>
+      </c>
+      <c r="C88" s="54" t="s">
+        <v>412</v>
       </c>
       <c r="D88" s="28">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="E88" s="28">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F88" s="28">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="G88" s="28">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="H88" s="28">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I88" s="28">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="J88" s="28">
         <f t="shared" si="5"/>
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B89" t="s">
         <v>9</v>
       </c>
-      <c r="C89" s="53" t="s">
-        <v>369</v>
+      <c r="C89" s="54" t="s">
+        <v>452</v>
       </c>
       <c r="D89" s="28">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E89" s="28">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="F89" s="28">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G89" s="28">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="H89" s="28">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="I89" s="28">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="J89" s="28">
         <f t="shared" si="5"/>
-        <v>415</v>
-      </c>
-      <c r="K89" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>202</v>
-      </c>
-      <c r="B90" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" s="51" t="s">
-        <v>367</v>
-      </c>
-      <c r="D90" s="28">
-        <v>110</v>
-      </c>
-      <c r="E90" s="28">
-        <v>45</v>
-      </c>
-      <c r="F90" s="28">
-        <v>43</v>
-      </c>
-      <c r="G90" s="28">
-        <v>96</v>
-      </c>
-      <c r="H90" s="28">
-        <v>68</v>
-      </c>
-      <c r="I90" s="28">
-        <v>73</v>
-      </c>
-      <c r="J90" s="28">
-        <f t="shared" si="5"/>
-        <v>435</v>
-      </c>
-      <c r="K90" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -5826,35 +5848,32 @@
         <v>202</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91" s="51" t="s">
-        <v>368</v>
+        <v>89</v>
+      </c>
+      <c r="C91" s="53" t="s">
+        <v>459</v>
       </c>
       <c r="D91" s="28">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="E91" s="28">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F91" s="28">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="G91" s="28">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="H91" s="28">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I91" s="28">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="J91" s="28">
-        <f t="shared" si="5"/>
-        <v>435</v>
-      </c>
-      <c r="K91" t="s">
-        <v>372</v>
+        <f t="shared" ref="J91:J103" si="6">SUM(D91:I91)</f>
+        <v>318</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -5862,35 +5881,32 @@
         <v>202</v>
       </c>
       <c r="B92" t="s">
-        <v>200</v>
+        <v>9</v>
       </c>
       <c r="C92" s="53" t="s">
-        <v>217</v>
+        <v>460</v>
       </c>
       <c r="D92" s="28">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="E92" s="28">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="F92" s="28">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="G92" s="28">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="H92" s="28">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I92" s="28">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="J92" s="28">
-        <f t="shared" si="5"/>
-        <v>396</v>
-      </c>
-      <c r="K92" t="s">
-        <v>366</v>
+        <f t="shared" si="6"/>
+        <v>402</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -5898,32 +5914,35 @@
         <v>202</v>
       </c>
       <c r="B93" t="s">
-        <v>55</v>
-      </c>
-      <c r="C93" s="52" t="s">
-        <v>420</v>
+        <v>9</v>
+      </c>
+      <c r="C93" s="53" t="s">
+        <v>368</v>
       </c>
       <c r="D93" s="28">
-        <v>260</v>
+        <v>90</v>
       </c>
       <c r="E93" s="28">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="F93" s="28">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="G93" s="28">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="H93" s="28">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="I93" s="28">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="J93" s="28">
-        <f t="shared" si="5"/>
-        <v>640</v>
+        <f t="shared" si="6"/>
+        <v>415</v>
+      </c>
+      <c r="K93" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -5933,30 +5952,33 @@
       <c r="B94" t="s">
         <v>9</v>
       </c>
-      <c r="C94" s="52" t="s">
-        <v>212</v>
+      <c r="C94" s="51" t="s">
+        <v>366</v>
       </c>
       <c r="D94" s="28">
-        <v>272</v>
+        <v>110</v>
       </c>
       <c r="E94" s="28">
+        <v>45</v>
+      </c>
+      <c r="F94" s="28">
+        <v>43</v>
+      </c>
+      <c r="G94" s="28">
+        <v>96</v>
+      </c>
+      <c r="H94" s="28">
         <v>68</v>
       </c>
-      <c r="F94" s="28">
-        <v>20</v>
-      </c>
-      <c r="G94" s="28">
-        <v>125</v>
-      </c>
-      <c r="H94" s="28">
-        <v>36</v>
-      </c>
       <c r="I94" s="28">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="J94" s="28">
-        <f t="shared" si="5"/>
-        <v>610</v>
+        <f t="shared" si="6"/>
+        <v>435</v>
+      </c>
+      <c r="K94" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -5964,32 +5986,35 @@
         <v>202</v>
       </c>
       <c r="B95" t="s">
-        <v>200</v>
-      </c>
-      <c r="C95" s="52" t="s">
-        <v>213</v>
+        <v>9</v>
+      </c>
+      <c r="C95" s="51" t="s">
+        <v>367</v>
       </c>
       <c r="D95" s="28">
-        <v>489</v>
+        <v>110</v>
       </c>
       <c r="E95" s="28">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F95" s="28">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G95" s="28">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="H95" s="28">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="I95" s="28">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="J95" s="28">
-        <f t="shared" si="5"/>
-        <v>735</v>
+        <f t="shared" si="6"/>
+        <v>435</v>
+      </c>
+      <c r="K95" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -5999,30 +6024,33 @@
       <c r="B96" t="s">
         <v>200</v>
       </c>
-      <c r="C96" s="52" t="s">
-        <v>214</v>
+      <c r="C96" s="53" t="s">
+        <v>217</v>
       </c>
       <c r="D96" s="28">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="E96" s="28">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="F96" s="28">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="G96" s="28">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="H96" s="28">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I96" s="28">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="J96" s="28">
-        <f t="shared" si="5"/>
-        <v>700</v>
+        <f t="shared" si="6"/>
+        <v>396</v>
+      </c>
+      <c r="K96" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -6030,32 +6058,32 @@
         <v>202</v>
       </c>
       <c r="B97" t="s">
-        <v>200</v>
-      </c>
-      <c r="C97" s="52" t="s">
-        <v>215</v>
+        <v>242</v>
+      </c>
+      <c r="C97" s="49" t="s">
+        <v>473</v>
       </c>
       <c r="D97" s="28">
-        <v>313</v>
+        <v>80</v>
       </c>
       <c r="E97" s="28">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="F97" s="28">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G97" s="28">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="H97" s="28">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="I97" s="28">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="J97" s="28">
-        <f t="shared" si="5"/>
-        <v>700</v>
+        <f t="shared" si="6"/>
+        <v>431</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -6063,200 +6091,197 @@
         <v>202</v>
       </c>
       <c r="B98" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="C98" s="52" t="s">
-        <v>216</v>
+        <v>419</v>
       </c>
       <c r="D98" s="28">
-        <v>433</v>
+        <v>260</v>
       </c>
       <c r="E98" s="28">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="F98" s="28">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="G98" s="28">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="H98" s="28">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="I98" s="28">
+        <v>60</v>
+      </c>
+      <c r="J98" s="28">
+        <f t="shared" si="6"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>202</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="D99" s="28">
+        <v>272</v>
+      </c>
+      <c r="E99" s="28">
+        <v>68</v>
+      </c>
+      <c r="F99" s="28">
+        <v>20</v>
+      </c>
+      <c r="G99" s="28">
+        <v>125</v>
+      </c>
+      <c r="H99" s="28">
+        <v>36</v>
+      </c>
+      <c r="I99" s="28">
         <v>89</v>
       </c>
-      <c r="J98" s="28">
-        <f t="shared" si="5"/>
-        <v>867</v>
+      <c r="J99" s="28">
+        <f t="shared" si="6"/>
+        <v>610</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="B100" t="s">
-        <v>201</v>
-      </c>
-      <c r="C100" s="53" t="s">
-        <v>276</v>
+        <v>200</v>
+      </c>
+      <c r="C100" s="52" t="s">
+        <v>213</v>
       </c>
       <c r="D100" s="28">
-        <v>124</v>
+        <v>489</v>
       </c>
       <c r="E100" s="28">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F100" s="28">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G100" s="28">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H100" s="28">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="I100" s="28">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="J100" s="28">
-        <f t="shared" ref="J100:J106" si="6">SUM(D100:I100)</f>
-        <v>312</v>
+        <f t="shared" si="6"/>
+        <v>735</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="B101" t="s">
-        <v>55</v>
-      </c>
-      <c r="C101" s="54" t="s">
-        <v>459</v>
+        <v>200</v>
+      </c>
+      <c r="C101" s="52" t="s">
+        <v>214</v>
       </c>
       <c r="D101" s="28">
-        <v>99</v>
+        <v>210</v>
       </c>
       <c r="E101" s="28">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="F101" s="28">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="G101" s="28">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="H101" s="28">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="I101" s="28">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="J101" s="28">
         <f t="shared" si="6"/>
-        <v>334</v>
+        <v>700</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="B102" t="s">
-        <v>55</v>
-      </c>
-      <c r="C102" s="54" t="s">
-        <v>457</v>
+        <v>200</v>
+      </c>
+      <c r="C102" s="52" t="s">
+        <v>215</v>
       </c>
       <c r="D102" s="28">
-        <v>105</v>
+        <v>313</v>
       </c>
       <c r="E102" s="28">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="F102" s="28">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G102" s="28">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="H102" s="28">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="I102" s="28">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J102" s="28">
         <f t="shared" si="6"/>
-        <v>444</v>
+        <v>700</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="B103" t="s">
-        <v>201</v>
-      </c>
-      <c r="C103" s="54" t="s">
-        <v>458</v>
+        <v>200</v>
+      </c>
+      <c r="C103" s="52" t="s">
+        <v>216</v>
       </c>
       <c r="D103" s="28">
-        <v>185</v>
+        <v>433</v>
       </c>
       <c r="E103" s="28">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="F103" s="28">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="G103" s="28">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H103" s="28">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="I103" s="28">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="J103" s="28">
         <f t="shared" si="6"/>
-        <v>501</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>119</v>
-      </c>
-      <c r="B104" t="s">
-        <v>210</v>
-      </c>
-      <c r="C104" s="52" t="s">
-        <v>409</v>
-      </c>
-      <c r="D104" s="28">
-        <v>104</v>
-      </c>
-      <c r="E104" s="28">
-        <v>44</v>
-      </c>
-      <c r="F104" s="28">
-        <v>33</v>
-      </c>
-      <c r="G104" s="28">
-        <v>78</v>
-      </c>
-      <c r="H104" s="28">
-        <v>68</v>
-      </c>
-      <c r="I104" s="28">
-        <v>45</v>
-      </c>
-      <c r="J104" s="28">
-        <f t="shared" si="6"/>
-        <v>372</v>
-      </c>
-      <c r="K104" t="s">
-        <v>362</v>
+        <v>867</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -6264,35 +6289,32 @@
         <v>119</v>
       </c>
       <c r="B105" t="s">
-        <v>279</v>
-      </c>
-      <c r="C105" s="52" t="s">
-        <v>410</v>
+        <v>201</v>
+      </c>
+      <c r="C105" s="53" t="s">
+        <v>276</v>
       </c>
       <c r="D105" s="28">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="E105" s="28">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F105" s="28">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="G105" s="28">
         <v>80</v>
       </c>
       <c r="H105" s="28">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I105" s="28">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="J105" s="28">
-        <f t="shared" si="6"/>
-        <v>386</v>
-      </c>
-      <c r="K105" t="s">
-        <v>362</v>
+        <f t="shared" ref="J105:J113" si="7">SUM(D105:I105)</f>
+        <v>459</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -6300,35 +6322,17 @@
         <v>119</v>
       </c>
       <c r="B106" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" s="54" t="s">
-        <v>354</v>
+        <v>89</v>
+      </c>
+      <c r="C106" s="53" t="s">
+        <v>475</v>
       </c>
       <c r="D106" s="28">
-        <v>66</v>
-      </c>
-      <c r="E106" s="28">
         <v>68</v>
       </c>
-      <c r="F106" s="28">
-        <v>45</v>
-      </c>
-      <c r="G106" s="28">
-        <v>81</v>
-      </c>
-      <c r="H106" s="28">
-        <v>96</v>
-      </c>
-      <c r="I106" s="28">
-        <v>90</v>
-      </c>
       <c r="J106" s="28">
-        <f t="shared" si="6"/>
-        <v>446</v>
-      </c>
-      <c r="K106" t="s">
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>68</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -6338,33 +6342,33 @@
       <c r="B107" t="s">
         <v>9</v>
       </c>
-      <c r="C107" s="52" t="s">
-        <v>304</v>
+      <c r="C107" s="53" t="s">
+        <v>474</v>
       </c>
       <c r="D107" s="28">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E107" s="28">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="F107" s="28">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="G107" s="28">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="H107" s="28">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I107" s="28">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J107" s="28">
-        <f t="shared" ref="J107:J114" si="7">SUM(D107:I107)</f>
-        <v>319</v>
+        <f t="shared" si="7"/>
+        <v>439</v>
       </c>
       <c r="K107" t="s">
-        <v>305</v>
+        <v>476</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -6372,35 +6376,32 @@
         <v>119</v>
       </c>
       <c r="B108" t="s">
-        <v>210</v>
-      </c>
-      <c r="C108" s="52" t="s">
-        <v>306</v>
+        <v>55</v>
+      </c>
+      <c r="C108" s="54" t="s">
+        <v>458</v>
       </c>
       <c r="D108" s="28">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E108" s="28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F108" s="28">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="G108" s="28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H108" s="28">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I108" s="28">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="J108" s="28">
         <f t="shared" si="7"/>
-        <v>396</v>
-      </c>
-      <c r="K108" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -6408,35 +6409,32 @@
         <v>119</v>
       </c>
       <c r="B109" t="s">
-        <v>9</v>
-      </c>
-      <c r="C109" s="52" t="s">
-        <v>308</v>
+        <v>55</v>
+      </c>
+      <c r="C109" s="54" t="s">
+        <v>456</v>
       </c>
       <c r="D109" s="28">
+        <v>105</v>
+      </c>
+      <c r="E109" s="28">
+        <v>26</v>
+      </c>
+      <c r="F109" s="28">
+        <v>87</v>
+      </c>
+      <c r="G109" s="28">
         <v>70</v>
       </c>
-      <c r="E109" s="28">
-        <v>62</v>
-      </c>
-      <c r="F109" s="28">
-        <v>10</v>
-      </c>
-      <c r="G109" s="28">
+      <c r="H109" s="28">
+        <v>76</v>
+      </c>
+      <c r="I109" s="28">
         <v>80</v>
-      </c>
-      <c r="H109" s="28">
-        <v>50</v>
-      </c>
-      <c r="I109" s="28">
-        <v>65</v>
       </c>
       <c r="J109" s="28">
         <f t="shared" si="7"/>
-        <v>337</v>
-      </c>
-      <c r="K109" t="s">
-        <v>307</v>
+        <v>444</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -6444,35 +6442,32 @@
         <v>119</v>
       </c>
       <c r="B110" t="s">
-        <v>210</v>
-      </c>
-      <c r="C110" s="52" t="s">
-        <v>418</v>
+        <v>201</v>
+      </c>
+      <c r="C110" s="54" t="s">
+        <v>457</v>
       </c>
       <c r="D110" s="28">
         <v>185</v>
       </c>
       <c r="E110" s="28">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F110" s="28">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="G110" s="28">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="H110" s="28">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I110" s="28">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="J110" s="28">
-        <f>SUM(D110:I110)</f>
-        <v>555</v>
-      </c>
-      <c r="K110" t="s">
-        <v>419</v>
+        <f t="shared" si="7"/>
+        <v>501</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -6480,32 +6475,32 @@
         <v>119</v>
       </c>
       <c r="B111" t="s">
-        <v>201</v>
-      </c>
-      <c r="C111" s="52" t="s">
-        <v>365</v>
+        <v>9</v>
+      </c>
+      <c r="C111" s="54" t="s">
+        <v>354</v>
       </c>
       <c r="D111" s="28">
-        <v>650</v>
+        <v>66</v>
       </c>
       <c r="E111" s="28">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="F111" s="28">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="G111" s="28">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="H111" s="28">
-        <v>203</v>
+        <v>96</v>
       </c>
       <c r="I111" s="28">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="J111" s="28">
         <f>SUM(D111:I111)</f>
-        <v>1542</v>
+        <v>446</v>
       </c>
       <c r="K111" t="s">
         <v>4</v>
@@ -6516,35 +6511,35 @@
         <v>119</v>
       </c>
       <c r="B112" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C112" s="52" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="D112" s="28">
-        <v>650</v>
+        <v>104</v>
       </c>
       <c r="E112" s="28">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="F112" s="28">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c r="G112" s="28">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="H112" s="28">
-        <v>203</v>
+        <v>68</v>
       </c>
       <c r="I112" s="28">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J112" s="28">
-        <f>SUM(D112:I112)</f>
-        <v>1542</v>
+        <f t="shared" si="7"/>
+        <v>372</v>
       </c>
       <c r="K112" t="s">
-        <v>4</v>
+        <v>361</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -6552,35 +6547,35 @@
         <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>201</v>
+        <v>279</v>
       </c>
       <c r="C113" s="52" t="s">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="D113" s="28">
-        <v>619</v>
+        <v>118</v>
       </c>
       <c r="E113" s="28">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="F113" s="28">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="G113" s="28">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="H113" s="28">
-        <v>210</v>
+        <v>43</v>
       </c>
       <c r="I113" s="28">
-        <v>196</v>
+        <v>63</v>
       </c>
       <c r="J113" s="28">
-        <f>SUM(D113:I113)</f>
-        <v>1432</v>
+        <f t="shared" si="7"/>
+        <v>386</v>
       </c>
       <c r="K113" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -6588,35 +6583,35 @@
         <v>119</v>
       </c>
       <c r="B114" t="s">
-        <v>279</v>
+        <v>9</v>
       </c>
       <c r="C114" s="52" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D114" s="28">
-        <v>310</v>
+        <v>63</v>
       </c>
       <c r="E114" s="28">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="F114" s="28">
-        <v>148</v>
+        <v>3</v>
       </c>
       <c r="G114" s="28">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="H114" s="28">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="I114" s="28">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="J114" s="28">
-        <f t="shared" si="7"/>
-        <v>855</v>
+        <f t="shared" ref="J114:J121" si="8">SUM(D114:I114)</f>
+        <v>319</v>
       </c>
       <c r="K114" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -6624,91 +6619,343 @@
         <v>119</v>
       </c>
       <c r="B115" t="s">
+        <v>210</v>
+      </c>
+      <c r="C115" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="D115" s="28">
+        <v>89</v>
+      </c>
+      <c r="E115" s="28">
+        <v>9</v>
+      </c>
+      <c r="F115" s="28">
+        <v>76</v>
+      </c>
+      <c r="G115" s="28">
+        <v>0</v>
+      </c>
+      <c r="H115" s="28">
+        <v>106</v>
+      </c>
+      <c r="I115" s="28">
+        <v>116</v>
+      </c>
+      <c r="J115" s="28">
+        <f t="shared" si="8"/>
+        <v>396</v>
+      </c>
+      <c r="K115" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="52" t="s">
+        <v>308</v>
+      </c>
+      <c r="D116" s="28">
+        <v>70</v>
+      </c>
+      <c r="E116" s="28">
+        <v>62</v>
+      </c>
+      <c r="F116" s="28">
+        <v>10</v>
+      </c>
+      <c r="G116" s="28">
+        <v>80</v>
+      </c>
+      <c r="H116" s="28">
+        <v>50</v>
+      </c>
+      <c r="I116" s="28">
+        <v>65</v>
+      </c>
+      <c r="J116" s="28">
+        <f t="shared" si="8"/>
+        <v>337</v>
+      </c>
+      <c r="K116" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" t="s">
+        <v>210</v>
+      </c>
+      <c r="C117" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="D117" s="28">
+        <v>185</v>
+      </c>
+      <c r="E117" s="28">
+        <v>88</v>
+      </c>
+      <c r="F117" s="28">
+        <v>56</v>
+      </c>
+      <c r="G117" s="28">
+        <v>95</v>
+      </c>
+      <c r="H117" s="28">
+        <v>80</v>
+      </c>
+      <c r="I117" s="28">
+        <v>51</v>
+      </c>
+      <c r="J117" s="28">
+        <f>SUM(D117:I117)</f>
+        <v>555</v>
+      </c>
+      <c r="K117" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" t="s">
+        <v>201</v>
+      </c>
+      <c r="C118" s="52" t="s">
+        <v>364</v>
+      </c>
+      <c r="D118" s="28">
+        <v>650</v>
+      </c>
+      <c r="E118" s="28">
+        <v>140</v>
+      </c>
+      <c r="F118" s="28">
+        <v>189</v>
+      </c>
+      <c r="G118" s="28">
+        <v>210</v>
+      </c>
+      <c r="H118" s="28">
+        <v>203</v>
+      </c>
+      <c r="I118" s="28">
+        <v>150</v>
+      </c>
+      <c r="J118" s="28">
+        <f>SUM(D118:I118)</f>
+        <v>1542</v>
+      </c>
+      <c r="K118" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" t="s">
+        <v>201</v>
+      </c>
+      <c r="C119" s="52" t="s">
+        <v>363</v>
+      </c>
+      <c r="D119" s="28">
+        <v>650</v>
+      </c>
+      <c r="E119" s="28">
+        <v>140</v>
+      </c>
+      <c r="F119" s="28">
+        <v>189</v>
+      </c>
+      <c r="G119" s="28">
+        <v>210</v>
+      </c>
+      <c r="H119" s="28">
+        <v>203</v>
+      </c>
+      <c r="I119" s="28">
+        <v>150</v>
+      </c>
+      <c r="J119" s="28">
+        <f>SUM(D119:I119)</f>
+        <v>1542</v>
+      </c>
+      <c r="K119" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>201</v>
+      </c>
+      <c r="C120" s="52" t="s">
+        <v>362</v>
+      </c>
+      <c r="D120" s="28">
+        <v>619</v>
+      </c>
+      <c r="E120" s="28">
+        <v>136</v>
+      </c>
+      <c r="F120" s="28">
+        <v>146</v>
+      </c>
+      <c r="G120" s="28">
+        <v>125</v>
+      </c>
+      <c r="H120" s="28">
+        <v>210</v>
+      </c>
+      <c r="I120" s="28">
+        <v>196</v>
+      </c>
+      <c r="J120" s="28">
+        <f>SUM(D120:I120)</f>
+        <v>1432</v>
+      </c>
+      <c r="K120" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>279</v>
+      </c>
+      <c r="C121" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="D121" s="28">
+        <v>310</v>
+      </c>
+      <c r="E121" s="28">
+        <v>105</v>
+      </c>
+      <c r="F121" s="28">
+        <v>148</v>
+      </c>
+      <c r="G121" s="28">
+        <v>95</v>
+      </c>
+      <c r="H121" s="28">
+        <v>111</v>
+      </c>
+      <c r="I121" s="28">
+        <v>86</v>
+      </c>
+      <c r="J121" s="28">
+        <f t="shared" si="8"/>
+        <v>855</v>
+      </c>
+      <c r="K121" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>119</v>
+      </c>
+      <c r="B122" t="s">
         <v>285</v>
       </c>
-      <c r="C115" s="52" t="s">
+      <c r="C122" s="52" t="s">
         <v>286</v>
       </c>
-      <c r="D115" s="28">
+      <c r="D122" s="28">
         <v>650</v>
       </c>
-      <c r="E115" s="28">
+      <c r="E122" s="28">
         <v>140</v>
       </c>
-      <c r="F115" s="28">
+      <c r="F122" s="28">
         <v>189</v>
       </c>
-      <c r="G115" s="28">
+      <c r="G122" s="28">
         <v>210</v>
       </c>
-      <c r="H115" s="28">
+      <c r="H122" s="28">
         <v>203</v>
       </c>
-      <c r="I115" s="28">
+      <c r="I122" s="28">
         <v>150</v>
       </c>
-      <c r="J115" s="28">
-        <f>SUM(D115:I115)</f>
+      <c r="J122" s="28">
+        <f>SUM(D122:I122)</f>
         <v>1542</v>
       </c>
-      <c r="K115" t="s">
+      <c r="K122" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D117" s="55">
-        <f>SUM(D3:D110)</f>
-        <v>9780</v>
-      </c>
-      <c r="E117" s="55">
-        <f>SUM(E3:E110)</f>
-        <v>5269</v>
-      </c>
-      <c r="F117" s="55">
-        <f>SUM(F3:F110)</f>
-        <v>5718</v>
-      </c>
-      <c r="G117" s="55">
-        <f>SUM(G3:G110)</f>
-        <v>5347</v>
-      </c>
-      <c r="H117" s="55">
-        <f>SUM(H3:H110)</f>
-        <v>6263</v>
-      </c>
-      <c r="I117" s="55">
-        <f>SUM(I3:I110)</f>
-        <v>6188</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D118" s="28">
-        <f>AVERAGE(D3:D110)</f>
-        <v>95.882352941176464</v>
-      </c>
-      <c r="E118" s="28">
-        <f t="shared" ref="E118:I118" si="8">AVERAGE(E3:E110)</f>
-        <v>51.656862745098039</v>
-      </c>
-      <c r="F118" s="28">
-        <f t="shared" si="8"/>
-        <v>56.058823529411768</v>
-      </c>
-      <c r="G118" s="28">
-        <f t="shared" si="8"/>
-        <v>52.421568627450981</v>
-      </c>
-      <c r="H118" s="28">
-        <f t="shared" si="8"/>
-        <v>61.401960784313722</v>
-      </c>
-      <c r="I118" s="28">
-        <f t="shared" si="8"/>
-        <v>60.666666666666664</v>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D124" s="55">
+        <f>SUM(D3:D117)</f>
+        <v>10407</v>
+      </c>
+      <c r="E124" s="55">
+        <f>SUM(E3:E117)</f>
+        <v>5650</v>
+      </c>
+      <c r="F124" s="55">
+        <f>SUM(F3:F117)</f>
+        <v>6187</v>
+      </c>
+      <c r="G124" s="55">
+        <f>SUM(G3:G117)</f>
+        <v>5904</v>
+      </c>
+      <c r="H124" s="55">
+        <f>SUM(H3:H117)</f>
+        <v>6661</v>
+      </c>
+      <c r="I124" s="55">
+        <f>SUM(I3:I117)</f>
+        <v>6573</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D125" s="28">
+        <f>AVERAGE(D3:D117)</f>
+        <v>95.477064220183493</v>
+      </c>
+      <c r="E125" s="28">
+        <f>AVERAGE(E3:E117)</f>
+        <v>52.314814814814817</v>
+      </c>
+      <c r="F125" s="28">
+        <f>AVERAGE(F3:F117)</f>
+        <v>57.287037037037038</v>
+      </c>
+      <c r="G125" s="28">
+        <f>AVERAGE(G3:G117)</f>
+        <v>54.666666666666664</v>
+      </c>
+      <c r="H125" s="28">
+        <f>AVERAGE(H3:H117)</f>
+        <v>61.675925925925924</v>
+      </c>
+      <c r="I125" s="28">
+        <f>AVERAGE(I3:I117)</f>
+        <v>60.861111111111114</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J119:J1048576 J1:J117">
+  <conditionalFormatting sqref="J126:J1048576 J1:J124">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="250"/>
@@ -6726,33 +6973,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B4" t="s">
         <v>351</v>
@@ -6760,35 +7007,35 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B11" t="s">
         <v>354</v>
@@ -6796,69 +7043,69 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>438</v>
+      </c>
+      <c r="B13" t="s">
         <v>439</v>
-      </c>
-      <c r="B13" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B19" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B23" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B24" t="s">
         <v>88</v>
@@ -6866,125 +7113,125 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B28" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B31" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B36" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B38" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B42" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B45" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B50" t="s">
         <v>324</v>
@@ -6992,7 +7239,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -7002,10 +7249,10 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B53" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -7015,11 +7262,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56:B58"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9465,7 +9712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -9684,7 +9931,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -9699,7 +9946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Overview" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="711">
   <si>
     <t>physical</t>
   </si>
@@ -2216,9 +2216,6 @@
     <t>Ethereal Bleed</t>
   </si>
   <si>
-    <t>Siphon Soul</t>
-  </si>
-  <si>
     <t>Arcane Blast</t>
   </si>
   <si>
@@ -2277,6 +2274,30 @@
   </si>
   <si>
     <t>2 fires/flames, 1 burst, 1 blast, 1 strike, 2 spell</t>
+  </si>
+  <si>
+    <t>Assault</t>
+  </si>
+  <si>
+    <t>Arcane Barrage</t>
+  </si>
+  <si>
+    <t>Nature's Blessing</t>
+  </si>
+  <si>
+    <t>Ancient Magic</t>
+  </si>
+  <si>
+    <t>Soul Siphon</t>
+  </si>
+  <si>
+    <t>Heals unit for 50% of damage done.</t>
+  </si>
+  <si>
+    <t>High critical hit chance.</t>
+  </si>
+  <si>
+    <t>Inflicts Bleed(3) on target.</t>
   </si>
 </sst>
 </file>
@@ -7931,7 +7952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -8073,12 +8094,12 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
   </sheetData>
@@ -8088,11 +8109,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L87"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8137,689 +8158,772 @@
         <v>137</v>
       </c>
       <c r="B2" s="69" t="s">
+        <v>703</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="50">
+        <v>55</v>
+      </c>
+      <c r="F2" s="50">
+        <v>1</v>
+      </c>
+      <c r="G2" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="69" t="s">
+        <v>704</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="50">
+        <v>50</v>
+      </c>
+      <c r="F3" s="50">
+        <v>2</v>
+      </c>
+      <c r="G3" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="69" t="s">
         <v>567</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>697</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C4" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="50">
+      <c r="E4" s="50">
         <v>45</v>
       </c>
-      <c r="F2" s="50">
+      <c r="F4" s="50">
         <v>2</v>
-      </c>
-      <c r="G2" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="69" t="s">
-        <v>582</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>583</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="E3" s="50">
-        <v>0</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>592</v>
-      </c>
-      <c r="G3" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="69" t="s">
-        <v>597</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>598</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="50">
-        <v>110</v>
-      </c>
-      <c r="F4" s="50">
-        <v>1</v>
       </c>
       <c r="G4" s="50">
         <v>2</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="69" t="s">
-        <v>629</v>
+        <v>582</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>630</v>
+        <v>583</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>11</v>
+        <v>591</v>
       </c>
       <c r="E5" s="50">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>592</v>
+      </c>
+      <c r="G5" s="50">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="69" t="s">
-        <v>632</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>633</v>
+        <v>597</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>598</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="50">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="F6" s="50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="50">
         <v>2</v>
       </c>
+      <c r="H6" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="69" t="s">
-        <v>662</v>
-      </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>630</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="69" t="s">
-        <v>663</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>632</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="50">
+        <v>25</v>
+      </c>
+      <c r="F8" s="50">
+        <v>2</v>
+      </c>
+      <c r="G8" s="50">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="69" t="s">
-        <v>685</v>
+        <v>662</v>
       </c>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="69" t="s">
-        <v>696</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="50">
-        <v>0</v>
-      </c>
-      <c r="F10" s="50">
-        <v>2</v>
-      </c>
-      <c r="G10" s="50">
-        <v>2</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="69" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="70" t="s">
-        <v>589</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>590</v>
+      <c r="B12" s="69" t="s">
+        <v>695</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>568</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="50">
-        <v>60</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>592</v>
+        <v>0</v>
+      </c>
+      <c r="F12" s="50">
+        <v>2</v>
       </c>
       <c r="G12" s="50">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
-      <c r="B13" s="70" t="s">
-        <v>599</v>
-      </c>
+      <c r="B13" s="69" t="s">
+        <v>699</v>
+      </c>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
+      <c r="A14" s="59" t="s">
+        <v>120</v>
+      </c>
       <c r="B14" s="70" t="s">
         <v>667</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>0</v>
+      </c>
+      <c r="E14" s="50">
+        <v>55</v>
+      </c>
+      <c r="F14" s="50">
+        <v>1</v>
+      </c>
+      <c r="G14" s="50">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="59"/>
       <c r="B15" s="70" t="s">
-        <v>671</v>
+        <v>706</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="50">
+        <v>50</v>
+      </c>
+      <c r="F15" s="50">
+        <v>2</v>
+      </c>
+      <c r="G15" s="50">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="59"/>
       <c r="B16" s="70" t="s">
-        <v>672</v>
+        <v>589</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>590</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="50">
+        <v>60</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>592</v>
+      </c>
+      <c r="G16" s="50">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="59"/>
       <c r="B17" s="70" t="s">
-        <v>681</v>
+        <v>599</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="59"/>
       <c r="B18" s="70" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="59"/>
       <c r="B19" s="70" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="59"/>
       <c r="B20" s="70" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="59"/>
       <c r="B21" s="70" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="60" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="59"/>
+      <c r="B22" s="70" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="59"/>
+      <c r="B23" s="70" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="59"/>
+      <c r="B24" s="70" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="60" t="s">
         <v>195</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B25" s="71" t="s">
         <v>569</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C25" s="47" t="s">
         <v>570</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="50">
+      <c r="G25" s="50">
         <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
-      <c r="B23" s="71" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
-      <c r="B24" s="71" t="s">
-        <v>656</v>
-      </c>
-      <c r="C24" s="47" t="s">
-        <v>657</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="50">
-        <v>50</v>
-      </c>
-      <c r="F24" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="71" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="60"/>
       <c r="B26" s="71" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="60"/>
       <c r="B27" s="71" t="s">
-        <v>691</v>
+        <v>656</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>657</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="50">
+        <v>50</v>
+      </c>
+      <c r="F27" s="50">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="60"/>
       <c r="B28" s="71" t="s">
-        <v>699</v>
+        <v>658</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="60"/>
       <c r="B29" s="71" t="s">
-        <v>701</v>
+        <v>664</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="60"/>
+      <c r="B30" s="71" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="60"/>
+      <c r="B31" s="71" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="60"/>
+      <c r="B32" s="71" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="B30" s="73" t="s">
+      <c r="B33" s="73" t="s">
         <v>636</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
-      <c r="B31" s="73" t="s">
-        <v>651</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>652</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="61"/>
-      <c r="B32" s="73" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="61"/>
-      <c r="B33" s="73" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="61"/>
       <c r="B34" s="73" t="s">
-        <v>694</v>
+        <v>651</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>652</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="50">
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="61"/>
       <c r="B35" s="73" t="s">
-        <v>695</v>
+        <v>659</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="61"/>
+      <c r="B36" s="73" t="s">
+        <v>677</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="50">
+        <v>70</v>
+      </c>
+      <c r="F36" s="50">
+        <v>2</v>
+      </c>
+      <c r="G36" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="61"/>
+      <c r="B37" s="73" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="61"/>
+      <c r="B38" s="73" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="B36" s="74" t="s">
+      <c r="B39" s="74" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="62"/>
-      <c r="B37" s="74" t="s">
+      <c r="C39" s="47" t="s">
+        <v>709</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="50">
+        <v>65</v>
+      </c>
+      <c r="F39" s="50">
+        <v>2</v>
+      </c>
+      <c r="G39" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="62"/>
+      <c r="B40" s="74" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="62"/>
-      <c r="B38" s="74" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="62"/>
+      <c r="B41" s="74" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="62"/>
-      <c r="B39" s="74" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="63" t="s">
-        <v>193</v>
-      </c>
-      <c r="B40" s="75" t="s">
-        <v>642</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="63"/>
-      <c r="B41" s="75" t="s">
-        <v>645</v>
+      <c r="C41" s="5" t="s">
+        <v>710</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="63"/>
-      <c r="B42" s="75" t="s">
+      <c r="E41" s="50">
+        <v>50</v>
+      </c>
+      <c r="F41" s="50">
+        <v>2</v>
+      </c>
+      <c r="G41" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="62"/>
+      <c r="B42" s="74" t="s">
+        <v>707</v>
+      </c>
+      <c r="C42" s="47" t="s">
+        <v>708</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="50">
+        <v>55</v>
+      </c>
+      <c r="F42" s="50">
+        <v>2</v>
+      </c>
+      <c r="G42" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="B43" s="75" t="s">
+        <v>642</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="63"/>
+      <c r="B44" s="75" t="s">
+        <v>645</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="63"/>
+      <c r="B45" s="75" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="63"/>
-      <c r="B43" s="75" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="63"/>
+      <c r="B46" s="75" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="64" t="s">
+    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="72" t="s">
+      <c r="B47" s="72" t="s">
         <v>580</v>
       </c>
-      <c r="C44" s="47" t="s">
+      <c r="C47" s="47" t="s">
         <v>581</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D47" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="E44" s="50">
+      <c r="E47" s="50">
         <v>0</v>
       </c>
-      <c r="F44" s="50" t="s">
+      <c r="F47" s="50" t="s">
         <v>592</v>
-      </c>
-      <c r="G44" s="50">
-        <v>2</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="64"/>
-      <c r="B45" s="72" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
-      <c r="B46" s="72" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="64"/>
-      <c r="B47" s="72" t="s">
-        <v>579</v>
-      </c>
-      <c r="C47" s="47" t="s">
-        <v>634</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="50">
-        <v>45</v>
-      </c>
-      <c r="F47" s="50">
-        <v>2</v>
       </c>
       <c r="G47" s="50">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H47" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="64"/>
       <c r="B48" s="72" t="s">
-        <v>653</v>
-      </c>
-      <c r="C48" s="47" t="s">
-        <v>654</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="50">
-        <v>80</v>
-      </c>
-      <c r="G48" s="50">
-        <v>4</v>
+        <v>668</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="64"/>
-      <c r="B49" s="72"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="72" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="64"/>
       <c r="B50" s="72" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="51" t="s">
+        <v>579</v>
+      </c>
+      <c r="C50" s="47" t="s">
+        <v>634</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="50">
+        <v>45</v>
+      </c>
+      <c r="F50" s="50">
+        <v>2</v>
+      </c>
+      <c r="G50" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="64"/>
+      <c r="B51" s="72" t="s">
+        <v>653</v>
+      </c>
+      <c r="C51" s="47" t="s">
+        <v>654</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="50">
+        <v>80</v>
+      </c>
+      <c r="G51" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="64"/>
+      <c r="B52" s="72"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="64"/>
+      <c r="B53" s="72" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="51" t="s">
         <v>584</v>
       </c>
-      <c r="L55" s="56"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="L58" s="56"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B59" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="C56" s="47" t="s">
+      <c r="C59" s="47" t="s">
         <v>635</v>
       </c>
-      <c r="L56" s="56"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="L59" s="56"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B60" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="C57" s="47" t="s">
+      <c r="C60" s="47" t="s">
         <v>644</v>
       </c>
-      <c r="L57" s="56"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="4" t="s">
+      <c r="L60" s="56"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="L58" s="56"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="4" t="s">
+      <c r="L61" s="56"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="L59" s="56"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="59" t="s">
+      <c r="L62" s="56"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="B60" s="57" t="s">
+      <c r="B63" s="57" t="s">
         <v>680</v>
       </c>
-      <c r="L60" s="56"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="59"/>
-      <c r="B61" s="57" t="s">
+      <c r="L63" s="56"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="59"/>
+      <c r="B64" s="57" t="s">
         <v>681</v>
       </c>
-      <c r="L61" s="56"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="59"/>
-      <c r="B62" s="57" t="s">
+      <c r="L64" s="56"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="59"/>
+      <c r="B65" s="57" t="s">
+        <v>688</v>
+      </c>
+      <c r="L65" s="56"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="59"/>
+      <c r="B66" s="57" t="s">
+        <v>705</v>
+      </c>
+      <c r="L66" s="56"/>
+    </row>
+    <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="B67" s="58" t="s">
+        <v>595</v>
+      </c>
+      <c r="C67" s="47" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="B68" s="65"/>
+      <c r="L68" s="56"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="B69" s="66" t="s">
+        <v>661</v>
+      </c>
+      <c r="L69" s="56"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="62"/>
+      <c r="B70" s="66" t="s">
         <v>689</v>
       </c>
-      <c r="L62" s="56"/>
-    </row>
-    <row r="63" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="60" t="s">
-        <v>195</v>
-      </c>
-      <c r="B63" s="58" t="s">
-        <v>595</v>
-      </c>
-      <c r="C63" s="47" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="61" t="s">
-        <v>196</v>
-      </c>
-      <c r="B64" s="65"/>
-      <c r="L64" s="56"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="B65" s="66" t="s">
-        <v>661</v>
-      </c>
-      <c r="L65" s="56"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="62"/>
-      <c r="B66" s="66" t="s">
-        <v>690</v>
-      </c>
-      <c r="L66" s="56"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="63" t="s">
+      <c r="L70" s="56"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="B67" s="67" t="s">
+      <c r="B71" s="67" t="s">
         <v>676</v>
       </c>
-      <c r="L67" s="56"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="63"/>
-      <c r="B68" s="67" t="s">
+      <c r="L71" s="56"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="63"/>
+      <c r="B72" s="67" t="s">
         <v>678</v>
       </c>
-      <c r="L68" s="56"/>
-    </row>
-    <row r="69" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="64" t="s">
+      <c r="L72" s="56"/>
+    </row>
+    <row r="73" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="B69" s="68" t="s">
+      <c r="B73" s="68" t="s">
         <v>593</v>
       </c>
-      <c r="C69" s="47" t="s">
+      <c r="C73" s="47" t="s">
         <v>594</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="H73" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L69" s="56"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="64"/>
-      <c r="B70" s="68" t="s">
+      <c r="L73" s="56"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="64"/>
+      <c r="B74" s="68" t="s">
         <v>674</v>
       </c>
-      <c r="L70" s="56"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="64"/>
-      <c r="B71" s="68" t="s">
+      <c r="L74" s="56"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="64"/>
+      <c r="B75" s="68" t="s">
         <v>679</v>
       </c>
-      <c r="L71" s="56"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="64"/>
-      <c r="B72" s="68" t="s">
-        <v>693</v>
-      </c>
-      <c r="L72" s="56"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="51" t="s">
+      <c r="L75" s="56"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="64"/>
+      <c r="B76" s="68" t="s">
+        <v>692</v>
+      </c>
+      <c r="L76" s="56"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="51" t="s">
         <v>600</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="C75" s="47" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="C76" s="47" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="C77" s="47" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="C78" s="47" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -8827,10 +8931,10 @@
         <v>137</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C79" s="47" t="s">
-        <v>588</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -8838,117 +8942,161 @@
         <v>137</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C80" s="47" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C81" s="47" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="C82" s="47" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="C83" s="47" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="C80" s="47" t="s">
+      <c r="C84" s="47" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B81" s="4" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="59" t="s">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="B82" s="70" t="s">
+      <c r="B86" s="70" t="s">
         <v>640</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E82" s="50">
-        <v>135</v>
-      </c>
-      <c r="G82" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="60" t="s">
-        <v>195</v>
-      </c>
-      <c r="B83" s="69" t="s">
-        <v>639</v>
-      </c>
-      <c r="C83" s="47" t="s">
-        <v>570</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="50">
-        <v>120</v>
-      </c>
-      <c r="G83" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="61" t="s">
-        <v>196</v>
-      </c>
-      <c r="B84" s="69" t="s">
-        <v>641</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E84" s="50">
-        <v>140</v>
-      </c>
-      <c r="G84" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="B85" s="69" t="s">
-        <v>638</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="50">
-        <v>135</v>
-      </c>
-      <c r="G85" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="63" t="s">
-        <v>193</v>
-      </c>
-      <c r="B86" s="69" t="s">
-        <v>637</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E86" s="50">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G86" s="50">
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="B87" s="69"/>
+    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="B87" s="69" t="s">
+        <v>639</v>
+      </c>
+      <c r="C87" s="47" t="s">
+        <v>570</v>
+      </c>
       <c r="D87" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E87" s="50">
+        <v>120</v>
+      </c>
+      <c r="G87" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="B88" s="69" t="s">
+        <v>641</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" s="50">
+        <v>140</v>
+      </c>
+      <c r="G88" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="B89" s="69" t="s">
+        <v>638</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="50">
         <v>135</v>
       </c>
-      <c r="G87" s="50">
+      <c r="G89" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="B90" s="69" t="s">
+        <v>637</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90" s="50">
+        <v>140</v>
+      </c>
+      <c r="G90" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="B91" s="69"/>
+      <c r="D91" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="50">
+        <v>135</v>
+      </c>
+      <c r="G91" s="50">
         <v>4</v>
       </c>
     </row>

--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="713">
   <si>
     <t>physical</t>
   </si>
@@ -2298,6 +2298,12 @@
   </si>
   <si>
     <t>Inflicts Bleed(3) on target.</t>
+  </si>
+  <si>
+    <t>Smite</t>
+  </si>
+  <si>
+    <t>After combat gain a shield equal to 100% damage dealt.</t>
   </si>
 </sst>
 </file>
@@ -8109,11 +8115,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8416,10 +8422,25 @@
         <v>683</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="59"/>
       <c r="B21" s="70" t="s">
         <v>685</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>712</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="50">
+        <v>55</v>
+      </c>
+      <c r="F21" s="50">
+        <v>2</v>
+      </c>
+      <c r="G21" s="50">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -8480,6 +8501,9 @@
       <c r="F27" s="50">
         <v>1</v>
       </c>
+      <c r="G27" s="50">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="60"/>
@@ -8658,126 +8682,135 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="63"/>
       <c r="B44" s="75" t="s">
-        <v>645</v>
+        <v>711</v>
+      </c>
+      <c r="C44" s="47" t="s">
+        <v>709</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="E44" s="50">
+        <v>70</v>
+      </c>
+      <c r="F44" s="50">
+        <v>1</v>
+      </c>
+      <c r="G44" s="50">
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="63"/>
       <c r="B45" s="75" t="s">
-        <v>673</v>
+        <v>645</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="63"/>
       <c r="B46" s="75" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="63"/>
+      <c r="B47" s="75" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="64" t="s">
+    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="72" t="s">
+      <c r="B48" s="72" t="s">
         <v>580</v>
       </c>
-      <c r="C47" s="47" t="s">
+      <c r="C48" s="47" t="s">
         <v>581</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D48" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="E47" s="50">
+      <c r="E48" s="50">
         <v>0</v>
       </c>
-      <c r="F47" s="50" t="s">
+      <c r="F48" s="50" t="s">
         <v>592</v>
       </c>
-      <c r="G47" s="50">
+      <c r="G48" s="50">
         <v>2</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H48" s="4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="64"/>
-      <c r="B48" s="72" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="64"/>
       <c r="B49" s="72" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="64"/>
       <c r="B50" s="72" t="s">
-        <v>579</v>
-      </c>
-      <c r="C50" s="47" t="s">
-        <v>634</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="50">
-        <v>45</v>
-      </c>
-      <c r="F50" s="50">
-        <v>2</v>
-      </c>
-      <c r="G50" s="50">
-        <v>2</v>
+        <v>670</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="64"/>
       <c r="B51" s="72" t="s">
-        <v>653</v>
+        <v>579</v>
       </c>
       <c r="C51" s="47" t="s">
-        <v>654</v>
+        <v>634</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="50">
+        <v>45</v>
+      </c>
+      <c r="F51" s="50">
+        <v>2</v>
+      </c>
+      <c r="G51" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="64"/>
+      <c r="B52" s="72" t="s">
+        <v>653</v>
+      </c>
+      <c r="C52" s="47" t="s">
+        <v>654</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="50">
         <v>80</v>
       </c>
-      <c r="G51" s="50">
+      <c r="G52" s="50">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="64"/>
-      <c r="B52" s="72"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="64"/>
-      <c r="B53" s="72" t="s">
+      <c r="B53" s="72"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="64"/>
+      <c r="B54" s="72" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="51" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="51" t="s">
         <v>584</v>
-      </c>
-      <c r="L58" s="56"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="C59" s="47" t="s">
-        <v>635</v>
       </c>
       <c r="L59" s="56"/>
     </row>
@@ -8786,155 +8819,156 @@
         <v>137</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="C60" s="47" t="s">
+        <v>635</v>
+      </c>
+      <c r="L60" s="56"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="C60" s="47" t="s">
+      <c r="C61" s="47" t="s">
         <v>644</v>
-      </c>
-      <c r="L60" s="56"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="4" t="s">
-        <v>665</v>
       </c>
       <c r="L61" s="56"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="L62" s="56"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="L62" s="56"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="59" t="s">
+      <c r="L63" s="56"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="B63" s="57" t="s">
+      <c r="B64" s="57" t="s">
         <v>680</v>
-      </c>
-      <c r="L63" s="56"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="59"/>
-      <c r="B64" s="57" t="s">
-        <v>681</v>
       </c>
       <c r="L64" s="56"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="59"/>
       <c r="B65" s="57" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="L65" s="56"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="59"/>
       <c r="B66" s="57" t="s">
+        <v>688</v>
+      </c>
+      <c r="L66" s="56"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="59"/>
+      <c r="B67" s="57" t="s">
         <v>705</v>
       </c>
-      <c r="L66" s="56"/>
-    </row>
-    <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="60" t="s">
+      <c r="L67" s="56"/>
+    </row>
+    <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="60" t="s">
         <v>195</v>
       </c>
-      <c r="B67" s="58" t="s">
+      <c r="B68" s="58" t="s">
         <v>595</v>
       </c>
-      <c r="C67" s="47" t="s">
+      <c r="C68" s="47" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="61" t="s">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="B68" s="65"/>
-      <c r="L68" s="56"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="62" t="s">
+      <c r="B69" s="65"/>
+      <c r="L69" s="56"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="B69" s="66" t="s">
+      <c r="B70" s="66" t="s">
         <v>661</v>
       </c>
-      <c r="L69" s="56"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="62"/>
-      <c r="B70" s="66" t="s">
+      <c r="L70" s="56"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="62"/>
+      <c r="B71" s="66" t="s">
         <v>689</v>
       </c>
-      <c r="L70" s="56"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="63" t="s">
+      <c r="L71" s="56"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="B71" s="67" t="s">
+      <c r="B72" s="67" t="s">
         <v>676</v>
       </c>
-      <c r="L71" s="56"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="63"/>
-      <c r="B72" s="67" t="s">
+      <c r="L72" s="56"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="63"/>
+      <c r="B73" s="67" t="s">
         <v>678</v>
       </c>
-      <c r="L72" s="56"/>
-    </row>
-    <row r="73" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="64" t="s">
+      <c r="L73" s="56"/>
+    </row>
+    <row r="74" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="B73" s="68" t="s">
+      <c r="B74" s="68" t="s">
         <v>593</v>
       </c>
-      <c r="C73" s="47" t="s">
+      <c r="C74" s="47" t="s">
         <v>594</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="H74" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="L73" s="56"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="64"/>
-      <c r="B74" s="68" t="s">
-        <v>674</v>
       </c>
       <c r="L74" s="56"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="64"/>
       <c r="B75" s="68" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="L75" s="56"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="64"/>
       <c r="B76" s="68" t="s">
+        <v>679</v>
+      </c>
+      <c r="L76" s="56"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="64"/>
+      <c r="B77" s="68" t="s">
         <v>692</v>
       </c>
-      <c r="L76" s="56"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="51" t="s">
+      <c r="L77" s="56"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="51" t="s">
         <v>600</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="C79" s="47" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -8942,10 +8976,10 @@
         <v>137</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C80" s="47" t="s">
-        <v>586</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -8953,10 +8987,10 @@
         <v>137</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C81" s="47" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -8964,10 +8998,10 @@
         <v>137</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C82" s="47" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -8975,10 +9009,10 @@
         <v>137</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C83" s="47" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -8986,117 +9020,128 @@
         <v>137</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="C84" s="47" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="C84" s="47" t="s">
+      <c r="C85" s="47" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="4" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="59" t="s">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="B86" s="70" t="s">
+      <c r="B87" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D87" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E86" s="50">
+      <c r="E87" s="50">
         <v>135</v>
-      </c>
-      <c r="G86" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="60" t="s">
-        <v>195</v>
-      </c>
-      <c r="B87" s="69" t="s">
-        <v>639</v>
-      </c>
-      <c r="C87" s="47" t="s">
-        <v>570</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="50">
-        <v>120</v>
       </c>
       <c r="G87" s="50">
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="61" t="s">
-        <v>196</v>
+    <row r="88" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="60" t="s">
+        <v>195</v>
       </c>
       <c r="B88" s="69" t="s">
-        <v>641</v>
+        <v>639</v>
+      </c>
+      <c r="C88" s="47" t="s">
+        <v>570</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E88" s="50">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="G88" s="50">
         <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="62" t="s">
-        <v>194</v>
+      <c r="A89" s="61" t="s">
+        <v>196</v>
       </c>
       <c r="B89" s="69" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E89" s="50">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G89" s="50">
         <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="63" t="s">
-        <v>193</v>
+      <c r="A90" s="62" t="s">
+        <v>194</v>
       </c>
       <c r="B90" s="69" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E90" s="50">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G90" s="50">
         <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="64" t="s">
+      <c r="A91" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="B91" s="69" t="s">
+        <v>637</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" s="50">
+        <v>140</v>
+      </c>
+      <c r="G91" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="B91" s="69"/>
-      <c r="D91" s="6" t="s">
+      <c r="B92" s="69"/>
+      <c r="D92" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E91" s="50">
+      <c r="E92" s="50">
         <v>135</v>
       </c>
-      <c r="G91" s="50">
+      <c r="G92" s="50">
         <v>4</v>
       </c>
     </row>

--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Overview" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="619">
   <si>
     <t>physical</t>
   </si>
@@ -1712,9 +1712,6 @@
     <t>Nature's Blessing</t>
   </si>
   <si>
-    <t>Ancient Magic</t>
-  </si>
-  <si>
     <t>Soul Siphon</t>
   </si>
   <si>
@@ -1833,6 +1830,63 @@
   </si>
   <si>
     <t>Leech</t>
+  </si>
+  <si>
+    <t>Blood Lord</t>
+  </si>
+  <si>
+    <t>Unit deals increased damage (10%) to Bleeding targets.</t>
+  </si>
+  <si>
+    <t>Petrify</t>
+  </si>
+  <si>
+    <t>Envenom</t>
+  </si>
+  <si>
+    <t>All damage dealt by unit inflicts Bleed(2) on target.</t>
+  </si>
+  <si>
+    <t>Dark Priest</t>
+  </si>
+  <si>
+    <t>Increases all healing done (by 10%).</t>
+  </si>
+  <si>
+    <t>Inflicts Sleep(4) on target.</t>
+  </si>
+  <si>
+    <t>Deals more damage the lower health unit is.</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Retaliate</t>
+  </si>
+  <si>
+    <t>Inflicts Cursed(2) on target. (Cursed: target takes double damage from any source and removes Cursed.)</t>
+  </si>
+  <si>
+    <t>Mummify</t>
+  </si>
+  <si>
+    <t>Vampirism</t>
+  </si>
+  <si>
+    <t>Guardian Angel</t>
+  </si>
+  <si>
+    <t>Units heals for 10% of all damage done.</t>
+  </si>
+  <si>
+    <t>At the start of each round, unit gains a shield for 10% of it's max Health (missing health?).</t>
+  </si>
+  <si>
+    <t>Golden Charge</t>
+  </si>
+  <si>
+    <t>Inflicts Bleed(2) and grants all allies a shield for 5% of units current health.</t>
   </si>
 </sst>
 </file>
@@ -2069,7 +2123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2248,6 +2302,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3352,9 +3409,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R128"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L114" sqref="L114"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3548,6 +3605,9 @@
         <f t="shared" si="0"/>
         <v>278</v>
       </c>
+      <c r="O5" s="74" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
@@ -3782,6 +3842,9 @@
         <f>SUM(D12:I12)</f>
         <v>257</v>
       </c>
+      <c r="O12" s="74" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
@@ -3815,6 +3878,9 @@
         <f t="shared" si="0"/>
         <v>258</v>
       </c>
+      <c r="N13" s="74" t="s">
+        <v>515</v>
+      </c>
       <c r="P13" t="s">
         <v>293</v>
       </c>
@@ -3920,6 +3986,9 @@
         <f t="shared" si="0"/>
         <v>327</v>
       </c>
+      <c r="O16" s="69" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
@@ -4052,6 +4121,9 @@
         <f t="shared" si="0"/>
         <v>356</v>
       </c>
+      <c r="M20" s="4" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
@@ -4085,6 +4157,9 @@
         <f t="shared" si="0"/>
         <v>356</v>
       </c>
+      <c r="M21" s="4" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
@@ -4118,6 +4193,9 @@
         <f t="shared" si="0"/>
         <v>392</v>
       </c>
+      <c r="O22" s="71" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
@@ -4151,6 +4229,9 @@
         <f t="shared" si="0"/>
         <v>434</v>
       </c>
+      <c r="N23" s="71" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
@@ -4184,6 +4265,9 @@
         <f t="shared" si="0"/>
         <v>390</v>
       </c>
+      <c r="N24" s="71" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
@@ -4217,6 +4301,9 @@
         <f t="shared" si="0"/>
         <v>271</v>
       </c>
+      <c r="N26" s="4" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
@@ -4385,6 +4472,9 @@
         <f t="shared" si="0"/>
         <v>285</v>
       </c>
+      <c r="L31" s="4" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
@@ -4418,6 +4508,9 @@
         <f t="shared" si="0"/>
         <v>264</v>
       </c>
+      <c r="L32" s="4" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
@@ -4475,7 +4568,7 @@
         <v>92</v>
       </c>
       <c r="G34" s="28">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H34" s="28">
         <v>59</v>
@@ -4485,7 +4578,7 @@
       </c>
       <c r="J34" s="28">
         <f t="shared" si="0"/>
-        <v>338</v>
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -4505,10 +4598,10 @@
         <v>13</v>
       </c>
       <c r="F35" s="28">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G35" s="28">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="H35" s="28">
         <v>71</v>
@@ -4518,7 +4611,7 @@
       </c>
       <c r="J35" s="28">
         <f t="shared" si="0"/>
-        <v>298</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -4538,7 +4631,7 @@
         <v>39</v>
       </c>
       <c r="F36" s="28">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G36" s="28">
         <v>58</v>
@@ -4551,7 +4644,7 @@
       </c>
       <c r="J36" s="28">
         <f t="shared" si="0"/>
-        <v>306</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -4799,7 +4892,7 @@
         <v>40</v>
       </c>
       <c r="J43" s="28">
-        <f>SUM(D43:I43)</f>
+        <f t="shared" ref="J43:J48" si="1">SUM(D43:I43)</f>
         <v>287</v>
       </c>
     </row>
@@ -4832,7 +4925,7 @@
         <v>39</v>
       </c>
       <c r="J44" s="28">
-        <f>SUM(D44:I44)</f>
+        <f t="shared" si="1"/>
         <v>283</v>
       </c>
     </row>
@@ -4865,7 +4958,7 @@
         <v>56</v>
       </c>
       <c r="J45" s="28">
-        <f>SUM(D45:I45)</f>
+        <f t="shared" si="1"/>
         <v>554</v>
       </c>
       <c r="P45" t="s">
@@ -4880,7 +4973,7 @@
         <v>189</v>
       </c>
       <c r="C46" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D46" s="28">
         <v>99</v>
@@ -4901,14 +4994,14 @@
         <v>90</v>
       </c>
       <c r="J46" s="28">
-        <f>SUM(D46:I46)</f>
+        <f t="shared" si="1"/>
         <v>494</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L46" s="74" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="N46" s="70" t="s">
         <v>539</v>
@@ -4922,7 +5015,7 @@
         <v>189</v>
       </c>
       <c r="C47" s="44" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D47" s="28">
         <v>99</v>
@@ -4943,14 +5036,14 @@
         <v>64</v>
       </c>
       <c r="J47" s="28">
-        <f>SUM(D47:I47)</f>
+        <f t="shared" si="1"/>
         <v>480</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L47" s="74" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -4961,7 +5054,7 @@
         <v>189</v>
       </c>
       <c r="C48" s="44" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D48" s="28">
         <v>110</v>
@@ -4982,14 +5075,20 @@
         <v>90</v>
       </c>
       <c r="J48" s="28">
-        <f>SUM(D48:I48)</f>
+        <f t="shared" si="1"/>
         <v>551</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L48" s="74" t="s">
-        <v>561</v>
+        <v>560</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="N48" s="74" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -5093,6 +5192,9 @@
         <f t="shared" si="0"/>
         <v>397</v>
       </c>
+      <c r="O52" s="74" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="53" spans="1:18">
       <c r="A53" t="s">
@@ -5159,7 +5261,7 @@
         <v>54</v>
       </c>
       <c r="J54" s="28">
-        <f t="shared" ref="J54:J60" si="1">SUM(D54:I54)</f>
+        <f t="shared" ref="J54:J60" si="2">SUM(D54:I54)</f>
         <v>366</v>
       </c>
     </row>
@@ -5192,7 +5294,7 @@
         <v>58</v>
       </c>
       <c r="J55" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>338</v>
       </c>
     </row>
@@ -5225,7 +5327,7 @@
         <v>44</v>
       </c>
       <c r="J56" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>295</v>
       </c>
     </row>
@@ -5258,7 +5360,7 @@
         <v>73</v>
       </c>
       <c r="J57" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>401</v>
       </c>
       <c r="M57" s="71" t="s">
@@ -5297,7 +5399,7 @@
         <v>60</v>
       </c>
       <c r="J58" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>420</v>
       </c>
       <c r="P58" t="s">
@@ -5336,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>333</v>
       </c>
       <c r="M59" s="71" t="s">
@@ -5378,7 +5480,7 @@
         <v>71</v>
       </c>
       <c r="J60" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>443</v>
       </c>
       <c r="K60" s="71" t="s">
@@ -5417,7 +5519,7 @@
         <v>99</v>
       </c>
       <c r="J61" s="28">
-        <f t="shared" ref="J61:J66" si="2">SUM(D61:I61)</f>
+        <f t="shared" ref="J61:J66" si="3">SUM(D61:I61)</f>
         <v>451</v>
       </c>
       <c r="M61" s="71" t="s">
@@ -5453,7 +5555,7 @@
         <v>111</v>
       </c>
       <c r="J62" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>494</v>
       </c>
       <c r="K62" s="71" t="s">
@@ -5492,8 +5594,11 @@
         <v>98</v>
       </c>
       <c r="J63" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>445</v>
+      </c>
+      <c r="K63" s="73" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -5525,7 +5630,7 @@
         <v>76</v>
       </c>
       <c r="J64" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>428</v>
       </c>
       <c r="N64" s="71" t="s">
@@ -5564,7 +5669,7 @@
         <v>50</v>
       </c>
       <c r="J65" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>381</v>
       </c>
       <c r="N65" s="71" t="s">
@@ -5603,8 +5708,11 @@
         <v>58</v>
       </c>
       <c r="J66" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>456</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -5642,6 +5750,9 @@
         <f>SUM(D68:I68)</f>
         <v>402</v>
       </c>
+      <c r="N68" s="75" t="s">
+        <v>564</v>
+      </c>
       <c r="P68" t="s">
         <v>216</v>
       </c>
@@ -5741,8 +5852,11 @@
         <v>87</v>
       </c>
       <c r="J71" s="28">
-        <f t="shared" ref="J71:J81" si="3">SUM(D71:I71)</f>
+        <f t="shared" ref="J71:J81" si="4">SUM(D71:I71)</f>
         <v>400</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>613</v>
       </c>
       <c r="P71" t="s">
         <v>260</v>
@@ -5777,8 +5891,11 @@
         <v>68</v>
       </c>
       <c r="J72" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>313</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>613</v>
       </c>
       <c r="P72" t="s">
         <v>262</v>
@@ -5813,7 +5930,7 @@
         <v>64</v>
       </c>
       <c r="J73" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>339</v>
       </c>
       <c r="P73" t="s">
@@ -5849,7 +5966,7 @@
         <v>56</v>
       </c>
       <c r="J74" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>329</v>
       </c>
     </row>
@@ -5882,8 +5999,17 @@
         <v>76</v>
       </c>
       <c r="J75" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>367</v>
+      </c>
+      <c r="K75" s="75" t="s">
+        <v>582</v>
+      </c>
+      <c r="N75" s="75" t="s">
+        <v>596</v>
+      </c>
+      <c r="O75" s="73" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5915,7 +6041,7 @@
         <v>73</v>
       </c>
       <c r="J76" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>310</v>
       </c>
       <c r="P76" t="s">
@@ -5951,8 +6077,20 @@
         <v>39</v>
       </c>
       <c r="J77" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>328</v>
+      </c>
+      <c r="K77" s="75" t="s">
+        <v>582</v>
+      </c>
+      <c r="L77" s="73" t="s">
+        <v>531</v>
+      </c>
+      <c r="M77" s="74" t="s">
+        <v>612</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>613</v>
       </c>
       <c r="P77" t="s">
         <v>304</v>
@@ -5987,8 +6125,23 @@
         <v>79</v>
       </c>
       <c r="J78" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>413</v>
+      </c>
+      <c r="K78" s="71" t="s">
+        <v>425</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="M78" s="70" t="s">
+        <v>455</v>
+      </c>
+      <c r="N78" s="74" t="s">
+        <v>524</v>
+      </c>
+      <c r="O78" s="70" t="s">
+        <v>526</v>
       </c>
       <c r="P78" t="s">
         <v>305</v>
@@ -6023,8 +6176,17 @@
         <v>53</v>
       </c>
       <c r="J79" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>519</v>
+      </c>
+      <c r="K79" s="73" t="s">
+        <v>599</v>
+      </c>
+      <c r="L79" s="76" t="s">
+        <v>600</v>
+      </c>
+      <c r="M79" s="75" t="s">
+        <v>596</v>
       </c>
       <c r="P79" t="s">
         <v>303</v>
@@ -6059,8 +6221,11 @@
         <v>96</v>
       </c>
       <c r="J80" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>429</v>
+      </c>
+      <c r="K80" s="75" t="s">
+        <v>564</v>
       </c>
       <c r="P80" t="s">
         <v>319</v>
@@ -6095,7 +6260,7 @@
         <v>96</v>
       </c>
       <c r="J81" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>428</v>
       </c>
     </row>
@@ -6128,8 +6293,11 @@
         <v>61</v>
       </c>
       <c r="J83" s="28">
-        <f t="shared" ref="J83:J92" si="4">SUM(D83:I83)</f>
+        <f t="shared" ref="J83:J92" si="5">SUM(D83:I83)</f>
         <v>351</v>
+      </c>
+      <c r="O83" s="73" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -6161,8 +6329,14 @@
         <v>62</v>
       </c>
       <c r="J84" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>379</v>
+      </c>
+      <c r="K84" s="74" t="s">
+        <v>573</v>
+      </c>
+      <c r="N84" s="74" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -6194,8 +6368,17 @@
         <v>40</v>
       </c>
       <c r="J85" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>367</v>
+      </c>
+      <c r="L85" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="N85" s="73" t="s">
+        <v>599</v>
+      </c>
+      <c r="O85" s="74" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -6227,8 +6410,17 @@
         <v>58</v>
       </c>
       <c r="J86" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>401</v>
+      </c>
+      <c r="L86" s="74" t="s">
+        <v>515</v>
+      </c>
+      <c r="M86" s="73" t="s">
+        <v>514</v>
+      </c>
+      <c r="N86" s="74" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -6260,8 +6452,14 @@
         <v>64</v>
       </c>
       <c r="J87" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>412</v>
+      </c>
+      <c r="K87" s="73" t="s">
+        <v>514</v>
+      </c>
+      <c r="N87" s="74" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -6293,8 +6491,11 @@
         <v>66</v>
       </c>
       <c r="J88" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>381</v>
+      </c>
+      <c r="L88" s="75" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -6326,8 +6527,11 @@
         <v>69</v>
       </c>
       <c r="J89" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>395</v>
+      </c>
+      <c r="L89" s="75" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -6359,7 +6563,7 @@
         <v>80</v>
       </c>
       <c r="J90" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>435</v>
       </c>
       <c r="P90" t="s">
@@ -6395,8 +6599,14 @@
         <v>45</v>
       </c>
       <c r="J91" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>387</v>
+      </c>
+      <c r="L91" s="73" t="s">
+        <v>531</v>
+      </c>
+      <c r="O91" s="73" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -6428,8 +6638,11 @@
         <v>89</v>
       </c>
       <c r="J92" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>392</v>
+      </c>
+      <c r="L92" s="74" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6461,8 +6674,14 @@
         <v>20</v>
       </c>
       <c r="J94" s="28">
-        <f t="shared" ref="J94:J106" si="5">SUM(D94:I94)</f>
+        <f t="shared" ref="J94:J106" si="6">SUM(D94:I94)</f>
         <v>318</v>
+      </c>
+      <c r="N94" s="73" t="s">
+        <v>599</v>
+      </c>
+      <c r="O94" s="70" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6494,7 +6713,7 @@
         <v>59</v>
       </c>
       <c r="J95" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>402</v>
       </c>
     </row>
@@ -6527,8 +6746,23 @@
         <v>73</v>
       </c>
       <c r="J96" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>415</v>
+      </c>
+      <c r="K96" s="75" t="s">
+        <v>602</v>
+      </c>
+      <c r="L96" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="M96" s="73" t="s">
+        <v>531</v>
+      </c>
+      <c r="N96" s="70" t="s">
+        <v>537</v>
+      </c>
+      <c r="O96" s="69" t="s">
+        <v>453</v>
       </c>
       <c r="P96" t="s">
         <v>314</v>
@@ -6563,8 +6797,23 @@
         <v>73</v>
       </c>
       <c r="J97" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>435</v>
+      </c>
+      <c r="K97" s="75" t="s">
+        <v>602</v>
+      </c>
+      <c r="L97" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="M97" s="73" t="s">
+        <v>531</v>
+      </c>
+      <c r="N97" s="75" t="s">
+        <v>500</v>
+      </c>
+      <c r="O97" s="69" t="s">
+        <v>453</v>
       </c>
       <c r="P97" t="s">
         <v>315</v>
@@ -6581,13 +6830,13 @@
         <v>312</v>
       </c>
       <c r="D98" s="28">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E98" s="28">
         <v>45</v>
       </c>
       <c r="F98" s="28">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="G98" s="28">
         <v>96</v>
@@ -6599,8 +6848,23 @@
         <v>73</v>
       </c>
       <c r="J98" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>435</v>
+      </c>
+      <c r="K98" s="75" t="s">
+        <v>602</v>
+      </c>
+      <c r="L98" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="M98" s="73" t="s">
+        <v>531</v>
+      </c>
+      <c r="N98" s="72" t="s">
+        <v>435</v>
+      </c>
+      <c r="O98" s="69" t="s">
+        <v>453</v>
       </c>
       <c r="P98" t="s">
         <v>316</v>
@@ -6635,7 +6899,7 @@
         <v>48</v>
       </c>
       <c r="J99" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>396</v>
       </c>
       <c r="P99" t="s">
@@ -6671,8 +6935,11 @@
         <v>43</v>
       </c>
       <c r="J100" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>431</v>
+      </c>
+      <c r="K100" s="69" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6704,8 +6971,11 @@
         <v>60</v>
       </c>
       <c r="J101" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>640</v>
+      </c>
+      <c r="K101" s="75" t="s">
+        <v>564</v>
       </c>
       <c r="M101" t="s">
         <v>505</v>
@@ -6740,8 +7010,14 @@
         <v>89</v>
       </c>
       <c r="J102" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>670</v>
+      </c>
+      <c r="K102" s="75" t="s">
+        <v>564</v>
+      </c>
+      <c r="L102" s="70" t="s">
+        <v>526</v>
       </c>
       <c r="M102" t="s">
         <v>504</v>
@@ -6776,8 +7052,11 @@
         <v>114</v>
       </c>
       <c r="J103" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>735</v>
+      </c>
+      <c r="K103" s="69" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6809,8 +7088,11 @@
         <v>76</v>
       </c>
       <c r="J104" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>700</v>
+      </c>
+      <c r="K104" s="75" t="s">
+        <v>564</v>
       </c>
       <c r="M104" t="s">
         <v>503</v>
@@ -6845,8 +7127,11 @@
         <v>66</v>
       </c>
       <c r="J105" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>700</v>
+      </c>
+      <c r="K105" s="75" t="s">
+        <v>564</v>
       </c>
       <c r="M105" t="s">
         <v>502</v>
@@ -6881,8 +7166,11 @@
         <v>89</v>
       </c>
       <c r="J106" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>867</v>
+      </c>
+      <c r="K106" s="75" t="s">
+        <v>564</v>
       </c>
       <c r="M106" t="s">
         <v>501</v>
@@ -6917,7 +7205,7 @@
         <v>52</v>
       </c>
       <c r="J108" s="28">
-        <f t="shared" ref="J108:J116" si="6">SUM(D108:I108)</f>
+        <f t="shared" ref="J108:J116" si="7">SUM(D108:I108)</f>
         <v>459</v>
       </c>
     </row>
@@ -6950,7 +7238,7 @@
         <v>60</v>
       </c>
       <c r="J109" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>430</v>
       </c>
       <c r="K109" s="69" t="s">
@@ -6992,7 +7280,7 @@
         <v>62</v>
       </c>
       <c r="J110" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>439</v>
       </c>
       <c r="K110" s="69" t="s">
@@ -7040,7 +7328,7 @@
         <v>10</v>
       </c>
       <c r="J111" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>334</v>
       </c>
       <c r="K111" s="58" t="s">
@@ -7079,7 +7367,7 @@
         <v>80</v>
       </c>
       <c r="J112" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>444</v>
       </c>
       <c r="K112" s="58" t="s">
@@ -7115,7 +7403,7 @@
         <v>75</v>
       </c>
       <c r="J113" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>501</v>
       </c>
       <c r="O113" s="71" t="s">
@@ -7154,6 +7442,9 @@
         <f>SUM(D114:I114)</f>
         <v>446</v>
       </c>
+      <c r="N114" s="70" t="s">
+        <v>526</v>
+      </c>
       <c r="P114" t="s">
         <v>4</v>
       </c>
@@ -7187,7 +7478,7 @@
         <v>45</v>
       </c>
       <c r="J115" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>372</v>
       </c>
       <c r="P115" t="s">
@@ -7223,8 +7514,11 @@
         <v>63</v>
       </c>
       <c r="J116" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>386</v>
+      </c>
+      <c r="L116" s="73" t="s">
+        <v>514</v>
       </c>
       <c r="P116" t="s">
         <v>306</v>
@@ -7259,7 +7553,7 @@
         <v>66</v>
       </c>
       <c r="J117" s="28">
-        <f t="shared" ref="J117:J124" si="7">SUM(D117:I117)</f>
+        <f t="shared" ref="J117:J124" si="8">SUM(D117:I117)</f>
         <v>319</v>
       </c>
       <c r="P117" t="s">
@@ -7295,7 +7589,7 @@
         <v>116</v>
       </c>
       <c r="J118" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>396</v>
       </c>
       <c r="P118" t="s">
@@ -7331,7 +7625,7 @@
         <v>65</v>
       </c>
       <c r="J119" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>337</v>
       </c>
       <c r="P119" t="s">
@@ -7511,7 +7805,7 @@
         <v>86</v>
       </c>
       <c r="J124" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>855</v>
       </c>
       <c r="P124" t="s">
@@ -7556,53 +7850,53 @@
     </row>
     <row r="127" spans="1:16">
       <c r="D127" s="46">
-        <f t="shared" ref="D127:I127" si="8">SUM(D3:D120)</f>
-        <v>10715</v>
+        <f t="shared" ref="D127:I127" si="9">SUM(D3:D120)</f>
+        <v>10695</v>
       </c>
       <c r="E127" s="46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5999</v>
       </c>
       <c r="F127" s="46">
-        <f t="shared" si="8"/>
-        <v>6557</v>
+        <f t="shared" si="9"/>
+        <v>6616</v>
       </c>
       <c r="G127" s="46">
-        <f t="shared" si="8"/>
-        <v>6211</v>
+        <f t="shared" si="9"/>
+        <v>6290</v>
       </c>
       <c r="H127" s="46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6970</v>
       </c>
       <c r="I127" s="46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6877</v>
       </c>
     </row>
     <row r="128" spans="1:16">
       <c r="D128" s="28">
-        <f t="shared" ref="D128:I128" si="9">AVERAGE(D3:D120)</f>
-        <v>95.669642857142861</v>
+        <f t="shared" ref="D128:I128" si="10">AVERAGE(D3:D120)</f>
+        <v>95.491071428571431</v>
       </c>
       <c r="E128" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>53.5625</v>
       </c>
       <c r="F128" s="28">
-        <f t="shared" si="9"/>
-        <v>58.544642857142854</v>
+        <f t="shared" si="10"/>
+        <v>59.071428571428569</v>
       </c>
       <c r="G128" s="28">
-        <f t="shared" si="9"/>
-        <v>55.455357142857146</v>
+        <f t="shared" si="10"/>
+        <v>56.160714285714285</v>
       </c>
       <c r="H128" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>62.232142857142854</v>
       </c>
       <c r="I128" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>61.401785714285715</v>
       </c>
     </row>
@@ -7785,11 +8079,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L127"/>
+  <dimension ref="A1:L132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8009,9 +8303,22 @@
       </c>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="69"/>
-      <c r="C14" s="5"/>
+    <row r="14" spans="1:8" ht="30">
+      <c r="B14" s="69" t="s">
+        <v>610</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>609</v>
+      </c>
+      <c r="F14" s="50">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="B15" s="69"/>
@@ -8064,7 +8371,7 @@
     <row r="23" spans="1:7">
       <c r="A23" s="59"/>
       <c r="B23" s="70" t="s">
-        <v>560</v>
+        <v>537</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>11</v>
@@ -8106,13 +8413,37 @@
         <v>455</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>566</v>
+      </c>
+      <c r="E25" s="50">
+        <v>0</v>
+      </c>
+      <c r="F25" s="50" t="s">
+        <v>448</v>
+      </c>
+      <c r="G25" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="60">
       <c r="A26" s="59"/>
       <c r="B26" s="70" t="s">
         <v>526</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>611</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="50">
+        <v>10</v>
+      </c>
+      <c r="F26" s="50">
+        <v>2</v>
+      </c>
+      <c r="G26" s="50">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="60">
@@ -8121,7 +8452,7 @@
         <v>535</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>0</v>
@@ -8138,9 +8469,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="59"/>
-      <c r="B28" s="70" t="s">
-        <v>537</v>
-      </c>
+      <c r="B28" s="70"/>
     </row>
     <row r="29" spans="1:7" ht="30">
       <c r="A29" s="59"/>
@@ -8148,7 +8477,7 @@
         <v>539</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>0</v>
@@ -8225,7 +8554,7 @@
         <v>513</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>11</v>
@@ -8272,7 +8601,7 @@
     <row r="40" spans="1:9">
       <c r="A40" s="60"/>
       <c r="B40" s="71" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C40" s="47" t="s">
         <v>486</v>
@@ -8290,9 +8619,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" ht="45">
       <c r="A41" s="60"/>
-      <c r="B41" s="71"/>
+      <c r="B41" s="71" t="s">
+        <v>617</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>618</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="50">
+        <v>100</v>
+      </c>
+      <c r="F41" s="50">
+        <v>1</v>
+      </c>
+      <c r="G41" s="50">
+        <v>4</v>
+      </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="61" t="s">
@@ -8320,10 +8666,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" ht="45">
       <c r="A44" s="61"/>
       <c r="B44" s="73" t="s">
         <v>514</v>
+      </c>
+      <c r="C44" s="47" t="s">
+        <v>586</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="50">
+        <v>55</v>
+      </c>
+      <c r="F44" s="50">
+        <v>1</v>
+      </c>
+      <c r="G44" s="50">
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -8359,10 +8720,10 @@
     <row r="48" spans="1:9" ht="30">
       <c r="A48" s="61"/>
       <c r="B48" s="73" t="s">
+        <v>594</v>
+      </c>
+      <c r="C48" s="47" t="s">
         <v>595</v>
-      </c>
-      <c r="C48" s="47" t="s">
-        <v>596</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>0</v>
@@ -8380,10 +8741,10 @@
     <row r="49" spans="1:7" ht="30">
       <c r="A49" s="61"/>
       <c r="B49" s="73" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C49" s="47" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>0</v>
@@ -8414,7 +8775,7 @@
         <v>515</v>
       </c>
       <c r="C52" s="47" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>11</v>
@@ -8434,6 +8795,21 @@
       <c r="B53" s="74" t="s">
         <v>524</v>
       </c>
+      <c r="C53" s="47" t="s">
+        <v>607</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="50">
+        <v>45</v>
+      </c>
+      <c r="F53" s="50">
+        <v>1</v>
+      </c>
+      <c r="G53" s="50">
+        <v>3</v>
+      </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="62"/>
@@ -8441,7 +8817,7 @@
         <v>536</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>11</v>
@@ -8459,10 +8835,10 @@
     <row r="55" spans="1:7" ht="30">
       <c r="A55" s="62"/>
       <c r="B55" s="74" t="s">
+        <v>560</v>
+      </c>
+      <c r="C55" s="47" t="s">
         <v>561</v>
-      </c>
-      <c r="C55" s="47" t="s">
-        <v>562</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>11</v>
@@ -8480,10 +8856,10 @@
     <row r="56" spans="1:7" ht="45">
       <c r="A56" s="62"/>
       <c r="B56" s="74" t="s">
+        <v>573</v>
+      </c>
+      <c r="C56" s="47" t="s">
         <v>574</v>
-      </c>
-      <c r="C56" s="47" t="s">
-        <v>575</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>11</v>
@@ -8492,9 +8868,20 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" ht="45">
       <c r="A57" s="62"/>
-      <c r="B57" s="74"/>
+      <c r="B57" s="74" t="s">
+        <v>612</v>
+      </c>
+      <c r="C57" s="47" t="s">
+        <v>574</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="50">
+        <v>55</v>
+      </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="62"/>
@@ -8526,10 +8913,10 @@
     <row r="63" spans="1:7">
       <c r="A63" s="63"/>
       <c r="B63" s="75" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C63" s="47" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>0</v>
@@ -8552,6 +8939,15 @@
       <c r="D64" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="E64" s="50">
+        <v>80</v>
+      </c>
+      <c r="F64" s="50">
+        <v>2</v>
+      </c>
+      <c r="G64" s="50">
+        <v>4</v>
+      </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="63"/>
@@ -8568,10 +8964,10 @@
     <row r="67" spans="1:8" ht="30">
       <c r="A67" s="63"/>
       <c r="B67" s="75" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C67" s="47" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>11</v>
@@ -8580,7 +8976,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="50" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G67" s="50">
         <v>5</v>
@@ -8589,10 +8985,10 @@
     <row r="68" spans="1:8" ht="45">
       <c r="A68" s="63"/>
       <c r="B68" s="75" t="s">
+        <v>596</v>
+      </c>
+      <c r="C68" s="47" t="s">
         <v>597</v>
-      </c>
-      <c r="C68" s="47" t="s">
-        <v>598</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>11</v>
@@ -8609,7 +9005,24 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="63"/>
-      <c r="B69" s="75"/>
+      <c r="B69" s="75" t="s">
+        <v>602</v>
+      </c>
+      <c r="C69" s="47" t="s">
+        <v>486</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="50">
+        <v>50</v>
+      </c>
+      <c r="F69" s="50">
+        <v>2</v>
+      </c>
+      <c r="G69" s="50">
+        <v>3</v>
+      </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="63"/>
@@ -8709,10 +9122,10 @@
     <row r="79" spans="1:8" ht="45">
       <c r="A79" s="64"/>
       <c r="B79" s="72" t="s">
+        <v>587</v>
+      </c>
+      <c r="C79" s="47" t="s">
         <v>588</v>
-      </c>
-      <c r="C79" s="47" t="s">
-        <v>589</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>0</v>
@@ -8721,7 +9134,7 @@
         <v>50</v>
       </c>
       <c r="F79" s="50" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G79" s="50">
         <v>4</v>
@@ -8761,7 +9174,7 @@
         <v>499</v>
       </c>
       <c r="C88" s="47" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L88" s="56"/>
     </row>
@@ -8779,327 +9192,295 @@
     </row>
     <row r="91" spans="1:12" ht="30">
       <c r="B91" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C91" s="47" t="s">
         <v>576</v>
-      </c>
-      <c r="C91" s="47" t="s">
-        <v>577</v>
       </c>
       <c r="L91" s="56"/>
     </row>
     <row r="92" spans="1:12" ht="60">
       <c r="B92" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C92" s="47" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L92" s="56"/>
     </row>
     <row r="93" spans="1:12">
       <c r="B93" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L93" s="56"/>
     </row>
     <row r="94" spans="1:12" ht="30">
       <c r="B94" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C94" s="47" t="s">
         <v>584</v>
       </c>
-      <c r="C94" s="47" t="s">
-        <v>585</v>
-      </c>
       <c r="L94" s="56"/>
     </row>
-    <row r="95" spans="1:12">
-      <c r="A95" s="59" t="s">
+    <row r="95" spans="1:12" ht="30">
+      <c r="B95" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C95" s="47" t="s">
+        <v>604</v>
+      </c>
+      <c r="L95" s="56"/>
+    </row>
+    <row r="96" spans="1:12" ht="30">
+      <c r="B96" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="C96" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="L96" s="56"/>
+    </row>
+    <row r="97" spans="1:12" ht="30">
+      <c r="B97" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="C97" s="47" t="s">
+        <v>615</v>
+      </c>
+      <c r="L97" s="56"/>
+    </row>
+    <row r="98" spans="1:12" ht="60">
+      <c r="B98" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C98" s="47" t="s">
+        <v>616</v>
+      </c>
+      <c r="L98" s="56"/>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="B95" s="57" t="s">
+      <c r="B99" s="57" t="s">
         <v>534</v>
       </c>
-      <c r="L95" s="56"/>
-    </row>
-    <row r="96" spans="1:12">
-      <c r="A96" s="59"/>
-      <c r="B96" s="57"/>
-      <c r="L96" s="56"/>
-    </row>
-    <row r="97" spans="1:12">
-      <c r="A97" s="59"/>
-      <c r="B97" s="57" t="s">
+      <c r="L99" s="56"/>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="59"/>
+      <c r="B100" s="57"/>
+      <c r="L100" s="56"/>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="59"/>
+      <c r="B101" s="57" t="s">
         <v>542</v>
       </c>
-      <c r="L97" s="56"/>
-    </row>
-    <row r="98" spans="1:12">
-      <c r="A98" s="59"/>
-      <c r="B98" s="57" t="s">
+      <c r="L101" s="56"/>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="59"/>
+      <c r="B102" s="57" t="s">
         <v>559</v>
       </c>
-      <c r="L98" s="56"/>
-    </row>
-    <row r="99" spans="1:12" ht="30">
-      <c r="A99" s="60" t="s">
+      <c r="L102" s="56"/>
+    </row>
+    <row r="103" spans="1:12" ht="30">
+      <c r="A103" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="B99" s="58" t="s">
+      <c r="B103" s="58" t="s">
         <v>451</v>
       </c>
-      <c r="C99" s="47" t="s">
+      <c r="C103" s="47" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
-      <c r="A100" s="61" t="s">
+    <row r="104" spans="1:12">
+      <c r="A104" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="B100" s="65"/>
-      <c r="L100" s="56"/>
-    </row>
-    <row r="101" spans="1:12">
-      <c r="A101" s="62" t="s">
+      <c r="B104" s="65"/>
+      <c r="L104" s="56"/>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="B101" s="66" t="s">
+      <c r="B105" s="66" t="s">
         <v>516</v>
       </c>
-      <c r="L101" s="56"/>
-    </row>
-    <row r="102" spans="1:12">
-      <c r="A102" s="62"/>
-      <c r="B102" s="66" t="s">
+      <c r="L105" s="56"/>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" s="62"/>
+      <c r="B106" s="66" t="s">
         <v>543</v>
       </c>
-      <c r="L102" s="56"/>
-    </row>
-    <row r="103" spans="1:12">
-      <c r="A103" s="63" t="s">
+      <c r="L106" s="56"/>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="B103" s="67" t="s">
+      <c r="B107" s="67" t="s">
         <v>530</v>
       </c>
-      <c r="L103" s="56"/>
-    </row>
-    <row r="104" spans="1:12">
-      <c r="A104" s="63"/>
-      <c r="B104" s="67" t="s">
+      <c r="L107" s="56"/>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108" s="63"/>
+      <c r="B108" s="67" t="s">
         <v>532</v>
       </c>
-      <c r="L104" s="56"/>
-    </row>
-    <row r="105" spans="1:12" ht="30">
-      <c r="A105" s="64" t="s">
+      <c r="L108" s="56"/>
+    </row>
+    <row r="109" spans="1:12" ht="30">
+      <c r="A109" s="63"/>
+      <c r="B109" s="67" t="s">
+        <v>600</v>
+      </c>
+      <c r="C109" s="47" t="s">
+        <v>601</v>
+      </c>
+      <c r="L109" s="56"/>
+    </row>
+    <row r="110" spans="1:12" ht="30">
+      <c r="A110" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="B105" s="68" t="s">
+      <c r="B110" s="68" t="s">
         <v>449</v>
       </c>
-      <c r="C105" s="47" t="s">
+      <c r="C110" s="47" t="s">
         <v>450</v>
       </c>
-      <c r="H105" s="4" t="s">
+      <c r="H110" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L105" s="56"/>
-    </row>
-    <row r="106" spans="1:12">
-      <c r="A106" s="64"/>
-      <c r="B106" s="68" t="s">
+      <c r="L110" s="56"/>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111" s="64"/>
+      <c r="B111" s="68" t="s">
         <v>528</v>
       </c>
-      <c r="L106" s="56"/>
-    </row>
-    <row r="107" spans="1:12">
-      <c r="A107" s="64"/>
-      <c r="B107" s="68" t="s">
+      <c r="L111" s="56"/>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" s="64"/>
+      <c r="B112" s="68" t="s">
         <v>533</v>
       </c>
-      <c r="L107" s="56"/>
-    </row>
-    <row r="108" spans="1:12">
-      <c r="A108" s="64"/>
-      <c r="B108" s="68" t="s">
+      <c r="L112" s="56"/>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113" s="64"/>
+      <c r="B113" s="68" t="s">
         <v>546</v>
       </c>
-      <c r="L108" s="56"/>
-    </row>
-    <row r="110" spans="1:12">
-      <c r="A110" s="51" t="s">
+      <c r="L113" s="56"/>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115" s="51" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
-      <c r="A111" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="C111" s="47" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12">
-      <c r="A112" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="C112" s="47" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="C113" s="47" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="C114" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="C115" s="47" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:12">
       <c r="A116" s="4" t="s">
         <v>135</v>
       </c>
       <c r="B116" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C116" s="47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C117" s="47" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C118" s="47" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C119" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C120" s="47" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="C116" s="47" t="s">
+      <c r="C121" s="47" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
-      <c r="B117" s="4" t="s">
+    <row r="122" spans="1:12">
+      <c r="B122" s="4" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="30">
-      <c r="B118" s="4" t="s">
+    <row r="123" spans="1:12" ht="30">
+      <c r="B123" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C123" s="47" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="B124" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="C118" s="47" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="B119" s="4" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="59" t="s">
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="B120" s="70" t="s">
+      <c r="B125" s="70" t="s">
         <v>496</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="D125" s="6" t="s">
         <v>0</v>
-      </c>
-      <c r="E120" s="50">
-        <v>135</v>
-      </c>
-      <c r="G120" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="90">
-      <c r="A121" s="59"/>
-      <c r="B121" s="70" t="s">
-        <v>569</v>
-      </c>
-      <c r="C121" s="47" t="s">
-        <v>568</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E121" s="50">
-        <v>25</v>
-      </c>
-      <c r="G121" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="30">
-      <c r="A122" s="60" t="s">
-        <v>193</v>
-      </c>
-      <c r="B122" s="69" t="s">
-        <v>495</v>
-      </c>
-      <c r="C122" s="47" t="s">
-        <v>426</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E122" s="50">
-        <v>120</v>
-      </c>
-      <c r="G122" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="B123" s="69" t="s">
-        <v>497</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E123" s="50">
-        <v>140</v>
-      </c>
-      <c r="G123" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="62"/>
-      <c r="B124" s="69" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="B125" s="69" t="s">
-        <v>494</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="E125" s="50">
         <v>135</v>
@@ -9108,35 +9489,113 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
-      <c r="A126" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="B126" s="69" t="s">
-        <v>493</v>
+    <row r="126" spans="1:12" ht="90">
+      <c r="A126" s="59"/>
+      <c r="B126" s="70" t="s">
+        <v>568</v>
+      </c>
+      <c r="C126" s="47" t="s">
+        <v>567</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E126" s="50">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="G126" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="B127" s="69"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="30">
+      <c r="A127" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="B127" s="69" t="s">
+        <v>495</v>
+      </c>
+      <c r="C127" s="47" t="s">
+        <v>426</v>
+      </c>
       <c r="D127" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E127" s="50">
+        <v>120</v>
+      </c>
+      <c r="G127" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="B128" s="69" t="s">
+        <v>497</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E128" s="50">
+        <v>140</v>
+      </c>
+      <c r="G128" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="62"/>
+      <c r="B129" s="69" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="B130" s="69" t="s">
+        <v>494</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" s="50">
         <v>135</v>
       </c>
-      <c r="G127" s="50">
+      <c r="G130" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="B131" s="69" t="s">
+        <v>493</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E131" s="50">
+        <v>140</v>
+      </c>
+      <c r="G131" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="B132" s="69"/>
+      <c r="D132" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" s="50">
+        <v>135</v>
+      </c>
+      <c r="G132" s="50">
         <v>4</v>
       </c>
     </row>
@@ -10166,7 +10625,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C49" s="8">
         <v>1</v>

--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Overview" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="619">
   <si>
     <t>physical</t>
   </si>
@@ -3409,9 +3409,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M26" sqref="M26"/>
+      <selection pane="bottomLeft" activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4121,8 +4121,17 @@
         <f t="shared" si="0"/>
         <v>356</v>
       </c>
+      <c r="K20" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="L20" s="75" t="s">
+        <v>564</v>
+      </c>
       <c r="M20" s="4" t="s">
         <v>613</v>
+      </c>
+      <c r="O20" s="69" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -4157,8 +4166,20 @@
         <f t="shared" si="0"/>
         <v>356</v>
       </c>
+      <c r="K21" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="L21" s="75" t="s">
+        <v>564</v>
+      </c>
       <c r="M21" s="4" t="s">
         <v>613</v>
+      </c>
+      <c r="N21" s="69" t="s">
+        <v>610</v>
+      </c>
+      <c r="O21" s="69" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -8081,9 +8102,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L132"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Overview" sheetId="2" r:id="rId1"/>
     <sheet name="Units" sheetId="4" r:id="rId2"/>
-    <sheet name="Skills-Overview" sheetId="9" r:id="rId3"/>
+    <sheet name="Skills-Overview" sheetId="9" state="hidden" r:id="rId3"/>
     <sheet name="Skills" sheetId="7" r:id="rId4"/>
     <sheet name="Weapons" sheetId="1" r:id="rId5"/>
     <sheet name="Weapons-Overview" sheetId="3" r:id="rId6"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="693">
   <si>
     <t>physical</t>
   </si>
@@ -1370,9 +1370,6 @@
     <t>Lunar Blessing</t>
   </si>
   <si>
-    <t>Heal target ally.</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
@@ -1556,9 +1553,6 @@
     <t>Heal target ally to full health. Reduce unit's health to 1.</t>
   </si>
   <si>
-    <t>Meteor</t>
-  </si>
-  <si>
     <t>Deals damage to three random enemies.</t>
   </si>
   <si>
@@ -1796,9 +1790,6 @@
     <t>Eathquake</t>
   </si>
   <si>
-    <t>Damages all enemies and has a chance (15%) to Stun(1) enemies.</t>
-  </si>
-  <si>
     <t>all</t>
   </si>
   <si>
@@ -1844,9 +1835,6 @@
     <t>Envenom</t>
   </si>
   <si>
-    <t>All damage dealt by unit inflicts Bleed(2) on target.</t>
-  </si>
-  <si>
     <t>Dark Priest</t>
   </si>
   <si>
@@ -1887,6 +1875,240 @@
   </si>
   <si>
     <t>Inflicts Bleed(2) and grants all allies a shield for 5% of units current health.</t>
+  </si>
+  <si>
+    <t>Black Mark</t>
+  </si>
+  <si>
+    <t>On death, inflicts Cursed(2) on all enemies. (Cursed: target takes double damage from any source and removes Cursed.)</t>
+  </si>
+  <si>
+    <t>Gouge</t>
+  </si>
+  <si>
+    <t>Bind: Reduces target speed by 40%.</t>
+  </si>
+  <si>
+    <t>Curse: Next damaging skill/ability/weapon does double damage and consumes the Curse marker.</t>
+  </si>
+  <si>
+    <t>Comet Storm</t>
+  </si>
+  <si>
+    <t>Inflicts Burn(4) on target.</t>
+  </si>
+  <si>
+    <t>Meteor Strike</t>
+  </si>
+  <si>
+    <t>Enchanted Horn</t>
+  </si>
+  <si>
+    <t>[Guardian Angel]</t>
+  </si>
+  <si>
+    <t>Warrior Gem</t>
+  </si>
+  <si>
+    <t>Arcane Gem</t>
+  </si>
+  <si>
+    <t>Gain Str/Amr +20.</t>
+  </si>
+  <si>
+    <t>Gain Fcs/Res +20.</t>
+  </si>
+  <si>
+    <t>Immune to Poison. Increases damage dealth to Poisoned targets (20%).</t>
+  </si>
+  <si>
+    <t>Damages all enemies and has a chance (15%) to inflict Stun(1) on each target.</t>
+  </si>
+  <si>
+    <t>Thundering Blow</t>
+  </si>
+  <si>
+    <t>Has a 20% chance to inflict Sleep(4) on target whenever unit attacks.</t>
+  </si>
+  <si>
+    <t>Scuttle</t>
+  </si>
+  <si>
+    <t>Has a chance (50%) to inflict Poison(4) on target.</t>
+  </si>
+  <si>
+    <t>High critical hit chance doubled, 90% against Burned targets).</t>
+  </si>
+  <si>
+    <t>Adaptive Mind</t>
+  </si>
+  <si>
+    <t>Execute</t>
+  </si>
+  <si>
+    <t>Deals more damage the less health target has.</t>
+  </si>
+  <si>
+    <t>All damage dealt by unit inflicts Poison(2) on target.</t>
+  </si>
+  <si>
+    <t>Poison: Target takes damage = 15% of unit's Strength/Focus (whichever is higher).</t>
+  </si>
+  <si>
+    <t>Burn: Target takes damage = 10% of their max health at the end of every round.</t>
+  </si>
+  <si>
+    <t>Power Chain</t>
+  </si>
+  <si>
+    <t>Inflicts Bind(1) on target. (Bind: decreases target's speed by 40%.)</t>
+  </si>
+  <si>
+    <t>Encase</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>Increases Amr/Res.</t>
+  </si>
+  <si>
+    <t>Increase all allies Str/Fcs/Spd.</t>
+  </si>
+  <si>
+    <t>Heal target ally (100% unit's Focus).</t>
+  </si>
+  <si>
+    <t>Anarchy</t>
+  </si>
+  <si>
+    <t>Randomly increases 3 allies' Spd/Str/Fcs.</t>
+  </si>
+  <si>
+    <t>Timber</t>
+  </si>
+  <si>
+    <t>Hits all units in a row</t>
+  </si>
+  <si>
+    <t>Noble Smite</t>
+  </si>
+  <si>
+    <t>Does increased damage to Stunned enemies.</t>
+  </si>
+  <si>
+    <t>Immune to damage over time effects like Bleed, Burn, and Poison.</t>
+  </si>
+  <si>
+    <t>Has a 50% chance to inflict Stun(1) or Silence(1) on target.</t>
+  </si>
+  <si>
+    <t>Increasese unit's Str/Fcs/Spd.</t>
+  </si>
+  <si>
+    <t>Shadow Swap</t>
+  </si>
+  <si>
+    <t>Wildfire</t>
+  </si>
+  <si>
+    <t>Hits 4 random enemies.</t>
+  </si>
+  <si>
+    <t>Sacrifice</t>
+  </si>
+  <si>
+    <t>Poison Barbs</t>
+  </si>
+  <si>
+    <t>Inflicts Poison(2) on target.</t>
+  </si>
+  <si>
+    <t>Black Oath</t>
+  </si>
+  <si>
+    <t>Vile Penance</t>
+  </si>
+  <si>
+    <t>Deal (20% of current Health) damage to unit after combat.</t>
+  </si>
+  <si>
+    <t>Viper's Affliction</t>
+  </si>
+  <si>
+    <t>Plaguebringer</t>
+  </si>
+  <si>
+    <t>On death, inflict Poison(8) on all enemies.</t>
+  </si>
+  <si>
+    <t>Soul Charm</t>
+  </si>
+  <si>
+    <t>Lower all enemies Str/Fcs (5%).</t>
+  </si>
+  <si>
+    <t>Torment</t>
+  </si>
+  <si>
+    <t>Nullify</t>
+  </si>
+  <si>
+    <t>Remove all stat bonuses from target.</t>
+  </si>
+  <si>
+    <t>Hasten</t>
+  </si>
+  <si>
+    <t>Increase target Speed (50%).</t>
+  </si>
+  <si>
+    <t>Annihilate</t>
+  </si>
+  <si>
+    <t>Deal (20% current health) damage to unit. Heal target ally for twice damage dealt.</t>
+  </si>
+  <si>
+    <t>Aether Blessing</t>
+  </si>
+  <si>
+    <t>Void Blessing</t>
+  </si>
+  <si>
+    <t>Converts all stat decreases into increases.</t>
+  </si>
+  <si>
+    <t>Spiritual Affliction</t>
+  </si>
+  <si>
+    <t>Empty Mind</t>
+  </si>
+  <si>
+    <t>Immune to all stat changes.</t>
+  </si>
+  <si>
+    <t>Protect</t>
+  </si>
+  <si>
+    <t>Shield target ally (60% Focus).</t>
+  </si>
+  <si>
+    <t>Taunt</t>
+  </si>
+  <si>
+    <t>Lower target Amr/Res (20%).</t>
+  </si>
+  <si>
+    <t>Psychic Shackle</t>
+  </si>
+  <si>
+    <t>Nightmare</t>
+  </si>
+  <si>
+    <t>Doesl double damage to sleeping target.</t>
+  </si>
+  <si>
+    <t>Puncture</t>
   </si>
 </sst>
 </file>
@@ -2337,7 +2559,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>103663</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1628775" cy="352469"/>
@@ -2845,7 +3067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H96"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -3410,8 +3632,8 @@
   <dimension ref="A1:R128"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N20" sqref="N20"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20:O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3456,19 +3678,19 @@
         <v>177</v>
       </c>
       <c r="K1" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="L1" s="31" t="s">
         <v>464</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="M1" s="31" t="s">
         <v>465</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="N1" s="31" t="s">
         <v>466</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="O1" s="31" t="s">
         <v>467</v>
-      </c>
-      <c r="O1" s="31" t="s">
-        <v>468</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>169</v>
@@ -3606,7 +3828,7 @@
         <v>278</v>
       </c>
       <c r="O5" s="74" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -3674,8 +3896,11 @@
         <f t="shared" si="0"/>
         <v>208</v>
       </c>
+      <c r="N7" s="74" t="s">
+        <v>642</v>
+      </c>
       <c r="O7" s="71" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -3843,7 +4068,7 @@
         <v>257</v>
       </c>
       <c r="O12" s="74" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -3879,7 +4104,10 @@
         <v>258</v>
       </c>
       <c r="N13" s="74" t="s">
-        <v>515</v>
+        <v>513</v>
+      </c>
+      <c r="O13" s="74" t="s">
+        <v>642</v>
       </c>
       <c r="P13" t="s">
         <v>293</v>
@@ -3953,6 +4181,12 @@
         <f t="shared" si="0"/>
         <v>334</v>
       </c>
+      <c r="K15" s="69" t="s">
+        <v>555</v>
+      </c>
+      <c r="O15" s="69" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
@@ -3986,8 +4220,11 @@
         <f t="shared" si="0"/>
         <v>327</v>
       </c>
+      <c r="K16" s="69" t="s">
+        <v>555</v>
+      </c>
       <c r="O16" s="69" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -4022,6 +4259,9 @@
         <f>SUM(D17:I17)</f>
         <v>355</v>
       </c>
+      <c r="K17" s="69" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
@@ -4122,16 +4362,19 @@
         <v>356</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="L20" s="75" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>613</v>
+        <v>609</v>
+      </c>
+      <c r="N20" s="69" t="s">
+        <v>637</v>
       </c>
       <c r="O20" s="69" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -4167,19 +4410,19 @@
         <v>356</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="L21" s="75" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="N21" s="69" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="O21" s="69" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -4215,7 +4458,7 @@
         <v>392</v>
       </c>
       <c r="O22" s="71" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -4251,7 +4494,7 @@
         <v>434</v>
       </c>
       <c r="N23" s="71" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -4287,7 +4530,7 @@
         <v>390</v>
       </c>
       <c r="N24" s="71" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -4322,8 +4565,20 @@
         <f t="shared" si="0"/>
         <v>271</v>
       </c>
+      <c r="K26" s="70" t="s">
+        <v>633</v>
+      </c>
+      <c r="L26" s="57" t="s">
+        <v>532</v>
+      </c>
+      <c r="M26" s="69" t="s">
+        <v>452</v>
+      </c>
       <c r="N26" s="4" t="s">
-        <v>613</v>
+        <v>609</v>
+      </c>
+      <c r="O26" s="70" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -4358,6 +4613,15 @@
         <f t="shared" si="0"/>
         <v>257</v>
       </c>
+      <c r="K27" s="70" t="s">
+        <v>617</v>
+      </c>
+      <c r="M27" s="70" t="s">
+        <v>533</v>
+      </c>
+      <c r="O27" s="69" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
@@ -4391,6 +4655,9 @@
         <f t="shared" si="0"/>
         <v>267</v>
       </c>
+      <c r="K28" s="70" t="s">
+        <v>533</v>
+      </c>
       <c r="P28" t="s">
         <v>348</v>
       </c>
@@ -4427,6 +4694,9 @@
         <f t="shared" si="0"/>
         <v>281</v>
       </c>
+      <c r="K29" s="70" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
@@ -4460,6 +4730,12 @@
         <f t="shared" si="0"/>
         <v>315</v>
       </c>
+      <c r="K30" s="70" t="s">
+        <v>533</v>
+      </c>
+      <c r="M30" s="70" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
@@ -4493,8 +4769,14 @@
         <f t="shared" si="0"/>
         <v>285</v>
       </c>
+      <c r="K31" s="70" t="s">
+        <v>533</v>
+      </c>
       <c r="L31" s="4" t="s">
-        <v>613</v>
+        <v>609</v>
+      </c>
+      <c r="N31" s="70" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -4529,8 +4811,14 @@
         <f t="shared" si="0"/>
         <v>264</v>
       </c>
+      <c r="K32" s="70" t="s">
+        <v>533</v>
+      </c>
       <c r="L32" s="4" t="s">
-        <v>613</v>
+        <v>609</v>
+      </c>
+      <c r="M32" s="70" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -4565,6 +4853,12 @@
         <f>SUM(D33:I33)</f>
         <v>274</v>
       </c>
+      <c r="K33" s="70" t="s">
+        <v>617</v>
+      </c>
+      <c r="L33" s="70" t="s">
+        <v>533</v>
+      </c>
       <c r="P33" t="s">
         <v>254</v>
       </c>
@@ -4601,6 +4895,12 @@
         <f t="shared" si="0"/>
         <v>373</v>
       </c>
+      <c r="K34" s="70" t="s">
+        <v>644</v>
+      </c>
+      <c r="N34" s="74" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
@@ -4634,6 +4934,9 @@
         <f t="shared" si="0"/>
         <v>352</v>
       </c>
+      <c r="L35" s="70" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
@@ -4994,7 +5297,7 @@
         <v>189</v>
       </c>
       <c r="C46" s="44" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D46" s="28">
         <v>99</v>
@@ -5019,13 +5322,16 @@
         <v>494</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="L46" s="74" t="s">
-        <v>560</v>
+        <v>573</v>
+      </c>
+      <c r="L46" s="70" t="s">
+        <v>644</v>
+      </c>
+      <c r="M46" s="74" t="s">
+        <v>558</v>
       </c>
       <c r="N46" s="70" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -5036,7 +5342,7 @@
         <v>189</v>
       </c>
       <c r="C47" s="44" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D47" s="28">
         <v>99</v>
@@ -5061,10 +5367,10 @@
         <v>480</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="L47" s="74" t="s">
-        <v>560</v>
+        <v>573</v>
+      </c>
+      <c r="M47" s="74" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -5075,7 +5381,7 @@
         <v>189</v>
       </c>
       <c r="C48" s="44" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D48" s="28">
         <v>110</v>
@@ -5100,16 +5406,19 @@
         <v>551</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="L48" s="74" t="s">
-        <v>560</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>613</v>
+        <v>573</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="M48" s="74" t="s">
+        <v>558</v>
       </c>
       <c r="N48" s="74" t="s">
-        <v>573</v>
+        <v>571</v>
+      </c>
+      <c r="O48" s="72" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -5180,6 +5489,9 @@
         <f t="shared" si="0"/>
         <v>392</v>
       </c>
+      <c r="K51" s="69" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="52" spans="1:18">
       <c r="A52" t="s">
@@ -5214,7 +5526,7 @@
         <v>397</v>
       </c>
       <c r="O52" s="74" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -5250,7 +5562,7 @@
         <v>346</v>
       </c>
       <c r="K53" s="71" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -5285,6 +5597,12 @@
         <f t="shared" ref="J54:J60" si="2">SUM(D54:I54)</f>
         <v>366</v>
       </c>
+      <c r="K54" s="69" t="s">
+        <v>555</v>
+      </c>
+      <c r="O54" s="72" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="55" spans="1:18">
       <c r="A55" t="s">
@@ -5318,6 +5636,12 @@
         <f t="shared" si="2"/>
         <v>338</v>
       </c>
+      <c r="K55" s="69" t="s">
+        <v>555</v>
+      </c>
+      <c r="O55" s="72" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="56" spans="1:18">
       <c r="A56" t="s">
@@ -5351,6 +5675,12 @@
         <f t="shared" si="2"/>
         <v>295</v>
       </c>
+      <c r="K56" s="69" t="s">
+        <v>555</v>
+      </c>
+      <c r="O56" s="72" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="57" spans="1:18">
       <c r="A57" t="s">
@@ -5385,7 +5715,7 @@
         <v>401</v>
       </c>
       <c r="M57" s="71" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="P57" t="s">
         <v>288</v>
@@ -5463,7 +5793,7 @@
         <v>333</v>
       </c>
       <c r="M59" s="71" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="P59" t="s">
         <v>288</v>
@@ -5505,7 +5835,7 @@
         <v>443</v>
       </c>
       <c r="K60" s="71" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="P60" t="s">
         <v>289</v>
@@ -5543,8 +5873,11 @@
         <f t="shared" ref="J61:J66" si="3">SUM(D61:I61)</f>
         <v>451</v>
       </c>
+      <c r="K61" s="70" t="s">
+        <v>644</v>
+      </c>
       <c r="M61" s="71" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -5580,7 +5913,7 @@
         <v>494</v>
       </c>
       <c r="K62" s="71" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="P62" t="s">
         <v>295</v>
@@ -5619,7 +5952,7 @@
         <v>445</v>
       </c>
       <c r="K63" s="73" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -5655,7 +5988,7 @@
         <v>428</v>
       </c>
       <c r="N64" s="71" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="P64" t="s">
         <v>414</v>
@@ -5694,7 +6027,7 @@
         <v>381</v>
       </c>
       <c r="N65" s="71" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="P65" t="s">
         <v>414</v>
@@ -5733,7 +6066,7 @@
         <v>456</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -5772,7 +6105,7 @@
         <v>402</v>
       </c>
       <c r="N68" s="75" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="P68" t="s">
         <v>216</v>
@@ -5810,6 +6143,9 @@
         <f>SUM(D69:I69)</f>
         <v>392</v>
       </c>
+      <c r="K69" s="69" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="70" spans="1:16">
       <c r="A70" t="s">
@@ -5877,7 +6213,7 @@
         <v>400</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="P71" t="s">
         <v>260</v>
@@ -5916,7 +6252,7 @@
         <v>313</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="P72" t="s">
         <v>262</v>
@@ -6024,13 +6360,13 @@
         <v>367</v>
       </c>
       <c r="K75" s="75" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="N75" s="75" t="s">
+        <v>593</v>
+      </c>
+      <c r="O75" s="73" t="s">
         <v>596</v>
-      </c>
-      <c r="O75" s="73" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -6102,16 +6438,16 @@
         <v>328</v>
       </c>
       <c r="K77" s="75" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="L77" s="73" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M77" s="74" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="P77" t="s">
         <v>304</v>
@@ -6153,16 +6489,16 @@
         <v>425</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="M78" s="70" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N78" s="74" t="s">
+        <v>522</v>
+      </c>
+      <c r="O78" s="70" t="s">
         <v>524</v>
-      </c>
-      <c r="O78" s="70" t="s">
-        <v>526</v>
       </c>
       <c r="P78" t="s">
         <v>305</v>
@@ -6201,13 +6537,13 @@
         <v>519</v>
       </c>
       <c r="K79" s="73" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L79" s="76" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="M79" s="75" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="P79" t="s">
         <v>303</v>
@@ -6246,7 +6582,7 @@
         <v>429</v>
       </c>
       <c r="K80" s="75" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="P80" t="s">
         <v>319</v>
@@ -6284,6 +6620,9 @@
         <f t="shared" si="4"/>
         <v>428</v>
       </c>
+      <c r="O81" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="83" spans="1:16">
       <c r="A83" t="s">
@@ -6317,8 +6656,11 @@
         <f t="shared" ref="J83:J92" si="5">SUM(D83:I83)</f>
         <v>351</v>
       </c>
+      <c r="L83" s="69" t="s">
+        <v>555</v>
+      </c>
       <c r="O83" s="73" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -6354,10 +6696,10 @@
         <v>379</v>
       </c>
       <c r="K84" s="74" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="N84" s="74" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -6393,13 +6735,13 @@
         <v>367</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="N85" s="73" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="O85" s="74" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -6435,13 +6777,16 @@
         <v>401</v>
       </c>
       <c r="L86" s="74" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="M86" s="73" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="N86" s="74" t="s">
-        <v>536</v>
+        <v>534</v>
+      </c>
+      <c r="O86" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -6477,10 +6822,10 @@
         <v>412</v>
       </c>
       <c r="K87" s="73" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="N87" s="74" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -6516,7 +6861,7 @@
         <v>381</v>
       </c>
       <c r="L88" s="75" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -6552,7 +6897,7 @@
         <v>395</v>
       </c>
       <c r="L89" s="75" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -6624,10 +6969,10 @@
         <v>387</v>
       </c>
       <c r="L91" s="73" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="O91" s="73" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -6663,7 +7008,10 @@
         <v>392</v>
       </c>
       <c r="L92" s="74" t="s">
-        <v>515</v>
+        <v>513</v>
+      </c>
+      <c r="N92" s="74" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6699,10 +7047,10 @@
         <v>318</v>
       </c>
       <c r="N94" s="73" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="O94" s="70" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6737,6 +7085,15 @@
         <f t="shared" si="6"/>
         <v>402</v>
       </c>
+      <c r="K95" s="74" t="s">
+        <v>642</v>
+      </c>
+      <c r="L95" s="75" t="s">
+        <v>527</v>
+      </c>
+      <c r="N95" s="74" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="96" spans="1:16">
       <c r="A96" t="s">
@@ -6771,19 +7128,19 @@
         <v>415</v>
       </c>
       <c r="K96" s="75" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="M96" s="73" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N96" s="70" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="O96" s="69" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P96" t="s">
         <v>314</v>
@@ -6822,19 +7179,19 @@
         <v>435</v>
       </c>
       <c r="K97" s="75" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="M97" s="73" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N97" s="75" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O97" s="69" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P97" t="s">
         <v>315</v>
@@ -6873,19 +7230,19 @@
         <v>435</v>
       </c>
       <c r="K98" s="75" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="M98" s="73" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="N98" s="72" t="s">
         <v>435</v>
       </c>
       <c r="O98" s="69" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P98" t="s">
         <v>316</v>
@@ -6923,6 +7280,9 @@
         <f t="shared" si="6"/>
         <v>396</v>
       </c>
+      <c r="L99" s="75" t="s">
+        <v>527</v>
+      </c>
       <c r="P99" t="s">
         <v>310</v>
       </c>
@@ -6960,7 +7320,7 @@
         <v>431</v>
       </c>
       <c r="K100" s="69" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6996,10 +7356,10 @@
         <v>640</v>
       </c>
       <c r="K101" s="75" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M101" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -7035,13 +7395,13 @@
         <v>670</v>
       </c>
       <c r="K102" s="75" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="L102" s="70" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="M102" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -7077,7 +7437,7 @@
         <v>735</v>
       </c>
       <c r="K103" s="69" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -7113,10 +7473,10 @@
         <v>700</v>
       </c>
       <c r="K104" s="75" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M104" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -7152,10 +7512,10 @@
         <v>700</v>
       </c>
       <c r="K105" s="75" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M105" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -7191,10 +7551,10 @@
         <v>867</v>
       </c>
       <c r="K106" s="75" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M106" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -7229,6 +7589,9 @@
         <f t="shared" ref="J108:J116" si="7">SUM(D108:I108)</f>
         <v>459</v>
       </c>
+      <c r="N108" s="74" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="109" spans="1:16">
       <c r="A109" t="s">
@@ -7263,13 +7626,13 @@
         <v>430</v>
       </c>
       <c r="K109" s="69" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L109" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="M109" s="69" t="s">
         <v>487</v>
-      </c>
-      <c r="M109" s="69" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -7305,19 +7668,19 @@
         <v>439</v>
       </c>
       <c r="K110" s="69" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L110" s="69" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M110" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N110" s="72" t="s">
         <v>436</v>
       </c>
       <c r="O110" s="73" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -7353,10 +7716,13 @@
         <v>334</v>
       </c>
       <c r="K111" s="58" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="N111" s="71" t="s">
-        <v>511</v>
+        <v>509</v>
+      </c>
+      <c r="O111" s="4" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -7392,7 +7758,10 @@
         <v>444</v>
       </c>
       <c r="K112" s="58" t="s">
-        <v>451</v>
+        <v>450</v>
+      </c>
+      <c r="O112" s="4" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -7428,7 +7797,7 @@
         <v>501</v>
       </c>
       <c r="O113" s="71" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7464,7 +7833,7 @@
         <v>446</v>
       </c>
       <c r="N114" s="70" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="P114" t="s">
         <v>4</v>
@@ -7539,7 +7908,7 @@
         <v>386</v>
       </c>
       <c r="L116" s="73" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="P116" t="s">
         <v>306</v>
@@ -7951,57 +8320,57 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8014,7 +8383,7 @@
         <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8022,7 +8391,7 @@
         <v>193</v>
       </c>
       <c r="D13" s="54" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8050,47 +8419,47 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="B22" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -8100,11 +8469,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L132"/>
+  <dimension ref="A1:L153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8149,9 +8518,11 @@
         <v>135</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>557</v>
-      </c>
-      <c r="C2" s="5"/>
+        <v>555</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>446</v>
+      </c>
       <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
@@ -8167,9 +8538,11 @@
     </row>
     <row r="3" spans="1:8">
       <c r="B3" s="69" t="s">
-        <v>558</v>
-      </c>
-      <c r="C3" s="5"/>
+        <v>556</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>446</v>
+      </c>
       <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
@@ -8185,16 +8558,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="B4" s="69" t="s">
-        <v>423</v>
+        <v>536</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>550</v>
+        <v>446</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="50">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F4" s="50">
         <v>2</v>
@@ -8203,104 +8576,118 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30">
+    <row r="5" spans="1:8">
       <c r="B5" s="69" t="s">
-        <v>438</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>439</v>
+        <v>423</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>548</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>447</v>
+        <v>11</v>
       </c>
       <c r="E5" s="50">
-        <v>0</v>
-      </c>
-      <c r="F5" s="50" t="s">
-        <v>448</v>
+        <v>45</v>
+      </c>
+      <c r="F5" s="50">
+        <v>2</v>
       </c>
       <c r="G5" s="50">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30">
       <c r="B6" s="69" t="s">
+        <v>438</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>439</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E6" s="50">
+        <v>0</v>
+      </c>
+      <c r="F6" s="50" t="s">
+        <v>447</v>
+      </c>
+      <c r="G6" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30">
+      <c r="B7" s="69" t="s">
+        <v>452</v>
+      </c>
+      <c r="C7" s="47" t="s">
         <v>453</v>
       </c>
-      <c r="C6" s="47" t="s">
-        <v>454</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E7" s="50">
         <v>110</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F7" s="50">
         <v>1</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G7" s="50">
         <v>2</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="B7" s="69" t="s">
+    <row r="8" spans="1:8">
+      <c r="B8" s="69" t="s">
+        <v>484</v>
+      </c>
+      <c r="C8" s="47" t="s">
         <v>485</v>
       </c>
-      <c r="C7" s="47" t="s">
-        <v>486</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E8" s="50">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30">
-      <c r="B8" s="69" t="s">
+    <row r="9" spans="1:8" ht="30">
+      <c r="B9" s="69" t="s">
+        <v>487</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="50">
+      <c r="E9" s="50">
         <v>25</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F9" s="50">
         <v>2</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G9" s="50">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="69" t="s">
-        <v>517</v>
-      </c>
-      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="69" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:8">
       <c r="B11" s="69" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:8">
       <c r="B12" s="69" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>424</v>
@@ -8320,67 +8707,152 @@
     </row>
     <row r="13" spans="1:8">
       <c r="B13" s="69" t="s">
-        <v>553</v>
-      </c>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" ht="30">
+        <v>677</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="50">
+        <v>85</v>
+      </c>
+      <c r="F13" s="50">
+        <v>1</v>
+      </c>
+      <c r="G13" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="B14" s="69" t="s">
-        <v>610</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="D14" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="30">
+      <c r="B15" s="69" t="s">
+        <v>606</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="50" t="s">
-        <v>609</v>
-      </c>
-      <c r="F14" s="50">
+      <c r="E15" s="50" t="s">
+        <v>605</v>
+      </c>
+      <c r="F15" s="50">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="B15" s="69"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16" s="69"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="B17" s="69"/>
+    <row r="16" spans="1:8" ht="30">
+      <c r="B16" s="69" t="s">
+        <v>637</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>605</v>
+      </c>
+      <c r="F16" s="50">
+        <v>1</v>
+      </c>
+      <c r="G16" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" s="69" t="s">
+        <v>636</v>
+      </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:7">
-      <c r="B18" s="69"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="B19" s="69"/>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="B20" s="69"/>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:7">
+    <row r="18" spans="1:8" ht="45">
+      <c r="B18" s="69" t="s">
+        <v>661</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E18" s="50">
+        <v>0</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>447</v>
+      </c>
+      <c r="G18" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" s="69" t="s">
+        <v>675</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E19" s="50">
+        <v>0</v>
+      </c>
+      <c r="F19" s="50" t="s">
+        <v>447</v>
+      </c>
+      <c r="G19" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30">
+      <c r="B20" s="69" t="s">
+        <v>685</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E20" s="50">
+        <v>0</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>447</v>
+      </c>
+      <c r="G20" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="B21" s="69"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" s="59" t="s">
         <v>118</v>
       </c>
       <c r="B22" s="70" t="s">
-        <v>522</v>
+        <v>633</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>446</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E22" s="50">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F22" s="50">
         <v>1</v>
@@ -8389,70 +8861,73 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" s="59"/>
       <c r="B23" s="70" t="s">
-        <v>537</v>
+        <v>535</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>446</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="50">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F23" s="50">
         <v>2</v>
       </c>
       <c r="G23" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30">
       <c r="A24" s="59"/>
       <c r="B24" s="70" t="s">
-        <v>445</v>
+        <v>520</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>446</v>
+        <v>634</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E24" s="50">
-        <v>60</v>
-      </c>
-      <c r="F24" s="50" t="s">
-        <v>448</v>
+        <v>50</v>
+      </c>
+      <c r="F24" s="50">
+        <v>1</v>
       </c>
       <c r="G24" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30">
       <c r="A25" s="59"/>
       <c r="B25" s="70" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E25" s="50">
         <v>0</v>
       </c>
       <c r="F25" s="50" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G25" s="50">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60">
+    <row r="26" spans="1:8" ht="60">
       <c r="A26" s="59"/>
       <c r="B26" s="70" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>11</v>
@@ -8467,13 +8942,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="60">
+    <row r="27" spans="1:8" ht="60">
       <c r="A27" s="59"/>
       <c r="B27" s="70" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>0</v>
@@ -8488,218 +8963,281 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8" ht="30">
       <c r="A28" s="59"/>
-      <c r="B28" s="70"/>
-    </row>
-    <row r="29" spans="1:7" ht="30">
+      <c r="B28" s="70" t="s">
+        <v>537</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>563</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="50">
+        <v>55</v>
+      </c>
+      <c r="F28" s="50">
+        <v>2</v>
+      </c>
+      <c r="G28" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="59"/>
       <c r="B29" s="70" t="s">
         <v>539</v>
       </c>
-      <c r="C29" s="47" t="s">
-        <v>565</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="50">
-        <v>55</v>
-      </c>
-      <c r="F29" s="50">
-        <v>2</v>
-      </c>
-      <c r="G29" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="59"/>
       <c r="B30" s="70" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>617</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="50">
+        <v>55</v>
+      </c>
+      <c r="F30" s="50">
+        <v>1</v>
+      </c>
+      <c r="G30" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="59"/>
       <c r="B31" s="70" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="30">
-      <c r="A32" s="60" t="s">
-        <v>193</v>
-      </c>
-      <c r="B32" s="71" t="s">
-        <v>425</v>
+        <v>651</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="50">
+        <v>60</v>
+      </c>
+      <c r="F31" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" s="50">
+        <v>2</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="59"/>
+      <c r="B32" s="70" t="s">
+        <v>662</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>426</v>
+        <v>663</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="E32" s="50">
+        <v>50</v>
+      </c>
+      <c r="F32" s="50">
+        <v>1</v>
       </c>
       <c r="G32" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="59"/>
+      <c r="B33" s="70"/>
+    </row>
+    <row r="34" spans="1:9" ht="30">
+      <c r="A34" s="59"/>
+      <c r="B34" s="70" t="s">
+        <v>445</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>648</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E34" s="50">
+        <v>0</v>
+      </c>
+      <c r="F34" s="50" t="s">
+        <v>447</v>
+      </c>
+      <c r="G34" s="50">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="60"/>
-      <c r="B33" s="71" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="30">
-      <c r="A34" s="60"/>
-      <c r="B34" s="71" t="s">
-        <v>511</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>512</v>
-      </c>
-      <c r="D34" s="6" t="s">
+    <row r="35" spans="1:9" ht="30">
+      <c r="A35" s="59"/>
+      <c r="B35" s="70" t="s">
+        <v>543</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>647</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E35" s="50">
         <v>0</v>
       </c>
-      <c r="E34" s="50">
-        <v>50</v>
-      </c>
-      <c r="F34" s="50">
-        <v>1</v>
-      </c>
-      <c r="G34" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="45">
-      <c r="A35" s="60"/>
-      <c r="B35" s="71" t="s">
-        <v>513</v>
-      </c>
-      <c r="C35" s="47" t="s">
-        <v>586</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="50">
-        <v>55</v>
-      </c>
-      <c r="F35" s="50">
-        <v>1</v>
+      <c r="F35" s="50" t="s">
+        <v>447</v>
       </c>
       <c r="G35" s="50">
         <v>3</v>
       </c>
-      <c r="I35" s="17"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="60"/>
-      <c r="B36" s="71" t="s">
-        <v>519</v>
-      </c>
-      <c r="I36" s="17"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="70" t="s">
+        <v>644</v>
+      </c>
+      <c r="C36" s="47" t="s">
+        <v>646</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E36" s="50">
+        <v>0</v>
+      </c>
+      <c r="F36" s="50" t="s">
+        <v>645</v>
+      </c>
+      <c r="G36" s="50">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="60"/>
+      <c r="A37" s="60" t="s">
+        <v>193</v>
+      </c>
       <c r="B37" s="71" t="s">
-        <v>544</v>
-      </c>
-      <c r="I37" s="17"/>
-    </row>
-    <row r="38" spans="1:9">
+        <v>508</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="50">
+        <v>60</v>
+      </c>
+      <c r="F37" s="50">
+        <v>1</v>
+      </c>
+      <c r="G37" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="30">
       <c r="A38" s="60"/>
       <c r="B38" s="71" t="s">
-        <v>552</v>
-      </c>
-      <c r="I38" s="17"/>
-    </row>
-    <row r="39" spans="1:9">
+        <v>509</v>
+      </c>
+      <c r="C38" s="47" t="s">
+        <v>510</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="50">
+        <v>50</v>
+      </c>
+      <c r="F38" s="50">
+        <v>1</v>
+      </c>
+      <c r="G38" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="45">
       <c r="A39" s="60"/>
       <c r="B39" s="71" t="s">
-        <v>554</v>
+        <v>511</v>
+      </c>
+      <c r="C39" s="47" t="s">
+        <v>584</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="50">
+        <v>55</v>
+      </c>
+      <c r="F39" s="50">
+        <v>1</v>
+      </c>
+      <c r="G39" s="50">
+        <v>3</v>
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" ht="30">
       <c r="A40" s="60"/>
       <c r="B40" s="71" t="s">
-        <v>585</v>
+        <v>653</v>
       </c>
       <c r="C40" s="47" t="s">
-        <v>486</v>
+        <v>654</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E40" s="50">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F40" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="60"/>
       <c r="B41" s="71" t="s">
-        <v>617</v>
-      </c>
-      <c r="C41" s="47" t="s">
-        <v>618</v>
-      </c>
-      <c r="D41" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="I41" s="17"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="60"/>
+      <c r="B42" s="71" t="s">
+        <v>542</v>
+      </c>
+      <c r="I42" s="17"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="60"/>
+      <c r="B43" s="71" t="s">
+        <v>552</v>
+      </c>
+      <c r="I43" s="17"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="60"/>
+      <c r="B44" s="71" t="s">
+        <v>583</v>
+      </c>
+      <c r="C44" s="47" t="s">
+        <v>485</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="50">
-        <v>100</v>
-      </c>
-      <c r="F41" s="50">
-        <v>1</v>
-      </c>
-      <c r="G41" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="B42" s="73" t="s">
-        <v>492</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="30">
-      <c r="A43" s="61"/>
-      <c r="B43" s="73" t="s">
-        <v>506</v>
-      </c>
-      <c r="C43" s="47" t="s">
-        <v>507</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="45">
-      <c r="A44" s="61"/>
-      <c r="B44" s="73" t="s">
-        <v>514</v>
-      </c>
-      <c r="C44" s="47" t="s">
-        <v>586</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="E44" s="50">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F44" s="50">
         <v>1</v>
@@ -8708,335 +9246,405 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="61"/>
-      <c r="B45" s="73" t="s">
-        <v>531</v>
+    <row r="45" spans="1:9" ht="45">
+      <c r="A45" s="60"/>
+      <c r="B45" s="71" t="s">
+        <v>613</v>
+      </c>
+      <c r="C45" s="47" t="s">
+        <v>614</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E45" s="50">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F45" s="50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="60"/>
+      <c r="B46" s="71" t="s">
+        <v>550</v>
+      </c>
+      <c r="I46" s="17"/>
+    </row>
+    <row r="47" spans="1:9" ht="30">
+      <c r="A47" s="60"/>
+      <c r="B47" s="71" t="s">
+        <v>425</v>
+      </c>
+      <c r="C47" s="47" t="s">
+        <v>426</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E47" s="50">
+        <v>0</v>
+      </c>
+      <c r="F47" s="50" t="s">
+        <v>447</v>
+      </c>
+      <c r="G47" s="50">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="61"/>
-      <c r="B46" s="73" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="61"/>
-      <c r="B47" s="73" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="30">
-      <c r="A48" s="61"/>
+    <row r="48" spans="1:9">
+      <c r="A48" s="61" t="s">
+        <v>194</v>
+      </c>
       <c r="B48" s="73" t="s">
-        <v>594</v>
-      </c>
-      <c r="C48" s="47" t="s">
-        <v>595</v>
+        <v>491</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48" s="50">
-        <v>60</v>
-      </c>
-      <c r="F48" s="50">
-        <v>2</v>
-      </c>
-      <c r="G48" s="50">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="30">
       <c r="A49" s="61"/>
       <c r="B49" s="73" t="s">
-        <v>599</v>
+        <v>505</v>
       </c>
       <c r="C49" s="47" t="s">
-        <v>561</v>
+        <v>506</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" s="50">
-        <v>65</v>
-      </c>
-      <c r="F49" s="50">
+        <v>11</v>
+      </c>
+      <c r="G49" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="45">
+      <c r="A50" s="61"/>
+      <c r="B50" s="73" t="s">
+        <v>512</v>
+      </c>
+      <c r="C50" s="47" t="s">
+        <v>584</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="50">
+        <v>55</v>
+      </c>
+      <c r="F50" s="50">
         <v>1</v>
       </c>
-      <c r="G49" s="50">
+      <c r="G50" s="50">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="61"/>
-      <c r="B50" s="73"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="61"/>
-      <c r="B51" s="73"/>
+      <c r="B51" s="73" t="s">
+        <v>529</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="50">
+        <v>70</v>
+      </c>
+      <c r="F51" s="50">
+        <v>2</v>
+      </c>
+      <c r="G51" s="50">
+        <v>3</v>
+      </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="B52" s="74" t="s">
-        <v>515</v>
-      </c>
-      <c r="C52" s="47" t="s">
-        <v>562</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="50">
-        <v>65</v>
-      </c>
-      <c r="F52" s="50">
-        <v>2</v>
-      </c>
-      <c r="G52" s="50">
-        <v>2</v>
+      <c r="A52" s="61"/>
+      <c r="B52" s="73" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="62"/>
-      <c r="B53" s="74" t="s">
-        <v>524</v>
-      </c>
-      <c r="C53" s="47" t="s">
-        <v>607</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="50">
-        <v>45</v>
-      </c>
-      <c r="F53" s="50">
-        <v>1</v>
-      </c>
-      <c r="G53" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="62"/>
-      <c r="B54" s="74" t="s">
-        <v>536</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>563</v>
+      <c r="A53" s="61"/>
+      <c r="B53" s="73" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30">
+      <c r="A54" s="61"/>
+      <c r="B54" s="73" t="s">
+        <v>591</v>
+      </c>
+      <c r="C54" s="47" t="s">
+        <v>592</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E54" s="50">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F54" s="50">
         <v>2</v>
       </c>
       <c r="G54" s="50">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="30">
-      <c r="A55" s="62"/>
-      <c r="B55" s="74" t="s">
-        <v>560</v>
+      <c r="A55" s="61"/>
+      <c r="B55" s="73" t="s">
+        <v>596</v>
       </c>
       <c r="C55" s="47" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E55" s="50">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F55" s="50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" s="50">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="45">
-      <c r="A56" s="62"/>
-      <c r="B56" s="74" t="s">
-        <v>573</v>
-      </c>
-      <c r="C56" s="47" t="s">
-        <v>574</v>
-      </c>
-      <c r="D56" s="6" t="s">
+    <row r="56" spans="1:7">
+      <c r="A56" s="61"/>
+      <c r="B56" s="73" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="61"/>
+      <c r="B57" s="73" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="45">
+      <c r="A58" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="B58" s="74" t="s">
+        <v>513</v>
+      </c>
+      <c r="C58" s="47" t="s">
+        <v>635</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E56" s="50">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="45">
-      <c r="A57" s="62"/>
-      <c r="B57" s="74" t="s">
-        <v>612</v>
-      </c>
-      <c r="C57" s="47" t="s">
-        <v>574</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" s="50">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="62"/>
-      <c r="B58" s="74"/>
+      <c r="E58" s="50">
+        <v>60</v>
+      </c>
+      <c r="F58" s="50">
+        <v>2</v>
+      </c>
+      <c r="G58" s="50">
+        <v>2</v>
+      </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="62"/>
-      <c r="B59" s="74"/>
+      <c r="B59" s="74" t="s">
+        <v>522</v>
+      </c>
+      <c r="C59" s="47" t="s">
+        <v>603</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="50">
+        <v>45</v>
+      </c>
+      <c r="F59" s="50">
+        <v>1</v>
+      </c>
+      <c r="G59" s="50">
+        <v>3</v>
+      </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="62"/>
-      <c r="B60" s="74"/>
+      <c r="B60" s="74" t="s">
+        <v>534</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="50">
+        <v>50</v>
+      </c>
+      <c r="F60" s="50">
+        <v>2</v>
+      </c>
+      <c r="G60" s="50">
+        <v>3</v>
+      </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="62"/>
-      <c r="B61" s="74"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="B62" s="75" t="s">
-        <v>498</v>
+      <c r="B61" s="74" t="s">
+        <v>687</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="50">
+        <v>45</v>
+      </c>
+      <c r="F61" s="50">
+        <v>2</v>
+      </c>
+      <c r="G61" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="30">
+      <c r="A62" s="62"/>
+      <c r="B62" s="74" t="s">
+        <v>558</v>
+      </c>
+      <c r="C62" s="47" t="s">
+        <v>559</v>
       </c>
       <c r="D62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="50">
+        <v>55</v>
+      </c>
+      <c r="F62" s="50">
+        <v>2</v>
+      </c>
+      <c r="G62" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="45">
+      <c r="A63" s="62"/>
+      <c r="B63" s="74" t="s">
+        <v>571</v>
+      </c>
+      <c r="C63" s="47" t="s">
+        <v>572</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="50">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="45">
+      <c r="A64" s="62"/>
+      <c r="B64" s="74" t="s">
+        <v>608</v>
+      </c>
+      <c r="C64" s="47" t="s">
+        <v>572</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="63"/>
-      <c r="B63" s="75" t="s">
-        <v>564</v>
-      </c>
-      <c r="C63" s="47" t="s">
-        <v>562</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E63" s="50">
+      <c r="E64" s="50">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="45">
+      <c r="A65" s="62"/>
+      <c r="B65" s="74" t="s">
+        <v>642</v>
+      </c>
+      <c r="C65" s="47" t="s">
+        <v>643</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="50">
         <v>70</v>
       </c>
-      <c r="F63" s="50">
+      <c r="F65" s="50">
         <v>1</v>
       </c>
-      <c r="G63" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="63"/>
-      <c r="B64" s="75" t="s">
-        <v>500</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="50">
-        <v>80</v>
-      </c>
-      <c r="F64" s="50">
-        <v>2</v>
-      </c>
-      <c r="G64" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="63"/>
-      <c r="B65" s="75" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="63"/>
-      <c r="B66" s="75" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="30">
-      <c r="A67" s="63"/>
-      <c r="B67" s="75" t="s">
-        <v>582</v>
+      <c r="G65" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="62"/>
+      <c r="B66" s="74" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="30">
+      <c r="A67" s="62"/>
+      <c r="B67" s="74" t="s">
+        <v>690</v>
       </c>
       <c r="C67" s="47" t="s">
-        <v>598</v>
+        <v>691</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E67" s="50">
+        <v>50</v>
+      </c>
+      <c r="F67" s="50">
+        <v>2</v>
+      </c>
+      <c r="G67" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="30">
+      <c r="A68" s="62"/>
+      <c r="B68" s="74" t="s">
+        <v>649</v>
+      </c>
+      <c r="C68" s="47" t="s">
+        <v>650</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E68" s="50">
         <v>0</v>
       </c>
-      <c r="F67" s="50" t="s">
-        <v>589</v>
-      </c>
-      <c r="G67" s="50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="45">
-      <c r="A68" s="63"/>
-      <c r="B68" s="75" t="s">
-        <v>596</v>
-      </c>
-      <c r="C68" s="47" t="s">
-        <v>597</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="50">
-        <v>50</v>
-      </c>
-      <c r="F68" s="50">
-        <v>2</v>
+      <c r="F68" s="50" t="s">
+        <v>447</v>
       </c>
       <c r="G68" s="50">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="63"/>
-      <c r="B69" s="75" t="s">
-        <v>602</v>
+    <row r="69" spans="1:7" ht="30">
+      <c r="A69" s="62"/>
+      <c r="B69" s="74" t="s">
+        <v>673</v>
       </c>
       <c r="C69" s="47" t="s">
-        <v>486</v>
+        <v>674</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>11</v>
+        <v>446</v>
       </c>
       <c r="E69" s="50">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F69" s="50">
         <v>2</v>
@@ -9045,578 +9653,966 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="63"/>
-      <c r="B70" s="75"/>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="63"/>
-      <c r="B71" s="75"/>
-    </row>
-    <row r="72" spans="1:8" ht="30">
-      <c r="A72" s="64" t="s">
+    <row r="70" spans="1:7" ht="30">
+      <c r="A70" s="62"/>
+      <c r="B70" s="74" t="s">
+        <v>670</v>
+      </c>
+      <c r="C70" s="47" t="s">
+        <v>671</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E70" s="50">
+        <v>0</v>
+      </c>
+      <c r="F70" s="50" t="s">
+        <v>586</v>
+      </c>
+      <c r="G70" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="30">
+      <c r="A71" s="62"/>
+      <c r="B71" s="74" t="s">
+        <v>680</v>
+      </c>
+      <c r="C71" s="47" t="s">
+        <v>681</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E71" s="50">
+        <v>0</v>
+      </c>
+      <c r="F71" s="50" t="s">
+        <v>447</v>
+      </c>
+      <c r="G71" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="62"/>
+      <c r="B72" s="74" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="B73" s="75" t="s">
+        <v>497</v>
+      </c>
+      <c r="C73" s="47" t="s">
+        <v>446</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="50">
+        <v>70</v>
+      </c>
+      <c r="F73" s="50">
+        <v>1</v>
+      </c>
+      <c r="G73" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="63"/>
+      <c r="B74" s="75" t="s">
+        <v>499</v>
+      </c>
+      <c r="C74" s="47" t="s">
+        <v>446</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="50">
+        <v>80</v>
+      </c>
+      <c r="F74" s="50">
+        <v>2</v>
+      </c>
+      <c r="G74" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="63"/>
+      <c r="B75" s="75" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="63"/>
+      <c r="B76" s="75" t="s">
+        <v>562</v>
+      </c>
+      <c r="C76" s="47" t="s">
+        <v>560</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="50">
+        <v>70</v>
+      </c>
+      <c r="F76" s="50">
+        <v>1</v>
+      </c>
+      <c r="G76" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="63"/>
+      <c r="B77" s="75" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="63"/>
+      <c r="B78" s="75" t="s">
+        <v>527</v>
+      </c>
+      <c r="C78" s="47" t="s">
+        <v>621</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" s="50">
+        <v>40</v>
+      </c>
+      <c r="F78" s="50">
+        <v>2</v>
+      </c>
+      <c r="G78" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="30">
+      <c r="A79" s="63"/>
+      <c r="B79" s="75" t="s">
+        <v>580</v>
+      </c>
+      <c r="C79" s="47" t="s">
+        <v>595</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="50">
+        <v>0</v>
+      </c>
+      <c r="F79" s="50" t="s">
+        <v>586</v>
+      </c>
+      <c r="G79" s="50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="45">
+      <c r="A80" s="63"/>
+      <c r="B80" s="75" t="s">
+        <v>593</v>
+      </c>
+      <c r="C80" s="47" t="s">
+        <v>594</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="50">
+        <v>50</v>
+      </c>
+      <c r="F80" s="50">
+        <v>2</v>
+      </c>
+      <c r="G80" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="63"/>
+      <c r="B81" s="75" t="s">
+        <v>599</v>
+      </c>
+      <c r="C81" s="47" t="s">
+        <v>485</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="50">
+        <v>50</v>
+      </c>
+      <c r="F81" s="50">
+        <v>2</v>
+      </c>
+      <c r="G81" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="30">
+      <c r="A82" s="63"/>
+      <c r="B82" s="75" t="s">
+        <v>665</v>
+      </c>
+      <c r="C82" s="47" t="s">
+        <v>666</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="50">
+        <v>100</v>
+      </c>
+      <c r="F82" s="50">
+        <v>2</v>
+      </c>
+      <c r="G82" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="63"/>
+      <c r="B83" s="75"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="B72" s="72" t="s">
+      <c r="B84" s="72" t="s">
+        <v>521</v>
+      </c>
+      <c r="C84" s="47" t="s">
+        <v>446</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E84" s="50">
+        <v>60</v>
+      </c>
+      <c r="F84" s="50">
+        <v>2</v>
+      </c>
+      <c r="G84" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="64"/>
+      <c r="B85" s="72" t="s">
+        <v>659</v>
+      </c>
+      <c r="C85" s="47" t="s">
+        <v>660</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="50">
+        <v>50</v>
+      </c>
+      <c r="F85" s="50" t="s">
+        <v>605</v>
+      </c>
+      <c r="G85" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="64"/>
+      <c r="B86" s="72" t="s">
+        <v>523</v>
+      </c>
+      <c r="C86" s="47" t="s">
+        <v>657</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="50">
+        <v>50</v>
+      </c>
+      <c r="F86" s="50">
+        <v>1</v>
+      </c>
+      <c r="G86" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="30">
+      <c r="A87" s="64"/>
+      <c r="B87" s="72" t="s">
+        <v>435</v>
+      </c>
+      <c r="C87" s="47" t="s">
+        <v>489</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="50">
+        <v>50</v>
+      </c>
+      <c r="F87" s="50">
+        <v>2</v>
+      </c>
+      <c r="G87" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="64"/>
+      <c r="B88" s="72" t="s">
+        <v>622</v>
+      </c>
+      <c r="C88" s="47" t="s">
+        <v>621</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" s="50">
+        <v>70</v>
+      </c>
+      <c r="F88" s="50">
+        <v>2</v>
+      </c>
+      <c r="G88" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="30">
+      <c r="A89" s="64"/>
+      <c r="B89" s="72" t="s">
+        <v>620</v>
+      </c>
+      <c r="C89" s="47" t="s">
+        <v>507</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="50">
+        <v>75</v>
+      </c>
+      <c r="F89" s="50" t="s">
+        <v>605</v>
+      </c>
+      <c r="G89" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="64"/>
+      <c r="B90" s="72" t="s">
+        <v>538</v>
+      </c>
+      <c r="C90" s="47" t="s">
+        <v>446</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="50">
+        <v>70</v>
+      </c>
+      <c r="F90" s="50">
+        <v>2</v>
+      </c>
+      <c r="G90" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="45">
+      <c r="A91" s="64"/>
+      <c r="B91" s="72" t="s">
+        <v>585</v>
+      </c>
+      <c r="C91" s="47" t="s">
+        <v>630</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" s="50">
+        <v>50</v>
+      </c>
+      <c r="F91" s="50" t="s">
+        <v>586</v>
+      </c>
+      <c r="G91" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="45">
+      <c r="A92" s="64"/>
+      <c r="B92" s="72" t="s">
+        <v>631</v>
+      </c>
+      <c r="C92" s="47" t="s">
+        <v>656</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E92" s="50">
+        <v>80</v>
+      </c>
+      <c r="F92" s="50">
+        <v>1</v>
+      </c>
+      <c r="G92" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="30">
+      <c r="A93" s="64"/>
+      <c r="B93" s="72" t="s">
         <v>436</v>
       </c>
-      <c r="C72" s="47" t="s">
+      <c r="C93" s="47" t="s">
         <v>437</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D93" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E93" s="50">
+        <v>0</v>
+      </c>
+      <c r="F93" s="50" t="s">
         <v>447</v>
       </c>
-      <c r="E72" s="50">
+      <c r="G93" s="50">
+        <v>2</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="64"/>
+      <c r="B94" s="72" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="51" t="s">
+        <v>440</v>
+      </c>
+      <c r="L99" s="56"/>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C100" s="47" t="s">
+        <v>490</v>
+      </c>
+      <c r="L100" s="56"/>
+    </row>
+    <row r="101" spans="1:12" ht="30">
+      <c r="B101" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C101" s="47" t="s">
+        <v>575</v>
+      </c>
+      <c r="L101" s="56"/>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="B102" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="L102" s="56"/>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="B103" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="L103" s="56"/>
+    </row>
+    <row r="104" spans="1:12" ht="30">
+      <c r="B104" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C104" s="47" t="s">
+        <v>574</v>
+      </c>
+      <c r="L104" s="56"/>
+    </row>
+    <row r="105" spans="1:12" ht="60">
+      <c r="B105" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="C105" s="47" t="s">
+        <v>578</v>
+      </c>
+      <c r="L105" s="56"/>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="B106" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="L106" s="56"/>
+    </row>
+    <row r="107" spans="1:12" ht="30">
+      <c r="B107" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C107" s="47" t="s">
+        <v>582</v>
+      </c>
+      <c r="L107" s="56"/>
+    </row>
+    <row r="108" spans="1:12" ht="30">
+      <c r="B108" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C108" s="47" t="s">
+        <v>639</v>
+      </c>
+      <c r="L108" s="56"/>
+    </row>
+    <row r="109" spans="1:12" ht="30">
+      <c r="B109" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="C109" s="47" t="s">
+        <v>602</v>
+      </c>
+      <c r="L109" s="56"/>
+    </row>
+    <row r="110" spans="1:12" ht="30">
+      <c r="B110" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="C110" s="47" t="s">
+        <v>611</v>
+      </c>
+      <c r="L110" s="56"/>
+    </row>
+    <row r="111" spans="1:12" ht="60">
+      <c r="B111" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="C111" s="47" t="s">
+        <v>612</v>
+      </c>
+      <c r="L111" s="56"/>
+    </row>
+    <row r="112" spans="1:12" ht="75">
+      <c r="B112" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C112" s="47" t="s">
+        <v>616</v>
+      </c>
+      <c r="L112" s="56"/>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="B113" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="L113" s="56"/>
+    </row>
+    <row r="114" spans="1:12" ht="45">
+      <c r="B114" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="C114" s="47" t="s">
+        <v>629</v>
+      </c>
+      <c r="L114" s="56"/>
+    </row>
+    <row r="115" spans="1:12" ht="30">
+      <c r="B115" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="C115" s="47" t="s">
+        <v>669</v>
+      </c>
+      <c r="L115" s="56"/>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="B116" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="C116" s="47" t="s">
+        <v>684</v>
+      </c>
+      <c r="L116" s="56"/>
+    </row>
+    <row r="117" spans="1:12" ht="45">
+      <c r="A117" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" s="57" t="s">
+        <v>532</v>
+      </c>
+      <c r="C117" s="47" t="s">
+        <v>632</v>
+      </c>
+      <c r="L117" s="56"/>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" s="59"/>
+      <c r="B118" s="57"/>
+      <c r="L118" s="56"/>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" s="59"/>
+      <c r="B119" s="57" t="s">
+        <v>540</v>
+      </c>
+      <c r="L119" s="56"/>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" s="59"/>
+      <c r="B120" s="57" t="s">
+        <v>557</v>
+      </c>
+      <c r="L120" s="56"/>
+    </row>
+    <row r="121" spans="1:12" ht="30">
+      <c r="A121" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="B121" s="58" t="s">
+        <v>450</v>
+      </c>
+      <c r="C121" s="47" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="B122" s="65"/>
+      <c r="L122" s="56"/>
+    </row>
+    <row r="123" spans="1:12" ht="45">
+      <c r="A123" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="B123" s="66" t="s">
+        <v>514</v>
+      </c>
+      <c r="C123" s="47" t="s">
+        <v>655</v>
+      </c>
+      <c r="L123" s="56"/>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" s="62"/>
+      <c r="B124" s="66" t="s">
+        <v>541</v>
+      </c>
+      <c r="L124" s="56"/>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="B125" s="67" t="s">
+        <v>528</v>
+      </c>
+      <c r="L125" s="56"/>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126" s="63"/>
+      <c r="B126" s="67" t="s">
+        <v>530</v>
+      </c>
+      <c r="L126" s="56"/>
+    </row>
+    <row r="127" spans="1:12" ht="30">
+      <c r="A127" s="63"/>
+      <c r="B127" s="67" t="s">
+        <v>597</v>
+      </c>
+      <c r="C127" s="47" t="s">
+        <v>598</v>
+      </c>
+      <c r="L127" s="56"/>
+    </row>
+    <row r="128" spans="1:12" ht="30">
+      <c r="A128" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="B128" s="68" t="s">
+        <v>448</v>
+      </c>
+      <c r="C128" s="47" t="s">
+        <v>449</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L128" s="56"/>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129" s="64"/>
+      <c r="B129" s="68" t="s">
+        <v>526</v>
+      </c>
+      <c r="L129" s="56"/>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130" s="64"/>
+      <c r="B130" s="68" t="s">
+        <v>531</v>
+      </c>
+      <c r="L130" s="56"/>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131" s="64"/>
+      <c r="B131" s="68" t="s">
+        <v>544</v>
+      </c>
+      <c r="L131" s="56"/>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133" s="51" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C134" s="47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="B135" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C135" s="47" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="B136" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C136" s="47" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="B137" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C137" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="B138" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C138" s="47" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="B139" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C139" s="47" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="B140" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="C140" s="47" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="B141" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="C141" s="47" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="B142" s="4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="30">
+      <c r="B143" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="C143" s="47" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="45">
+      <c r="B144" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="C144" s="47" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="B145" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="C145" s="47" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B146" s="70" t="s">
+        <v>495</v>
+      </c>
+      <c r="D146" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F72" s="50" t="s">
-        <v>448</v>
-      </c>
-      <c r="G72" s="50">
-        <v>2</v>
-      </c>
-      <c r="H72" s="4" t="s">
+      <c r="E146" s="50">
+        <v>135</v>
+      </c>
+      <c r="G146" s="50">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="64"/>
-      <c r="B73" s="72" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="64"/>
-      <c r="B74" s="72" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="30">
-      <c r="A75" s="64"/>
-      <c r="B75" s="72" t="s">
-        <v>435</v>
-      </c>
-      <c r="C75" s="47" t="s">
-        <v>490</v>
-      </c>
-      <c r="D75" s="6" t="s">
+    <row r="147" spans="1:7" ht="90">
+      <c r="A147" s="59"/>
+      <c r="B147" s="70" t="s">
+        <v>566</v>
+      </c>
+      <c r="C147" s="47" t="s">
+        <v>565</v>
+      </c>
+      <c r="D147" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E75" s="50">
-        <v>45</v>
-      </c>
-      <c r="F75" s="50">
-        <v>2</v>
-      </c>
-      <c r="G75" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="30">
-      <c r="A76" s="64"/>
-      <c r="B76" s="72" t="s">
-        <v>508</v>
-      </c>
-      <c r="C76" s="47" t="s">
-        <v>509</v>
-      </c>
-      <c r="D76" s="6" t="s">
+      <c r="E147" s="50">
+        <v>25</v>
+      </c>
+      <c r="G147" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="30">
+      <c r="A148" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="B148" s="69" t="s">
+        <v>494</v>
+      </c>
+      <c r="C148" s="47" t="s">
+        <v>426</v>
+      </c>
+      <c r="D148" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E76" s="50">
-        <v>80</v>
-      </c>
-      <c r="G76" s="50">
+      <c r="E148" s="50">
+        <v>120</v>
+      </c>
+      <c r="G148" s="50">
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="64"/>
-      <c r="B77" s="72"/>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="64"/>
-      <c r="B78" s="72" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="45">
-      <c r="A79" s="64"/>
-      <c r="B79" s="72" t="s">
-        <v>587</v>
-      </c>
-      <c r="C79" s="47" t="s">
-        <v>588</v>
-      </c>
-      <c r="D79" s="6" t="s">
+    <row r="149" spans="1:7">
+      <c r="A149" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="B149" s="69" t="s">
+        <v>496</v>
+      </c>
+      <c r="D149" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E79" s="50">
-        <v>50</v>
-      </c>
-      <c r="F79" s="50" t="s">
+      <c r="E149" s="50">
+        <v>140</v>
+      </c>
+      <c r="G149" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="62"/>
+      <c r="B150" s="69" t="s">
         <v>589</v>
       </c>
-      <c r="G79" s="50">
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="B151" s="69" t="s">
+        <v>493</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151" s="50">
+        <v>135</v>
+      </c>
+      <c r="G151" s="50">
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="64"/>
-      <c r="B80" s="72"/>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="A81" s="64"/>
-      <c r="B81" s="72"/>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="A86" s="51" t="s">
-        <v>440</v>
-      </c>
-      <c r="L86" s="56"/>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="A87" s="4" t="s">
+    <row r="152" spans="1:7">
+      <c r="A152" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="B152" s="69" t="s">
+        <v>492</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E152" s="50">
+        <v>140</v>
+      </c>
+      <c r="G152" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="B153" s="69"/>
+      <c r="D153" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E153" s="50">
         <v>135</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="C87" s="47" t="s">
-        <v>491</v>
-      </c>
-      <c r="L87" s="56"/>
-    </row>
-    <row r="88" spans="1:12" ht="30">
-      <c r="A88" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="C88" s="47" t="s">
-        <v>577</v>
-      </c>
-      <c r="L88" s="56"/>
-    </row>
-    <row r="89" spans="1:12">
-      <c r="B89" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="L89" s="56"/>
-    </row>
-    <row r="90" spans="1:12">
-      <c r="B90" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="L90" s="56"/>
-    </row>
-    <row r="91" spans="1:12" ht="30">
-      <c r="B91" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="C91" s="47" t="s">
-        <v>576</v>
-      </c>
-      <c r="L91" s="56"/>
-    </row>
-    <row r="92" spans="1:12" ht="60">
-      <c r="B92" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="C92" s="47" t="s">
-        <v>580</v>
-      </c>
-      <c r="L92" s="56"/>
-    </row>
-    <row r="93" spans="1:12">
-      <c r="B93" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="L93" s="56"/>
-    </row>
-    <row r="94" spans="1:12" ht="30">
-      <c r="B94" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="C94" s="47" t="s">
-        <v>584</v>
-      </c>
-      <c r="L94" s="56"/>
-    </row>
-    <row r="95" spans="1:12" ht="30">
-      <c r="B95" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="C95" s="47" t="s">
-        <v>604</v>
-      </c>
-      <c r="L95" s="56"/>
-    </row>
-    <row r="96" spans="1:12" ht="30">
-      <c r="B96" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="C96" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="L96" s="56"/>
-    </row>
-    <row r="97" spans="1:12" ht="30">
-      <c r="B97" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="C97" s="47" t="s">
-        <v>615</v>
-      </c>
-      <c r="L97" s="56"/>
-    </row>
-    <row r="98" spans="1:12" ht="60">
-      <c r="B98" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="C98" s="47" t="s">
-        <v>616</v>
-      </c>
-      <c r="L98" s="56"/>
-    </row>
-    <row r="99" spans="1:12">
-      <c r="A99" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="B99" s="57" t="s">
-        <v>534</v>
-      </c>
-      <c r="L99" s="56"/>
-    </row>
-    <row r="100" spans="1:12">
-      <c r="A100" s="59"/>
-      <c r="B100" s="57"/>
-      <c r="L100" s="56"/>
-    </row>
-    <row r="101" spans="1:12">
-      <c r="A101" s="59"/>
-      <c r="B101" s="57" t="s">
-        <v>542</v>
-      </c>
-      <c r="L101" s="56"/>
-    </row>
-    <row r="102" spans="1:12">
-      <c r="A102" s="59"/>
-      <c r="B102" s="57" t="s">
-        <v>559</v>
-      </c>
-      <c r="L102" s="56"/>
-    </row>
-    <row r="103" spans="1:12" ht="30">
-      <c r="A103" s="60" t="s">
-        <v>193</v>
-      </c>
-      <c r="B103" s="58" t="s">
-        <v>451</v>
-      </c>
-      <c r="C103" s="47" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
-      <c r="A104" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="B104" s="65"/>
-      <c r="L104" s="56"/>
-    </row>
-    <row r="105" spans="1:12">
-      <c r="A105" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="B105" s="66" t="s">
-        <v>516</v>
-      </c>
-      <c r="L105" s="56"/>
-    </row>
-    <row r="106" spans="1:12">
-      <c r="A106" s="62"/>
-      <c r="B106" s="66" t="s">
-        <v>543</v>
-      </c>
-      <c r="L106" s="56"/>
-    </row>
-    <row r="107" spans="1:12">
-      <c r="A107" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="B107" s="67" t="s">
-        <v>530</v>
-      </c>
-      <c r="L107" s="56"/>
-    </row>
-    <row r="108" spans="1:12">
-      <c r="A108" s="63"/>
-      <c r="B108" s="67" t="s">
-        <v>532</v>
-      </c>
-      <c r="L108" s="56"/>
-    </row>
-    <row r="109" spans="1:12" ht="30">
-      <c r="A109" s="63"/>
-      <c r="B109" s="67" t="s">
-        <v>600</v>
-      </c>
-      <c r="C109" s="47" t="s">
-        <v>601</v>
-      </c>
-      <c r="L109" s="56"/>
-    </row>
-    <row r="110" spans="1:12" ht="30">
-      <c r="A110" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="B110" s="68" t="s">
-        <v>449</v>
-      </c>
-      <c r="C110" s="47" t="s">
-        <v>450</v>
-      </c>
-      <c r="H110" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L110" s="56"/>
-    </row>
-    <row r="111" spans="1:12">
-      <c r="A111" s="64"/>
-      <c r="B111" s="68" t="s">
-        <v>528</v>
-      </c>
-      <c r="L111" s="56"/>
-    </row>
-    <row r="112" spans="1:12">
-      <c r="A112" s="64"/>
-      <c r="B112" s="68" t="s">
-        <v>533</v>
-      </c>
-      <c r="L112" s="56"/>
-    </row>
-    <row r="113" spans="1:12">
-      <c r="A113" s="64"/>
-      <c r="B113" s="68" t="s">
-        <v>546</v>
-      </c>
-      <c r="L113" s="56"/>
-    </row>
-    <row r="115" spans="1:12">
-      <c r="A115" s="51" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12">
-      <c r="A116" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="C116" s="47" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12">
-      <c r="A117" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="C117" s="47" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12">
-      <c r="A118" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="C118" s="47" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12">
-      <c r="A119" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="C119" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12">
-      <c r="A120" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="C120" s="47" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12">
-      <c r="A121" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="C121" s="47" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12">
-      <c r="B122" s="4" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" ht="30">
-      <c r="B123" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="C123" s="47" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12">
-      <c r="B124" s="4" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12">
-      <c r="A125" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="B125" s="70" t="s">
-        <v>496</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E125" s="50">
-        <v>135</v>
-      </c>
-      <c r="G125" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" ht="90">
-      <c r="A126" s="59"/>
-      <c r="B126" s="70" t="s">
-        <v>568</v>
-      </c>
-      <c r="C126" s="47" t="s">
-        <v>567</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E126" s="50">
-        <v>25</v>
-      </c>
-      <c r="G126" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" ht="30">
-      <c r="A127" s="60" t="s">
-        <v>193</v>
-      </c>
-      <c r="B127" s="69" t="s">
-        <v>495</v>
-      </c>
-      <c r="C127" s="47" t="s">
-        <v>426</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E127" s="50">
-        <v>120</v>
-      </c>
-      <c r="G127" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12">
-      <c r="A128" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="B128" s="69" t="s">
-        <v>497</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E128" s="50">
-        <v>140</v>
-      </c>
-      <c r="G128" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="62"/>
-      <c r="B129" s="69" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="B130" s="69" t="s">
-        <v>494</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E130" s="50">
-        <v>135</v>
-      </c>
-      <c r="G130" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="B131" s="69" t="s">
-        <v>493</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E131" s="50">
-        <v>140</v>
-      </c>
-      <c r="G131" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="B132" s="69"/>
-      <c r="D132" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E132" s="50">
-        <v>135</v>
-      </c>
-      <c r="G132" s="50">
+      <c r="G153" s="50">
         <v>4</v>
       </c>
     </row>
@@ -10646,7 +11642,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C49" s="8">
         <v>1</v>
@@ -11168,10 +12164,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:A35"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11359,43 +12355,66 @@
         <v>146</v>
       </c>
     </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="17" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="17" t="s">
+        <v>640</v>
+      </c>
+    </row>
     <row r="38" spans="1:2">
       <c r="A38" s="17" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="17" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="17"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="17" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="B40" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="B41" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="B42" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="B43" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="B44" s="16" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="B45" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="B46" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="B47" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="B48" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="B49" s="16" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="B50" s="16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="16" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="16" t="s">
         <v>434</v>
       </c>
     </row>
@@ -11409,8 +12428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Overview" sheetId="2" r:id="rId1"/>
     <sheet name="Units" sheetId="4" r:id="rId2"/>
-    <sheet name="Skills-Overview" sheetId="9" state="hidden" r:id="rId3"/>
+    <sheet name="Skills-Overview" sheetId="9" r:id="rId3"/>
     <sheet name="Skills" sheetId="7" r:id="rId4"/>
     <sheet name="Weapons" sheetId="1" r:id="rId5"/>
     <sheet name="Weapons-Overview" sheetId="3" r:id="rId6"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="732">
   <si>
     <t>physical</t>
   </si>
@@ -1988,9 +1988,6 @@
     <t>Timber</t>
   </si>
   <si>
-    <t>Hits all units in a row</t>
-  </si>
-  <si>
     <t>Noble Smite</t>
   </si>
   <si>
@@ -2109,13 +2106,133 @@
   </si>
   <si>
     <t>Puncture</t>
+  </si>
+  <si>
+    <t>COMMON TOTALS</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>buff</t>
+  </si>
+  <si>
+    <t>debuff</t>
+  </si>
+  <si>
+    <t>damage + effect</t>
+  </si>
+  <si>
+    <t>Shield target ally (40% Strength) and increase Spd/Str/Fcs (10% Strength).</t>
+  </si>
+  <si>
+    <t>Increase target ally highgest stat by (10%).</t>
+  </si>
+  <si>
+    <t>Damages all front line enemies and inflict Bleed(1).</t>
+  </si>
+  <si>
+    <t>heal/shield</t>
+  </si>
+  <si>
+    <t>Crushing Ice</t>
+  </si>
+  <si>
+    <t>Avalanche</t>
+  </si>
+  <si>
+    <t>Heal all allies for 10% damage dealt.</t>
+  </si>
+  <si>
+    <t>Maelstrom</t>
+  </si>
+  <si>
+    <t>Skill type totals:</t>
+  </si>
+  <si>
+    <t>WILD TOTALS</t>
+  </si>
+  <si>
+    <t>bleed</t>
+  </si>
+  <si>
+    <t>stun</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>silence</t>
+  </si>
+  <si>
+    <t>burn</t>
+  </si>
+  <si>
+    <t>poison</t>
+  </si>
+  <si>
+    <t>bind</t>
+  </si>
+  <si>
+    <t>curse</t>
+  </si>
+  <si>
+    <t>Also damages unit directly behidn target.</t>
+  </si>
+  <si>
+    <t>Combat</t>
+  </si>
+  <si>
+    <t>Each unit gets to make one action per round of combat</t>
+  </si>
+  <si>
+    <t>If the target dies before a unit moves, will attempt to attack the target behind</t>
+  </si>
+  <si>
+    <t>Otherwise, attack adjacent unit in same column</t>
+  </si>
+  <si>
+    <t>Otherwise, miss(?)</t>
+  </si>
+  <si>
+    <t>Every ability/weapon has a range</t>
+  </si>
+  <si>
+    <t>1: can only hit frontline units or backline units with no frontline in front of them</t>
+  </si>
+  <si>
+    <t>2: can hit both frontline and backline units</t>
+  </si>
+  <si>
+    <t>Damage reduction:</t>
+  </si>
+  <si>
+    <t>backline units with a frontline unit in front of them take significantly reduced damage until</t>
+  </si>
+  <si>
+    <t>the unit in front of them is defeated (40%-60%, will have to test values)</t>
+  </si>
+  <si>
+    <t>*note: damage/effect applied at end of round and counter is decreased by 1. in newRound(), checking for status effects at 0 and remove</t>
+  </si>
+  <si>
+    <t>*add energy at the end of rounds</t>
+  </si>
+  <si>
+    <t>Supress: Stops unit from gaining energy at the end of round</t>
+  </si>
+  <si>
+    <t>At the start of each round, pick each units actions and target (OR pick when it's units turn?)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2559,7 +2676,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>103663</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1628775" cy="352469"/>
@@ -3071,89 +3188,89 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" t="s">
         <v>135</v>
@@ -3177,40 +3294,40 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>135</v>
       </c>
       <c r="C23" s="30"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>118</v>
       </c>
       <c r="B24" s="29"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>193</v>
       </c>
       <c r="E25" s="29"/>
       <c r="G25" s="29"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
         <v>194</v>
       </c>
       <c r="D26" s="29"/>
       <c r="H26" s="29"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
         <v>192</v>
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="38" t="s">
         <v>191</v>
       </c>
@@ -3219,7 +3336,7 @@
       <c r="G28" s="30"/>
       <c r="H28" s="29"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
         <v>117</v>
       </c>
@@ -3229,126 +3346,126 @@
       <c r="G29" s="29"/>
       <c r="H29" s="30"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="36" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>210</v>
       </c>
@@ -3359,7 +3476,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -3371,7 +3488,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>10</v>
       </c>
@@ -3383,7 +3500,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>20</v>
       </c>
@@ -3395,7 +3512,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>30</v>
       </c>
@@ -3407,7 +3524,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>40</v>
       </c>
@@ -3419,7 +3536,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>50</v>
       </c>
@@ -3431,7 +3548,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>60</v>
       </c>
@@ -3443,7 +3560,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>70</v>
       </c>
@@ -3455,7 +3572,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>80</v>
       </c>
@@ -3467,7 +3584,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>90</v>
       </c>
@@ -3479,7 +3596,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>100</v>
       </c>
@@ -3491,132 +3608,132 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B84" s="44" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B85" s="40" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B86" s="41" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B87" s="45" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B88" s="43" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>342</v>
       </c>
@@ -3632,11 +3749,11 @@
   <dimension ref="A1:R128"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K20" sqref="K20:O21"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
@@ -3646,7 +3763,7 @@
     <col min="11" max="15" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>196</v>
       </c>
@@ -3696,7 +3813,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>135</v>
       </c>
@@ -3729,7 +3846,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -3762,7 +3879,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>135</v>
       </c>
@@ -3795,7 +3912,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>135</v>
       </c>
@@ -3831,7 +3948,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -3864,7 +3981,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>135</v>
       </c>
@@ -3903,7 +4020,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>135</v>
       </c>
@@ -3936,7 +4053,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -3969,7 +4086,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -4002,7 +4119,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>135</v>
       </c>
@@ -4035,7 +4152,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>135</v>
       </c>
@@ -4071,7 +4188,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>135</v>
       </c>
@@ -4113,7 +4230,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>135</v>
       </c>
@@ -4149,7 +4266,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>135</v>
       </c>
@@ -4188,7 +4305,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -4227,7 +4344,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>135</v>
       </c>
@@ -4263,7 +4380,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -4296,7 +4413,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>135</v>
       </c>
@@ -4329,7 +4446,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>135</v>
       </c>
@@ -4377,7 +4494,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -4425,7 +4542,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -4461,7 +4578,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>135</v>
       </c>
@@ -4497,7 +4614,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -4533,7 +4650,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>118</v>
       </c>
@@ -4581,7 +4698,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>118</v>
       </c>
@@ -4623,7 +4740,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>118</v>
       </c>
@@ -4662,7 +4779,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>118</v>
       </c>
@@ -4698,7 +4815,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>118</v>
       </c>
@@ -4737,7 +4854,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>118</v>
       </c>
@@ -4779,7 +4896,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>118</v>
       </c>
@@ -4821,7 +4938,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>118</v>
       </c>
@@ -4863,7 +4980,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>118</v>
       </c>
@@ -4902,7 +5019,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>118</v>
       </c>
@@ -4938,7 +5055,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>118</v>
       </c>
@@ -4971,7 +5088,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>118</v>
       </c>
@@ -5007,7 +5124,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -5043,7 +5160,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>118</v>
       </c>
@@ -5079,7 +5196,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>118</v>
       </c>
@@ -5115,7 +5232,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>118</v>
       </c>
@@ -5151,7 +5268,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>118</v>
       </c>
@@ -5187,7 +5304,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>118</v>
       </c>
@@ -5220,7 +5337,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>118</v>
       </c>
@@ -5253,7 +5370,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>118</v>
       </c>
@@ -5289,7 +5406,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>118</v>
       </c>
@@ -5334,7 +5451,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>118</v>
       </c>
@@ -5373,7 +5490,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>118</v>
       </c>
@@ -5421,7 +5538,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>193</v>
       </c>
@@ -5457,7 +5574,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>193</v>
       </c>
@@ -5493,7 +5610,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>193</v>
       </c>
@@ -5529,7 +5646,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>193</v>
       </c>
@@ -5565,7 +5682,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>193</v>
       </c>
@@ -5604,7 +5721,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>193</v>
       </c>
@@ -5643,7 +5760,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>193</v>
       </c>
@@ -5682,7 +5799,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>193</v>
       </c>
@@ -5721,7 +5838,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>193</v>
       </c>
@@ -5760,7 +5877,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>193</v>
       </c>
@@ -5802,7 +5919,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>193</v>
       </c>
@@ -5841,7 +5958,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>193</v>
       </c>
@@ -5880,7 +5997,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>193</v>
       </c>
@@ -5919,7 +6036,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>193</v>
       </c>
@@ -5955,7 +6072,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>193</v>
       </c>
@@ -5994,7 +6111,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>193</v>
       </c>
@@ -6033,7 +6150,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>193</v>
       </c>
@@ -6069,10 +6186,10 @@
         <v>609</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C67" s="30"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>194</v>
       </c>
@@ -6111,7 +6228,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>194</v>
       </c>
@@ -6147,7 +6264,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>194</v>
       </c>
@@ -6180,7 +6297,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>194</v>
       </c>
@@ -6219,7 +6336,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>194</v>
       </c>
@@ -6258,7 +6375,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>194</v>
       </c>
@@ -6294,7 +6411,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>194</v>
       </c>
@@ -6327,7 +6444,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>194</v>
       </c>
@@ -6369,7 +6486,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>194</v>
       </c>
@@ -6405,7 +6522,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>194</v>
       </c>
@@ -6453,7 +6570,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>194</v>
       </c>
@@ -6504,7 +6621,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>194</v>
       </c>
@@ -6549,7 +6666,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>194</v>
       </c>
@@ -6588,7 +6705,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>194</v>
       </c>
@@ -6624,7 +6741,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>192</v>
       </c>
@@ -6663,7 +6780,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>192</v>
       </c>
@@ -6702,7 +6819,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>192</v>
       </c>
@@ -6744,7 +6861,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>192</v>
       </c>
@@ -6789,7 +6906,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>192</v>
       </c>
@@ -6828,7 +6945,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>192</v>
       </c>
@@ -6864,7 +6981,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>192</v>
       </c>
@@ -6900,7 +7017,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>192</v>
       </c>
@@ -6936,7 +7053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>192</v>
       </c>
@@ -6975,7 +7092,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>192</v>
       </c>
@@ -7014,7 +7131,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>191</v>
       </c>
@@ -7053,7 +7170,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>191</v>
       </c>
@@ -7095,7 +7212,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>191</v>
       </c>
@@ -7146,7 +7263,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>191</v>
       </c>
@@ -7197,7 +7314,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>191</v>
       </c>
@@ -7248,7 +7365,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>191</v>
       </c>
@@ -7287,7 +7404,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>191</v>
       </c>
@@ -7323,7 +7440,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>191</v>
       </c>
@@ -7362,7 +7479,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>191</v>
       </c>
@@ -7404,7 +7521,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>191</v>
       </c>
@@ -7440,7 +7557,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>191</v>
       </c>
@@ -7479,7 +7596,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>191</v>
       </c>
@@ -7518,7 +7635,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>191</v>
       </c>
@@ -7557,7 +7674,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>117</v>
       </c>
@@ -7593,7 +7710,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>117</v>
       </c>
@@ -7635,7 +7752,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>117</v>
       </c>
@@ -7683,7 +7800,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -7725,7 +7842,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>117</v>
       </c>
@@ -7764,7 +7881,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>117</v>
       </c>
@@ -7800,7 +7917,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>117</v>
       </c>
@@ -7839,7 +7956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>117</v>
       </c>
@@ -7875,7 +7992,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>117</v>
       </c>
@@ -7914,7 +8031,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -7950,7 +8067,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="118" spans="1:16">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -7986,7 +8103,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -8022,7 +8139,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>117</v>
       </c>
@@ -8058,7 +8175,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>117</v>
       </c>
@@ -8094,7 +8211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>117</v>
       </c>
@@ -8130,7 +8247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>117</v>
       </c>
@@ -8166,7 +8283,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>117</v>
       </c>
@@ -8202,7 +8319,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>117</v>
       </c>
@@ -8238,7 +8355,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D127" s="46">
         <f t="shared" ref="D127:I127" si="9">SUM(D3:D120)</f>
         <v>10695</v>
@@ -8264,7 +8381,7 @@
         <v>6877</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D128" s="28">
         <f t="shared" ref="D128:I128" si="10">AVERAGE(D3:D120)</f>
         <v>95.491071428571431</v>
@@ -8310,25 +8427,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D31"/>
+  <dimension ref="A2:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>463</v>
       </c>
@@ -8336,7 +8453,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>464</v>
       </c>
@@ -8344,7 +8461,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>465</v>
       </c>
@@ -8352,7 +8469,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>466</v>
       </c>
@@ -8360,7 +8477,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>467</v>
       </c>
@@ -8368,17 +8485,17 @@
         <v>474</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="32" t="s">
         <v>118</v>
       </c>
@@ -8386,7 +8503,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="33" t="s">
         <v>193</v>
       </c>
@@ -8394,89 +8511,262 @@
         <v>483</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="55" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="34" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="38" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="35" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" s="56"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B19" s="56"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>718</v>
+      </c>
+      <c r="B20" s="56"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>731</v>
+      </c>
+      <c r="B21" s="56"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="56" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="56" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="56" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>722</v>
+      </c>
+      <c r="B25" s="56"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="56" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="56" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>725</v>
+      </c>
+      <c r="B28" s="56"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="56" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="56" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="56"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="B26" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>554</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>693</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>696</v>
+      </c>
+      <c r="C51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>700</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>694</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>695</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="17" t="s">
+        <v>707</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="17" t="s">
+        <v>708</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="17" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="17" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="17" t="s">
+        <v>711</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="17" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="17" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="17" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="17" t="s">
+        <v>715</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L153"/>
+  <dimension ref="A1:L155"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="22.42578125" style="4" customWidth="1"/>
@@ -8487,7 +8777,7 @@
     <col min="8" max="8" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>170</v>
       </c>
@@ -8513,7 +8803,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>135</v>
       </c>
@@ -8536,7 +8826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="69" t="s">
         <v>556</v>
       </c>
@@ -8556,7 +8846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="69" t="s">
         <v>536</v>
       </c>
@@ -8576,7 +8866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="69" t="s">
         <v>423</v>
       </c>
@@ -8596,127 +8886,155 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="69" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>446</v>
+        <v>0</v>
       </c>
       <c r="E6" s="50">
+        <v>110</v>
+      </c>
+      <c r="F6" s="50">
+        <v>1</v>
+      </c>
+      <c r="G6" s="50">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="69" t="s">
+        <v>484</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>485</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="69" t="s">
+        <v>701</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="50" t="s">
-        <v>447</v>
-      </c>
-      <c r="G6" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30">
-      <c r="B7" s="69" t="s">
-        <v>452</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>453</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="50">
-        <v>110</v>
-      </c>
-      <c r="F7" s="50">
-        <v>1</v>
-      </c>
-      <c r="G7" s="50">
+      <c r="E8" s="50">
+        <v>25</v>
+      </c>
+      <c r="F8" s="50">
         <v>2</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="69" t="s">
-        <v>484</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>485</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="50">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30">
+      <c r="G8" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="69" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>488</v>
+        <v>703</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="50">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="F9" s="50">
         <v>2</v>
       </c>
       <c r="G9" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="69" t="s">
+        <v>547</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="50">
+        <v>0</v>
+      </c>
+      <c r="F10" s="50">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="69" t="s">
-        <v>515</v>
-      </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="G10" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="69" t="s">
-        <v>516</v>
-      </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:8">
+        <v>676</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="50">
+        <v>85</v>
+      </c>
+      <c r="F11" s="50">
+        <v>1</v>
+      </c>
+      <c r="G11" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="69" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>424</v>
+        <v>699</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E12" s="50">
-        <v>0</v>
-      </c>
-      <c r="F12" s="50">
-        <v>2</v>
+        <v>35</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>586</v>
       </c>
       <c r="G12" s="50">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="69" t="s">
-        <v>677</v>
+        <v>606</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>113</v>
+        <v>604</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="50">
-        <v>85</v>
+      <c r="E13" s="50" t="s">
+        <v>605</v>
       </c>
       <c r="F13" s="50">
         <v>1</v>
@@ -8725,61 +9043,92 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="69" t="s">
-        <v>551</v>
-      </c>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" ht="30">
+        <v>637</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>605</v>
+      </c>
+      <c r="F14" s="50">
+        <v>1</v>
+      </c>
+      <c r="G14" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="69" t="s">
-        <v>606</v>
+        <v>636</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>604</v>
+        <v>698</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E15" s="50">
         <v>0</v>
       </c>
-      <c r="E15" s="50" t="s">
-        <v>605</v>
-      </c>
-      <c r="F15" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30">
+      <c r="F15" s="50" t="s">
+        <v>447</v>
+      </c>
+      <c r="G15" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="69" t="s">
-        <v>637</v>
+        <v>515</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>638</v>
+        <v>697</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E16" s="50">
         <v>0</v>
       </c>
-      <c r="E16" s="50" t="s">
-        <v>605</v>
-      </c>
-      <c r="F16" s="50">
-        <v>1</v>
+      <c r="F16" s="50" t="s">
+        <v>447</v>
       </c>
       <c r="G16" s="50">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="69" t="s">
-        <v>636</v>
-      </c>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" ht="45">
+        <v>674</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="E17" s="50">
+        <v>0</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>447</v>
+      </c>
+      <c r="G17" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="69" t="s">
-        <v>661</v>
+        <v>684</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>446</v>
@@ -8794,12 +9143,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="69" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>446</v>
@@ -8811,15 +9160,15 @@
         <v>447</v>
       </c>
       <c r="G19" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="69" t="s">
-        <v>685</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>686</v>
+        <v>438</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>439</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>446</v>
@@ -8831,14 +9180,13 @@
         <v>447</v>
       </c>
       <c r="G20" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="69"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:8">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="59" t="s">
         <v>118</v>
       </c>
@@ -8860,8 +9208,11 @@
       <c r="G22" s="50">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="J22" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="59"/>
       <c r="B23" s="70" t="s">
         <v>535</v>
@@ -8881,8 +9232,14 @@
       <c r="G23" s="50">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="30">
+      <c r="J23" t="s">
+        <v>693</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="59"/>
       <c r="B24" s="70" t="s">
         <v>520</v>
@@ -8902,8 +9259,14 @@
       <c r="G24" s="50">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="30">
+      <c r="J24" t="s">
+        <v>696</v>
+      </c>
+      <c r="L24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="59"/>
       <c r="B25" s="70" t="s">
         <v>454</v>
@@ -8920,8 +9283,14 @@
       <c r="G25" s="50">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="60">
+      <c r="J25" t="s">
+        <v>700</v>
+      </c>
+      <c r="L25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="59"/>
       <c r="B26" s="70" t="s">
         <v>524</v>
@@ -8941,8 +9310,14 @@
       <c r="G26" s="50">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="60">
+      <c r="J26" t="s">
+        <v>694</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="59"/>
       <c r="B27" s="70" t="s">
         <v>533</v>
@@ -8962,8 +9337,14 @@
       <c r="G27" s="50">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="30">
+      <c r="J27" t="s">
+        <v>695</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="59"/>
       <c r="B28" s="70" t="s">
         <v>537</v>
@@ -8984,13 +9365,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="59"/>
       <c r="B29" s="70" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="59"/>
       <c r="B30" s="70" t="s">
         <v>617</v>
@@ -9011,34 +9392,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="59"/>
       <c r="B31" s="70" t="s">
         <v>651</v>
       </c>
+      <c r="C31" s="47" t="s">
+        <v>716</v>
+      </c>
       <c r="D31" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E31" s="50">
         <v>60</v>
       </c>
-      <c r="F31" s="50" t="s">
-        <v>104</v>
+      <c r="F31" s="50">
+        <v>1</v>
       </c>
       <c r="G31" s="50">
         <v>2</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="59"/>
       <c r="B32" s="70" t="s">
+        <v>661</v>
+      </c>
+      <c r="C32" s="47" t="s">
         <v>662</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>663</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>0</v>
@@ -9053,11 +9434,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="59"/>
       <c r="B33" s="70"/>
     </row>
-    <row r="34" spans="1:9" ht="30">
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="59"/>
       <c r="B34" s="70" t="s">
         <v>445</v>
@@ -9078,7 +9459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="30">
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="59"/>
       <c r="B35" s="70" t="s">
         <v>543</v>
@@ -9099,7 +9480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="59"/>
       <c r="B36" s="70" t="s">
         <v>644</v>
@@ -9120,7 +9501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="60" t="s">
         <v>193</v>
       </c>
@@ -9140,7 +9521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="30">
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="60"/>
       <c r="B38" s="71" t="s">
         <v>509</v>
@@ -9161,7 +9542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="45">
+    <row r="39" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="60"/>
       <c r="B39" s="71" t="s">
         <v>511</v>
@@ -9183,13 +9564,13 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="30">
+    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="60"/>
       <c r="B40" s="71" t="s">
+        <v>652</v>
+      </c>
+      <c r="C40" s="47" t="s">
         <v>653</v>
-      </c>
-      <c r="C40" s="47" t="s">
-        <v>654</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>0</v>
@@ -9204,28 +9585,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="60"/>
       <c r="B41" s="71" t="s">
         <v>517</v>
       </c>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="60"/>
       <c r="B42" s="71" t="s">
         <v>542</v>
       </c>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="60"/>
       <c r="B43" s="71" t="s">
         <v>552</v>
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="60"/>
       <c r="B44" s="71" t="s">
         <v>583</v>
@@ -9246,7 +9627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="45">
+    <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="60"/>
       <c r="B45" s="71" t="s">
         <v>613</v>
@@ -9267,14 +9648,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="60"/>
       <c r="B46" s="71" t="s">
         <v>550</v>
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="30">
+    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="60"/>
       <c r="B47" s="71" t="s">
         <v>425</v>
@@ -9295,7 +9676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="61" t="s">
         <v>194</v>
       </c>
@@ -9306,7 +9687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30">
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="61"/>
       <c r="B49" s="73" t="s">
         <v>505</v>
@@ -9321,7 +9702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="45">
+    <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="61"/>
       <c r="B50" s="73" t="s">
         <v>512</v>
@@ -9342,7 +9723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="61"/>
       <c r="B51" s="73" t="s">
         <v>529</v>
@@ -9360,19 +9741,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="61"/>
       <c r="B52" s="73" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="61"/>
       <c r="B53" s="73" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30">
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="61"/>
       <c r="B54" s="73" t="s">
         <v>591</v>
@@ -9393,7 +9774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30">
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="61"/>
       <c r="B55" s="73" t="s">
         <v>596</v>
@@ -9414,19 +9795,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="61"/>
       <c r="B56" s="73" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="61"/>
       <c r="B57" s="73" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="45">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="62" t="s">
         <v>192</v>
       </c>
@@ -9449,7 +9830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="62"/>
       <c r="B59" s="74" t="s">
         <v>522</v>
@@ -9470,7 +9851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="62"/>
       <c r="B60" s="74" t="s">
         <v>534</v>
@@ -9491,13 +9872,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="62"/>
       <c r="B61" s="74" t="s">
+        <v>686</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>687</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>688</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>0</v>
@@ -9512,7 +9893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="30">
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="62"/>
       <c r="B62" s="74" t="s">
         <v>558</v>
@@ -9533,7 +9914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="45">
+    <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="62"/>
       <c r="B63" s="74" t="s">
         <v>571</v>
@@ -9548,7 +9929,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="45">
+    <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="62"/>
       <c r="B64" s="74" t="s">
         <v>608</v>
@@ -9563,7 +9944,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="45">
+    <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="62"/>
       <c r="B65" s="74" t="s">
         <v>642</v>
@@ -9584,19 +9965,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="62"/>
       <c r="B66" s="74" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="30">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="62"/>
       <c r="B67" s="74" t="s">
+        <v>689</v>
+      </c>
+      <c r="C67" s="47" t="s">
         <v>690</v>
-      </c>
-      <c r="C67" s="47" t="s">
-        <v>691</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>11</v>
@@ -9611,7 +9992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="30">
+    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="62"/>
       <c r="B68" s="74" t="s">
         <v>649</v>
@@ -9632,13 +10013,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="30">
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="62"/>
       <c r="B69" s="74" t="s">
+        <v>672</v>
+      </c>
+      <c r="C69" s="47" t="s">
         <v>673</v>
-      </c>
-      <c r="C69" s="47" t="s">
-        <v>674</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>446</v>
@@ -9653,13 +10034,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="30">
+    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="62"/>
       <c r="B70" s="74" t="s">
+        <v>669</v>
+      </c>
+      <c r="C70" s="47" t="s">
         <v>670</v>
-      </c>
-      <c r="C70" s="47" t="s">
-        <v>671</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>446</v>
@@ -9674,13 +10055,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="30">
+    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="62"/>
       <c r="B71" s="74" t="s">
+        <v>679</v>
+      </c>
+      <c r="C71" s="47" t="s">
         <v>680</v>
-      </c>
-      <c r="C71" s="47" t="s">
-        <v>681</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>446</v>
@@ -9695,13 +10076,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="62"/>
       <c r="B72" s="74" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="63" t="s">
         <v>191</v>
       </c>
@@ -9724,7 +10105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="63"/>
       <c r="B74" s="75" t="s">
         <v>499</v>
@@ -9745,13 +10126,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="63"/>
       <c r="B75" s="75" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="63"/>
       <c r="B76" s="75" t="s">
         <v>562</v>
@@ -9772,13 +10153,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="63"/>
       <c r="B77" s="75" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="63"/>
       <c r="B78" s="75" t="s">
         <v>527</v>
@@ -9799,7 +10180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="30">
+    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="63"/>
       <c r="B79" s="75" t="s">
         <v>580</v>
@@ -9820,7 +10201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="45">
+    <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="63"/>
       <c r="B80" s="75" t="s">
         <v>593</v>
@@ -9841,7 +10222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="63"/>
       <c r="B81" s="75" t="s">
         <v>599</v>
@@ -9862,13 +10243,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="30">
+    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="63"/>
       <c r="B82" s="75" t="s">
+        <v>664</v>
+      </c>
+      <c r="C82" s="47" t="s">
         <v>665</v>
-      </c>
-      <c r="C82" s="47" t="s">
-        <v>666</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>11</v>
@@ -9883,11 +10264,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="63"/>
       <c r="B83" s="75"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="64" t="s">
         <v>117</v>
       </c>
@@ -9910,13 +10291,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="64"/>
       <c r="B85" s="72" t="s">
+        <v>658</v>
+      </c>
+      <c r="C85" s="47" t="s">
         <v>659</v>
-      </c>
-      <c r="C85" s="47" t="s">
-        <v>660</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>11</v>
@@ -9931,13 +10312,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="64"/>
       <c r="B86" s="72" t="s">
         <v>523</v>
       </c>
       <c r="C86" s="47" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>11</v>
@@ -9952,7 +10333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="30">
+    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="64"/>
       <c r="B87" s="72" t="s">
         <v>435</v>
@@ -9973,7 +10354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="64"/>
       <c r="B88" s="72" t="s">
         <v>622</v>
@@ -9994,7 +10375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="30">
+    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="64"/>
       <c r="B89" s="72" t="s">
         <v>620</v>
@@ -10015,7 +10396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="64"/>
       <c r="B90" s="72" t="s">
         <v>538</v>
@@ -10036,7 +10417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="45">
+    <row r="91" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="64"/>
       <c r="B91" s="72" t="s">
         <v>585</v>
@@ -10057,13 +10438,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="45">
+    <row r="92" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="64"/>
       <c r="B92" s="72" t="s">
         <v>631</v>
       </c>
       <c r="C92" s="47" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>0</v>
@@ -10078,7 +10459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="30">
+    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="64"/>
       <c r="B93" s="72" t="s">
         <v>436</v>
@@ -10102,510 +10483,490 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="64"/>
       <c r="B94" s="72" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12">
-      <c r="A99" s="51" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="64"/>
+      <c r="B95" s="72" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="64"/>
+      <c r="B96" s="72" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="51" t="s">
         <v>440</v>
       </c>
-      <c r="L99" s="56"/>
-    </row>
-    <row r="100" spans="1:12">
-      <c r="A100" s="4" t="s">
+      <c r="L101" s="56"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B102" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="C100" s="47" t="s">
+      <c r="C102" s="47" t="s">
         <v>490</v>
       </c>
-      <c r="L100" s="56"/>
-    </row>
-    <row r="101" spans="1:12" ht="30">
-      <c r="B101" s="4" t="s">
+      <c r="L102" s="56"/>
+    </row>
+    <row r="103" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="C101" s="47" t="s">
+      <c r="C103" s="47" t="s">
         <v>575</v>
       </c>
-      <c r="L101" s="56"/>
-    </row>
-    <row r="102" spans="1:12">
-      <c r="B102" s="4" t="s">
+      <c r="L103" s="56"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B104" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="L102" s="56"/>
-    </row>
-    <row r="103" spans="1:12">
-      <c r="B103" s="4" t="s">
+      <c r="L104" s="56"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B105" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="L103" s="56"/>
-    </row>
-    <row r="104" spans="1:12" ht="30">
-      <c r="B104" s="4" t="s">
+      <c r="L105" s="56"/>
+    </row>
+    <row r="106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B106" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="C104" s="47" t="s">
+      <c r="C106" s="47" t="s">
         <v>574</v>
       </c>
-      <c r="L104" s="56"/>
-    </row>
-    <row r="105" spans="1:12" ht="60">
-      <c r="B105" s="4" t="s">
+      <c r="L106" s="56"/>
+    </row>
+    <row r="107" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="C105" s="47" t="s">
+      <c r="C107" s="47" t="s">
         <v>578</v>
       </c>
-      <c r="L105" s="56"/>
-    </row>
-    <row r="106" spans="1:12">
-      <c r="B106" s="4" t="s">
+      <c r="L107" s="56"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B108" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="L106" s="56"/>
-    </row>
-    <row r="107" spans="1:12" ht="30">
-      <c r="B107" s="4" t="s">
+      <c r="L108" s="56"/>
+    </row>
+    <row r="109" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="C107" s="47" t="s">
+      <c r="C109" s="47" t="s">
         <v>582</v>
       </c>
-      <c r="L107" s="56"/>
-    </row>
-    <row r="108" spans="1:12" ht="30">
-      <c r="B108" s="4" t="s">
+      <c r="L109" s="56"/>
+    </row>
+    <row r="110" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B110" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="C108" s="47" t="s">
+      <c r="C110" s="47" t="s">
         <v>639</v>
       </c>
-      <c r="L108" s="56"/>
-    </row>
-    <row r="109" spans="1:12" ht="30">
-      <c r="B109" s="4" t="s">
+      <c r="L110" s="56"/>
+    </row>
+    <row r="111" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B111" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="C109" s="47" t="s">
+      <c r="C111" s="47" t="s">
         <v>602</v>
       </c>
-      <c r="L109" s="56"/>
-    </row>
-    <row r="110" spans="1:12" ht="30">
-      <c r="B110" s="4" t="s">
+      <c r="L111" s="56"/>
+    </row>
+    <row r="112" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="C110" s="47" t="s">
+      <c r="C112" s="47" t="s">
         <v>611</v>
       </c>
-      <c r="L110" s="56"/>
-    </row>
-    <row r="111" spans="1:12" ht="60">
-      <c r="B111" s="4" t="s">
+      <c r="L112" s="56"/>
+    </row>
+    <row r="113" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B113" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="C111" s="47" t="s">
+      <c r="C113" s="47" t="s">
         <v>612</v>
       </c>
-      <c r="L111" s="56"/>
-    </row>
-    <row r="112" spans="1:12" ht="75">
-      <c r="B112" s="4" t="s">
+      <c r="L113" s="56"/>
+    </row>
+    <row r="114" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="B114" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="C112" s="47" t="s">
+      <c r="C114" s="47" t="s">
         <v>616</v>
       </c>
-      <c r="L112" s="56"/>
-    </row>
-    <row r="113" spans="1:12">
-      <c r="B113" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="L113" s="56"/>
-    </row>
-    <row r="114" spans="1:12" ht="45">
-      <c r="B114" s="4" t="s">
+      <c r="L114" s="56"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B115" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="L115" s="56"/>
+    </row>
+    <row r="116" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B116" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="C116" s="47" t="s">
+        <v>629</v>
+      </c>
+      <c r="L116" s="56"/>
+    </row>
+    <row r="117" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B117" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="C114" s="47" t="s">
-        <v>629</v>
-      </c>
-      <c r="L114" s="56"/>
-    </row>
-    <row r="115" spans="1:12" ht="30">
-      <c r="B115" s="4" t="s">
+      <c r="C117" s="47" t="s">
         <v>668</v>
       </c>
-      <c r="C115" s="47" t="s">
-        <v>669</v>
-      </c>
-      <c r="L115" s="56"/>
-    </row>
-    <row r="116" spans="1:12">
-      <c r="B116" s="4" t="s">
+      <c r="L117" s="56"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B118" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="C118" s="47" t="s">
         <v>683</v>
       </c>
-      <c r="C116" s="47" t="s">
-        <v>684</v>
-      </c>
-      <c r="L116" s="56"/>
-    </row>
-    <row r="117" spans="1:12" ht="45">
-      <c r="A117" s="59" t="s">
+      <c r="L118" s="56"/>
+    </row>
+    <row r="119" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A119" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="B117" s="57" t="s">
+      <c r="B119" s="57" t="s">
         <v>532</v>
       </c>
-      <c r="C117" s="47" t="s">
+      <c r="C119" s="47" t="s">
         <v>632</v>
       </c>
-      <c r="L117" s="56"/>
-    </row>
-    <row r="118" spans="1:12">
-      <c r="A118" s="59"/>
-      <c r="B118" s="57"/>
-      <c r="L118" s="56"/>
-    </row>
-    <row r="119" spans="1:12">
-      <c r="A119" s="59"/>
-      <c r="B119" s="57" t="s">
+      <c r="L119" s="56"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="59"/>
+      <c r="B120" s="57"/>
+      <c r="L120" s="56"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="59"/>
+      <c r="B121" s="57" t="s">
         <v>540</v>
       </c>
-      <c r="L119" s="56"/>
-    </row>
-    <row r="120" spans="1:12">
-      <c r="A120" s="59"/>
-      <c r="B120" s="57" t="s">
+      <c r="L121" s="56"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="59"/>
+      <c r="B122" s="57" t="s">
         <v>557</v>
       </c>
-      <c r="L120" s="56"/>
-    </row>
-    <row r="121" spans="1:12" ht="30">
-      <c r="A121" s="60" t="s">
+      <c r="L122" s="56"/>
+    </row>
+    <row r="123" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="B121" s="58" t="s">
+      <c r="B123" s="58" t="s">
         <v>450</v>
       </c>
-      <c r="C121" s="47" t="s">
+      <c r="C123" s="47" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
-      <c r="A122" s="61" t="s">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="B122" s="65"/>
-      <c r="L122" s="56"/>
-    </row>
-    <row r="123" spans="1:12" ht="45">
-      <c r="A123" s="62" t="s">
+      <c r="B124" s="65"/>
+      <c r="L124" s="56"/>
+    </row>
+    <row r="125" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A125" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="B123" s="66" t="s">
+      <c r="B125" s="66" t="s">
         <v>514</v>
       </c>
-      <c r="C123" s="47" t="s">
-        <v>655</v>
-      </c>
-      <c r="L123" s="56"/>
-    </row>
-    <row r="124" spans="1:12">
-      <c r="A124" s="62"/>
-      <c r="B124" s="66" t="s">
+      <c r="C125" s="47" t="s">
+        <v>654</v>
+      </c>
+      <c r="L125" s="56"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="62"/>
+      <c r="B126" s="66" t="s">
         <v>541</v>
       </c>
-      <c r="L124" s="56"/>
-    </row>
-    <row r="125" spans="1:12">
-      <c r="A125" s="63" t="s">
+      <c r="L126" s="56"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="B125" s="67" t="s">
+      <c r="B127" s="67" t="s">
         <v>528</v>
       </c>
-      <c r="L125" s="56"/>
-    </row>
-    <row r="126" spans="1:12">
-      <c r="A126" s="63"/>
-      <c r="B126" s="67" t="s">
+      <c r="L127" s="56"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="63"/>
+      <c r="B128" s="67" t="s">
         <v>530</v>
       </c>
-      <c r="L126" s="56"/>
-    </row>
-    <row r="127" spans="1:12" ht="30">
-      <c r="A127" s="63"/>
-      <c r="B127" s="67" t="s">
+      <c r="L128" s="56"/>
+    </row>
+    <row r="129" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="63"/>
+      <c r="B129" s="67" t="s">
         <v>597</v>
       </c>
-      <c r="C127" s="47" t="s">
+      <c r="C129" s="47" t="s">
         <v>598</v>
       </c>
-      <c r="L127" s="56"/>
-    </row>
-    <row r="128" spans="1:12" ht="30">
-      <c r="A128" s="64" t="s">
+      <c r="L129" s="56"/>
+    </row>
+    <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="B128" s="68" t="s">
+      <c r="B130" s="68" t="s">
         <v>448</v>
       </c>
-      <c r="C128" s="47" t="s">
+      <c r="C130" s="47" t="s">
         <v>449</v>
       </c>
-      <c r="H128" s="4" t="s">
+      <c r="H130" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L128" s="56"/>
-    </row>
-    <row r="129" spans="1:12">
-      <c r="A129" s="64"/>
-      <c r="B129" s="68" t="s">
-        <v>526</v>
-      </c>
-      <c r="L129" s="56"/>
-    </row>
-    <row r="130" spans="1:12">
-      <c r="A130" s="64"/>
-      <c r="B130" s="68" t="s">
-        <v>531</v>
-      </c>
       <c r="L130" s="56"/>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="64"/>
       <c r="B131" s="68" t="s">
+        <v>526</v>
+      </c>
+      <c r="L131" s="56"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="64"/>
+      <c r="B132" s="68" t="s">
+        <v>531</v>
+      </c>
+      <c r="L132" s="56"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="64"/>
+      <c r="B133" s="68" t="s">
         <v>544</v>
       </c>
-      <c r="L131" s="56"/>
-    </row>
-    <row r="133" spans="1:12">
-      <c r="A133" s="51" t="s">
+      <c r="L133" s="56"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="51" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
-      <c r="A134" s="4" t="s">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B136" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="C134" s="47" t="s">
+      <c r="C136" s="47" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
-      <c r="B135" s="4" t="s">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B137" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="C135" s="47" t="s">
+      <c r="C137" s="47" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
-      <c r="B136" s="4" t="s">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B138" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="C136" s="47" t="s">
+      <c r="C138" s="47" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
-      <c r="B137" s="4" t="s">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B139" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="C137" s="47" t="s">
+      <c r="C139" s="47" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
-      <c r="B138" s="4" t="s">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B140" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="C138" s="47" t="s">
+      <c r="C140" s="47" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
-      <c r="B139" s="4" t="s">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B141" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="C139" s="47" t="s">
+      <c r="C141" s="47" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
-      <c r="B140" s="4" t="s">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B142" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="C140" s="47" t="s">
+      <c r="C142" s="47" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="141" spans="1:12">
-      <c r="B141" s="4" t="s">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B143" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="C141" s="47" t="s">
+      <c r="C143" s="47" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
-      <c r="B142" s="4" t="s">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B144" s="4" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="30">
-      <c r="B143" s="4" t="s">
+    <row r="145" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B145" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="C143" s="47" t="s">
+      <c r="C145" s="47" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="45">
-      <c r="B144" s="4" t="s">
+    <row r="146" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B146" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="C144" s="47" t="s">
+      <c r="C146" s="47" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
-      <c r="B145" s="4" t="s">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B147" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="C145" s="47" t="s">
+      <c r="C147" s="47" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
-      <c r="A146" s="59" t="s">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="B146" s="70" t="s">
+      <c r="B148" s="70" t="s">
         <v>495</v>
       </c>
-      <c r="D146" s="6" t="s">
+      <c r="D148" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E146" s="50">
+      <c r="E148" s="50">
         <v>135</v>
-      </c>
-      <c r="G146" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="90">
-      <c r="A147" s="59"/>
-      <c r="B147" s="70" t="s">
-        <v>566</v>
-      </c>
-      <c r="C147" s="47" t="s">
-        <v>565</v>
-      </c>
-      <c r="D147" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E147" s="50">
-        <v>25</v>
-      </c>
-      <c r="G147" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="30">
-      <c r="A148" s="60" t="s">
-        <v>193</v>
-      </c>
-      <c r="B148" s="69" t="s">
-        <v>494</v>
-      </c>
-      <c r="C148" s="47" t="s">
-        <v>426</v>
-      </c>
-      <c r="D148" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E148" s="50">
-        <v>120</v>
       </c>
       <c r="G148" s="50">
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
-      <c r="A149" s="61" t="s">
+    <row r="149" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A149" s="59"/>
+      <c r="B149" s="70" t="s">
+        <v>566</v>
+      </c>
+      <c r="C149" s="47" t="s">
+        <v>565</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149" s="50">
+        <v>25</v>
+      </c>
+      <c r="G149" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="B150" s="69" t="s">
+        <v>494</v>
+      </c>
+      <c r="C150" s="47" t="s">
+        <v>426</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E150" s="50">
+        <v>120</v>
+      </c>
+      <c r="G150" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="B149" s="69" t="s">
+      <c r="B151" s="69" t="s">
         <v>496</v>
       </c>
-      <c r="D149" s="6" t="s">
+      <c r="D151" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E149" s="50">
+      <c r="E151" s="50">
         <v>140</v>
-      </c>
-      <c r="G149" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150" s="62"/>
-      <c r="B150" s="69" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
-      <c r="A151" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="B151" s="69" t="s">
-        <v>493</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E151" s="50">
-        <v>135</v>
       </c>
       <c r="G151" s="50">
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
-      <c r="A152" s="63" t="s">
-        <v>191</v>
-      </c>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="62"/>
       <c r="B152" s="69" t="s">
-        <v>492</v>
-      </c>
-      <c r="D152" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E152" s="50">
-        <v>140</v>
-      </c>
-      <c r="G152" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="A153" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="B153" s="69"/>
+        <v>589</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="B153" s="69" t="s">
+        <v>493</v>
+      </c>
       <c r="D153" s="6" t="s">
         <v>11</v>
       </c>
@@ -10613,6 +10974,38 @@
         <v>135</v>
       </c>
       <c r="G153" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="B154" s="69" t="s">
+        <v>492</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E154" s="50">
+        <v>140</v>
+      </c>
+      <c r="G154" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="B155" s="69"/>
+      <c r="D155" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E155" s="50">
+        <v>135</v>
+      </c>
+      <c r="G155" s="50">
         <v>4</v>
       </c>
     </row>
@@ -10631,7 +11024,7 @@
       <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="21" style="5" customWidth="1"/>
@@ -10644,7 +11037,7 @@
     <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>162</v>
       </c>
@@ -10670,7 +11063,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -10693,7 +11086,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>89</v>
       </c>
@@ -10713,7 +11106,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -10736,13 +11129,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
       <c r="G5" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
@@ -10762,7 +11155,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -10785,7 +11178,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>83</v>
       </c>
@@ -10802,7 +11195,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="E9" s="6" t="s">
         <v>0</v>
@@ -10811,7 +11204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="E10" s="6" t="s">
         <v>0</v>
@@ -10820,7 +11213,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
       <c r="E11" s="6" t="s">
         <v>0</v>
@@ -10829,7 +11222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>9</v>
       </c>
@@ -10849,7 +11242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
@@ -10869,7 +11262,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
@@ -10889,7 +11282,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>9</v>
       </c>
@@ -10909,7 +11302,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>9</v>
       </c>
@@ -10932,7 +11325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>1</v>
       </c>
@@ -10955,7 +11348,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>1</v>
       </c>
@@ -10978,7 +11371,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>1</v>
       </c>
@@ -11001,7 +11394,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>1</v>
       </c>
@@ -11024,7 +11417,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>1</v>
       </c>
@@ -11047,7 +11440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>1</v>
       </c>
@@ -11070,7 +11463,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>1</v>
       </c>
@@ -11093,7 +11486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>9</v>
       </c>
@@ -11116,7 +11509,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>9</v>
       </c>
@@ -11139,7 +11532,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>9</v>
       </c>
@@ -11162,7 +11555,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>9</v>
       </c>
@@ -11185,7 +11578,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>9</v>
       </c>
@@ -11194,7 +11587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>9</v>
       </c>
@@ -11203,7 +11596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>9</v>
       </c>
@@ -11226,7 +11619,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="30">
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>9</v>
       </c>
@@ -11249,7 +11642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>1</v>
       </c>
@@ -11275,7 +11668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30">
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
@@ -11298,7 +11691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>55</v>
       </c>
@@ -11321,7 +11714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30">
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>9</v>
       </c>
@@ -11344,7 +11737,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>9</v>
       </c>
@@ -11364,7 +11757,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30">
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>9</v>
       </c>
@@ -11387,7 +11780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>9</v>
       </c>
@@ -11410,7 +11803,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>9</v>
       </c>
@@ -11433,7 +11826,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30">
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>89</v>
       </c>
@@ -11456,7 +11849,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30">
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>55</v>
       </c>
@@ -11479,7 +11872,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="30">
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>9</v>
       </c>
@@ -11502,7 +11895,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="30">
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>9</v>
       </c>
@@ -11525,7 +11918,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>55</v>
       </c>
@@ -11548,7 +11941,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>190</v>
       </c>
@@ -11571,7 +11964,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>9</v>
       </c>
@@ -11591,7 +11984,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30">
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>55</v>
       </c>
@@ -11614,7 +12007,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>9</v>
       </c>
@@ -11637,7 +12030,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>1</v>
       </c>
@@ -11660,7 +12053,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="30">
+    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>9</v>
       </c>
@@ -11686,7 +12079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="30">
+    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>1</v>
       </c>
@@ -11712,12 +12105,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="18.75">
+    <row r="53" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>9</v>
       </c>
@@ -11737,7 +12130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>89</v>
       </c>
@@ -11757,7 +12150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="30">
+    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>1</v>
       </c>
@@ -11780,13 +12173,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B57" s="12"/>
       <c r="G57" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>9</v>
       </c>
@@ -11810,7 +12203,7 @@
       </c>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>9</v>
       </c>
@@ -11830,7 +12223,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="30">
+    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>9</v>
       </c>
@@ -11853,12 +12246,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="18">
+    <row r="62" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>89</v>
       </c>
@@ -11878,7 +12271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>1</v>
       </c>
@@ -11898,12 +12291,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>1</v>
       </c>
@@ -11926,7 +12319,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>1</v>
       </c>
@@ -11949,7 +12342,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>1</v>
       </c>
@@ -11972,7 +12365,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="30">
+    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>112</v>
       </c>
@@ -11995,7 +12388,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="30">
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>6</v>
       </c>
@@ -12018,7 +12411,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="30">
+    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>6</v>
       </c>
@@ -12044,19 +12437,19 @@
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="18.75">
+    <row r="73" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="49"/>
       <c r="B74" s="12"/>
       <c r="G74" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>190</v>
       </c>
@@ -12070,19 +12463,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B76" s="12"/>
       <c r="G76" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B77" s="12"/>
       <c r="G77" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>124</v>
       </c>
@@ -12090,12 +12483,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="18.75">
+    <row r="80" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>89</v>
       </c>
@@ -12115,25 +12508,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B82" s="12"/>
       <c r="G82" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B83" s="12"/>
       <c r="G83" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B84" s="12"/>
       <c r="G84" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>122</v>
       </c>
@@ -12164,70 +12557,70 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="16"/>
     <col min="2" max="2" width="11.140625" style="16" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="16" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="16" t="s">
         <v>135</v>
@@ -12236,7 +12629,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="16" t="s">
         <v>136</v>
@@ -12245,7 +12638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="16" t="s">
         <v>137</v>
@@ -12254,7 +12647,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="16" t="s">
         <v>138</v>
@@ -12263,7 +12656,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="16" t="s">
         <v>139</v>
@@ -12272,7 +12665,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="16" t="s">
         <v>140</v>
@@ -12281,140 +12674,155 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="17"/>
-    </row>
-    <row r="43" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="17"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="B45" s="16" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="B46" s="16" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="B47" s="16" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="B48" s="16" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="B49" s="16" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="16" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="B50" s="16" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="16" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
         <v>434</v>
       </c>
     </row>
@@ -12428,28 +12836,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>365</v>
       </c>
@@ -12457,12 +12865,12 @@
         <v>296</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>383</v>
       </c>
@@ -12470,22 +12878,22 @@
         <v>385</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>365</v>
       </c>
@@ -12493,12 +12901,12 @@
         <v>299</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>383</v>
       </c>
@@ -12506,17 +12914,17 @@
         <v>384</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>365</v>
       </c>
@@ -12524,12 +12932,12 @@
         <v>379</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>383</v>
       </c>
@@ -12537,17 +12945,17 @@
         <v>386</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>365</v>
       </c>
@@ -12555,7 +12963,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>383</v>
       </c>
@@ -12563,12 +12971,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>365</v>
       </c>
@@ -12576,17 +12984,17 @@
         <v>401</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>383</v>
       </c>
@@ -12594,22 +13002,22 @@
         <v>399</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>365</v>
       </c>
@@ -12617,12 +13025,12 @@
         <v>407</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>383</v>
       </c>
@@ -12630,17 +13038,17 @@
         <v>413</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>365</v>
       </c>
@@ -12648,17 +13056,17 @@
         <v>390</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>383</v>
       </c>
@@ -12666,22 +13074,22 @@
         <v>388</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>365</v>
       </c>
@@ -12689,17 +13097,17 @@
         <v>277</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>383</v>
       </c>

--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miaodt\git\cs-2d-game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan\git\cs-2d-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942FE663-CB6F-4170-ACBD-6FF0CF6A9C51}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="8895" yWindow="4815" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Overview" sheetId="2" r:id="rId1"/>
@@ -20,17 +21,22 @@
     <sheet name="Weapons-Overview" sheetId="3" r:id="rId6"/>
     <sheet name="Religions" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="735">
   <si>
     <t>physical</t>
   </si>
@@ -203,9 +209,6 @@
     <t>Justice's Hammer</t>
   </si>
   <si>
-    <t>Root: Target attacks last during each round.</t>
-  </si>
-  <si>
     <t>Inflicts Bleed(4) on target.</t>
   </si>
   <si>
@@ -1940,9 +1943,6 @@
     <t>High critical hit chance doubled, 90% against Burned targets).</t>
   </si>
   <si>
-    <t>Adaptive Mind</t>
-  </si>
-  <si>
     <t>Execute</t>
   </si>
   <si>
@@ -2226,12 +2226,27 @@
   </si>
   <si>
     <t>At the start of each round, pick each units actions and target (OR pick when it's units turn?)</t>
+  </si>
+  <si>
+    <t>Root: Target attacks last during each round. (REWORK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortified: Unit takes massively reduced damage (405?). Backline units </t>
+  </si>
+  <si>
+    <t>Altered Mind</t>
+  </si>
+  <si>
+    <t>Adaptive Blow</t>
+  </si>
+  <si>
+    <t>If units Health &gt; 50%, deals increased (1.5x) damage. Otherwise, unit heals for (80%) damage dealt.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2676,7 +2691,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>103663</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1628775" cy="352469"/>
@@ -3181,7 +3196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:H96"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -3192,57 +3207,57 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3257,79 +3272,79 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" t="s">
         <v>193</v>
       </c>
-      <c r="E22" t="s">
-        <v>194</v>
-      </c>
       <c r="F22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C23" s="30"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B24" s="29"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E25" s="29"/>
       <c r="G25" s="29"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D26" s="29"/>
       <c r="H26" s="29"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="29"/>
@@ -3338,7 +3353,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
@@ -3351,18 +3366,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3424,37 +3439,37 @@
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -3462,18 +3477,18 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B56" t="s">
         <v>210</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>211</v>
-      </c>
-      <c r="C56" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -3610,67 +3625,67 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -3680,62 +3695,62 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B84" s="44" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B85" s="40" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B86" s="41" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B87" s="45" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B88" s="43" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -3745,7 +3760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R128"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -3765,63 +3780,63 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="E1" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="I1" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="J1" s="31" t="s">
-        <v>177</v>
-      </c>
       <c r="K1" s="31" t="s">
+        <v>462</v>
+      </c>
+      <c r="L1" s="31" t="s">
         <v>463</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="M1" s="31" t="s">
         <v>464</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="N1" s="31" t="s">
         <v>465</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="O1" s="31" t="s">
         <v>466</v>
       </c>
-      <c r="O1" s="31" t="s">
-        <v>467</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D2" s="28">
         <v>39</v>
@@ -3848,13 +3863,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D3" s="28">
         <v>56</v>
@@ -3881,13 +3896,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D4" s="28">
         <v>67</v>
@@ -3914,13 +3929,13 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D5" s="28">
         <v>43</v>
@@ -3945,18 +3960,18 @@
         <v>278</v>
       </c>
       <c r="O5" s="74" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D6" s="28">
         <v>50</v>
@@ -3983,13 +3998,13 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D7" s="28">
         <v>39</v>
@@ -4014,21 +4029,21 @@
         <v>208</v>
       </c>
       <c r="N7" s="74" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="O7" s="71" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D8" s="28">
         <v>62</v>
@@ -4055,13 +4070,13 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D9" s="28">
         <v>44</v>
@@ -4088,13 +4103,13 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D10" s="28">
         <v>50</v>
@@ -4121,13 +4136,13 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D11" s="28">
         <v>65</v>
@@ -4154,13 +4169,13 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D12" s="28">
         <v>52</v>
@@ -4185,18 +4200,18 @@
         <v>257</v>
       </c>
       <c r="O12" s="74" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D13" s="28">
         <v>47</v>
@@ -4221,24 +4236,24 @@
         <v>258</v>
       </c>
       <c r="N13" s="74" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O13" s="74" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="P13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D14" s="28">
         <v>70</v>
@@ -4263,18 +4278,18 @@
         <v>334</v>
       </c>
       <c r="P14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D15" s="28">
         <v>69</v>
@@ -4299,21 +4314,21 @@
         <v>334</v>
       </c>
       <c r="K15" s="69" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O15" s="69" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D16" s="28">
         <v>96</v>
@@ -4338,21 +4353,21 @@
         <v>327</v>
       </c>
       <c r="K16" s="69" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O16" s="69" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D17" s="28">
         <v>68</v>
@@ -4377,18 +4392,18 @@
         <v>355</v>
       </c>
       <c r="K17" s="69" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D18" s="28">
         <v>80</v>
@@ -4415,13 +4430,13 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D19" s="28">
         <v>70</v>
@@ -4448,13 +4463,13 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D20" s="28">
         <v>56</v>
@@ -4479,30 +4494,30 @@
         <v>356</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L20" s="75" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="N20" s="69" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="O20" s="69" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D21" s="28">
         <v>56</v>
@@ -4527,30 +4542,30 @@
         <v>356</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L21" s="75" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="N21" s="69" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="O21" s="69" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D22" s="28">
         <v>89</v>
@@ -4575,18 +4590,18 @@
         <v>392</v>
       </c>
       <c r="O22" s="71" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D23" s="28">
         <v>95</v>
@@ -4611,18 +4626,18 @@
         <v>434</v>
       </c>
       <c r="N23" s="71" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B24" t="s">
         <v>55</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D24" s="28">
         <v>103</v>
@@ -4647,18 +4662,18 @@
         <v>390</v>
       </c>
       <c r="N24" s="71" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D26" s="28">
         <v>50</v>
@@ -4683,30 +4698,30 @@
         <v>271</v>
       </c>
       <c r="K26" s="70" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L26" s="57" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M26" s="69" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="O26" s="70" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D27" s="28">
         <v>60</v>
@@ -4731,24 +4746,24 @@
         <v>257</v>
       </c>
       <c r="K27" s="70" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M27" s="70" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="O27" s="69" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D28" s="28">
         <v>63</v>
@@ -4773,21 +4788,21 @@
         <v>267</v>
       </c>
       <c r="K28" s="70" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="P28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C29" s="44" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D29" s="28">
         <v>67</v>
@@ -4812,18 +4827,18 @@
         <v>281</v>
       </c>
       <c r="K29" s="70" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D30" s="28">
         <v>52</v>
@@ -4848,21 +4863,21 @@
         <v>315</v>
       </c>
       <c r="K30" s="70" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="M30" s="70" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C31" s="44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D31" s="28">
         <v>41</v>
@@ -4887,24 +4902,24 @@
         <v>285</v>
       </c>
       <c r="K31" s="70" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="N31" s="70" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32" s="44" t="s">
         <v>239</v>
-      </c>
-      <c r="C32" s="44" t="s">
-        <v>240</v>
       </c>
       <c r="D32" s="28">
         <v>41</v>
@@ -4929,24 +4944,24 @@
         <v>264</v>
       </c>
       <c r="K32" s="70" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M32" s="70" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C33" s="44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D33" s="28">
         <v>54</v>
@@ -4971,24 +4986,24 @@
         <v>274</v>
       </c>
       <c r="K33" s="70" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L33" s="70" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="P33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B34" t="s">
+        <v>240</v>
+      </c>
+      <c r="C34" s="44" t="s">
         <v>241</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>242</v>
       </c>
       <c r="D34" s="28">
         <v>86</v>
@@ -5013,21 +5028,21 @@
         <v>373</v>
       </c>
       <c r="K34" s="70" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="N34" s="74" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D35" s="28">
         <v>95</v>
@@ -5052,18 +5067,18 @@
         <v>352</v>
       </c>
       <c r="L35" s="70" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D36" s="28">
         <v>81</v>
@@ -5090,13 +5105,13 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D37" s="28">
         <v>124</v>
@@ -5121,18 +5136,18 @@
         <v>300</v>
       </c>
       <c r="P37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D38" s="28">
         <v>95</v>
@@ -5157,18 +5172,18 @@
         <v>300</v>
       </c>
       <c r="P38" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D39" s="28">
         <v>90</v>
@@ -5193,18 +5208,18 @@
         <v>300</v>
       </c>
       <c r="P39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D40" s="28">
         <v>93</v>
@@ -5229,18 +5244,18 @@
         <v>335</v>
       </c>
       <c r="P40" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B41" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C41" s="44" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D41" s="28">
         <v>84</v>
@@ -5265,18 +5280,18 @@
         <v>304</v>
       </c>
       <c r="P41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C42" s="44" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D42" s="28">
         <v>67</v>
@@ -5301,18 +5316,18 @@
         <v>418</v>
       </c>
       <c r="P42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C43" s="44" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D43" s="28">
         <v>52</v>
@@ -5339,13 +5354,13 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B44" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="44" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D44" s="28">
         <v>52</v>
@@ -5372,13 +5387,13 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D45" s="28">
         <v>96</v>
@@ -5403,18 +5418,18 @@
         <v>554</v>
       </c>
       <c r="P45" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C46" s="44" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D46" s="28">
         <v>99</v>
@@ -5439,27 +5454,27 @@
         <v>494</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L46" s="70" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="M46" s="74" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N46" s="70" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C47" s="44" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D47" s="28">
         <v>99</v>
@@ -5484,21 +5499,21 @@
         <v>480</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M47" s="74" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C48" s="44" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D48" s="28">
         <v>110</v>
@@ -5523,30 +5538,30 @@
         <v>551</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M48" s="74" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N48" s="74" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="O48" s="72" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B50" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C50" s="44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D50" s="28">
         <v>80</v>
@@ -5571,18 +5586,18 @@
         <v>402</v>
       </c>
       <c r="P50" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C51" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D51" s="28">
         <v>80</v>
@@ -5607,18 +5622,18 @@
         <v>392</v>
       </c>
       <c r="K51" s="69" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B52" t="s">
         <v>55</v>
       </c>
       <c r="C52" s="44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D52" s="28">
         <v>89</v>
@@ -5643,18 +5658,18 @@
         <v>397</v>
       </c>
       <c r="O52" s="74" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B53" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C53" s="44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D53" s="28">
         <v>124</v>
@@ -5679,18 +5694,18 @@
         <v>346</v>
       </c>
       <c r="K53" s="71" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
       </c>
       <c r="C54" s="45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D54" s="28">
         <v>70</v>
@@ -5715,21 +5730,21 @@
         <v>366</v>
       </c>
       <c r="K54" s="69" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O54" s="72" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B55" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C55" s="45" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D55" s="28">
         <v>83</v>
@@ -5754,21 +5769,21 @@
         <v>338</v>
       </c>
       <c r="K55" s="69" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O55" s="72" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B56" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C56" s="45" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D56" s="28">
         <v>72</v>
@@ -5793,21 +5808,21 @@
         <v>295</v>
       </c>
       <c r="K56" s="69" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O56" s="72" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B57" t="s">
         <v>9</v>
       </c>
       <c r="C57" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D57" s="28">
         <v>69</v>
@@ -5832,21 +5847,21 @@
         <v>401</v>
       </c>
       <c r="M57" s="71" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="P57" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C58" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D58" s="28">
         <v>91</v>
@@ -5871,21 +5886,21 @@
         <v>420</v>
       </c>
       <c r="P58" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R58" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B59" t="s">
         <v>9</v>
       </c>
       <c r="C59" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D59" s="28">
         <v>76</v>
@@ -5910,24 +5925,24 @@
         <v>333</v>
       </c>
       <c r="M59" s="71" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="P59" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D60" s="28">
         <v>120</v>
@@ -5952,21 +5967,21 @@
         <v>443</v>
       </c>
       <c r="K60" s="71" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="P60" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B61" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C61" s="44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D61" s="28">
         <v>104</v>
@@ -5991,21 +6006,21 @@
         <v>451</v>
       </c>
       <c r="K61" s="70" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="M61" s="71" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B62" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D62" s="28">
         <v>119</v>
@@ -6030,21 +6045,21 @@
         <v>494</v>
       </c>
       <c r="K62" s="71" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="P62" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C63" s="45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D63" s="28">
         <v>70</v>
@@ -6069,18 +6084,18 @@
         <v>445</v>
       </c>
       <c r="K63" s="73" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B64" t="s">
         <v>55</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D64" s="28">
         <v>98</v>
@@ -6105,21 +6120,21 @@
         <v>428</v>
       </c>
       <c r="N64" s="71" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="P64" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B65" t="s">
         <v>9</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D65" s="28">
         <v>73</v>
@@ -6144,21 +6159,21 @@
         <v>381</v>
       </c>
       <c r="N65" s="71" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="P65" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D66" s="28">
         <v>103</v>
@@ -6183,7 +6198,7 @@
         <v>456</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -6191,13 +6206,13 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C68" s="44" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D68" s="28">
         <v>78</v>
@@ -6222,21 +6237,21 @@
         <v>402</v>
       </c>
       <c r="N68" s="75" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C69" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D69" s="28">
         <v>74</v>
@@ -6261,18 +6276,18 @@
         <v>392</v>
       </c>
       <c r="K69" s="69" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B70" t="s">
         <v>55</v>
       </c>
       <c r="C70" s="44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D70" s="28">
         <v>77</v>
@@ -6299,13 +6314,13 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B71" t="s">
         <v>55</v>
       </c>
       <c r="C71" s="42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D71" s="28">
         <v>95</v>
@@ -6330,21 +6345,21 @@
         <v>400</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="P71" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C72" s="42" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D72" s="28">
         <v>78</v>
@@ -6369,21 +6384,21 @@
         <v>313</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="P72" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C73" s="42" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D73" s="28">
         <v>74</v>
@@ -6408,18 +6423,18 @@
         <v>339</v>
       </c>
       <c r="P73" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B74" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C74" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D74" s="28">
         <v>74</v>
@@ -6446,13 +6461,13 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B75" t="s">
         <v>9</v>
       </c>
       <c r="C75" s="45" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D75" s="28">
         <v>78</v>
@@ -6477,24 +6492,24 @@
         <v>367</v>
       </c>
       <c r="K75" s="75" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N75" s="75" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O75" s="73" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B76" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C76" s="42" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D76" s="28">
         <v>38</v>
@@ -6519,18 +6534,18 @@
         <v>310</v>
       </c>
       <c r="P76" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B77" t="s">
+        <v>263</v>
+      </c>
+      <c r="C77" s="43" t="s">
         <v>264</v>
-      </c>
-      <c r="C77" s="43" t="s">
-        <v>265</v>
       </c>
       <c r="D77" s="28">
         <v>68</v>
@@ -6555,30 +6570,30 @@
         <v>328</v>
       </c>
       <c r="K77" s="75" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L77" s="73" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M77" s="74" t="s">
+        <v>607</v>
+      </c>
+      <c r="N77" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="N77" s="4" t="s">
-        <v>609</v>
-      </c>
       <c r="P77" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B78" t="s">
         <v>9</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D78" s="28">
         <v>84</v>
@@ -6603,33 +6618,33 @@
         <v>413</v>
       </c>
       <c r="K78" s="71" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M78" s="70" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N78" s="74" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O78" s="70" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P78" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B79" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C79" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D79" s="28">
         <v>97</v>
@@ -6654,27 +6669,27 @@
         <v>519</v>
       </c>
       <c r="K79" s="73" t="s">
+        <v>595</v>
+      </c>
+      <c r="L79" s="76" t="s">
         <v>596</v>
       </c>
-      <c r="L79" s="76" t="s">
-        <v>597</v>
-      </c>
       <c r="M79" s="75" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P79" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B80" t="s">
         <v>9</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D80" s="28">
         <v>135</v>
@@ -6699,21 +6714,21 @@
         <v>429</v>
       </c>
       <c r="K80" s="75" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P80" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B81" t="s">
         <v>9</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D81" s="28">
         <v>92</v>
@@ -6738,18 +6753,18 @@
         <v>428</v>
       </c>
       <c r="O81" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B83" t="s">
         <v>55</v>
       </c>
       <c r="C83" s="44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D83" s="28">
         <v>78</v>
@@ -6774,21 +6789,21 @@
         <v>351</v>
       </c>
       <c r="L83" s="69" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O83" s="73" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B84" t="s">
         <v>9</v>
       </c>
       <c r="C84" s="44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D84" s="28">
         <v>62</v>
@@ -6813,21 +6828,21 @@
         <v>379</v>
       </c>
       <c r="K84" s="74" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N84" s="74" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D85" s="28">
         <v>90</v>
@@ -6852,24 +6867,24 @@
         <v>367</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="N85" s="73" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="O85" s="74" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B86" t="s">
         <v>9</v>
       </c>
       <c r="C86" s="44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D86" s="28">
         <v>74</v>
@@ -6894,27 +6909,27 @@
         <v>401</v>
       </c>
       <c r="L86" s="74" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M86" s="73" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N86" s="74" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="O86" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C87" s="44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D87" s="28">
         <v>80</v>
@@ -6939,21 +6954,21 @@
         <v>412</v>
       </c>
       <c r="K87" s="73" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N87" s="74" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B88" t="s">
         <v>55</v>
       </c>
       <c r="C88" s="45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D88" s="28">
         <v>84</v>
@@ -6978,18 +6993,18 @@
         <v>381</v>
       </c>
       <c r="L88" s="75" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B89" t="s">
         <v>55</v>
       </c>
       <c r="C89" s="45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D89" s="28">
         <v>90</v>
@@ -7014,18 +7029,18 @@
         <v>395</v>
       </c>
       <c r="L89" s="75" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B90" t="s">
         <v>55</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D90" s="28">
         <v>104</v>
@@ -7055,13 +7070,13 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C91" s="45" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D91" s="28">
         <v>92</v>
@@ -7086,21 +7101,21 @@
         <v>387</v>
       </c>
       <c r="L91" s="73" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O91" s="73" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B92" t="s">
         <v>9</v>
       </c>
       <c r="C92" s="45" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D92" s="28">
         <v>78</v>
@@ -7125,21 +7140,21 @@
         <v>392</v>
       </c>
       <c r="L92" s="74" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="N92" s="74" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B94" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C94" s="44" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D94" s="28">
         <v>85</v>
@@ -7164,21 +7179,21 @@
         <v>318</v>
       </c>
       <c r="N94" s="73" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="O94" s="70" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B95" t="s">
         <v>9</v>
       </c>
       <c r="C95" s="44" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D95" s="28">
         <v>76</v>
@@ -7203,24 +7218,24 @@
         <v>402</v>
       </c>
       <c r="K95" s="74" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="L95" s="75" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="N95" s="74" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B96" t="s">
         <v>9</v>
       </c>
       <c r="C96" s="44" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D96" s="28">
         <v>90</v>
@@ -7245,33 +7260,33 @@
         <v>415</v>
       </c>
       <c r="K96" s="75" t="s">
+        <v>598</v>
+      </c>
+      <c r="L96" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="L96" s="4" t="s">
-        <v>600</v>
-      </c>
       <c r="M96" s="73" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="N96" s="70" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O96" s="69" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P96" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B97" t="s">
         <v>9</v>
       </c>
       <c r="C97" s="42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D97" s="28">
         <v>110</v>
@@ -7296,33 +7311,33 @@
         <v>435</v>
       </c>
       <c r="K97" s="75" t="s">
+        <v>598</v>
+      </c>
+      <c r="L97" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="L97" s="4" t="s">
-        <v>600</v>
-      </c>
       <c r="M97" s="73" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="N97" s="75" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="O97" s="69" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P97" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B98" t="s">
         <v>9</v>
       </c>
       <c r="C98" s="42" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D98" s="28">
         <v>90</v>
@@ -7347,33 +7362,33 @@
         <v>435</v>
       </c>
       <c r="K98" s="75" t="s">
+        <v>598</v>
+      </c>
+      <c r="L98" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="L98" s="4" t="s">
-        <v>600</v>
-      </c>
       <c r="M98" s="73" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="N98" s="72" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O98" s="69" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P98" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B99" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C99" s="44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D99" s="28">
         <v>135</v>
@@ -7398,21 +7413,21 @@
         <v>396</v>
       </c>
       <c r="L99" s="75" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P99" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B100" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C100" s="40" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D100" s="28">
         <v>80</v>
@@ -7437,18 +7452,18 @@
         <v>431</v>
       </c>
       <c r="K100" s="69" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B101" t="s">
         <v>55</v>
       </c>
       <c r="C101" s="43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D101" s="28">
         <v>260</v>
@@ -7473,21 +7488,21 @@
         <v>640</v>
       </c>
       <c r="K101" s="75" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M101" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B102" t="s">
         <v>9</v>
       </c>
       <c r="C102" s="43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D102" s="28">
         <v>272</v>
@@ -7512,24 +7527,24 @@
         <v>670</v>
       </c>
       <c r="K102" s="75" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L102" s="70" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M102" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B103" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C103" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D103" s="28">
         <v>489</v>
@@ -7554,18 +7569,18 @@
         <v>735</v>
       </c>
       <c r="K103" s="69" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B104" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C104" s="43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D104" s="28">
         <v>210</v>
@@ -7590,21 +7605,21 @@
         <v>700</v>
       </c>
       <c r="K104" s="75" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M104" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B105" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C105" s="43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D105" s="28">
         <v>313</v>
@@ -7629,21 +7644,21 @@
         <v>700</v>
       </c>
       <c r="K105" s="75" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M105" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B106" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C106" s="43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D106" s="28">
         <v>433</v>
@@ -7668,21 +7683,21 @@
         <v>867</v>
       </c>
       <c r="K106" s="75" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M106" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B108" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C108" s="44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D108" s="28">
         <v>177</v>
@@ -7707,18 +7722,18 @@
         <v>459</v>
       </c>
       <c r="N108" s="74" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B109" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C109" s="44" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D109" s="28">
         <v>68</v>
@@ -7743,24 +7758,24 @@
         <v>430</v>
       </c>
       <c r="K109" s="69" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L109" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="M109" s="69" t="s">
         <v>486</v>
-      </c>
-      <c r="M109" s="69" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B110" t="s">
         <v>9</v>
       </c>
       <c r="C110" s="44" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D110" s="28">
         <v>50</v>
@@ -7785,30 +7800,30 @@
         <v>439</v>
       </c>
       <c r="K110" s="69" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L110" s="69" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M110" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N110" s="72" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O110" s="73" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B111" t="s">
         <v>55</v>
       </c>
       <c r="C111" s="45" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D111" s="28">
         <v>99</v>
@@ -7833,24 +7848,24 @@
         <v>334</v>
       </c>
       <c r="K111" s="58" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N111" s="71" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O111" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B112" t="s">
         <v>55</v>
       </c>
       <c r="C112" s="45" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D112" s="28">
         <v>105</v>
@@ -7875,21 +7890,21 @@
         <v>444</v>
       </c>
       <c r="K112" s="58" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O112" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C113" s="45" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D113" s="28">
         <v>185</v>
@@ -7914,18 +7929,18 @@
         <v>501</v>
       </c>
       <c r="O113" s="71" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B114" t="s">
         <v>9</v>
       </c>
       <c r="C114" s="45" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D114" s="28">
         <v>66</v>
@@ -7950,7 +7965,7 @@
         <v>446</v>
       </c>
       <c r="N114" s="70" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P114" t="s">
         <v>4</v>
@@ -7958,13 +7973,13 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C115" s="43" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D115" s="28">
         <v>104</v>
@@ -7989,18 +8004,18 @@
         <v>372</v>
       </c>
       <c r="P115" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C116" s="43" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D116" s="28">
         <v>118</v>
@@ -8025,21 +8040,21 @@
         <v>386</v>
       </c>
       <c r="L116" s="73" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P116" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>9</v>
       </c>
       <c r="C117" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D117" s="28">
         <v>63</v>
@@ -8064,18 +8079,18 @@
         <v>319</v>
       </c>
       <c r="P117" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C118" s="43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D118" s="28">
         <v>89</v>
@@ -8100,18 +8115,18 @@
         <v>396</v>
       </c>
       <c r="P118" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B119" t="s">
         <v>9</v>
       </c>
       <c r="C119" s="43" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D119" s="28">
         <v>70</v>
@@ -8136,18 +8151,18 @@
         <v>337</v>
       </c>
       <c r="P119" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B120" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C120" s="43" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D120" s="28">
         <v>185</v>
@@ -8172,18 +8187,18 @@
         <v>555</v>
       </c>
       <c r="P120" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B121" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C121" s="43" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D121" s="28">
         <v>650</v>
@@ -8213,13 +8228,13 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B122" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C122" s="43" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D122" s="28">
         <v>650</v>
@@ -8249,13 +8264,13 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B123" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C123" s="43" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D123" s="28">
         <v>619</v>
@@ -8280,18 +8295,18 @@
         <v>1432</v>
       </c>
       <c r="P123" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B124" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C124" s="43" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D124" s="28">
         <v>310</v>
@@ -8316,18 +8331,18 @@
         <v>855</v>
       </c>
       <c r="P124" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B125" t="s">
+        <v>256</v>
+      </c>
+      <c r="C125" s="43" t="s">
         <v>257</v>
-      </c>
-      <c r="C125" s="43" t="s">
-        <v>258</v>
       </c>
       <c r="D125" s="28">
         <v>650</v>
@@ -8352,7 +8367,7 @@
         <v>1542</v>
       </c>
       <c r="P125" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
@@ -8426,10 +8441,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -8437,98 +8452,98 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D13" s="54" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="55" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -8536,67 +8551,67 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B19" s="56"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B20" s="56"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B21" s="56"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="56" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="56" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="56" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B25" s="56"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="56" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" s="56" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B28" s="56"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="56" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" s="56" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -8604,62 +8619,62 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -8667,7 +8682,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C51">
         <v>9</v>
@@ -8675,7 +8690,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -8683,7 +8698,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -8691,7 +8706,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -8699,7 +8714,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B55" s="17" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -8707,7 +8722,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" s="17" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -8715,17 +8730,17 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" s="17" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B58" s="17" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B59" s="17" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -8733,22 +8748,22 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B60" s="17" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B61" s="17" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B62" s="17" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B63" s="17" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
   </sheetData>
@@ -8758,12 +8773,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L155"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:L156"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8779,39 +8794,39 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C1" s="52" t="s">
+        <v>420</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" s="53" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="F1" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="G1" s="53" t="s">
-        <v>422</v>
-      </c>
       <c r="H1" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>0</v>
@@ -8828,10 +8843,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="69" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>11</v>
@@ -8848,10 +8863,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="69" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>11</v>
@@ -8868,10 +8883,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="69" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>11</v>
@@ -8888,10 +8903,10 @@
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="69" t="s">
+        <v>451</v>
+      </c>
+      <c r="C6" s="47" t="s">
         <v>452</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>453</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>0</v>
@@ -8911,10 +8926,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="69" t="s">
+        <v>483</v>
+      </c>
+      <c r="C7" s="47" t="s">
         <v>484</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>485</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>11</v>
@@ -8925,10 +8940,10 @@
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="69" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>0</v>
@@ -8945,10 +8960,10 @@
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="69" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>0</v>
@@ -8965,10 +8980,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="69" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
@@ -8985,10 +9000,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="69" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>0</v>
@@ -9005,10 +9020,10 @@
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="69" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>0</v>
@@ -9017,24 +9032,24 @@
         <v>35</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G12" s="50">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B13" s="69" t="s">
-        <v>606</v>
+        <v>733</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>604</v>
+        <v>734</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="50" t="s">
-        <v>605</v>
+      <c r="E13" s="50">
+        <v>45</v>
       </c>
       <c r="F13" s="50">
         <v>1</v>
@@ -9045,16 +9060,16 @@
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="69" t="s">
-        <v>637</v>
+        <v>605</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>638</v>
+        <v>603</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F14" s="50">
         <v>1</v>
@@ -9065,346 +9080,345 @@
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="69" t="s">
+        <v>635</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>698</v>
-      </c>
       <c r="D15" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="E15" s="50">
         <v>0</v>
       </c>
-      <c r="F15" s="50" t="s">
-        <v>447</v>
+      <c r="E15" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="F15" s="50">
+        <v>1</v>
       </c>
       <c r="G15" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="69" t="s">
-        <v>515</v>
+        <v>732</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E16" s="50">
         <v>0</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G16" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="69" t="s">
-        <v>674</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>675</v>
+        <v>514</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>695</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E17" s="50">
         <v>0</v>
       </c>
       <c r="F17" s="50" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G17" s="50">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="69" t="s">
-        <v>684</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>685</v>
+        <v>672</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>673</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E18" s="50">
         <v>0</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G18" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="69" t="s">
-        <v>660</v>
+        <v>682</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E19" s="50">
         <v>0</v>
       </c>
       <c r="F19" s="50" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G19" s="50">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B20" s="69" t="s">
-        <v>438</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>439</v>
+        <v>658</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>675</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E20" s="50">
         <v>0</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G20" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="69" t="s">
+        <v>437</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>438</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="E21" s="50">
+        <v>0</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>446</v>
+      </c>
+      <c r="G21" s="50">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="69"/>
-    </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" s="70" t="s">
-        <v>633</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>446</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="B22" s="69"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>632</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>445</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="50">
+      <c r="E23" s="50">
         <v>50</v>
       </c>
-      <c r="F22" s="50">
+      <c r="F23" s="50">
         <v>1</v>
       </c>
-      <c r="G22" s="50">
+      <c r="G23" s="50">
         <v>1</v>
       </c>
-      <c r="J22" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
-      <c r="B23" s="70" t="s">
-        <v>535</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>446</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="50">
-        <v>55</v>
-      </c>
-      <c r="F23" s="50">
-        <v>2</v>
-      </c>
-      <c r="G23" s="50">
-        <v>2</v>
-      </c>
       <c r="J23" t="s">
-        <v>693</v>
-      </c>
-      <c r="L23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="59"/>
       <c r="B24" s="70" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>634</v>
+        <v>445</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E24" s="50">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F24" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" s="50">
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="L24">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="59"/>
       <c r="B25" s="70" t="s">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>564</v>
+        <v>633</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="E25" s="50">
-        <v>0</v>
-      </c>
-      <c r="F25" s="50" t="s">
-        <v>447</v>
+        <v>50</v>
+      </c>
+      <c r="F25" s="50">
+        <v>1</v>
       </c>
       <c r="G25" s="50">
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="L25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="59"/>
       <c r="B26" s="70" t="s">
-        <v>524</v>
+        <v>453</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>607</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>11</v>
+        <v>563</v>
       </c>
       <c r="E26" s="50">
-        <v>10</v>
-      </c>
-      <c r="F26" s="50">
+        <v>0</v>
+      </c>
+      <c r="F26" s="50" t="s">
+        <v>446</v>
+      </c>
+      <c r="G26" s="50">
         <v>2</v>
       </c>
-      <c r="G26" s="50">
+      <c r="J26" t="s">
+        <v>698</v>
+      </c>
+      <c r="L26">
         <v>5</v>
-      </c>
-      <c r="J26" t="s">
-        <v>694</v>
-      </c>
-      <c r="L26">
-        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="59"/>
       <c r="B27" s="70" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>570</v>
+        <v>606</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E27" s="50">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F27" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" s="50">
+        <v>5</v>
+      </c>
+      <c r="J27" t="s">
+        <v>692</v>
+      </c>
+      <c r="L27">
         <v>2</v>
       </c>
-      <c r="J27" t="s">
-        <v>695</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="59"/>
       <c r="B28" s="70" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E28" s="50">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F28" s="50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" s="50">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>693</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="59"/>
       <c r="B29" s="70" t="s">
-        <v>539</v>
+        <v>536</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>562</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="50">
+        <v>55</v>
+      </c>
+      <c r="F29" s="50">
+        <v>2</v>
+      </c>
+      <c r="G29" s="50">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="59"/>
       <c r="B30" s="70" t="s">
-        <v>617</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="50">
-        <v>55</v>
-      </c>
-      <c r="F30" s="50">
-        <v>1</v>
-      </c>
-      <c r="G30" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="59"/>
       <c r="B31" s="70" t="s">
-        <v>651</v>
+        <v>616</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>716</v>
+        <v>112</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E31" s="50">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F31" s="50">
         <v>1</v>
@@ -9413,19 +9427,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="59"/>
       <c r="B32" s="70" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>662</v>
+        <v>714</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E32" s="50">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F32" s="50">
         <v>1</v>
@@ -9436,104 +9450,104 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="59"/>
-      <c r="B33" s="70"/>
-    </row>
-    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="70" t="s">
+        <v>659</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>660</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="50">
+        <v>50</v>
+      </c>
+      <c r="F33" s="50">
+        <v>1</v>
+      </c>
+      <c r="G33" s="50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="59"/>
-      <c r="B34" s="70" t="s">
-        <v>445</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>648</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="E34" s="50">
-        <v>0</v>
-      </c>
-      <c r="F34" s="50" t="s">
-        <v>447</v>
-      </c>
-      <c r="G34" s="50">
-        <v>3</v>
-      </c>
+      <c r="B34" s="70"/>
     </row>
     <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="59"/>
       <c r="B35" s="70" t="s">
-        <v>543</v>
+        <v>444</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E35" s="50">
         <v>0</v>
       </c>
       <c r="F35" s="50" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G35" s="50">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="59"/>
       <c r="B36" s="70" t="s">
-        <v>644</v>
+        <v>542</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E36" s="50">
         <v>0</v>
       </c>
       <c r="F36" s="50" t="s">
-        <v>645</v>
+        <v>446</v>
       </c>
       <c r="G36" s="50">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="60" t="s">
-        <v>193</v>
-      </c>
-      <c r="B37" s="71" t="s">
-        <v>508</v>
+      <c r="A37" s="59"/>
+      <c r="B37" s="70" t="s">
+        <v>642</v>
+      </c>
+      <c r="C37" s="47" t="s">
+        <v>644</v>
       </c>
       <c r="D37" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="E37" s="50">
         <v>0</v>
       </c>
-      <c r="E37" s="50">
-        <v>60</v>
-      </c>
-      <c r="F37" s="50">
-        <v>1</v>
+      <c r="F37" s="50" t="s">
+        <v>643</v>
       </c>
       <c r="G37" s="50">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="60"/>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="60" t="s">
+        <v>192</v>
+      </c>
       <c r="B38" s="71" t="s">
-        <v>509</v>
-      </c>
-      <c r="C38" s="47" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E38" s="50">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F38" s="50">
         <v>1</v>
@@ -9542,200 +9556,203 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="60"/>
       <c r="B39" s="71" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>584</v>
+        <v>509</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E39" s="50">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F39" s="50">
         <v>1</v>
       </c>
       <c r="G39" s="50">
-        <v>3</v>
-      </c>
-      <c r="I39" s="17"/>
-    </row>
-    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="60"/>
       <c r="B40" s="71" t="s">
-        <v>652</v>
+        <v>510</v>
       </c>
       <c r="C40" s="47" t="s">
-        <v>653</v>
+        <v>583</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E40" s="50">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F40" s="50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="I40" s="17"/>
+    </row>
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="60"/>
       <c r="B41" s="71" t="s">
-        <v>517</v>
-      </c>
-      <c r="I41" s="17"/>
+        <v>650</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>651</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="50">
+        <v>60</v>
+      </c>
+      <c r="F41" s="50">
+        <v>2</v>
+      </c>
+      <c r="G41" s="50">
+        <v>2</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="60"/>
       <c r="B42" s="71" t="s">
-        <v>542</v>
+        <v>516</v>
       </c>
       <c r="I42" s="17"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="60"/>
       <c r="B43" s="71" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="I43" s="17"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="60"/>
       <c r="B44" s="71" t="s">
-        <v>583</v>
-      </c>
-      <c r="C44" s="47" t="s">
-        <v>485</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="50">
-        <v>70</v>
-      </c>
-      <c r="F44" s="50">
-        <v>1</v>
-      </c>
-      <c r="G44" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+      <c r="I44" s="17"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="60"/>
       <c r="B45" s="71" t="s">
-        <v>613</v>
+        <v>582</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>614</v>
+        <v>484</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E45" s="50">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F45" s="50">
         <v>1</v>
       </c>
       <c r="G45" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="60"/>
       <c r="B46" s="71" t="s">
-        <v>550</v>
-      </c>
-      <c r="I46" s="17"/>
-    </row>
-    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+      <c r="C46" s="47" t="s">
+        <v>613</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="50">
+        <v>100</v>
+      </c>
+      <c r="F46" s="50">
+        <v>1</v>
+      </c>
+      <c r="G46" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="60"/>
       <c r="B47" s="71" t="s">
+        <v>549</v>
+      </c>
+      <c r="I47" s="17"/>
+    </row>
+    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="60"/>
+      <c r="B48" s="71" t="s">
+        <v>424</v>
+      </c>
+      <c r="C48" s="47" t="s">
         <v>425</v>
       </c>
-      <c r="C47" s="47" t="s">
-        <v>426</v>
-      </c>
-      <c r="D47" s="6" t="s">
+      <c r="D48" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="E48" s="50">
+        <v>0</v>
+      </c>
+      <c r="F48" s="50" t="s">
         <v>446</v>
       </c>
-      <c r="E47" s="50">
-        <v>0</v>
-      </c>
-      <c r="F47" s="50" t="s">
-        <v>447</v>
-      </c>
-      <c r="G47" s="50">
+      <c r="G48" s="50">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="B48" s="73" t="s">
-        <v>491</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="61"/>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="61" t="s">
+        <v>193</v>
+      </c>
       <c r="B49" s="73" t="s">
-        <v>505</v>
-      </c>
-      <c r="C49" s="47" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="61"/>
       <c r="B50" s="73" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="C50" s="47" t="s">
-        <v>584</v>
+        <v>505</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="50">
-        <v>55</v>
-      </c>
-      <c r="F50" s="50">
-        <v>1</v>
-      </c>
       <c r="G50" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="61"/>
       <c r="B51" s="73" t="s">
-        <v>529</v>
+        <v>511</v>
+      </c>
+      <c r="C51" s="47" t="s">
+        <v>583</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E51" s="50">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F51" s="50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" s="50">
         <v>3</v>
@@ -9744,129 +9761,126 @@
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="61"/>
       <c r="B52" s="73" t="s">
-        <v>545</v>
+        <v>528</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="50">
+        <v>70</v>
+      </c>
+      <c r="F52" s="50">
+        <v>2</v>
+      </c>
+      <c r="G52" s="50">
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="61"/>
       <c r="B53" s="73" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="61"/>
       <c r="B54" s="73" t="s">
-        <v>591</v>
-      </c>
-      <c r="C54" s="47" t="s">
-        <v>592</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54" s="50">
-        <v>60</v>
-      </c>
-      <c r="F54" s="50">
-        <v>2</v>
-      </c>
-      <c r="G54" s="50">
-        <v>4</v>
+        <v>545</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="61"/>
       <c r="B55" s="73" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="C55" s="47" t="s">
-        <v>559</v>
+        <v>591</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E55" s="50">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F55" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="61"/>
       <c r="B56" s="73" t="s">
-        <v>657</v>
+        <v>595</v>
+      </c>
+      <c r="C56" s="47" t="s">
+        <v>558</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="50">
+        <v>65</v>
+      </c>
+      <c r="F56" s="50">
+        <v>1</v>
+      </c>
+      <c r="G56" s="50">
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="61"/>
       <c r="B57" s="73" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="B58" s="74" t="s">
-        <v>513</v>
-      </c>
-      <c r="C58" s="47" t="s">
-        <v>635</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="50">
-        <v>60</v>
-      </c>
-      <c r="F58" s="50">
-        <v>2</v>
-      </c>
-      <c r="G58" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="62"/>
+        <v>655</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="61"/>
+      <c r="B58" s="73" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="62" t="s">
+        <v>191</v>
+      </c>
       <c r="B59" s="74" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="C59" s="47" t="s">
-        <v>603</v>
+        <v>634</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="50">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F59" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59" s="50">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="62"/>
       <c r="B60" s="74" t="s">
-        <v>534</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>561</v>
+        <v>521</v>
+      </c>
+      <c r="C60" s="47" t="s">
+        <v>602</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E60" s="50">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F60" s="50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60" s="50">
         <v>3</v>
@@ -9875,139 +9889,139 @@
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="62"/>
       <c r="B61" s="74" t="s">
-        <v>686</v>
+        <v>533</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>687</v>
+        <v>560</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E61" s="50">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F61" s="50">
         <v>2</v>
       </c>
       <c r="G61" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="62"/>
       <c r="B62" s="74" t="s">
-        <v>558</v>
-      </c>
-      <c r="C62" s="47" t="s">
-        <v>559</v>
+        <v>684</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>685</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E62" s="50">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F62" s="50">
         <v>2</v>
       </c>
       <c r="G62" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="62"/>
       <c r="B63" s="74" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="C63" s="47" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E63" s="50">
-        <v>45</v>
+        <v>55</v>
+      </c>
+      <c r="F63" s="50">
+        <v>2</v>
+      </c>
+      <c r="G63" s="50">
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="62"/>
       <c r="B64" s="74" t="s">
-        <v>608</v>
+        <v>570</v>
       </c>
       <c r="C64" s="47" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E64" s="50">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="62"/>
       <c r="B65" s="74" t="s">
-        <v>642</v>
+        <v>607</v>
       </c>
       <c r="C65" s="47" t="s">
-        <v>643</v>
+        <v>571</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E65" s="50">
-        <v>70</v>
-      </c>
-      <c r="F65" s="50">
-        <v>1</v>
-      </c>
-      <c r="G65" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="62"/>
       <c r="B66" s="74" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+      <c r="C66" s="47" t="s">
+        <v>641</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="50">
+        <v>70</v>
+      </c>
+      <c r="F66" s="50">
+        <v>1</v>
+      </c>
+      <c r="G66" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="62"/>
       <c r="B67" s="74" t="s">
-        <v>689</v>
-      </c>
-      <c r="C67" s="47" t="s">
-        <v>690</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="50">
-        <v>50</v>
-      </c>
-      <c r="F67" s="50">
-        <v>2</v>
-      </c>
-      <c r="G67" s="50">
-        <v>2</v>
+        <v>686</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="62"/>
       <c r="B68" s="74" t="s">
-        <v>649</v>
+        <v>687</v>
       </c>
       <c r="C68" s="47" t="s">
-        <v>650</v>
+        <v>688</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>446</v>
+        <v>11</v>
       </c>
       <c r="E68" s="50">
-        <v>0</v>
-      </c>
-      <c r="F68" s="50" t="s">
-        <v>447</v>
+        <v>50</v>
+      </c>
+      <c r="F68" s="50">
+        <v>2</v>
       </c>
       <c r="G68" s="50">
         <v>2</v>
@@ -10016,40 +10030,40 @@
     <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="62"/>
       <c r="B69" s="74" t="s">
-        <v>672</v>
+        <v>647</v>
       </c>
       <c r="C69" s="47" t="s">
-        <v>673</v>
+        <v>648</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E69" s="50">
         <v>0</v>
       </c>
-      <c r="F69" s="50">
+      <c r="F69" s="50" t="s">
+        <v>446</v>
+      </c>
+      <c r="G69" s="50">
         <v>2</v>
-      </c>
-      <c r="G69" s="50">
-        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="62"/>
       <c r="B70" s="74" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C70" s="47" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E70" s="50">
         <v>0</v>
       </c>
-      <c r="F70" s="50" t="s">
-        <v>586</v>
+      <c r="F70" s="50">
+        <v>2</v>
       </c>
       <c r="G70" s="50">
         <v>3</v>
@@ -10058,153 +10072,153 @@
     <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="62"/>
       <c r="B71" s="74" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="C71" s="47" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E71" s="50">
         <v>0</v>
       </c>
       <c r="F71" s="50" t="s">
-        <v>447</v>
+        <v>585</v>
       </c>
       <c r="G71" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="62"/>
       <c r="B72" s="74" t="s">
-        <v>681</v>
+        <v>677</v>
+      </c>
+      <c r="C72" s="47" t="s">
+        <v>678</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="E72" s="50">
+        <v>0</v>
+      </c>
+      <c r="F72" s="50" t="s">
+        <v>446</v>
+      </c>
+      <c r="G72" s="50">
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="B73" s="75" t="s">
-        <v>497</v>
-      </c>
-      <c r="C73" s="47" t="s">
-        <v>446</v>
-      </c>
-      <c r="D73" s="6" t="s">
+      <c r="A73" s="62"/>
+      <c r="B73" s="74" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="B74" s="75" t="s">
+        <v>496</v>
+      </c>
+      <c r="C74" s="47" t="s">
+        <v>445</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E73" s="50">
+      <c r="E74" s="50">
         <v>70</v>
       </c>
-      <c r="F73" s="50">
+      <c r="F74" s="50">
         <v>1</v>
       </c>
-      <c r="G73" s="50">
+      <c r="G74" s="50">
         <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="63"/>
-      <c r="B74" s="75" t="s">
-        <v>499</v>
-      </c>
-      <c r="C74" s="47" t="s">
-        <v>446</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="50">
-        <v>80</v>
-      </c>
-      <c r="F74" s="50">
-        <v>2</v>
-      </c>
-      <c r="G74" s="50">
-        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="63"/>
       <c r="B75" s="75" t="s">
-        <v>671</v>
+        <v>498</v>
+      </c>
+      <c r="C75" s="47" t="s">
+        <v>445</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="50">
+        <v>80</v>
+      </c>
+      <c r="F75" s="50">
+        <v>2</v>
+      </c>
+      <c r="G75" s="50">
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="63"/>
       <c r="B76" s="75" t="s">
-        <v>562</v>
-      </c>
-      <c r="C76" s="47" t="s">
-        <v>560</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E76" s="50">
-        <v>70</v>
-      </c>
-      <c r="F76" s="50">
-        <v>1</v>
-      </c>
-      <c r="G76" s="50">
-        <v>2</v>
+        <v>669</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="63"/>
       <c r="B77" s="75" t="s">
-        <v>525</v>
+        <v>561</v>
+      </c>
+      <c r="C77" s="47" t="s">
+        <v>559</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="50">
+        <v>70</v>
+      </c>
+      <c r="F77" s="50">
+        <v>1</v>
+      </c>
+      <c r="G77" s="50">
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="63"/>
       <c r="B78" s="75" t="s">
-        <v>527</v>
-      </c>
-      <c r="C78" s="47" t="s">
-        <v>621</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E78" s="50">
-        <v>40</v>
-      </c>
-      <c r="F78" s="50">
-        <v>2</v>
-      </c>
-      <c r="G78" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="63"/>
       <c r="B79" s="75" t="s">
-        <v>580</v>
+        <v>526</v>
       </c>
       <c r="C79" s="47" t="s">
-        <v>595</v>
+        <v>620</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E79" s="50">
-        <v>0</v>
-      </c>
-      <c r="F79" s="50" t="s">
-        <v>586</v>
+        <v>40</v>
+      </c>
+      <c r="F79" s="50">
+        <v>2</v>
       </c>
       <c r="G79" s="50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="63"/>
       <c r="B80" s="75" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="C80" s="47" t="s">
         <v>594</v>
@@ -10213,22 +10227,22 @@
         <v>11</v>
       </c>
       <c r="E80" s="50">
-        <v>50</v>
-      </c>
-      <c r="F80" s="50">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F80" s="50" t="s">
+        <v>585</v>
       </c>
       <c r="G80" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="63"/>
       <c r="B81" s="75" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="C81" s="47" t="s">
-        <v>485</v>
+        <v>593</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>11</v>
@@ -10240,73 +10254,73 @@
         <v>2</v>
       </c>
       <c r="G81" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="63"/>
       <c r="B82" s="75" t="s">
-        <v>664</v>
+        <v>598</v>
       </c>
       <c r="C82" s="47" t="s">
-        <v>665</v>
+        <v>484</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E82" s="50">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F82" s="50">
         <v>2</v>
       </c>
       <c r="G82" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="63"/>
+      <c r="B83" s="75" t="s">
+        <v>662</v>
+      </c>
+      <c r="C83" s="47" t="s">
+        <v>663</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="50">
+        <v>100</v>
+      </c>
+      <c r="F83" s="50">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="63"/>
-      <c r="B83" s="75"/>
+      <c r="G83" s="50">
+        <v>2</v>
+      </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="B84" s="72" t="s">
-        <v>521</v>
-      </c>
-      <c r="C84" s="47" t="s">
-        <v>446</v>
-      </c>
-      <c r="D84" s="6" t="s">
+      <c r="A84" s="63"/>
+      <c r="B84" s="75"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="B85" s="72" t="s">
+        <v>520</v>
+      </c>
+      <c r="C85" s="47" t="s">
+        <v>445</v>
+      </c>
+      <c r="D85" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E84" s="50">
+      <c r="E85" s="50">
         <v>60</v>
       </c>
-      <c r="F84" s="50">
+      <c r="F85" s="50">
         <v>2</v>
-      </c>
-      <c r="G84" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="64"/>
-      <c r="B85" s="72" t="s">
-        <v>658</v>
-      </c>
-      <c r="C85" s="47" t="s">
-        <v>659</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="50">
-        <v>50</v>
-      </c>
-      <c r="F85" s="50" t="s">
-        <v>605</v>
       </c>
       <c r="G85" s="50">
         <v>2</v>
@@ -10315,10 +10329,10 @@
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="64"/>
       <c r="B86" s="72" t="s">
-        <v>523</v>
+        <v>656</v>
       </c>
       <c r="C86" s="47" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>11</v>
@@ -10326,20 +10340,20 @@
       <c r="E86" s="50">
         <v>50</v>
       </c>
-      <c r="F86" s="50">
-        <v>1</v>
+      <c r="F86" s="50" t="s">
+        <v>604</v>
       </c>
       <c r="G86" s="50">
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="64"/>
       <c r="B87" s="72" t="s">
-        <v>435</v>
+        <v>522</v>
       </c>
       <c r="C87" s="47" t="s">
-        <v>489</v>
+        <v>654</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>11</v>
@@ -10348,151 +10362,166 @@
         <v>50</v>
       </c>
       <c r="F87" s="50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G87" s="50">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="64"/>
       <c r="B88" s="72" t="s">
-        <v>622</v>
+        <v>434</v>
       </c>
       <c r="C88" s="47" t="s">
-        <v>621</v>
+        <v>488</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E88" s="50">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F88" s="50">
         <v>2</v>
       </c>
       <c r="G88" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="64"/>
       <c r="B89" s="72" t="s">
+        <v>621</v>
+      </c>
+      <c r="C89" s="47" t="s">
         <v>620</v>
       </c>
-      <c r="C89" s="47" t="s">
-        <v>507</v>
-      </c>
       <c r="D89" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E89" s="50">
-        <v>75</v>
-      </c>
-      <c r="F89" s="50" t="s">
-        <v>605</v>
+        <v>70</v>
+      </c>
+      <c r="F89" s="50">
+        <v>2</v>
       </c>
       <c r="G89" s="50">
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="64"/>
       <c r="B90" s="72" t="s">
-        <v>538</v>
+        <v>619</v>
       </c>
       <c r="C90" s="47" t="s">
-        <v>446</v>
+        <v>506</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E90" s="50">
-        <v>70</v>
-      </c>
-      <c r="F90" s="50">
-        <v>2</v>
+        <v>75</v>
+      </c>
+      <c r="F90" s="50" t="s">
+        <v>604</v>
       </c>
       <c r="G90" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="64"/>
       <c r="B91" s="72" t="s">
-        <v>585</v>
+        <v>537</v>
       </c>
       <c r="C91" s="47" t="s">
-        <v>630</v>
+        <v>445</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E91" s="50">
-        <v>50</v>
-      </c>
-      <c r="F91" s="50" t="s">
-        <v>586</v>
+        <v>70</v>
+      </c>
+      <c r="F91" s="50">
+        <v>2</v>
       </c>
       <c r="G91" s="50">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="64"/>
       <c r="B92" s="72" t="s">
-        <v>631</v>
+        <v>584</v>
       </c>
       <c r="C92" s="47" t="s">
-        <v>655</v>
+        <v>629</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E92" s="50">
-        <v>80</v>
-      </c>
-      <c r="F92" s="50">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="F92" s="50" t="s">
+        <v>585</v>
       </c>
       <c r="G92" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="64"/>
       <c r="B93" s="72" t="s">
-        <v>436</v>
+        <v>630</v>
       </c>
       <c r="C93" s="47" t="s">
-        <v>437</v>
+        <v>653</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>446</v>
+        <v>0</v>
       </c>
       <c r="E93" s="50">
-        <v>0</v>
-      </c>
-      <c r="F93" s="50" t="s">
-        <v>447</v>
+        <v>80</v>
+      </c>
+      <c r="F93" s="50">
+        <v>1</v>
       </c>
       <c r="G93" s="50">
-        <v>2</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="64"/>
       <c r="B94" s="72" t="s">
-        <v>678</v>
+        <v>435</v>
+      </c>
+      <c r="C94" s="47" t="s">
+        <v>436</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="E94" s="50">
+        <v>0</v>
+      </c>
+      <c r="F94" s="50" t="s">
+        <v>446</v>
+      </c>
+      <c r="G94" s="50">
+        <v>2</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="64"/>
       <c r="B95" s="72" t="s">
-        <v>704</v>
+        <v>676</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -10501,511 +10530,517 @@
         <v>702</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="51" t="s">
-        <v>440</v>
-      </c>
-      <c r="L101" s="56"/>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="64"/>
+      <c r="B97" s="72" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="C102" s="47" t="s">
-        <v>490</v>
+      <c r="A102" s="51" t="s">
+        <v>439</v>
       </c>
       <c r="L102" s="56"/>
     </row>
-    <row r="103" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="B103" s="4" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="C103" s="47" t="s">
-        <v>575</v>
+        <v>489</v>
       </c>
       <c r="L103" s="56"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B104" s="4" t="s">
-        <v>518</v>
+        <v>497</v>
+      </c>
+      <c r="C104" s="47" t="s">
+        <v>574</v>
       </c>
       <c r="L104" s="56"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B105" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L105" s="56"/>
     </row>
-    <row r="106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B106" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="L106" s="56"/>
+    </row>
+    <row r="107" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C107" s="47" t="s">
         <v>573</v>
       </c>
-      <c r="C106" s="47" t="s">
-        <v>574</v>
-      </c>
-      <c r="L106" s="56"/>
-    </row>
-    <row r="107" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B107" s="4" t="s">
+      <c r="L107" s="56"/>
+    </row>
+    <row r="108" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B108" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C108" s="47" t="s">
+        <v>577</v>
+      </c>
+      <c r="L108" s="56"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
         <v>576</v>
-      </c>
-      <c r="C107" s="47" t="s">
-        <v>578</v>
-      </c>
-      <c r="L107" s="56"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B108" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="L108" s="56"/>
-    </row>
-    <row r="109" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B109" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="C109" s="47" t="s">
-        <v>582</v>
       </c>
       <c r="L109" s="56"/>
     </row>
     <row r="110" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B110" s="4" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="C110" s="47" t="s">
-        <v>639</v>
+        <v>581</v>
       </c>
       <c r="L110" s="56"/>
     </row>
     <row r="111" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B111" s="4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C111" s="47" t="s">
-        <v>602</v>
+        <v>637</v>
       </c>
       <c r="L111" s="56"/>
     </row>
     <row r="112" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B112" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C112" s="47" t="s">
+        <v>601</v>
+      </c>
+      <c r="L112" s="56"/>
+    </row>
+    <row r="113" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B113" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="C113" s="47" t="s">
+        <v>610</v>
+      </c>
+      <c r="L113" s="56"/>
+    </row>
+    <row r="114" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B114" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="C112" s="47" t="s">
+      <c r="C114" s="47" t="s">
         <v>611</v>
       </c>
-      <c r="L112" s="56"/>
-    </row>
-    <row r="113" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B113" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="C113" s="47" t="s">
-        <v>612</v>
-      </c>
-      <c r="L113" s="56"/>
-    </row>
-    <row r="114" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="B114" s="4" t="s">
+      <c r="L114" s="56"/>
+    </row>
+    <row r="115" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="B115" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C115" s="47" t="s">
         <v>615</v>
       </c>
-      <c r="C114" s="47" t="s">
-        <v>616</v>
-      </c>
-      <c r="L114" s="56"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B115" s="4" t="s">
-        <v>663</v>
-      </c>
       <c r="L115" s="56"/>
     </row>
-    <row r="116" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B116" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="L116" s="56"/>
+    </row>
+    <row r="117" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B117" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="C117" s="47" t="s">
+        <v>628</v>
+      </c>
+      <c r="L117" s="56"/>
+    </row>
+    <row r="118" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B118" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="C118" s="47" t="s">
         <v>666</v>
       </c>
-      <c r="C116" s="47" t="s">
-        <v>629</v>
-      </c>
-      <c r="L116" s="56"/>
-    </row>
-    <row r="117" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B117" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="C117" s="47" t="s">
-        <v>668</v>
-      </c>
-      <c r="L117" s="56"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B118" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="C118" s="47" t="s">
-        <v>683</v>
-      </c>
       <c r="L118" s="56"/>
     </row>
-    <row r="119" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A119" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="B119" s="57" t="s">
-        <v>532</v>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B119" s="4" t="s">
+        <v>680</v>
       </c>
       <c r="C119" s="47" t="s">
-        <v>632</v>
+        <v>681</v>
       </c>
       <c r="L119" s="56"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="59"/>
-      <c r="B120" s="57"/>
+    <row r="120" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A120" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B120" s="57" t="s">
+        <v>531</v>
+      </c>
+      <c r="C120" s="47" t="s">
+        <v>631</v>
+      </c>
       <c r="L120" s="56"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="59"/>
-      <c r="B121" s="57" t="s">
-        <v>540</v>
-      </c>
+      <c r="B121" s="57"/>
       <c r="L121" s="56"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="59"/>
       <c r="B122" s="57" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="L122" s="56"/>
     </row>
-    <row r="123" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="60" t="s">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="59"/>
+      <c r="B123" s="57" t="s">
+        <v>556</v>
+      </c>
+      <c r="L123" s="56"/>
+    </row>
+    <row r="124" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="B124" s="58" t="s">
+        <v>449</v>
+      </c>
+      <c r="C124" s="47" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="B123" s="58" t="s">
-        <v>450</v>
-      </c>
-      <c r="C123" s="47" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="B124" s="65"/>
-      <c r="L124" s="56"/>
-    </row>
-    <row r="125" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A125" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="B125" s="66" t="s">
-        <v>514</v>
-      </c>
-      <c r="C125" s="47" t="s">
-        <v>654</v>
-      </c>
+      <c r="B125" s="65"/>
       <c r="L125" s="56"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="62"/>
+    <row r="126" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A126" s="62" t="s">
+        <v>191</v>
+      </c>
       <c r="B126" s="66" t="s">
-        <v>541</v>
+        <v>513</v>
+      </c>
+      <c r="C126" s="47" t="s">
+        <v>652</v>
       </c>
       <c r="L126" s="56"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="B127" s="67" t="s">
-        <v>528</v>
+      <c r="A127" s="62"/>
+      <c r="B127" s="66" t="s">
+        <v>540</v>
       </c>
       <c r="L127" s="56"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="63"/>
+      <c r="A128" s="63" t="s">
+        <v>190</v>
+      </c>
       <c r="B128" s="67" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="L128" s="56"/>
     </row>
-    <row r="129" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="63"/>
       <c r="B129" s="67" t="s">
+        <v>529</v>
+      </c>
+      <c r="L129" s="56"/>
+    </row>
+    <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="63"/>
+      <c r="B130" s="67" t="s">
+        <v>596</v>
+      </c>
+      <c r="C130" s="47" t="s">
         <v>597</v>
       </c>
-      <c r="C129" s="47" t="s">
-        <v>598</v>
-      </c>
-      <c r="L129" s="56"/>
-    </row>
-    <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="B130" s="68" t="s">
+      <c r="L130" s="56"/>
+    </row>
+    <row r="131" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="B131" s="68" t="s">
+        <v>447</v>
+      </c>
+      <c r="C131" s="47" t="s">
         <v>448</v>
       </c>
-      <c r="C130" s="47" t="s">
-        <v>449</v>
-      </c>
-      <c r="H130" s="4" t="s">
+      <c r="H131" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="L130" s="56"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="64"/>
-      <c r="B131" s="68" t="s">
-        <v>526</v>
       </c>
       <c r="L131" s="56"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="64"/>
       <c r="B132" s="68" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="L132" s="56"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="64"/>
       <c r="B133" s="68" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="L133" s="56"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="51" t="s">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="64"/>
+      <c r="B134" s="68" t="s">
+        <v>543</v>
+      </c>
+      <c r="L134" s="56"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="51" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="C136" s="47" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B137" s="4" t="s">
-        <v>457</v>
-      </c>
       <c r="C137" s="47" t="s">
-        <v>442</v>
+        <v>108</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B138" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C138" s="47" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B139" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C139" s="47" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B140" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C140" s="47" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B141" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C141" s="47" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B142" s="4" t="s">
-        <v>625</v>
+        <v>460</v>
       </c>
       <c r="C142" s="47" t="s">
-        <v>627</v>
+        <v>461</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B143" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="C143" s="47" t="s">
         <v>626</v>
-      </c>
-      <c r="C143" s="47" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B144" s="4" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+      <c r="C144" s="47" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B145" s="4" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B146" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C146" s="47" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B147" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="C145" s="47" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B146" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="C146" s="47" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B147" s="4" t="s">
+      <c r="C147" s="47" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B148" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="C148" s="47" t="s">
         <v>623</v>
       </c>
-      <c r="C147" s="47" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="B148" s="70" t="s">
-        <v>495</v>
-      </c>
-      <c r="D148" s="6" t="s">
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B149" s="70" t="s">
+        <v>494</v>
+      </c>
+      <c r="D149" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E148" s="50">
+      <c r="E149" s="50">
         <v>135</v>
       </c>
-      <c r="G148" s="50">
+      <c r="G149" s="50">
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A149" s="59"/>
-      <c r="B149" s="70" t="s">
-        <v>566</v>
-      </c>
-      <c r="C149" s="47" t="s">
+    <row r="150" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A150" s="59"/>
+      <c r="B150" s="70" t="s">
         <v>565</v>
       </c>
-      <c r="D149" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E149" s="50">
-        <v>25</v>
-      </c>
-      <c r="G149" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A150" s="60" t="s">
-        <v>193</v>
-      </c>
-      <c r="B150" s="69" t="s">
-        <v>494</v>
-      </c>
       <c r="C150" s="47" t="s">
-        <v>426</v>
+        <v>564</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E150" s="50">
+        <v>25</v>
+      </c>
+      <c r="G150" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="B151" s="69" t="s">
+        <v>493</v>
+      </c>
+      <c r="C151" s="47" t="s">
+        <v>425</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151" s="50">
         <v>120</v>
-      </c>
-      <c r="G150" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="B151" s="69" t="s">
-        <v>496</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E151" s="50">
-        <v>140</v>
       </c>
       <c r="G151" s="50">
         <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="62"/>
+      <c r="A152" s="61" t="s">
+        <v>193</v>
+      </c>
       <c r="B152" s="69" t="s">
-        <v>589</v>
+        <v>495</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E152" s="50">
+        <v>140</v>
+      </c>
+      <c r="G152" s="50">
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="62" t="s">
-        <v>192</v>
-      </c>
+      <c r="A153" s="62"/>
       <c r="B153" s="69" t="s">
-        <v>493</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E153" s="50">
-        <v>135</v>
-      </c>
-      <c r="G153" s="50">
-        <v>4</v>
+        <v>588</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="63" t="s">
+      <c r="A154" s="62" t="s">
         <v>191</v>
       </c>
       <c r="B154" s="69" t="s">
         <v>492</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E154" s="50">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G154" s="50">
         <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="B155" s="69"/>
+      <c r="A155" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="B155" s="69" t="s">
+        <v>491</v>
+      </c>
       <c r="D155" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E155" s="50">
+        <v>140</v>
+      </c>
+      <c r="G155" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="B156" s="69"/>
+      <c r="D156" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E155" s="50">
+      <c r="E156" s="50">
         <v>135</v>
       </c>
-      <c r="G155" s="50">
+      <c r="G156" s="50">
         <v>4</v>
       </c>
     </row>
@@ -11016,7 +11051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11039,28 +11074,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="C1" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="E1" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="27" t="s">
         <v>168</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -11068,10 +11103,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>11</v>
@@ -11083,15 +11118,15 @@
         <v>17</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
@@ -11111,13 +11146,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="8">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>0</v>
@@ -11140,7 +11175,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C6" s="8">
         <v>1</v>
@@ -11160,13 +11195,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" s="8">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>11</v>
@@ -11180,7 +11215,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="8">
         <v>1</v>
@@ -11227,7 +11262,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="8">
         <v>2</v>
@@ -11247,7 +11282,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="8">
         <v>2</v>
@@ -11267,7 +11302,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="8">
         <v>1</v>
@@ -11287,7 +11322,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="8">
         <v>2</v>
@@ -11307,13 +11342,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="8">
         <v>2</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>11</v>
@@ -11330,13 +11365,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="8">
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>0</v>
@@ -11353,16 +11388,16 @@
         <v>1</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="8">
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F18" s="6">
         <v>45</v>
@@ -11376,16 +11411,16 @@
         <v>1</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" s="8">
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" s="6">
         <v>45</v>
@@ -11399,16 +11434,16 @@
         <v>1</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="8">
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F20" s="6">
         <v>45</v>
@@ -11491,13 +11526,13 @@
         <v>9</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" s="8">
         <v>2</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>11</v>
@@ -11514,13 +11549,13 @@
         <v>9</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="8">
         <v>2</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>11</v>
@@ -11537,13 +11572,13 @@
         <v>9</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="8">
         <v>2</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>11</v>
@@ -11560,13 +11595,13 @@
         <v>9</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" s="8">
         <v>2</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>11</v>
@@ -11702,7 +11737,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>0</v>
@@ -11768,7 +11803,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>11</v>
@@ -11785,13 +11820,13 @@
         <v>9</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C38" s="8">
         <v>1</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>11</v>
@@ -11828,16 +11863,16 @@
     </row>
     <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>90</v>
       </c>
       <c r="C40" s="8">
         <v>1</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>0</v>
@@ -11854,13 +11889,13 @@
         <v>55</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" s="8">
         <v>1</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>0</v>
@@ -11877,13 +11912,13 @@
         <v>9</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C42" s="8">
         <v>2</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>11</v>
@@ -11900,13 +11935,13 @@
         <v>9</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C43" s="8">
         <v>2</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>11</v>
@@ -11923,13 +11958,13 @@
         <v>55</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C44" s="8">
         <v>1</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>0</v>
@@ -11943,16 +11978,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C45" s="8">
         <v>1</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>11</v>
@@ -11995,7 +12030,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>0</v>
@@ -12018,7 +12053,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>11</v>
@@ -12035,13 +12070,13 @@
         <v>1</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C49" s="8">
         <v>1</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>0</v>
@@ -12107,7 +12142,7 @@
     </row>
     <row r="53" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -12115,7 +12150,7 @@
         <v>9</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C54" s="8">
         <v>2</v>
@@ -12132,10 +12167,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C55" s="8">
         <v>1</v>
@@ -12155,13 +12190,13 @@
         <v>1</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C56" s="8">
         <v>1</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>0</v>
@@ -12184,13 +12219,13 @@
         <v>9</v>
       </c>
       <c r="B58" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>11</v>
@@ -12208,7 +12243,7 @@
         <v>9</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C59" s="8">
         <v>1</v>
@@ -12228,13 +12263,13 @@
         <v>9</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C60" s="8">
         <v>2</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>11</v>
@@ -12248,15 +12283,15 @@
     </row>
     <row r="62" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C63" s="8">
         <v>1</v>
@@ -12276,7 +12311,7 @@
         <v>1</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C64" s="8">
         <v>1</v>
@@ -12293,7 +12328,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -12301,13 +12336,13 @@
         <v>1</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C66" s="8">
         <v>1</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>0</v>
@@ -12324,13 +12359,13 @@
         <v>1</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C67" s="8">
         <v>1</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>0</v>
@@ -12347,13 +12382,13 @@
         <v>1</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C68" s="8">
         <v>1</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>0</v>
@@ -12367,16 +12402,16 @@
     </row>
     <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C69" s="8">
         <v>1</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>0</v>
@@ -12393,13 +12428,13 @@
         <v>6</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C70" s="8">
         <v>1</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>0</v>
@@ -12416,13 +12451,13 @@
         <v>6</v>
       </c>
       <c r="B71" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C71" s="8" t="s">
-        <v>104</v>
-      </c>
       <c r="D71" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>11</v>
@@ -12434,12 +12469,12 @@
         <v>41</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -12451,10 +12486,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C75" s="8">
         <v>2</v>
@@ -12477,7 +12512,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G78" s="13" t="s">
         <v>41</v>
@@ -12485,15 +12520,15 @@
     </row>
     <row r="80" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C81" s="8">
         <v>1</v>
@@ -12528,16 +12563,16 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C85" s="8">
         <v>1</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>0</v>
@@ -12556,11 +12591,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12572,7 +12607,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -12582,34 +12617,34 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -12617,13 +12652,13 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>17</v>
@@ -12632,7 +12667,7 @@
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>18</v>
@@ -12641,7 +12676,7 @@
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>19</v>
@@ -12650,7 +12685,7 @@
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>39</v>
@@ -12659,7 +12694,7 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>41</v>
@@ -12668,20 +12703,20 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>140</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -12689,7 +12724,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -12735,95 +12770,100 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>57</v>
+        <v>730</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
+      <c r="A41" s="17" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
-        <v>728</v>
-      </c>
+      <c r="A42" s="17"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
-        <v>62</v>
+        <v>726</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
-        <v>334</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="16" t="s">
-        <v>434</v>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -12833,7 +12873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
@@ -12844,275 +12884,275 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="30" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>382</v>
+      </c>
+      <c r="B13" t="s">
         <v>383</v>
-      </c>
-      <c r="B13" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B31" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B36" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B38" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B42" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B45" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B50" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B53" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan\git\cs-2d-game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miaodt\git\cs-2d-game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942FE663-CB6F-4170-ACBD-6FF0CF6A9C51}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8895" yWindow="4815" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8895" yWindow="4815" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Overview" sheetId="2" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="Weapons-Overview" sheetId="3" r:id="rId6"/>
     <sheet name="Religions" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="821">
   <si>
     <t>physical</t>
   </si>
@@ -1301,9 +1300,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Cooldown</t>
-  </si>
-  <si>
     <t>Spellbinder</t>
   </si>
   <si>
@@ -1349,12 +1345,6 @@
     <t>Protects target unit from all damage for one round.</t>
   </si>
   <si>
-    <t>Rally</t>
-  </si>
-  <si>
-    <t>Target unit may make an additional action this round.</t>
-  </si>
-  <si>
     <t>Passives</t>
   </si>
   <si>
@@ -1589,9 +1579,6 @@
     <t>Fire Storm</t>
   </si>
   <si>
-    <t>Heroes Honor</t>
-  </si>
-  <si>
     <t>Master Swordsman</t>
   </si>
   <si>
@@ -1625,9 +1612,6 @@
     <t>Condemn</t>
   </si>
   <si>
-    <t>Damned</t>
-  </si>
-  <si>
     <t>Fairy Charm</t>
   </si>
   <si>
@@ -1685,9 +1669,6 @@
     <t>Blade Rune</t>
   </si>
   <si>
-    <t>Rapture</t>
-  </si>
-  <si>
     <t>Cleave</t>
   </si>
   <si>
@@ -1961,9 +1942,6 @@
     <t>Power Chain</t>
   </si>
   <si>
-    <t>Inflicts Bind(1) on target. (Bind: decreases target's speed by 40%.)</t>
-  </si>
-  <si>
     <t>Encase</t>
   </si>
   <si>
@@ -2000,9 +1978,6 @@
     <t>Has a 50% chance to inflict Stun(1) or Silence(1) on target.</t>
   </si>
   <si>
-    <t>Increasese unit's Str/Fcs/Spd.</t>
-  </si>
-  <si>
     <t>Shadow Swap</t>
   </si>
   <si>
@@ -2108,9 +2083,6 @@
     <t>Puncture</t>
   </si>
   <si>
-    <t>COMMON TOTALS</t>
-  </si>
-  <si>
     <t>damage</t>
   </si>
   <si>
@@ -2120,9 +2092,6 @@
     <t>debuff</t>
   </si>
   <si>
-    <t>damage + effect</t>
-  </si>
-  <si>
     <t>Shield target ally (40% Strength) and increase Spd/Str/Fcs (10% Strength).</t>
   </si>
   <si>
@@ -2132,9 +2101,6 @@
     <t>Damages all front line enemies and inflict Bleed(1).</t>
   </si>
   <si>
-    <t>heal/shield</t>
-  </si>
-  <si>
     <t>Crushing Ice</t>
   </si>
   <si>
@@ -2147,39 +2113,12 @@
     <t>Maelstrom</t>
   </si>
   <si>
-    <t>Skill type totals:</t>
-  </si>
-  <si>
-    <t>WILD TOTALS</t>
-  </si>
-  <si>
     <t>bleed</t>
   </si>
   <si>
-    <t>stun</t>
-  </si>
-  <si>
-    <t>sleep</t>
-  </si>
-  <si>
-    <t>root</t>
-  </si>
-  <si>
-    <t>silence</t>
-  </si>
-  <si>
     <t>burn</t>
   </si>
   <si>
-    <t>poison</t>
-  </si>
-  <si>
-    <t>bind</t>
-  </si>
-  <si>
-    <t>curse</t>
-  </si>
-  <si>
     <t>Also damages unit directly behidn target.</t>
   </si>
   <si>
@@ -2222,18 +2161,12 @@
     <t>*add energy at the end of rounds</t>
   </si>
   <si>
-    <t>Supress: Stops unit from gaining energy at the end of round</t>
-  </si>
-  <si>
     <t>At the start of each round, pick each units actions and target (OR pick when it's units turn?)</t>
   </si>
   <si>
     <t>Root: Target attacks last during each round. (REWORK)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fortified: Unit takes massively reduced damage (405?). Backline units </t>
-  </si>
-  <si>
     <t>Altered Mind</t>
   </si>
   <si>
@@ -2241,12 +2174,336 @@
   </si>
   <si>
     <t>If units Health &gt; 50%, deals increased (1.5x) damage. Otherwise, unit heals for (80%) damage dealt.</t>
+  </si>
+  <si>
+    <t>Energy Void</t>
+  </si>
+  <si>
+    <t>When this unit is attacked by an enemy, reduce attackers Energy by 1.</t>
+  </si>
+  <si>
+    <t>Power Crush</t>
+  </si>
+  <si>
+    <t>Damages three random frontline enemies and inflicts Burn(2).</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Inflicts Stun(2) on target.</t>
+  </si>
+  <si>
+    <t>Spellcaster's Tome</t>
+  </si>
+  <si>
+    <t>After combat gain Energy +1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortified: Unit takes massively reduced damage (60%?). Backline units </t>
+  </si>
+  <si>
+    <t>Smolder</t>
+  </si>
+  <si>
+    <t>Units heals for 5% of it's max Health every time a unit is damaged by Burn.</t>
+  </si>
+  <si>
+    <t>Scorching Gaze</t>
+  </si>
+  <si>
+    <t>Damages two random targets and inflicts Burn(3).</t>
+  </si>
+  <si>
+    <t>Supress: Stops unit from gaining energy at the end of round OR reduces target max energy by 1 per charge</t>
+  </si>
+  <si>
+    <t>Reduce target's Energy by one.</t>
+  </si>
+  <si>
+    <t>Frigid Breath</t>
+  </si>
+  <si>
+    <t>Melting Gaze</t>
+  </si>
+  <si>
+    <t>Scorching Breath</t>
+  </si>
+  <si>
+    <t>Reduce target's energy by one.</t>
+  </si>
+  <si>
+    <t>Incinerate</t>
+  </si>
+  <si>
+    <t>If target is Burned, reduces Burn counter by 1 and deals double damage.</t>
+  </si>
+  <si>
+    <t>Rekindle</t>
+  </si>
+  <si>
+    <t>Cures all allies of Status Conditions and inflicts Burn(2) on a random enemy for each ally healed.</t>
+  </si>
+  <si>
+    <t>damage, silence</t>
+  </si>
+  <si>
+    <t>damage, stun</t>
+  </si>
+  <si>
+    <t>damage, splash</t>
+  </si>
+  <si>
+    <t>damage, heal</t>
+  </si>
+  <si>
+    <t>damage, bleed</t>
+  </si>
+  <si>
+    <t>damage, splash, bleed</t>
+  </si>
+  <si>
+    <t>shield, buff</t>
+  </si>
+  <si>
+    <t>shield</t>
+  </si>
+  <si>
+    <t>heal</t>
+  </si>
+  <si>
+    <t>damage, poison</t>
+  </si>
+  <si>
+    <t>damage, curse</t>
+  </si>
+  <si>
+    <t>damage, debuff</t>
+  </si>
+  <si>
+    <t>damage, shield</t>
+  </si>
+  <si>
+    <t>damage, bleed, shield</t>
+  </si>
+  <si>
+    <t>damage, sleep</t>
+  </si>
+  <si>
+    <t>Skill Totals</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  bleed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  stun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  silence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  burn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  poison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  bind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  curse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  supress</t>
+  </si>
+  <si>
+    <t>damage, burn</t>
+  </si>
+  <si>
+    <t>damage, bleed, stun, sleep, silence, burn, poison</t>
+  </si>
+  <si>
+    <t>damage, move</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>damage, bind</t>
+  </si>
+  <si>
+    <t>damage, energy</t>
+  </si>
+  <si>
+    <t>Increasese unit's Str/Fcs/Spd (one stage).</t>
+  </si>
+  <si>
+    <t>damage, buff</t>
+  </si>
+  <si>
+    <t>damage, stun, silence</t>
+  </si>
+  <si>
+    <t>Expunge</t>
+  </si>
+  <si>
+    <t>If target is Poisoned, removes all stacks of poison and greatly increases damage for each stack removed.</t>
+  </si>
+  <si>
+    <t>Power Swap</t>
+  </si>
+  <si>
+    <t>Two target enemies swap energy amounts.</t>
+  </si>
+  <si>
+    <t>Ignores 20% of target's armor.</t>
+  </si>
+  <si>
+    <t>Inflicts Poison(2) on target. Ignores 20% of target's Armor.</t>
+  </si>
+  <si>
+    <t>Toxic Cloud</t>
+  </si>
+  <si>
+    <t>Inflicts Poison(4) on target and all adjacent enemies.</t>
+  </si>
+  <si>
+    <t>Wind, Earth, Fire, Frost, Forest, Aether, Dark, Light, Common</t>
+  </si>
+  <si>
+    <t>Inflicts Burn(2) on target. Ignores 20% of target's Resistance.</t>
+  </si>
+  <si>
+    <t>Inflicts Stun(2) on target. Ignores 20% of target's Resistance.</t>
+  </si>
+  <si>
+    <t>Has a chance(75) to inflict Stun(1) on target.</t>
+  </si>
+  <si>
+    <t>Whirlwind</t>
+  </si>
+  <si>
+    <t>Randomly damages two enemies and switches their positions.</t>
+  </si>
+  <si>
+    <t>Forceful Burst</t>
+  </si>
+  <si>
+    <t>Piercing Strike</t>
+  </si>
+  <si>
+    <t>Infernal Charge</t>
+  </si>
+  <si>
+    <t>Primal Ritual</t>
+  </si>
+  <si>
+    <t>Feast</t>
+  </si>
+  <si>
+    <t>Astral Flare</t>
+  </si>
+  <si>
+    <t>Powersurge</t>
+  </si>
+  <si>
+    <t>Increase target ally energy by 1.</t>
+  </si>
+  <si>
+    <t>Incantation</t>
+  </si>
+  <si>
+    <t>Heal target ally (15% unit's Health) and increase Amr/Res(1).</t>
+  </si>
+  <si>
+    <t>heal, buff</t>
+  </si>
+  <si>
+    <t>Brilliant Cloudburst</t>
+  </si>
+  <si>
+    <t>Heal all Backline allies for (40% units Focus) and increase Str/Fcs by 1.</t>
+  </si>
+  <si>
+    <t>Warding Rapture</t>
+  </si>
+  <si>
+    <t>Shield target ally for 100% of their max Health and increase Amr/Res by 2.</t>
+  </si>
+  <si>
+    <t>Rolling Fortress</t>
+  </si>
+  <si>
+    <t>Increase Amr/Res by 1 at the start of every round.</t>
+  </si>
+  <si>
+    <t>At the end of every round, if unit's health &gt; 10%, decrease health by 10% to heal all allies for half health lost.</t>
+  </si>
+  <si>
+    <t>Immune to stat debuffs.</t>
+  </si>
+  <si>
+    <t>At the end of every round if unit has less than 100% health, gain a shield equal to half the missing health.</t>
+  </si>
+  <si>
+    <t>At the end of every round, increase Str/Fcs by 1 for every Bleeding enemy.</t>
+  </si>
+  <si>
+    <t>Hero's Honor</t>
+  </si>
+  <si>
+    <t>Damned/Dwelling Demon</t>
+  </si>
+  <si>
+    <t>Every time unit takes damage, increase Str by 1.</t>
+  </si>
+  <si>
+    <t>Starfury</t>
+  </si>
+  <si>
+    <t>Vorpal Strike</t>
+  </si>
+  <si>
+    <t>Inflicts a random status condition (Bleed, Stun, Sleep, Silence, Burn, Poison)</t>
+  </si>
+  <si>
+    <t>Thundersweep</t>
+  </si>
+  <si>
+    <t>Increases Focus by 1.</t>
+  </si>
+  <si>
+    <t>Decreases target Amr/Res by one.</t>
+  </si>
+  <si>
+    <t>Decreases target Amr/Res by two.</t>
+  </si>
+  <si>
+    <t>Corroding Bite</t>
+  </si>
+  <si>
+    <t>Murky Swell</t>
+  </si>
+  <si>
+    <t>Damage all frontline units and decreases Resistance by 1.</t>
+  </si>
+  <si>
+    <t>damage, splash, debuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> buff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2477,7 +2734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2625,18 +2882,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2661,6 +2906,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3196,7 +3445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H96"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -3760,12 +4009,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R128"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O102" sqref="O102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3810,19 +4059,19 @@
         <v>176</v>
       </c>
       <c r="K1" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="N1" s="31" t="s">
         <v>462</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="O1" s="31" t="s">
         <v>463</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>464</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>465</v>
-      </c>
-      <c r="O1" s="31" t="s">
-        <v>466</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>168</v>
@@ -3959,8 +4208,8 @@
         <f t="shared" si="0"/>
         <v>278</v>
       </c>
-      <c r="O5" s="74" t="s">
-        <v>512</v>
+      <c r="O5" s="70" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -4028,11 +4277,11 @@
         <f t="shared" si="0"/>
         <v>208</v>
       </c>
-      <c r="N7" s="74" t="s">
-        <v>640</v>
-      </c>
-      <c r="O7" s="71" t="s">
-        <v>508</v>
+      <c r="N7" s="70" t="s">
+        <v>634</v>
+      </c>
+      <c r="O7" s="67" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -4199,8 +4448,8 @@
         <f>SUM(D12:I12)</f>
         <v>257</v>
       </c>
-      <c r="O12" s="74" t="s">
-        <v>533</v>
+      <c r="O12" s="70" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -4235,11 +4484,11 @@
         <f t="shared" si="0"/>
         <v>258</v>
       </c>
-      <c r="N13" s="74" t="s">
-        <v>512</v>
-      </c>
-      <c r="O13" s="74" t="s">
-        <v>640</v>
+      <c r="N13" s="70" t="s">
+        <v>509</v>
+      </c>
+      <c r="O13" s="70" t="s">
+        <v>634</v>
       </c>
       <c r="P13" t="s">
         <v>292</v>
@@ -4313,11 +4562,11 @@
         <f t="shared" si="0"/>
         <v>334</v>
       </c>
-      <c r="K15" s="69" t="s">
-        <v>554</v>
-      </c>
-      <c r="O15" s="69" t="s">
-        <v>635</v>
+      <c r="K15" s="65" t="s">
+        <v>548</v>
+      </c>
+      <c r="O15" s="65" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -4352,11 +4601,11 @@
         <f t="shared" si="0"/>
         <v>327</v>
       </c>
-      <c r="K16" s="69" t="s">
-        <v>554</v>
-      </c>
-      <c r="O16" s="69" t="s">
-        <v>605</v>
+      <c r="K16" s="65" t="s">
+        <v>548</v>
+      </c>
+      <c r="O16" s="65" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -4391,8 +4640,8 @@
         <f>SUM(D17:I17)</f>
         <v>355</v>
       </c>
-      <c r="K17" s="69" t="s">
-        <v>554</v>
+      <c r="K17" s="65" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -4494,19 +4743,19 @@
         <v>356</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="L20" s="75" t="s">
-        <v>561</v>
+        <v>569</v>
+      </c>
+      <c r="L20" s="71" t="s">
+        <v>555</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="N20" s="69" t="s">
-        <v>635</v>
-      </c>
-      <c r="O20" s="69" t="s">
-        <v>451</v>
+        <v>602</v>
+      </c>
+      <c r="N20" s="65" t="s">
+        <v>629</v>
+      </c>
+      <c r="O20" s="65" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -4542,19 +4791,19 @@
         <v>356</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="L21" s="75" t="s">
-        <v>561</v>
+        <v>569</v>
+      </c>
+      <c r="L21" s="71" t="s">
+        <v>555</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="N21" s="69" t="s">
-        <v>605</v>
-      </c>
-      <c r="O21" s="69" t="s">
-        <v>451</v>
+        <v>602</v>
+      </c>
+      <c r="N21" s="65" t="s">
+        <v>599</v>
+      </c>
+      <c r="O21" s="65" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -4589,8 +4838,8 @@
         <f t="shared" si="0"/>
         <v>392</v>
       </c>
-      <c r="O22" s="71" t="s">
-        <v>612</v>
+      <c r="O22" s="67" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -4625,8 +4874,8 @@
         <f t="shared" si="0"/>
         <v>434</v>
       </c>
-      <c r="N23" s="71" t="s">
-        <v>612</v>
+      <c r="N23" s="67" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -4661,8 +4910,8 @@
         <f t="shared" si="0"/>
         <v>390</v>
       </c>
-      <c r="N24" s="71" t="s">
-        <v>612</v>
+      <c r="N24" s="67" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -4697,20 +4946,20 @@
         <f t="shared" si="0"/>
         <v>271</v>
       </c>
-      <c r="K26" s="70" t="s">
-        <v>632</v>
+      <c r="K26" s="66" t="s">
+        <v>626</v>
       </c>
       <c r="L26" s="57" t="s">
-        <v>531</v>
-      </c>
-      <c r="M26" s="69" t="s">
-        <v>451</v>
+        <v>526</v>
+      </c>
+      <c r="M26" s="65" t="s">
+        <v>448</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="O26" s="70" t="s">
-        <v>519</v>
+        <v>602</v>
+      </c>
+      <c r="O26" s="66" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -4745,14 +4994,14 @@
         <f t="shared" si="0"/>
         <v>257</v>
       </c>
-      <c r="K27" s="70" t="s">
-        <v>616</v>
-      </c>
-      <c r="M27" s="70" t="s">
-        <v>532</v>
-      </c>
-      <c r="O27" s="69" t="s">
-        <v>635</v>
+      <c r="K27" s="66" t="s">
+        <v>610</v>
+      </c>
+      <c r="M27" s="66" t="s">
+        <v>527</v>
+      </c>
+      <c r="O27" s="65" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -4787,8 +5036,8 @@
         <f t="shared" si="0"/>
         <v>267</v>
       </c>
-      <c r="K28" s="70" t="s">
-        <v>532</v>
+      <c r="K28" s="66" t="s">
+        <v>527</v>
       </c>
       <c r="P28" t="s">
         <v>347</v>
@@ -4826,8 +5075,8 @@
         <f t="shared" si="0"/>
         <v>281</v>
       </c>
-      <c r="K29" s="70" t="s">
-        <v>532</v>
+      <c r="K29" s="66" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -4862,11 +5111,11 @@
         <f t="shared" si="0"/>
         <v>315</v>
       </c>
-      <c r="K30" s="70" t="s">
-        <v>532</v>
-      </c>
-      <c r="M30" s="70" t="s">
-        <v>534</v>
+      <c r="K30" s="66" t="s">
+        <v>527</v>
+      </c>
+      <c r="M30" s="66" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -4901,14 +5150,14 @@
         <f t="shared" si="0"/>
         <v>285</v>
       </c>
-      <c r="K31" s="70" t="s">
-        <v>532</v>
+      <c r="K31" s="66" t="s">
+        <v>527</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="N31" s="70" t="s">
-        <v>642</v>
+        <v>602</v>
+      </c>
+      <c r="N31" s="66" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -4943,14 +5192,14 @@
         <f t="shared" si="0"/>
         <v>264</v>
       </c>
-      <c r="K32" s="70" t="s">
-        <v>532</v>
+      <c r="K32" s="66" t="s">
+        <v>527</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="M32" s="70" t="s">
-        <v>534</v>
+        <v>602</v>
+      </c>
+      <c r="M32" s="66" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -4985,11 +5234,11 @@
         <f>SUM(D33:I33)</f>
         <v>274</v>
       </c>
-      <c r="K33" s="70" t="s">
-        <v>616</v>
-      </c>
-      <c r="L33" s="70" t="s">
-        <v>532</v>
+      <c r="K33" s="66" t="s">
+        <v>610</v>
+      </c>
+      <c r="L33" s="66" t="s">
+        <v>527</v>
       </c>
       <c r="P33" t="s">
         <v>253</v>
@@ -5027,11 +5276,11 @@
         <f t="shared" si="0"/>
         <v>373</v>
       </c>
-      <c r="K34" s="70" t="s">
-        <v>642</v>
-      </c>
-      <c r="N34" s="74" t="s">
-        <v>640</v>
+      <c r="K34" s="66" t="s">
+        <v>635</v>
+      </c>
+      <c r="N34" s="70" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -5066,8 +5315,8 @@
         <f t="shared" si="0"/>
         <v>352</v>
       </c>
-      <c r="L35" s="70" t="s">
-        <v>642</v>
+      <c r="L35" s="66" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -5429,7 +5678,7 @@
         <v>188</v>
       </c>
       <c r="C46" s="44" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D46" s="28">
         <v>99</v>
@@ -5454,16 +5703,16 @@
         <v>494</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="L46" s="70" t="s">
-        <v>642</v>
-      </c>
-      <c r="M46" s="74" t="s">
-        <v>557</v>
-      </c>
-      <c r="N46" s="70" t="s">
-        <v>536</v>
+        <v>566</v>
+      </c>
+      <c r="L46" s="66" t="s">
+        <v>635</v>
+      </c>
+      <c r="M46" s="70" t="s">
+        <v>551</v>
+      </c>
+      <c r="N46" s="66" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
@@ -5474,7 +5723,7 @@
         <v>188</v>
       </c>
       <c r="C47" s="44" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D47" s="28">
         <v>99</v>
@@ -5499,10 +5748,10 @@
         <v>480</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="M47" s="74" t="s">
-        <v>557</v>
+        <v>566</v>
+      </c>
+      <c r="M47" s="70" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -5513,7 +5762,7 @@
         <v>188</v>
       </c>
       <c r="C48" s="44" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D48" s="28">
         <v>110</v>
@@ -5538,19 +5787,19 @@
         <v>551</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="M48" s="74" t="s">
-        <v>557</v>
-      </c>
-      <c r="N48" s="74" t="s">
-        <v>570</v>
-      </c>
-      <c r="O48" s="72" t="s">
-        <v>621</v>
+        <v>602</v>
+      </c>
+      <c r="M48" s="70" t="s">
+        <v>551</v>
+      </c>
+      <c r="N48" s="70" t="s">
+        <v>564</v>
+      </c>
+      <c r="O48" s="68" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -5621,8 +5870,8 @@
         <f t="shared" si="0"/>
         <v>392</v>
       </c>
-      <c r="K51" s="69" t="s">
-        <v>554</v>
+      <c r="K51" s="65" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
@@ -5657,8 +5906,8 @@
         <f t="shared" si="0"/>
         <v>397</v>
       </c>
-      <c r="O52" s="74" t="s">
-        <v>512</v>
+      <c r="O52" s="70" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
@@ -5693,8 +5942,8 @@
         <f>SUM(D53:I53)</f>
         <v>346</v>
       </c>
-      <c r="K53" s="71" t="s">
-        <v>510</v>
+      <c r="K53" s="67" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
@@ -5729,11 +5978,11 @@
         <f t="shared" ref="J54:J60" si="2">SUM(D54:I54)</f>
         <v>366</v>
       </c>
-      <c r="K54" s="69" t="s">
-        <v>554</v>
-      </c>
-      <c r="O54" s="72" t="s">
-        <v>584</v>
+      <c r="K54" s="65" t="s">
+        <v>548</v>
+      </c>
+      <c r="O54" s="68" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
@@ -5768,11 +6017,11 @@
         <f t="shared" si="2"/>
         <v>338</v>
       </c>
-      <c r="K55" s="69" t="s">
-        <v>554</v>
-      </c>
-      <c r="O55" s="72" t="s">
-        <v>537</v>
+      <c r="K55" s="65" t="s">
+        <v>548</v>
+      </c>
+      <c r="O55" s="68" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
@@ -5807,11 +6056,11 @@
         <f t="shared" si="2"/>
         <v>295</v>
       </c>
-      <c r="K56" s="69" t="s">
-        <v>554</v>
-      </c>
-      <c r="O56" s="72" t="s">
-        <v>621</v>
+      <c r="K56" s="65" t="s">
+        <v>548</v>
+      </c>
+      <c r="O56" s="68" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
@@ -5846,8 +6095,8 @@
         <f t="shared" si="2"/>
         <v>401</v>
       </c>
-      <c r="M57" s="71" t="s">
-        <v>510</v>
+      <c r="M57" s="67" t="s">
+        <v>507</v>
       </c>
       <c r="P57" t="s">
         <v>287</v>
@@ -5924,8 +6173,8 @@
         <f t="shared" si="2"/>
         <v>333</v>
       </c>
-      <c r="M59" s="71" t="s">
-        <v>510</v>
+      <c r="M59" s="67" t="s">
+        <v>507</v>
       </c>
       <c r="P59" t="s">
         <v>287</v>
@@ -5966,8 +6215,8 @@
         <f t="shared" si="2"/>
         <v>443</v>
       </c>
-      <c r="K60" s="71" t="s">
-        <v>510</v>
+      <c r="K60" s="67" t="s">
+        <v>507</v>
       </c>
       <c r="P60" t="s">
         <v>288</v>
@@ -6005,11 +6254,11 @@
         <f t="shared" ref="J61:J66" si="3">SUM(D61:I61)</f>
         <v>451</v>
       </c>
-      <c r="K61" s="70" t="s">
-        <v>642</v>
-      </c>
-      <c r="M61" s="71" t="s">
-        <v>510</v>
+      <c r="K61" s="66" t="s">
+        <v>635</v>
+      </c>
+      <c r="M61" s="67" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
@@ -6044,8 +6293,8 @@
         <f t="shared" si="3"/>
         <v>494</v>
       </c>
-      <c r="K62" s="71" t="s">
-        <v>510</v>
+      <c r="K62" s="67" t="s">
+        <v>507</v>
       </c>
       <c r="P62" t="s">
         <v>294</v>
@@ -6083,8 +6332,8 @@
         <f t="shared" si="3"/>
         <v>445</v>
       </c>
-      <c r="K63" s="73" t="s">
-        <v>528</v>
+      <c r="K63" s="69" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
@@ -6119,8 +6368,8 @@
         <f t="shared" si="3"/>
         <v>428</v>
       </c>
-      <c r="N64" s="71" t="s">
-        <v>508</v>
+      <c r="N64" s="67" t="s">
+        <v>505</v>
       </c>
       <c r="P64" t="s">
         <v>413</v>
@@ -6158,8 +6407,8 @@
         <f t="shared" si="3"/>
         <v>381</v>
       </c>
-      <c r="N65" s="71" t="s">
-        <v>508</v>
+      <c r="N65" s="67" t="s">
+        <v>505</v>
       </c>
       <c r="P65" t="s">
         <v>413</v>
@@ -6198,7 +6447,7 @@
         <v>456</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -6236,8 +6485,8 @@
         <f>SUM(D68:I68)</f>
         <v>402</v>
       </c>
-      <c r="N68" s="75" t="s">
-        <v>561</v>
+      <c r="N68" s="71" t="s">
+        <v>555</v>
       </c>
       <c r="P68" t="s">
         <v>215</v>
@@ -6275,8 +6524,8 @@
         <f>SUM(D69:I69)</f>
         <v>392</v>
       </c>
-      <c r="K69" s="69" t="s">
-        <v>554</v>
+      <c r="K69" s="65" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
@@ -6345,7 +6594,7 @@
         <v>400</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="P71" t="s">
         <v>259</v>
@@ -6384,7 +6633,7 @@
         <v>313</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="P72" t="s">
         <v>261</v>
@@ -6491,14 +6740,14 @@
         <f t="shared" si="4"/>
         <v>367</v>
       </c>
-      <c r="K75" s="75" t="s">
-        <v>579</v>
-      </c>
-      <c r="N75" s="75" t="s">
-        <v>592</v>
-      </c>
-      <c r="O75" s="73" t="s">
-        <v>595</v>
+      <c r="K75" s="71" t="s">
+        <v>573</v>
+      </c>
+      <c r="N75" s="71" t="s">
+        <v>586</v>
+      </c>
+      <c r="O75" s="69" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
@@ -6569,17 +6818,17 @@
         <f t="shared" si="4"/>
         <v>328</v>
       </c>
-      <c r="K77" s="75" t="s">
-        <v>579</v>
-      </c>
-      <c r="L77" s="73" t="s">
-        <v>528</v>
-      </c>
-      <c r="M77" s="74" t="s">
-        <v>607</v>
+      <c r="K77" s="71" t="s">
+        <v>573</v>
+      </c>
+      <c r="L77" s="69" t="s">
+        <v>524</v>
+      </c>
+      <c r="M77" s="70" t="s">
+        <v>601</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="P77" t="s">
         <v>303</v>
@@ -6617,20 +6866,20 @@
         <f t="shared" si="4"/>
         <v>413</v>
       </c>
-      <c r="K78" s="71" t="s">
-        <v>424</v>
+      <c r="K78" s="67" t="s">
+        <v>423</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="M78" s="70" t="s">
-        <v>453</v>
-      </c>
-      <c r="N78" s="74" t="s">
-        <v>521</v>
-      </c>
-      <c r="O78" s="70" t="s">
-        <v>523</v>
+        <v>594</v>
+      </c>
+      <c r="M78" s="66" t="s">
+        <v>450</v>
+      </c>
+      <c r="N78" s="70" t="s">
+        <v>517</v>
+      </c>
+      <c r="O78" s="66" t="s">
+        <v>519</v>
       </c>
       <c r="P78" t="s">
         <v>304</v>
@@ -6668,14 +6917,14 @@
         <f t="shared" si="4"/>
         <v>519</v>
       </c>
-      <c r="K79" s="73" t="s">
-        <v>595</v>
-      </c>
-      <c r="L79" s="76" t="s">
-        <v>596</v>
-      </c>
-      <c r="M79" s="75" t="s">
-        <v>592</v>
+      <c r="K79" s="69" t="s">
+        <v>589</v>
+      </c>
+      <c r="L79" s="72" t="s">
+        <v>590</v>
+      </c>
+      <c r="M79" s="71" t="s">
+        <v>586</v>
       </c>
       <c r="P79" t="s">
         <v>302</v>
@@ -6713,8 +6962,8 @@
         <f t="shared" si="4"/>
         <v>429</v>
       </c>
-      <c r="K80" s="75" t="s">
-        <v>561</v>
+      <c r="K80" s="71" t="s">
+        <v>555</v>
       </c>
       <c r="P80" t="s">
         <v>318</v>
@@ -6753,7 +7002,7 @@
         <v>428</v>
       </c>
       <c r="O81" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -6788,11 +7037,11 @@
         <f t="shared" ref="J83:J92" si="5">SUM(D83:I83)</f>
         <v>351</v>
       </c>
-      <c r="L83" s="69" t="s">
-        <v>554</v>
-      </c>
-      <c r="O83" s="73" t="s">
-        <v>528</v>
+      <c r="L83" s="65" t="s">
+        <v>548</v>
+      </c>
+      <c r="O83" s="69" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -6827,11 +7076,11 @@
         <f t="shared" si="5"/>
         <v>379</v>
       </c>
-      <c r="K84" s="74" t="s">
-        <v>570</v>
-      </c>
-      <c r="N84" s="74" t="s">
-        <v>512</v>
+      <c r="K84" s="70" t="s">
+        <v>564</v>
+      </c>
+      <c r="N84" s="70" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -6867,13 +7116,13 @@
         <v>367</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="N85" s="73" t="s">
-        <v>595</v>
-      </c>
-      <c r="O85" s="74" t="s">
-        <v>607</v>
+        <v>602</v>
+      </c>
+      <c r="N85" s="69" t="s">
+        <v>589</v>
+      </c>
+      <c r="O85" s="70" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
@@ -6908,17 +7157,17 @@
         <f t="shared" si="5"/>
         <v>401</v>
       </c>
-      <c r="L86" s="74" t="s">
-        <v>512</v>
-      </c>
-      <c r="M86" s="73" t="s">
-        <v>511</v>
-      </c>
-      <c r="N86" s="74" t="s">
-        <v>533</v>
+      <c r="L86" s="70" t="s">
+        <v>509</v>
+      </c>
+      <c r="M86" s="69" t="s">
+        <v>508</v>
+      </c>
+      <c r="N86" s="70" t="s">
+        <v>528</v>
       </c>
       <c r="O86" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
@@ -6953,11 +7202,11 @@
         <f t="shared" si="5"/>
         <v>412</v>
       </c>
-      <c r="K87" s="73" t="s">
-        <v>511</v>
-      </c>
-      <c r="N87" s="74" t="s">
-        <v>533</v>
+      <c r="K87" s="69" t="s">
+        <v>508</v>
+      </c>
+      <c r="N87" s="70" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -6992,8 +7241,8 @@
         <f t="shared" si="5"/>
         <v>381</v>
       </c>
-      <c r="L88" s="75" t="s">
-        <v>561</v>
+      <c r="L88" s="71" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
@@ -7028,8 +7277,8 @@
         <f t="shared" si="5"/>
         <v>395</v>
       </c>
-      <c r="L89" s="75" t="s">
-        <v>561</v>
+      <c r="L89" s="71" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
@@ -7100,11 +7349,11 @@
         <f t="shared" si="5"/>
         <v>387</v>
       </c>
-      <c r="L91" s="73" t="s">
-        <v>528</v>
-      </c>
-      <c r="O91" s="73" t="s">
-        <v>595</v>
+      <c r="L91" s="69" t="s">
+        <v>524</v>
+      </c>
+      <c r="O91" s="69" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -7139,11 +7388,11 @@
         <f t="shared" si="5"/>
         <v>392</v>
       </c>
-      <c r="L92" s="74" t="s">
-        <v>512</v>
-      </c>
-      <c r="N92" s="74" t="s">
-        <v>640</v>
+      <c r="L92" s="70" t="s">
+        <v>509</v>
+      </c>
+      <c r="N92" s="70" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -7178,11 +7427,11 @@
         <f t="shared" ref="J94:J106" si="6">SUM(D94:I94)</f>
         <v>318</v>
       </c>
-      <c r="N94" s="73" t="s">
-        <v>595</v>
-      </c>
-      <c r="O94" s="70" t="s">
-        <v>523</v>
+      <c r="N94" s="69" t="s">
+        <v>589</v>
+      </c>
+      <c r="O94" s="66" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
@@ -7217,14 +7466,20 @@
         <f t="shared" si="6"/>
         <v>402</v>
       </c>
-      <c r="K95" s="74" t="s">
-        <v>640</v>
-      </c>
-      <c r="L95" s="75" t="s">
-        <v>526</v>
-      </c>
-      <c r="N95" s="74" t="s">
-        <v>512</v>
+      <c r="K95" s="70" t="s">
+        <v>634</v>
+      </c>
+      <c r="L95" s="71" t="s">
+        <v>522</v>
+      </c>
+      <c r="M95" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="N95" s="70" t="s">
+        <v>509</v>
+      </c>
+      <c r="O95" s="71" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
@@ -7259,20 +7514,20 @@
         <f t="shared" si="6"/>
         <v>415</v>
       </c>
-      <c r="K96" s="75" t="s">
-        <v>598</v>
+      <c r="K96" s="71" t="s">
+        <v>592</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="M96" s="73" t="s">
-        <v>528</v>
-      </c>
-      <c r="N96" s="70" t="s">
-        <v>534</v>
-      </c>
-      <c r="O96" s="69" t="s">
-        <v>451</v>
+        <v>593</v>
+      </c>
+      <c r="M96" s="69" t="s">
+        <v>524</v>
+      </c>
+      <c r="N96" s="66" t="s">
+        <v>529</v>
+      </c>
+      <c r="O96" s="65" t="s">
+        <v>448</v>
       </c>
       <c r="P96" t="s">
         <v>313</v>
@@ -7310,20 +7565,20 @@
         <f t="shared" si="6"/>
         <v>435</v>
       </c>
-      <c r="K97" s="75" t="s">
-        <v>598</v>
+      <c r="K97" s="71" t="s">
+        <v>592</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="M97" s="73" t="s">
-        <v>528</v>
-      </c>
-      <c r="N97" s="75" t="s">
-        <v>498</v>
-      </c>
-      <c r="O97" s="69" t="s">
-        <v>451</v>
+        <v>593</v>
+      </c>
+      <c r="M97" s="69" t="s">
+        <v>524</v>
+      </c>
+      <c r="N97" s="71" t="s">
+        <v>495</v>
+      </c>
+      <c r="O97" s="65" t="s">
+        <v>448</v>
       </c>
       <c r="P97" t="s">
         <v>314</v>
@@ -7361,20 +7616,20 @@
         <f t="shared" si="6"/>
         <v>435</v>
       </c>
-      <c r="K98" s="75" t="s">
-        <v>598</v>
+      <c r="K98" s="71" t="s">
+        <v>592</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="M98" s="73" t="s">
-        <v>528</v>
-      </c>
-      <c r="N98" s="72" t="s">
-        <v>434</v>
-      </c>
-      <c r="O98" s="69" t="s">
-        <v>451</v>
+        <v>593</v>
+      </c>
+      <c r="M98" s="69" t="s">
+        <v>524</v>
+      </c>
+      <c r="N98" s="68" t="s">
+        <v>433</v>
+      </c>
+      <c r="O98" s="65" t="s">
+        <v>448</v>
       </c>
       <c r="P98" t="s">
         <v>315</v>
@@ -7412,8 +7667,8 @@
         <f t="shared" si="6"/>
         <v>396</v>
       </c>
-      <c r="L99" s="75" t="s">
-        <v>526</v>
+      <c r="L99" s="71" t="s">
+        <v>522</v>
       </c>
       <c r="P99" t="s">
         <v>309</v>
@@ -7451,8 +7706,8 @@
         <f t="shared" si="6"/>
         <v>431</v>
       </c>
-      <c r="K100" s="69" t="s">
-        <v>605</v>
+      <c r="K100" s="65" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
@@ -7487,11 +7742,11 @@
         <f t="shared" si="6"/>
         <v>640</v>
       </c>
-      <c r="K101" s="75" t="s">
-        <v>561</v>
+      <c r="K101" s="71" t="s">
+        <v>555</v>
       </c>
       <c r="M101" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
@@ -7526,14 +7781,17 @@
         <f t="shared" si="6"/>
         <v>670</v>
       </c>
-      <c r="K102" s="75" t="s">
-        <v>561</v>
-      </c>
-      <c r="L102" s="70" t="s">
-        <v>523</v>
+      <c r="K102" s="71" t="s">
+        <v>555</v>
+      </c>
+      <c r="L102" s="66" t="s">
+        <v>519</v>
       </c>
       <c r="M102" t="s">
-        <v>502</v>
+        <v>499</v>
+      </c>
+      <c r="N102" s="71" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
@@ -7568,8 +7826,8 @@
         <f t="shared" si="6"/>
         <v>735</v>
       </c>
-      <c r="K103" s="69" t="s">
-        <v>605</v>
+      <c r="K103" s="65" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
@@ -7604,11 +7862,11 @@
         <f t="shared" si="6"/>
         <v>700</v>
       </c>
-      <c r="K104" s="75" t="s">
-        <v>561</v>
+      <c r="K104" s="71" t="s">
+        <v>555</v>
       </c>
       <c r="M104" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
@@ -7643,11 +7901,11 @@
         <f t="shared" si="6"/>
         <v>700</v>
       </c>
-      <c r="K105" s="75" t="s">
-        <v>561</v>
+      <c r="K105" s="71" t="s">
+        <v>555</v>
       </c>
       <c r="M105" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
@@ -7682,11 +7940,11 @@
         <f t="shared" si="6"/>
         <v>867</v>
       </c>
-      <c r="K106" s="75" t="s">
-        <v>561</v>
+      <c r="K106" s="71" t="s">
+        <v>555</v>
       </c>
       <c r="M106" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
@@ -7721,8 +7979,8 @@
         <f t="shared" ref="J108:J116" si="7">SUM(D108:I108)</f>
         <v>459</v>
       </c>
-      <c r="N108" s="74" t="s">
-        <v>640</v>
+      <c r="N108" s="70" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
@@ -7757,14 +8015,14 @@
         <f t="shared" si="7"/>
         <v>430</v>
       </c>
-      <c r="K109" s="69" t="s">
+      <c r="K109" s="65" t="s">
+        <v>480</v>
+      </c>
+      <c r="L109" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="M109" s="65" t="s">
         <v>483</v>
-      </c>
-      <c r="L109" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="M109" s="69" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
@@ -7799,20 +8057,20 @@
         <f t="shared" si="7"/>
         <v>439</v>
       </c>
-      <c r="K110" s="69" t="s">
+      <c r="K110" s="65" t="s">
+        <v>480</v>
+      </c>
+      <c r="L110" s="65" t="s">
         <v>483</v>
       </c>
-      <c r="L110" s="69" t="s">
-        <v>486</v>
-      </c>
       <c r="M110" t="s">
-        <v>497</v>
-      </c>
-      <c r="N110" s="72" t="s">
-        <v>435</v>
-      </c>
-      <c r="O110" s="73" t="s">
-        <v>490</v>
+        <v>494</v>
+      </c>
+      <c r="N110" s="68" t="s">
+        <v>434</v>
+      </c>
+      <c r="O110" s="69" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
@@ -7848,13 +8106,13 @@
         <v>334</v>
       </c>
       <c r="K111" s="58" t="s">
-        <v>449</v>
-      </c>
-      <c r="N111" s="71" t="s">
-        <v>508</v>
+        <v>446</v>
+      </c>
+      <c r="N111" s="67" t="s">
+        <v>505</v>
       </c>
       <c r="O111" s="4" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
@@ -7890,10 +8148,10 @@
         <v>444</v>
       </c>
       <c r="K112" s="58" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="O112" s="4" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
@@ -7928,8 +8186,8 @@
         <f t="shared" si="7"/>
         <v>501</v>
       </c>
-      <c r="O113" s="71" t="s">
-        <v>510</v>
+      <c r="O113" s="67" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
@@ -7964,8 +8222,8 @@
         <f>SUM(D114:I114)</f>
         <v>446</v>
       </c>
-      <c r="N114" s="70" t="s">
-        <v>523</v>
+      <c r="N114" s="66" t="s">
+        <v>519</v>
       </c>
       <c r="P114" t="s">
         <v>4</v>
@@ -8039,8 +8297,8 @@
         <f t="shared" si="7"/>
         <v>386</v>
       </c>
-      <c r="L116" s="73" t="s">
-        <v>511</v>
+      <c r="L116" s="69" t="s">
+        <v>508</v>
       </c>
       <c r="P116" t="s">
         <v>305</v>
@@ -8441,68 +8699,68 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:D63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C4" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C6" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C8" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -8515,7 +8773,7 @@
         <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -8523,7 +8781,7 @@
         <v>192</v>
       </c>
       <c r="D13" s="54" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -8551,67 +8809,67 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="B19" s="56"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="B20" s="56"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>729</v>
+        <v>708</v>
       </c>
       <c r="B21" s="56"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="56" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="56" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="56" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="B25" s="56"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="56" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" s="56" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="B28" s="56"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="56" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" s="56" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -8619,152 +8877,242 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="C50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <f>COUNTIF(Skills!$H$2:$H$117, "*damage*")</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>694</v>
+        <v>744</v>
       </c>
       <c r="C51">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <f>COUNTIF(Skills!$H$2:$H$117, "*heal*")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>698</v>
+        <v>743</v>
       </c>
       <c r="C52">
+        <f>COUNTIF(Skills!$H$2:$H$117, "*shield*")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>683</v>
+      </c>
+      <c r="C53">
+        <f>COUNTIF(Skills!$H$2:$H$117, "* buff*")</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>684</v>
+      </c>
+      <c r="C54">
+        <f>COUNTIF(Skills!$H$2:$H$117, "*debuff*")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>752</v>
+      </c>
+      <c r="C55">
+        <f>SUM(C56:C64)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>753</v>
+      </c>
+      <c r="C56">
+        <f>COUNTIF(Skills!$H$2:$H$117, "*bleed*")</f>
+        <v>11</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>754</v>
+      </c>
+      <c r="C57">
+        <f>COUNTIF(Skills!$H$2:$H$117, "*stun*")</f>
+        <v>11</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>755</v>
+      </c>
+      <c r="C58">
+        <f>COUNTIF(Skills!$H$2:$H$117, "*sleep*")</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>692</v>
-      </c>
-      <c r="C53">
+      <c r="F58" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>756</v>
+      </c>
+      <c r="B59" s="17"/>
+      <c r="C59">
+        <f>COUNTIF(Skills!$H$2:$H$117, "*silence*")</f>
+        <v>8</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>757</v>
+      </c>
+      <c r="B60" s="17"/>
+      <c r="C60">
+        <f>COUNTIF(Skills!$H$2:$H$117, "*burn*")</f>
+        <v>10</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>758</v>
+      </c>
+      <c r="B61" s="17"/>
+      <c r="C61">
+        <f>COUNTIF(Skills!$H$2:$H$117, "*poison*")</f>
+        <v>8</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>759</v>
+      </c>
+      <c r="B62" s="17"/>
+      <c r="C62">
+        <f>COUNTIF(Skills!$H$2:$H$117, "*bind*")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>693</v>
-      </c>
-      <c r="C54">
+      <c r="F62" s="17" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>760</v>
+      </c>
+      <c r="B63" s="17"/>
+      <c r="C63">
+        <f>COUNTIF(Skills!$H$2:$H$117, "*curse*")</f>
+        <v>1</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>761</v>
+      </c>
+      <c r="B64" s="17"/>
+      <c r="C64">
+        <f>COUNTIF(Skills!$H$2:$H$117, "*supress*")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="17" t="s">
-        <v>705</v>
-      </c>
-      <c r="C55">
+      <c r="F64" s="17" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>765</v>
+      </c>
+      <c r="B65" s="17"/>
+      <c r="C65">
+        <f>COUNTIF(Skills!$H$2:$H$117, "*move*")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="17" t="s">
-        <v>706</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="17" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="17" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="17" t="s">
-        <v>709</v>
-      </c>
-      <c r="C59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="17" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="17" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="17" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="17" t="s">
-        <v>713</v>
-      </c>
+      <c r="F65" s="17" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8773,12 +9121,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K118" sqref="K118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8812,7 +9160,7 @@
         <v>164</v>
       </c>
       <c r="G1" s="53" t="s">
-        <v>421</v>
+        <v>717</v>
       </c>
       <c r="H1" s="51" t="s">
         <v>168</v>
@@ -8822,11 +9170,11 @@
       <c r="A2" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="69" t="s">
-        <v>554</v>
+      <c r="B2" s="65" t="s">
+        <v>548</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>0</v>
@@ -8840,13 +9188,16 @@
       <c r="G2" s="50">
         <v>1</v>
       </c>
+      <c r="H2" s="4" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="69" t="s">
-        <v>555</v>
+      <c r="B3" s="65" t="s">
+        <v>549</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>11</v>
@@ -8860,13 +9211,16 @@
       <c r="G3" s="50">
         <v>1</v>
       </c>
+      <c r="H3" s="4" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="69" t="s">
-        <v>535</v>
+      <c r="B4" s="65" t="s">
+        <v>530</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>11</v>
@@ -8878,218 +9232,239 @@
         <v>2</v>
       </c>
       <c r="G4" s="50">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="69" t="s">
-        <v>422</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>547</v>
+      <c r="B5" s="65" t="s">
+        <v>785</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>442</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="50">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="F5" s="50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="50">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="69" t="s">
-        <v>451</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>452</v>
+      <c r="H5" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="65" t="s">
+        <v>421</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>542</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="50">
+        <v>45</v>
+      </c>
+      <c r="F6" s="50">
+        <v>2</v>
+      </c>
+      <c r="G6" s="50">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="65" t="s">
+        <v>448</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>449</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E7" s="50">
         <v>110</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F7" s="50">
         <v>1</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G7" s="50">
         <v>2</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="69" t="s">
-        <v>483</v>
-      </c>
-      <c r="C7" s="47" t="s">
+      <c r="H7" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="65" t="s">
+        <v>480</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>718</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="50">
+        <v>30</v>
+      </c>
+      <c r="G8" s="50">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="65" t="s">
+        <v>688</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>484</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="50">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="69" t="s">
-        <v>699</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="50">
-        <v>25</v>
-      </c>
-      <c r="F8" s="50">
-        <v>2</v>
-      </c>
-      <c r="G8" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="69" t="s">
-        <v>515</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>701</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="50">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="F9" s="50">
         <v>2</v>
       </c>
       <c r="G9" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="69" t="s">
-        <v>546</v>
+        <v>2</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="65" t="s">
+        <v>512</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>423</v>
+        <v>690</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E10" s="50">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F10" s="50">
         <v>2</v>
       </c>
       <c r="G10" s="50">
+        <v>3</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="65" t="s">
+        <v>541</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="50">
+        <v>0</v>
+      </c>
+      <c r="F11" s="50">
+        <v>2</v>
+      </c>
+      <c r="G11" s="50">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="69" t="s">
-        <v>674</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="H11" s="4" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="65" t="s">
+        <v>666</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="50">
-        <v>85</v>
-      </c>
-      <c r="F11" s="50">
-        <v>1</v>
-      </c>
-      <c r="G11" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="69" t="s">
-        <v>550</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>697</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="50">
-        <v>35</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>585</v>
+        <v>85</v>
+      </c>
+      <c r="F12" s="50">
+        <v>1</v>
       </c>
       <c r="G12" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B13" s="69" t="s">
-        <v>733</v>
+        <v>3</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="65" t="s">
+        <v>810</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="50">
-        <v>45</v>
-      </c>
-      <c r="F13" s="50">
-        <v>1</v>
-      </c>
-      <c r="G13" s="50">
-        <v>3</v>
+        <v>811</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="69" t="s">
-        <v>605</v>
+      <c r="B14" s="65" t="s">
+        <v>544</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>603</v>
+        <v>687</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="50" t="s">
-        <v>604</v>
-      </c>
-      <c r="F14" s="50">
-        <v>1</v>
+      <c r="E14" s="50">
+        <v>35</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>579</v>
       </c>
       <c r="G14" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="69" t="s">
-        <v>635</v>
+        <v>2</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B15" s="65" t="s">
+        <v>711</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>636</v>
+        <v>712</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="50" t="s">
-        <v>604</v>
+      <c r="E15" s="50">
+        <v>45</v>
       </c>
       <c r="F15" s="50">
         <v>1</v>
@@ -9097,190 +9472,226 @@
       <c r="G15" s="50">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="69" t="s">
-        <v>732</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>696</v>
+      <c r="H15" s="4" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="65" t="s">
+        <v>783</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>784</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>445</v>
+        <v>0</v>
       </c>
       <c r="E16" s="50">
+        <v>25</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>598</v>
+      </c>
+      <c r="G16" s="50">
+        <v>2</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="65" t="s">
+        <v>599</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="50" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="69" t="s">
-        <v>514</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>695</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="E17" s="50">
-        <v>0</v>
-      </c>
-      <c r="F17" s="50" t="s">
-        <v>446</v>
+      <c r="E17" s="50" t="s">
+        <v>598</v>
+      </c>
+      <c r="F17" s="50">
+        <v>1</v>
       </c>
       <c r="G17" s="50">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="69" t="s">
-        <v>672</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>673</v>
+      <c r="H17" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="65" t="s">
+        <v>629</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>630</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="E18" s="50">
         <v>0</v>
       </c>
-      <c r="F18" s="50" t="s">
-        <v>446</v>
+      <c r="E18" s="50" t="s">
+        <v>598</v>
+      </c>
+      <c r="F18" s="50">
+        <v>1</v>
       </c>
       <c r="G18" s="50">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="69" t="s">
+      <c r="H18" s="4" t="s">
         <v>682</v>
       </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="65" t="s">
+        <v>710</v>
+      </c>
       <c r="C19" s="5" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E19" s="50">
         <v>0</v>
       </c>
       <c r="F19" s="50" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G19" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B20" s="69" t="s">
-        <v>658</v>
+        <v>4</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="65" t="s">
+        <v>511</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E20" s="50">
         <v>0</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G20" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="69" t="s">
-        <v>437</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>438</v>
+        <v>3</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="65" t="s">
+        <v>664</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>665</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E21" s="50">
         <v>0</v>
       </c>
       <c r="F21" s="50" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G21" s="50">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="69"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" s="70" t="s">
-        <v>632</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>445</v>
+      <c r="H21" s="4" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="65" t="s">
+        <v>674</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E22" s="50">
+        <v>0</v>
+      </c>
+      <c r="F22" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="G22" s="50">
+        <v>2</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="65" t="s">
+        <v>791</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>792</v>
       </c>
       <c r="D23" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E23" s="50">
         <v>0</v>
       </c>
-      <c r="E23" s="50">
-        <v>50</v>
-      </c>
-      <c r="F23" s="50">
-        <v>1</v>
+      <c r="F23" s="50" t="s">
+        <v>443</v>
       </c>
       <c r="G23" s="50">
         <v>1</v>
       </c>
-      <c r="J23" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
-      <c r="B24" s="70" t="s">
-        <v>534</v>
-      </c>
-      <c r="C24" s="47" t="s">
-        <v>445</v>
+      <c r="H23" s="4" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B24" s="65" t="s">
+        <v>650</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>667</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>11</v>
+        <v>442</v>
       </c>
       <c r="E24" s="50">
-        <v>55</v>
-      </c>
-      <c r="F24" s="50">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>443</v>
       </c>
       <c r="G24" s="50">
         <v>2</v>
       </c>
-      <c r="J24" t="s">
-        <v>691</v>
-      </c>
-      <c r="L24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="59"/>
-      <c r="B25" s="70" t="s">
-        <v>519</v>
+      <c r="H24" s="4" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="66" t="s">
+        <v>626</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>633</v>
+        <v>442</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>0</v>
@@ -9292,79 +9703,73 @@
         <v>1</v>
       </c>
       <c r="G25" s="50">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="59"/>
+      <c r="B26" s="66" t="s">
+        <v>529</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>442</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="50">
+        <v>55</v>
+      </c>
+      <c r="F26" s="50">
         <v>2</v>
       </c>
-      <c r="J25" t="s">
-        <v>694</v>
-      </c>
-      <c r="L25">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="59"/>
-      <c r="B26" s="70" t="s">
-        <v>453</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>563</v>
-      </c>
-      <c r="E26" s="50">
+      <c r="G26" s="50">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="59"/>
+      <c r="B27" s="66" t="s">
+        <v>786</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>775</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="50" t="s">
-        <v>446</v>
-      </c>
-      <c r="G26" s="50">
+      <c r="E27" s="50">
+        <v>60</v>
+      </c>
+      <c r="F27" s="50">
+        <v>1</v>
+      </c>
+      <c r="G27" s="50">
         <v>2</v>
       </c>
-      <c r="J26" t="s">
-        <v>698</v>
-      </c>
-      <c r="L26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
-      <c r="B27" s="70" t="s">
-        <v>523</v>
-      </c>
-      <c r="C27" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="50">
-        <v>10</v>
-      </c>
-      <c r="F27" s="50">
-        <v>2</v>
-      </c>
-      <c r="G27" s="50">
-        <v>5</v>
-      </c>
-      <c r="J27" t="s">
-        <v>692</v>
-      </c>
-      <c r="L27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="H27" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="59"/>
-      <c r="B28" s="70" t="s">
-        <v>532</v>
+      <c r="B28" s="66" t="s">
+        <v>515</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>569</v>
+        <v>627</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E28" s="50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F28" s="50">
         <v>1</v>
@@ -9372,47 +9777,65 @@
       <c r="G28" s="50">
         <v>2</v>
       </c>
-      <c r="J28" t="s">
-        <v>693</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H28" s="4" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="59"/>
-      <c r="B29" s="70" t="s">
-        <v>536</v>
+      <c r="B29" s="66" t="s">
+        <v>519</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>562</v>
+        <v>600</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E29" s="50">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="F29" s="50">
         <v>2</v>
       </c>
       <c r="G29" s="50">
+        <v>3</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="59"/>
+      <c r="B30" s="66" t="s">
+        <v>527</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>563</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="50">
+        <v>40</v>
+      </c>
+      <c r="F30" s="50">
+        <v>1</v>
+      </c>
+      <c r="G30" s="50">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
-      <c r="B30" s="70" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H30" s="4" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="59"/>
-      <c r="B31" s="70" t="s">
-        <v>616</v>
+      <c r="B31" s="66" t="s">
+        <v>531</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>112</v>
+        <v>556</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>0</v>
@@ -9421,46 +9844,52 @@
         <v>55</v>
       </c>
       <c r="F31" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" s="50">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H31" s="4" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="59"/>
-      <c r="B32" s="70" t="s">
-        <v>649</v>
+      <c r="B32" s="66" t="s">
+        <v>533</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>714</v>
+        <v>422</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E32" s="50">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F32" s="50">
         <v>1</v>
       </c>
       <c r="G32" s="50">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="59"/>
-      <c r="B33" s="70" t="s">
-        <v>659</v>
+      <c r="B33" s="66" t="s">
+        <v>610</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>660</v>
+        <v>112</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E33" s="50">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F33" s="50">
         <v>1</v>
@@ -9468,282 +9897,391 @@
       <c r="G33" s="50">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H33" s="4" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="59"/>
-      <c r="B34" s="70"/>
-    </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="66" t="s">
+        <v>642</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>694</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="50">
+        <v>60</v>
+      </c>
+      <c r="F34" s="50">
+        <v>1</v>
+      </c>
+      <c r="G34" s="50">
+        <v>2</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="59"/>
-      <c r="B35" s="70" t="s">
-        <v>444</v>
-      </c>
-      <c r="C35" s="47" t="s">
-        <v>646</v>
+      <c r="B35" s="66" t="s">
+        <v>651</v>
+      </c>
+      <c r="C35" s="74" t="s">
+        <v>652</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>445</v>
+        <v>0</v>
       </c>
       <c r="E35" s="50">
-        <v>0</v>
-      </c>
-      <c r="F35" s="50" t="s">
-        <v>446</v>
+        <v>50</v>
+      </c>
+      <c r="F35" s="50">
+        <v>1</v>
       </c>
       <c r="G35" s="50">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="59"/>
-      <c r="B36" s="70" t="s">
-        <v>542</v>
+      <c r="B36" s="66" t="s">
+        <v>777</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>645</v>
+        <v>778</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>445</v>
+        <v>11</v>
       </c>
       <c r="E36" s="50">
-        <v>0</v>
-      </c>
-      <c r="F36" s="50" t="s">
-        <v>446</v>
+        <v>40</v>
+      </c>
+      <c r="F36" s="50">
+        <v>2</v>
       </c>
       <c r="G36" s="50">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H36" s="4" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="59"/>
-      <c r="B37" s="70" t="s">
-        <v>642</v>
+      <c r="B37" s="66" t="s">
+        <v>816</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>644</v>
+        <v>815</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>445</v>
+        <v>0</v>
       </c>
       <c r="E37" s="50">
-        <v>0</v>
-      </c>
-      <c r="F37" s="50" t="s">
-        <v>643</v>
+        <v>40</v>
+      </c>
+      <c r="F37" s="50">
+        <v>1</v>
       </c>
       <c r="G37" s="50">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="60" t="s">
-        <v>192</v>
-      </c>
-      <c r="B38" s="71" t="s">
-        <v>507</v>
+      <c r="H37" s="4" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="59"/>
+      <c r="B38" s="66" t="s">
+        <v>771</v>
+      </c>
+      <c r="C38" s="47" t="s">
+        <v>772</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E38" s="50">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F38" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" s="50">
         <v>2</v>
       </c>
+      <c r="H38" s="4" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="60"/>
-      <c r="B39" s="71" t="s">
-        <v>508</v>
+      <c r="A39" s="59"/>
+      <c r="B39" s="66" t="s">
+        <v>450</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>509</v>
-      </c>
-      <c r="D39" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="E39" s="50">
         <v>0</v>
       </c>
-      <c r="E39" s="50">
-        <v>50</v>
-      </c>
-      <c r="F39" s="50">
-        <v>1</v>
+      <c r="F39" s="50" t="s">
+        <v>443</v>
       </c>
       <c r="G39" s="50">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="60"/>
-      <c r="B40" s="71" t="s">
-        <v>510</v>
+      <c r="H39" s="4" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="59"/>
+      <c r="B40" s="66" t="s">
+        <v>441</v>
       </c>
       <c r="C40" s="47" t="s">
-        <v>583</v>
+        <v>639</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>11</v>
+        <v>442</v>
       </c>
       <c r="E40" s="50">
-        <v>55</v>
-      </c>
-      <c r="F40" s="50">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F40" s="50" t="s">
+        <v>443</v>
       </c>
       <c r="G40" s="50">
         <v>3</v>
       </c>
-      <c r="I40" s="17"/>
+      <c r="H40" s="4" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="60"/>
-      <c r="B41" s="71" t="s">
-        <v>650</v>
+      <c r="A41" s="59"/>
+      <c r="B41" s="66" t="s">
+        <v>537</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="D41" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E41" s="50">
         <v>0</v>
       </c>
-      <c r="E41" s="50">
+      <c r="F41" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="G41" s="50">
+        <v>3</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="59"/>
+      <c r="B42" s="66" t="s">
+        <v>635</v>
+      </c>
+      <c r="C42" s="47" t="s">
+        <v>637</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E42" s="50">
+        <v>0</v>
+      </c>
+      <c r="F42" s="50" t="s">
+        <v>636</v>
+      </c>
+      <c r="G42" s="50">
+        <v>2</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="59"/>
+      <c r="B43" s="66" t="s">
+        <v>793</v>
+      </c>
+      <c r="C43" s="47" t="s">
+        <v>794</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E43" s="50">
+        <v>0</v>
+      </c>
+      <c r="F43" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="G43" s="50">
+        <v>2</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="B44" s="67" t="s">
+        <v>504</v>
+      </c>
+      <c r="C44" s="47" t="s">
+        <v>775</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="50">
         <v>60</v>
       </c>
-      <c r="F41" s="50">
+      <c r="F44" s="50">
+        <v>1</v>
+      </c>
+      <c r="G44" s="50">
         <v>2</v>
       </c>
-      <c r="G41" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="60"/>
-      <c r="B42" s="71" t="s">
-        <v>516</v>
-      </c>
-      <c r="I42" s="17"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="60"/>
-      <c r="B43" s="71" t="s">
-        <v>541</v>
-      </c>
-      <c r="I43" s="17"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
-      <c r="B44" s="71" t="s">
-        <v>551</v>
-      </c>
-      <c r="I44" s="17"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H44" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="60"/>
-      <c r="B45" s="71" t="s">
-        <v>582</v>
+      <c r="B45" s="67" t="s">
+        <v>505</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>484</v>
+        <v>506</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E45" s="50">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F45" s="50">
         <v>1</v>
       </c>
       <c r="G45" s="50">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="60"/>
-      <c r="B46" s="71" t="s">
-        <v>612</v>
+      <c r="B46" s="67" t="s">
+        <v>507</v>
       </c>
       <c r="C46" s="47" t="s">
-        <v>613</v>
+        <v>577</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E46" s="50">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="F46" s="50">
         <v>1</v>
       </c>
       <c r="G46" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="I46" s="17"/>
+    </row>
+    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="60"/>
-      <c r="B47" s="71" t="s">
-        <v>549</v>
-      </c>
-      <c r="I47" s="17"/>
+      <c r="B47" s="67" t="s">
+        <v>643</v>
+      </c>
+      <c r="C47" s="47" t="s">
+        <v>644</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="50">
+        <v>60</v>
+      </c>
+      <c r="F47" s="50">
+        <v>2</v>
+      </c>
+      <c r="G47" s="50">
+        <v>2</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="60"/>
-      <c r="B48" s="71" t="s">
-        <v>424</v>
+      <c r="B48" s="67" t="s">
+        <v>773</v>
       </c>
       <c r="C48" s="47" t="s">
-        <v>425</v>
+        <v>774</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E48" s="50">
         <v>0</v>
       </c>
-      <c r="F48" s="50" t="s">
-        <v>446</v>
+      <c r="F48" s="50">
+        <v>2</v>
       </c>
       <c r="G48" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="61" t="s">
-        <v>193</v>
-      </c>
-      <c r="B49" s="73" t="s">
-        <v>490</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="61"/>
-      <c r="B50" s="73" t="s">
-        <v>504</v>
-      </c>
-      <c r="C50" s="47" t="s">
-        <v>505</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
-      <c r="B51" s="73" t="s">
-        <v>511</v>
+        <v>1</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="60"/>
+      <c r="B49" s="67" t="s">
+        <v>513</v>
+      </c>
+      <c r="I49" s="17"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="60"/>
+      <c r="B50" s="67" t="s">
+        <v>536</v>
+      </c>
+      <c r="I50" s="17"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="60"/>
+      <c r="B51" s="67" t="s">
+        <v>545</v>
       </c>
       <c r="C51" s="47" t="s">
-        <v>583</v>
+        <v>813</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>11</v>
@@ -9752,22 +10290,29 @@
         <v>55</v>
       </c>
       <c r="F51" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="61"/>
-      <c r="B52" s="73" t="s">
-        <v>528</v>
+        <v>2</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="I51" s="17"/>
+    </row>
+    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="60"/>
+      <c r="B52" s="67" t="s">
+        <v>812</v>
+      </c>
+      <c r="C52" s="47" t="s">
+        <v>814</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E52" s="50">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F52" s="50">
         <v>2</v>
@@ -9775,88 +10320,171 @@
       <c r="G52" s="50">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="61"/>
-      <c r="B53" s="73" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="61"/>
-      <c r="B54" s="73" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="61"/>
-      <c r="B55" s="73" t="s">
-        <v>590</v>
+      <c r="H52" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="I52" s="17"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="60"/>
+      <c r="B53" s="67" t="s">
+        <v>576</v>
+      </c>
+      <c r="C53" s="47" t="s">
+        <v>481</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="50">
+        <v>70</v>
+      </c>
+      <c r="F53" s="50">
+        <v>1</v>
+      </c>
+      <c r="G53" s="50">
+        <v>3</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="60"/>
+      <c r="B54" s="67" t="s">
+        <v>606</v>
+      </c>
+      <c r="C54" s="47" t="s">
+        <v>607</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="50">
+        <v>100</v>
+      </c>
+      <c r="F54" s="50">
+        <v>1</v>
+      </c>
+      <c r="G54" s="50">
+        <v>4</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="60"/>
+      <c r="B55" s="67" t="s">
+        <v>798</v>
       </c>
       <c r="C55" s="47" t="s">
-        <v>591</v>
+        <v>799</v>
       </c>
       <c r="D55" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E55" s="50">
         <v>0</v>
       </c>
-      <c r="E55" s="50">
-        <v>60</v>
-      </c>
-      <c r="F55" s="50">
-        <v>2</v>
+      <c r="F55" s="50" t="s">
+        <v>443</v>
       </c>
       <c r="G55" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="61"/>
-      <c r="B56" s="73" t="s">
-        <v>595</v>
+        <v>3</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="I55" s="17"/>
+    </row>
+    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="60"/>
+      <c r="B56" s="67" t="s">
+        <v>423</v>
       </c>
       <c r="C56" s="47" t="s">
-        <v>558</v>
+        <v>424</v>
       </c>
       <c r="D56" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E56" s="50">
         <v>0</v>
       </c>
-      <c r="E56" s="50">
-        <v>65</v>
-      </c>
-      <c r="F56" s="50">
-        <v>1</v>
+      <c r="F56" s="50" t="s">
+        <v>443</v>
       </c>
       <c r="G56" s="50">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="61"/>
-      <c r="B57" s="73" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="61"/>
-      <c r="B58" s="73" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="62" t="s">
-        <v>191</v>
-      </c>
-      <c r="B59" s="74" t="s">
-        <v>512</v>
+      <c r="H56" s="4" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="60"/>
+      <c r="B57" s="67" t="s">
+        <v>796</v>
+      </c>
+      <c r="C57" s="47" t="s">
+        <v>797</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E57" s="50">
+        <v>0</v>
+      </c>
+      <c r="F57" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="G57" s="50">
+        <v>2</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="B58" s="69" t="s">
+        <v>524</v>
+      </c>
+      <c r="C58" s="47" t="s">
+        <v>442</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="50">
+        <v>75</v>
+      </c>
+      <c r="F58" s="50">
+        <v>2</v>
+      </c>
+      <c r="G58" s="50">
+        <v>2</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="61"/>
+      <c r="B59" s="69" t="s">
+        <v>539</v>
       </c>
       <c r="C59" s="47" t="s">
-        <v>634</v>
+        <v>442</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E59" s="50">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F59" s="50">
         <v>2</v>
@@ -9864,134 +10492,143 @@
       <c r="G59" s="50">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="62"/>
-      <c r="B60" s="74" t="s">
-        <v>521</v>
+      <c r="H59" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="61"/>
+      <c r="B60" s="69" t="s">
+        <v>487</v>
       </c>
       <c r="C60" s="47" t="s">
-        <v>602</v>
+        <v>716</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E60" s="50">
-        <v>45</v>
-      </c>
-      <c r="F60" s="50">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="F60" s="50" t="s">
+        <v>598</v>
       </c>
       <c r="G60" s="50">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="62"/>
-      <c r="B61" s="74" t="s">
-        <v>533</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>560</v>
+      <c r="H60" s="4" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="61"/>
+      <c r="B61" s="69" t="s">
+        <v>501</v>
+      </c>
+      <c r="C61" s="47" t="s">
+        <v>502</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E61" s="50">
-        <v>50</v>
-      </c>
-      <c r="F61" s="50">
+      <c r="G61" s="50">
         <v>2</v>
       </c>
-      <c r="G61" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="62"/>
-      <c r="B62" s="74" t="s">
-        <v>684</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>685</v>
+      <c r="H61" s="4" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="61"/>
+      <c r="B62" s="69" t="s">
+        <v>508</v>
+      </c>
+      <c r="C62" s="47" t="s">
+        <v>577</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E62" s="50">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F62" s="50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" s="50">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="62"/>
-      <c r="B63" s="74" t="s">
-        <v>557</v>
+      <c r="H62" s="4" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="61"/>
+      <c r="B63" s="69" t="s">
+        <v>715</v>
       </c>
       <c r="C63" s="47" t="s">
-        <v>558</v>
+        <v>731</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E63" s="50">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F63" s="50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G63" s="50">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="62"/>
-      <c r="B64" s="74" t="s">
-        <v>570</v>
-      </c>
-      <c r="C64" s="47" t="s">
-        <v>571</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="50">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="62"/>
-      <c r="B65" s="74" t="s">
-        <v>607</v>
+      <c r="H63" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="61"/>
+      <c r="B64" s="69" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="61"/>
+      <c r="B65" s="69" t="s">
+        <v>584</v>
       </c>
       <c r="C65" s="47" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E65" s="50">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="62"/>
-      <c r="B66" s="74" t="s">
-        <v>640</v>
+        <v>60</v>
+      </c>
+      <c r="F65" s="50">
+        <v>2</v>
+      </c>
+      <c r="G65" s="50">
+        <v>4</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="61"/>
+      <c r="B66" s="69" t="s">
+        <v>589</v>
       </c>
       <c r="C66" s="47" t="s">
-        <v>641</v>
+        <v>552</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E66" s="50">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F66" s="50">
         <v>1</v>
@@ -9999,184 +10636,232 @@
       <c r="G66" s="50">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="62"/>
-      <c r="B67" s="74" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="62"/>
-      <c r="B68" s="74" t="s">
-        <v>687</v>
-      </c>
-      <c r="C68" s="47" t="s">
-        <v>688</v>
-      </c>
-      <c r="D68" s="6" t="s">
+      <c r="H66" s="4" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="61"/>
+      <c r="B67" s="69" t="s">
+        <v>681</v>
+      </c>
+      <c r="C67" s="47" t="s">
+        <v>776</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="50">
+        <v>45</v>
+      </c>
+      <c r="F67" s="50">
+        <v>1</v>
+      </c>
+      <c r="G67" s="50">
+        <v>2</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="61"/>
+      <c r="B68" s="69" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="61"/>
+      <c r="B69" s="69" t="s">
+        <v>817</v>
+      </c>
+      <c r="C69" s="47" t="s">
+        <v>818</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E68" s="50">
-        <v>50</v>
-      </c>
-      <c r="F68" s="50">
-        <v>2</v>
-      </c>
-      <c r="G68" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="62"/>
-      <c r="B69" s="74" t="s">
-        <v>647</v>
-      </c>
-      <c r="C69" s="47" t="s">
-        <v>648</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>445</v>
-      </c>
       <c r="E69" s="50">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F69" s="50" t="s">
-        <v>446</v>
+        <v>579</v>
       </c>
       <c r="G69" s="50">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="62"/>
-      <c r="B70" s="74" t="s">
-        <v>670</v>
+      <c r="H69" s="4" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="B70" s="70" t="s">
+        <v>509</v>
       </c>
       <c r="C70" s="47" t="s">
-        <v>671</v>
+        <v>628</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>445</v>
+        <v>11</v>
       </c>
       <c r="E70" s="50">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F70" s="50">
         <v>2</v>
       </c>
       <c r="G70" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="62"/>
-      <c r="B71" s="74" t="s">
-        <v>667</v>
+      <c r="B71" s="70" t="s">
+        <v>517</v>
       </c>
       <c r="C71" s="47" t="s">
-        <v>668</v>
+        <v>596</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>445</v>
+        <v>11</v>
       </c>
       <c r="E71" s="50">
-        <v>0</v>
-      </c>
-      <c r="F71" s="50" t="s">
-        <v>585</v>
+        <v>45</v>
+      </c>
+      <c r="F71" s="50">
+        <v>1</v>
       </c>
       <c r="G71" s="50">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H71" s="4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="62"/>
-      <c r="B72" s="74" t="s">
+      <c r="B72" s="70" t="s">
+        <v>528</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="50">
+        <v>50</v>
+      </c>
+      <c r="F72" s="50">
+        <v>2</v>
+      </c>
+      <c r="G72" s="50">
+        <v>3</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="62"/>
+      <c r="B73" s="70" t="s">
+        <v>676</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="C72" s="47" t="s">
-        <v>678</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="E72" s="50">
+      <c r="D73" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F72" s="50" t="s">
-        <v>446</v>
-      </c>
-      <c r="G72" s="50">
+      <c r="E73" s="50">
+        <v>45</v>
+      </c>
+      <c r="F73" s="50">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="62"/>
-      <c r="B73" s="74" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="B74" s="75" t="s">
-        <v>496</v>
+      <c r="G73" s="50">
+        <v>2</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="62"/>
+      <c r="B74" s="70" t="s">
+        <v>551</v>
       </c>
       <c r="C74" s="47" t="s">
-        <v>445</v>
+        <v>552</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E74" s="50">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F74" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G74" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="63"/>
-      <c r="B75" s="75" t="s">
-        <v>498</v>
+        <v>3</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="62"/>
+      <c r="B75" s="70" t="s">
+        <v>564</v>
       </c>
       <c r="C75" s="47" t="s">
-        <v>445</v>
+        <v>565</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E75" s="50">
-        <v>80</v>
-      </c>
-      <c r="F75" s="50">
-        <v>2</v>
-      </c>
-      <c r="G75" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="63"/>
-      <c r="B76" s="75" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="63"/>
-      <c r="B77" s="75" t="s">
-        <v>561</v>
+        <v>45</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="62"/>
+      <c r="B76" s="70" t="s">
+        <v>601</v>
+      </c>
+      <c r="C76" s="47" t="s">
+        <v>565</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="50">
+        <v>55</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="62"/>
+      <c r="B77" s="70" t="s">
+        <v>634</v>
       </c>
       <c r="C77" s="47" t="s">
-        <v>559</v>
+        <v>727</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E77" s="50">
         <v>70</v>
@@ -10185,70 +10870,79 @@
         <v>1</v>
       </c>
       <c r="G77" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="63"/>
-      <c r="B78" s="75" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="63"/>
-      <c r="B79" s="75" t="s">
-        <v>526</v>
+        <v>3</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="62"/>
+      <c r="B78" s="70" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="62"/>
+      <c r="B79" s="70" t="s">
+        <v>679</v>
       </c>
       <c r="C79" s="47" t="s">
-        <v>620</v>
+        <v>680</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E79" s="50">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F79" s="50">
         <v>2</v>
       </c>
       <c r="G79" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="63"/>
-      <c r="B80" s="75" t="s">
-        <v>579</v>
+        <v>2</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="62"/>
+      <c r="B80" s="70" t="s">
+        <v>640</v>
       </c>
       <c r="C80" s="47" t="s">
-        <v>594</v>
+        <v>641</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>11</v>
+        <v>442</v>
       </c>
       <c r="E80" s="50">
         <v>0</v>
       </c>
       <c r="F80" s="50" t="s">
-        <v>585</v>
+        <v>443</v>
       </c>
       <c r="G80" s="50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="63"/>
-      <c r="B81" s="75" t="s">
-        <v>592</v>
+        <v>2</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="62"/>
+      <c r="B81" s="70" t="s">
+        <v>662</v>
       </c>
       <c r="C81" s="47" t="s">
-        <v>593</v>
+        <v>663</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>11</v>
+        <v>442</v>
       </c>
       <c r="E81" s="50">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F81" s="50">
         <v>2</v>
@@ -10256,146 +10950,133 @@
       <c r="G81" s="50">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="63"/>
-      <c r="B82" s="75" t="s">
-        <v>598</v>
+      <c r="H81" s="4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="62"/>
+      <c r="B82" s="70" t="s">
+        <v>659</v>
       </c>
       <c r="C82" s="47" t="s">
-        <v>484</v>
+        <v>660</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>11</v>
+        <v>442</v>
       </c>
       <c r="E82" s="50">
-        <v>50</v>
-      </c>
-      <c r="F82" s="50">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F82" s="50" t="s">
+        <v>579</v>
       </c>
       <c r="G82" s="50">
         <v>3</v>
       </c>
+      <c r="H82" s="4" t="s">
+        <v>684</v>
+      </c>
     </row>
     <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="63"/>
-      <c r="B83" s="75" t="s">
-        <v>662</v>
+      <c r="A83" s="62"/>
+      <c r="B83" s="70" t="s">
+        <v>669</v>
       </c>
       <c r="C83" s="47" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>11</v>
+        <v>442</v>
       </c>
       <c r="E83" s="50">
-        <v>100</v>
-      </c>
-      <c r="F83" s="50">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F83" s="50" t="s">
+        <v>443</v>
       </c>
       <c r="G83" s="50">
         <v>2</v>
       </c>
+      <c r="H83" s="4" t="s">
+        <v>820</v>
+      </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="63"/>
-      <c r="B84" s="75"/>
+      <c r="A84" s="62"/>
+      <c r="B84" s="70" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="B85" s="72" t="s">
-        <v>520</v>
-      </c>
-      <c r="C85" s="47" t="s">
-        <v>445</v>
-      </c>
-      <c r="D85" s="6" t="s">
+      <c r="A85" s="62"/>
+      <c r="B85" s="70" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="B86" s="71" t="s">
+        <v>493</v>
+      </c>
+      <c r="C86" s="47" t="s">
+        <v>442</v>
+      </c>
+      <c r="D86" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E85" s="50">
-        <v>60</v>
-      </c>
-      <c r="F85" s="50">
-        <v>2</v>
-      </c>
-      <c r="G85" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="64"/>
-      <c r="B86" s="72" t="s">
-        <v>656</v>
-      </c>
-      <c r="C86" s="47" t="s">
-        <v>657</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="E86" s="50">
-        <v>50</v>
-      </c>
-      <c r="F86" s="50" t="s">
-        <v>604</v>
+        <v>70</v>
+      </c>
+      <c r="F86" s="50">
+        <v>1</v>
       </c>
       <c r="G86" s="50">
         <v>2</v>
       </c>
+      <c r="H86" s="4" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="64"/>
-      <c r="B87" s="72" t="s">
-        <v>522</v>
+      <c r="A87" s="63"/>
+      <c r="B87" s="71" t="s">
+        <v>495</v>
       </c>
       <c r="C87" s="47" t="s">
-        <v>654</v>
+        <v>442</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E87" s="50">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F87" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G87" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="64"/>
-      <c r="B88" s="72" t="s">
-        <v>434</v>
-      </c>
-      <c r="C88" s="47" t="s">
-        <v>488</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="50">
-        <v>50</v>
-      </c>
-      <c r="F88" s="50">
-        <v>2</v>
-      </c>
-      <c r="G88" s="50">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="63"/>
+      <c r="B88" s="71" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="64"/>
-      <c r="B89" s="72" t="s">
-        <v>621</v>
+      <c r="A89" s="63"/>
+      <c r="B89" s="71" t="s">
+        <v>555</v>
       </c>
       <c r="C89" s="47" t="s">
-        <v>620</v>
+        <v>553</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>0</v>
@@ -10404,643 +11085,1099 @@
         <v>70</v>
       </c>
       <c r="F89" s="50">
+        <v>1</v>
+      </c>
+      <c r="G89" s="50">
         <v>2</v>
       </c>
-      <c r="G89" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="64"/>
-      <c r="B90" s="72" t="s">
-        <v>619</v>
-      </c>
-      <c r="C90" s="47" t="s">
-        <v>506</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" s="50">
-        <v>75</v>
-      </c>
-      <c r="F90" s="50" t="s">
-        <v>604</v>
-      </c>
-      <c r="G90" s="50">
-        <v>4</v>
+      <c r="H89" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="63"/>
+      <c r="B90" s="71" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="64"/>
-      <c r="B91" s="72" t="s">
-        <v>537</v>
+      <c r="A91" s="63"/>
+      <c r="B91" s="71" t="s">
+        <v>522</v>
       </c>
       <c r="C91" s="47" t="s">
-        <v>445</v>
+        <v>614</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E91" s="50">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F91" s="50">
         <v>2</v>
       </c>
       <c r="G91" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="64"/>
-      <c r="B92" s="72" t="s">
-        <v>584</v>
+        <v>2</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="63"/>
+      <c r="B92" s="71" t="s">
+        <v>729</v>
       </c>
       <c r="C92" s="47" t="s">
-        <v>629</v>
+        <v>725</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E92" s="50">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F92" s="50" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="G92" s="50">
         <v>4</v>
       </c>
+      <c r="H92" s="4" t="s">
+        <v>762</v>
+      </c>
     </row>
     <row r="93" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="64"/>
-      <c r="B93" s="72" t="s">
-        <v>630</v>
+      <c r="A93" s="63"/>
+      <c r="B93" s="71" t="s">
+        <v>586</v>
       </c>
       <c r="C93" s="47" t="s">
+        <v>587</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="50">
+        <v>40</v>
+      </c>
+      <c r="F93" s="50">
+        <v>2</v>
+      </c>
+      <c r="G93" s="50">
+        <v>2</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="63"/>
+      <c r="B94" s="71" t="s">
+        <v>592</v>
+      </c>
+      <c r="C94" s="47" t="s">
+        <v>481</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="50">
+        <v>50</v>
+      </c>
+      <c r="F94" s="50">
+        <v>2</v>
+      </c>
+      <c r="G94" s="50">
+        <v>3</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="63"/>
+      <c r="B95" s="71" t="s">
+        <v>654</v>
+      </c>
+      <c r="C95" s="47" t="s">
+        <v>655</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="50">
+        <v>100</v>
+      </c>
+      <c r="F95" s="50">
+        <v>2</v>
+      </c>
+      <c r="G95" s="50">
+        <v>3</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="63"/>
+      <c r="B96" s="71" t="s">
+        <v>730</v>
+      </c>
+      <c r="C96" s="47" t="s">
+        <v>780</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="50">
+        <v>55</v>
+      </c>
+      <c r="F96" s="50">
+        <v>1</v>
+      </c>
+      <c r="G96" s="50">
+        <v>2</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="63"/>
+      <c r="B97" s="71" t="s">
+        <v>732</v>
+      </c>
+      <c r="C97" s="47" t="s">
+        <v>733</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97" s="50">
+        <v>60</v>
+      </c>
+      <c r="F97" s="50">
+        <v>2</v>
+      </c>
+      <c r="G97" s="50">
+        <v>3</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="63"/>
+      <c r="B98" s="71" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="63"/>
+      <c r="B99" s="71" t="s">
+        <v>573</v>
+      </c>
+      <c r="C99" s="47" t="s">
+        <v>588</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="50">
+        <v>0</v>
+      </c>
+      <c r="F99" s="50" t="s">
+        <v>579</v>
+      </c>
+      <c r="G99" s="50">
+        <v>3</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A100" s="63"/>
+      <c r="B100" s="71" t="s">
+        <v>734</v>
+      </c>
+      <c r="C100" s="47" t="s">
+        <v>735</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E100" s="50">
+        <v>0</v>
+      </c>
+      <c r="F100" s="50" t="s">
+        <v>598</v>
+      </c>
+      <c r="G100" s="50">
+        <v>3</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="63"/>
+      <c r="B101" s="71"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="B102" s="68" t="s">
+        <v>516</v>
+      </c>
+      <c r="C102" s="47" t="s">
+        <v>442</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102" s="50">
+        <v>60</v>
+      </c>
+      <c r="F102" s="50">
+        <v>2</v>
+      </c>
+      <c r="G102" s="50">
+        <v>2</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="64"/>
+      <c r="B103" s="68" t="s">
+        <v>648</v>
+      </c>
+      <c r="C103" s="47" t="s">
+        <v>649</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="50">
+        <v>50</v>
+      </c>
+      <c r="F103" s="50" t="s">
+        <v>598</v>
+      </c>
+      <c r="G103" s="50">
+        <v>2</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="64"/>
+      <c r="B104" s="68" t="s">
+        <v>518</v>
+      </c>
+      <c r="C104" s="47" t="s">
+        <v>768</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="50">
+        <v>50</v>
+      </c>
+      <c r="F104" s="50">
+        <v>1</v>
+      </c>
+      <c r="G104" s="50">
+        <v>2</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="64"/>
+      <c r="B105" s="68" t="s">
+        <v>433</v>
+      </c>
+      <c r="C105" s="47" t="s">
+        <v>485</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="50">
+        <v>50</v>
+      </c>
+      <c r="F105" s="50">
+        <v>2</v>
+      </c>
+      <c r="G105" s="50">
+        <v>2</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="64"/>
+      <c r="B106" s="68" t="s">
+        <v>615</v>
+      </c>
+      <c r="C106" s="47" t="s">
+        <v>614</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E106" s="50">
+        <v>70</v>
+      </c>
+      <c r="F106" s="50">
+        <v>2</v>
+      </c>
+      <c r="G106" s="50">
+        <v>4</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="64"/>
+      <c r="B107" s="68" t="s">
+        <v>613</v>
+      </c>
+      <c r="C107" s="47" t="s">
+        <v>503</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="50">
+        <v>75</v>
+      </c>
+      <c r="F107" s="50" t="s">
+        <v>598</v>
+      </c>
+      <c r="G107" s="50">
+        <v>4</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="64"/>
+      <c r="B108" s="68" t="s">
+        <v>532</v>
+      </c>
+      <c r="C108" s="47" t="s">
+        <v>442</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="50">
+        <v>70</v>
+      </c>
+      <c r="F108" s="50">
+        <v>2</v>
+      </c>
+      <c r="G108" s="50">
+        <v>3</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109" s="64"/>
+      <c r="B109" s="68" t="s">
+        <v>578</v>
+      </c>
+      <c r="C109" s="47" t="s">
+        <v>623</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E109" s="50">
+        <v>50</v>
+      </c>
+      <c r="F109" s="50" t="s">
+        <v>579</v>
+      </c>
+      <c r="G109" s="50">
+        <v>4</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="64"/>
+      <c r="B110" s="68" t="s">
+        <v>624</v>
+      </c>
+      <c r="C110" s="47" t="s">
+        <v>646</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E110" s="50">
+        <v>80</v>
+      </c>
+      <c r="F110" s="50">
+        <v>1</v>
+      </c>
+      <c r="G110" s="50">
+        <v>3</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="64"/>
+      <c r="B111" s="68" t="s">
+        <v>434</v>
+      </c>
+      <c r="C111" s="47" t="s">
+        <v>435</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E111" s="50">
+        <v>0</v>
+      </c>
+      <c r="F111" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="G111" s="50">
+        <v>2</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" s="64"/>
+      <c r="B112" s="68" t="s">
+        <v>728</v>
+      </c>
+      <c r="C112" s="47" t="s">
+        <v>781</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="50">
+        <v>55</v>
+      </c>
+      <c r="F112" s="50">
+        <v>1</v>
+      </c>
+      <c r="G112" s="50">
+        <v>2</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="64"/>
+      <c r="B113" s="68" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="64"/>
+      <c r="B114" s="68" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="64"/>
+      <c r="B115" s="68" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="64"/>
+      <c r="B116" s="68" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="64"/>
+      <c r="B117" s="68" t="s">
+        <v>689</v>
+      </c>
+      <c r="C117" s="47" t="s">
+        <v>782</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E117" s="50">
+        <v>75</v>
+      </c>
+      <c r="F117" s="50">
+        <v>2</v>
+      </c>
+      <c r="G117" s="50">
+        <v>3</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="51" t="s">
+        <v>436</v>
+      </c>
+      <c r="L122" s="56"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C123" s="47" t="s">
+        <v>486</v>
+      </c>
+      <c r="L123" s="56"/>
+    </row>
+    <row r="124" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B124" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C124" s="47" t="s">
+        <v>568</v>
+      </c>
+      <c r="L124" s="56"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B125" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="L125" s="56"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B126" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="L126" s="56"/>
+    </row>
+    <row r="127" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B127" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="C127" s="47" t="s">
+        <v>567</v>
+      </c>
+      <c r="L127" s="56"/>
+    </row>
+    <row r="128" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B128" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C128" s="47" t="s">
+        <v>571</v>
+      </c>
+      <c r="L128" s="56"/>
+    </row>
+    <row r="129" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B129" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="C129" s="47" t="s">
+        <v>805</v>
+      </c>
+      <c r="L129" s="56"/>
+    </row>
+    <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B130" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C130" s="47" t="s">
+        <v>575</v>
+      </c>
+      <c r="L130" s="56"/>
+    </row>
+    <row r="131" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B131" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C131" s="47" t="s">
+        <v>631</v>
+      </c>
+      <c r="L131" s="56"/>
+    </row>
+    <row r="132" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B132" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C132" s="47" t="s">
+        <v>595</v>
+      </c>
+      <c r="L132" s="56"/>
+    </row>
+    <row r="133" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B133" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C133" s="47" t="s">
+        <v>604</v>
+      </c>
+      <c r="L133" s="56"/>
+    </row>
+    <row r="134" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B134" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C134" s="47" t="s">
+        <v>605</v>
+      </c>
+      <c r="L134" s="56"/>
+    </row>
+    <row r="135" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="B135" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="C135" s="47" t="s">
+        <v>609</v>
+      </c>
+      <c r="L135" s="56"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B136" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="D93" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E93" s="50">
-        <v>80</v>
-      </c>
-      <c r="F93" s="50">
-        <v>1</v>
-      </c>
-      <c r="G93" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="64"/>
-      <c r="B94" s="72" t="s">
-        <v>435</v>
-      </c>
-      <c r="C94" s="47" t="s">
-        <v>436</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="E94" s="50">
-        <v>0</v>
-      </c>
-      <c r="F94" s="50" t="s">
-        <v>446</v>
-      </c>
-      <c r="G94" s="50">
-        <v>2</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="64"/>
-      <c r="B95" s="72" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="64"/>
-      <c r="B96" s="72" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="64"/>
-      <c r="B97" s="72" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="51" t="s">
-        <v>439</v>
-      </c>
-      <c r="L102" s="56"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="C103" s="47" t="s">
-        <v>489</v>
-      </c>
-      <c r="L103" s="56"/>
-    </row>
-    <row r="104" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B104" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="C104" s="47" t="s">
-        <v>574</v>
-      </c>
-      <c r="L104" s="56"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B105" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="L105" s="56"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B106" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="L106" s="56"/>
-    </row>
-    <row r="107" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B107" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="C107" s="47" t="s">
-        <v>573</v>
-      </c>
-      <c r="L107" s="56"/>
-    </row>
-    <row r="108" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B108" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="C108" s="47" t="s">
-        <v>577</v>
-      </c>
-      <c r="L108" s="56"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B109" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="L109" s="56"/>
-    </row>
-    <row r="110" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B110" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="C110" s="47" t="s">
-        <v>581</v>
-      </c>
-      <c r="L110" s="56"/>
-    </row>
-    <row r="111" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B111" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="C111" s="47" t="s">
-        <v>637</v>
-      </c>
-      <c r="L111" s="56"/>
-    </row>
-    <row r="112" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B112" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="C112" s="47" t="s">
-        <v>601</v>
-      </c>
-      <c r="L112" s="56"/>
-    </row>
-    <row r="113" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B113" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="C113" s="47" t="s">
-        <v>610</v>
-      </c>
-      <c r="L113" s="56"/>
-    </row>
-    <row r="114" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="B114" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="C114" s="47" t="s">
-        <v>611</v>
-      </c>
-      <c r="L114" s="56"/>
-    </row>
-    <row r="115" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="B115" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="C115" s="47" t="s">
-        <v>615</v>
-      </c>
-      <c r="L115" s="56"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B116" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="L116" s="56"/>
-    </row>
-    <row r="117" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B117" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="C117" s="47" t="s">
-        <v>628</v>
-      </c>
-      <c r="L117" s="56"/>
-    </row>
-    <row r="118" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B118" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="C118" s="47" t="s">
-        <v>666</v>
-      </c>
-      <c r="L118" s="56"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B119" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="C119" s="47" t="s">
-        <v>681</v>
-      </c>
-      <c r="L119" s="56"/>
-    </row>
-    <row r="120" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A120" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="B120" s="57" t="s">
-        <v>531</v>
-      </c>
-      <c r="C120" s="47" t="s">
-        <v>631</v>
-      </c>
-      <c r="L120" s="56"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="59"/>
-      <c r="B121" s="57"/>
-      <c r="L121" s="56"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="59"/>
-      <c r="B122" s="57" t="s">
-        <v>539</v>
-      </c>
-      <c r="L122" s="56"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="59"/>
-      <c r="B123" s="57" t="s">
-        <v>556</v>
-      </c>
-      <c r="L123" s="56"/>
-    </row>
-    <row r="124" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="60" t="s">
-        <v>192</v>
-      </c>
-      <c r="B124" s="58" t="s">
-        <v>449</v>
-      </c>
-      <c r="C124" s="47" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="61" t="s">
-        <v>193</v>
-      </c>
-      <c r="B125" s="65"/>
-      <c r="L125" s="56"/>
-    </row>
-    <row r="126" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A126" s="62" t="s">
-        <v>191</v>
-      </c>
-      <c r="B126" s="66" t="s">
-        <v>513</v>
-      </c>
-      <c r="C126" s="47" t="s">
-        <v>652</v>
-      </c>
-      <c r="L126" s="56"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="62"/>
-      <c r="B127" s="66" t="s">
-        <v>540</v>
-      </c>
-      <c r="L127" s="56"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="B128" s="67" t="s">
-        <v>527</v>
-      </c>
-      <c r="L128" s="56"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="63"/>
-      <c r="B129" s="67" t="s">
-        <v>529</v>
-      </c>
-      <c r="L129" s="56"/>
-    </row>
-    <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="63"/>
-      <c r="B130" s="67" t="s">
-        <v>596</v>
-      </c>
-      <c r="C130" s="47" t="s">
-        <v>597</v>
-      </c>
-      <c r="L130" s="56"/>
-    </row>
-    <row r="131" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="B131" s="68" t="s">
-        <v>447</v>
-      </c>
-      <c r="C131" s="47" t="s">
-        <v>448</v>
-      </c>
-      <c r="H131" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L131" s="56"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="64"/>
-      <c r="B132" s="68" t="s">
-        <v>525</v>
-      </c>
-      <c r="L132" s="56"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="64"/>
-      <c r="B133" s="68" t="s">
-        <v>530</v>
-      </c>
-      <c r="L133" s="56"/>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="64"/>
-      <c r="B134" s="68" t="s">
-        <v>543</v>
-      </c>
-      <c r="L134" s="56"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="51" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
-        <v>134</v>
-      </c>
+      <c r="L136" s="56"/>
+    </row>
+    <row r="137" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B137" s="4" t="s">
-        <v>455</v>
+        <v>656</v>
       </c>
       <c r="C137" s="47" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+      <c r="L137" s="56"/>
+    </row>
+    <row r="138" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B138" s="4" t="s">
-        <v>456</v>
+        <v>657</v>
       </c>
       <c r="C138" s="47" t="s">
-        <v>441</v>
-      </c>
+        <v>658</v>
+      </c>
+      <c r="L138" s="56"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B139" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C139" s="47" t="s">
+        <v>673</v>
+      </c>
+      <c r="L139" s="56"/>
+    </row>
+    <row r="140" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B140" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="C140" s="47" t="s">
+        <v>714</v>
+      </c>
+      <c r="L140" s="56"/>
+    </row>
+    <row r="141" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B141" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="C141" s="47" t="s">
+        <v>723</v>
+      </c>
+      <c r="L141" s="56"/>
+    </row>
+    <row r="142" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A142" s="73"/>
+      <c r="B142" s="72" t="s">
+        <v>526</v>
+      </c>
+      <c r="C142" s="47" t="s">
+        <v>625</v>
+      </c>
+      <c r="L142" s="56"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="73"/>
+      <c r="B143" s="72"/>
+      <c r="L143" s="56"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="73"/>
+      <c r="B144" s="72" t="s">
+        <v>534</v>
+      </c>
+      <c r="L144" s="56"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="73"/>
+      <c r="B145" s="72" t="s">
+        <v>550</v>
+      </c>
+      <c r="L145" s="56"/>
+    </row>
+    <row r="146" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="73"/>
+      <c r="B146" s="72" t="s">
+        <v>446</v>
+      </c>
+      <c r="C146" s="47" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="73"/>
+      <c r="B147" s="72"/>
+      <c r="L147" s="56"/>
+    </row>
+    <row r="148" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A148" s="73"/>
+      <c r="B148" s="72" t="s">
+        <v>510</v>
+      </c>
+      <c r="C148" s="47" t="s">
+        <v>645</v>
+      </c>
+      <c r="L148" s="56"/>
+    </row>
+    <row r="149" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" s="73"/>
+      <c r="B149" s="72" t="s">
+        <v>800</v>
+      </c>
+      <c r="C149" s="47" t="s">
+        <v>801</v>
+      </c>
+      <c r="L149" s="56"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="73"/>
+      <c r="B150" s="72" t="s">
+        <v>535</v>
+      </c>
+      <c r="C150" s="47" t="s">
+        <v>803</v>
+      </c>
+      <c r="L150" s="56"/>
+    </row>
+    <row r="151" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A151" s="73"/>
+      <c r="B151" s="72" t="s">
+        <v>523</v>
+      </c>
+      <c r="C151" s="47" t="s">
+        <v>802</v>
+      </c>
+      <c r="L151" s="56"/>
+    </row>
+    <row r="152" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="73"/>
+      <c r="B152" s="72" t="s">
+        <v>807</v>
+      </c>
+      <c r="C152" s="47" t="s">
+        <v>808</v>
+      </c>
+      <c r="L152" s="56"/>
+    </row>
+    <row r="153" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" s="73"/>
+      <c r="B153" s="72" t="s">
+        <v>590</v>
+      </c>
+      <c r="C153" s="47" t="s">
+        <v>591</v>
+      </c>
+      <c r="L153" s="56"/>
+    </row>
+    <row r="154" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" s="73"/>
+      <c r="B154" s="72" t="s">
+        <v>444</v>
+      </c>
+      <c r="C154" s="47" t="s">
+        <v>445</v>
+      </c>
+      <c r="L154" s="56"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="73"/>
+      <c r="B155" s="72" t="s">
+        <v>521</v>
+      </c>
+      <c r="L155" s="56"/>
+    </row>
+    <row r="156" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A156" s="73"/>
+      <c r="B156" s="72" t="s">
+        <v>525</v>
+      </c>
+      <c r="C156" s="47" t="s">
+        <v>804</v>
+      </c>
+      <c r="L156" s="56"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" s="73"/>
+      <c r="B157" s="72" t="s">
+        <v>538</v>
+      </c>
+      <c r="L157" s="56"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B158" s="4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" s="51" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C160" s="47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B161" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C161" s="47" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B162" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C162" s="47" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B163" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C163" s="47" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B164" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C164" s="47" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B165" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="C139" s="47" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B140" s="4" t="s">
+      <c r="C165" s="47" t="s">
         <v>458</v>
       </c>
-      <c r="C140" s="47" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B141" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="C141" s="47" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B142" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="C142" s="47" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B143" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="C143" s="47" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B144" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="C144" s="47" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B145" s="4" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B146" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="C146" s="47" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B147" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="C147" s="47" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B148" s="4" t="s">
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B166" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="C166" s="47" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B167" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="C167" s="47" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B168" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B169" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C169" s="47" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B170" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C170" s="47" t="s">
         <v>622</v>
       </c>
-      <c r="C148" s="47" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="59" t="s">
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B171" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="C171" s="47" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="B149" s="70" t="s">
-        <v>494</v>
-      </c>
-      <c r="D149" s="6" t="s">
+      <c r="B172" s="66" t="s">
+        <v>491</v>
+      </c>
+      <c r="D172" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E149" s="50">
+      <c r="E172" s="50">
         <v>135</v>
       </c>
-      <c r="G149" s="50">
+      <c r="G172" s="50">
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A150" s="59"/>
-      <c r="B150" s="70" t="s">
-        <v>565</v>
-      </c>
-      <c r="C150" s="47" t="s">
-        <v>564</v>
-      </c>
-      <c r="D150" s="6" t="s">
+    <row r="173" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A173" s="59"/>
+      <c r="B173" s="66" t="s">
+        <v>559</v>
+      </c>
+      <c r="C173" s="47" t="s">
+        <v>558</v>
+      </c>
+      <c r="D173" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E150" s="50">
+      <c r="E173" s="50">
         <v>25</v>
       </c>
-      <c r="G150" s="50">
+      <c r="G173" s="50">
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="60" t="s">
+    <row r="174" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="B151" s="69" t="s">
-        <v>493</v>
-      </c>
-      <c r="C151" s="47" t="s">
-        <v>425</v>
-      </c>
-      <c r="D151" s="6" t="s">
+      <c r="B174" s="65" t="s">
+        <v>490</v>
+      </c>
+      <c r="C174" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="D174" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E151" s="50">
+      <c r="E174" s="50">
         <v>120</v>
       </c>
-      <c r="G151" s="50">
+      <c r="G174" s="50">
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="61" t="s">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="B152" s="69" t="s">
-        <v>495</v>
-      </c>
-      <c r="D152" s="6" t="s">
+      <c r="B175" s="65" t="s">
+        <v>492</v>
+      </c>
+      <c r="D175" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E152" s="50">
+      <c r="E175" s="50">
         <v>140</v>
       </c>
-      <c r="G152" s="50">
+      <c r="G175" s="50">
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="62"/>
-      <c r="B153" s="69" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="62" t="s">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="62"/>
+      <c r="B176" s="65" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="B154" s="69" t="s">
-        <v>492</v>
-      </c>
-      <c r="D154" s="6" t="s">
+      <c r="B177" s="65" t="s">
+        <v>489</v>
+      </c>
+      <c r="D177" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E154" s="50">
+      <c r="E177" s="50">
         <v>135</v>
       </c>
-      <c r="G154" s="50">
+      <c r="G177" s="50">
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="63" t="s">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="63" t="s">
         <v>190</v>
       </c>
-      <c r="B155" s="69" t="s">
-        <v>491</v>
-      </c>
-      <c r="D155" s="6" t="s">
+      <c r="B178" s="65" t="s">
+        <v>488</v>
+      </c>
+      <c r="D178" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E155" s="50">
+      <c r="E178" s="50">
         <v>140</v>
       </c>
-      <c r="G155" s="50">
+      <c r="G178" s="50">
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="64" t="s">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="B156" s="69"/>
-      <c r="D156" s="6" t="s">
+      <c r="B179" s="65"/>
+      <c r="D179" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E156" s="50">
+      <c r="E179" s="50">
         <v>135</v>
       </c>
-      <c r="G156" s="50">
+      <c r="G179" s="50">
         <v>4</v>
       </c>
     </row>
@@ -11051,12 +12188,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11648,7 +12785,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="6">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>18</v>
@@ -11981,13 +13118,13 @@
         <v>189</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C45" s="8">
         <v>1</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>11</v>
@@ -12004,62 +13141,65 @@
         <v>9</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>14</v>
+        <v>719</v>
       </c>
       <c r="C46" s="8">
         <v>2</v>
       </c>
+      <c r="D46" s="5" t="s">
+        <v>720</v>
+      </c>
       <c r="E46" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F46" s="6">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G46" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>56</v>
+        <v>9</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C47" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>58</v>
+        <v>442</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F47" s="6">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C48" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F48" s="6">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>39</v>
@@ -12067,71 +13207,68 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>578</v>
+        <v>38</v>
       </c>
       <c r="C49" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>423</v>
+        <v>59</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F49" s="6">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>40</v>
+        <v>572</v>
       </c>
       <c r="C50" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>54</v>
+        <v>422</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F50" s="6">
-        <v>75</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C51" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F51" s="6">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G51" s="13" t="s">
         <v>41</v>
@@ -12140,64 +13277,67 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
+    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="8">
+        <v>1</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="6">
+        <v>80</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="C54" s="8">
-        <v>2</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="6">
-        <v>40</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>97</v>
+        <v>429</v>
       </c>
       <c r="C55" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F55" s="6">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G55" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C56" s="8">
         <v>1</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="E56" s="6" t="s">
         <v>0</v>
       </c>
@@ -12208,110 +13348,113 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="12"/>
-      <c r="G57" s="10" t="s">
-        <v>19</v>
+    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="8">
+        <v>1</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" s="6">
+        <v>45</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="6">
-        <v>40</v>
-      </c>
+      <c r="B58" s="12"/>
       <c r="G58" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H58" s="5"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" s="8">
-        <v>1</v>
+        <v>430</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>431</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F59" s="6">
-        <v>65</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="C60" s="8">
-        <v>2</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F60" s="6">
+        <v>65</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" s="8">
+        <v>2</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="6">
         <v>70</v>
       </c>
-      <c r="G60" s="13" t="s">
+      <c r="G61" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" t="s">
+    <row r="63" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C63" s="8">
-        <v>1</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F63" s="6">
-        <v>45</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C64" s="8">
         <v>1</v>
@@ -12320,38 +13463,35 @@
         <v>0</v>
       </c>
       <c r="F64" s="6">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="B65" s="12" t="s">
-        <v>429</v>
+        <v>115</v>
+      </c>
+      <c r="C65" s="8">
+        <v>1</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F65" s="6">
+        <v>55</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>1</v>
-      </c>
       <c r="B66" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C66" s="8">
-        <v>1</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F66" s="6">
-        <v>40</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>18</v>
+        <v>428</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -12359,22 +13499,22 @@
         <v>1</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C67" s="8">
         <v>1</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F67" s="6">
-        <v>55</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>19</v>
+        <v>40</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -12382,36 +13522,36 @@
         <v>1</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C68" s="8">
         <v>1</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F68" s="6">
-        <v>65</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C69" s="8">
         <v>1</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>0</v>
@@ -12425,22 +13565,22 @@
     </row>
     <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="C70" s="8">
         <v>1</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F70" s="6">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="G70" s="11" t="s">
         <v>39</v>
@@ -12451,136 +13591,159 @@
         <v>6</v>
       </c>
       <c r="B71" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C71" s="8">
+        <v>1</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F71" s="6">
+        <v>80</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C72" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D72" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E72" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F72" s="6">
         <v>65</v>
       </c>
-      <c r="G71" s="13" t="s">
+      <c r="G72" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="H72" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
+    <row r="74" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="49"/>
-      <c r="B74" s="12"/>
-      <c r="G74" s="9" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="49"/>
+      <c r="B75" s="12"/>
+      <c r="G75" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B75" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="C75" s="8">
+      <c r="B76" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="C76" s="8">
         <v>2</v>
       </c>
-      <c r="G75" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="12"/>
       <c r="G76" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B77" s="12"/>
-      <c r="G77" s="11" t="s">
+      <c r="G77" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="12"/>
+      <c r="G78" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="12" t="s">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="G78" s="13" t="s">
+      <c r="G79" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="s">
+    <row r="81" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B82" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C81" s="8">
+      <c r="C82" s="8">
         <v>1</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E82" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F82" s="6">
         <v>45</v>
       </c>
-      <c r="G81" s="6" t="s">
+      <c r="G82" s="6" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B82" s="12"/>
-      <c r="G82" s="9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B83" s="12"/>
-      <c r="G83" s="10" t="s">
-        <v>19</v>
+      <c r="G83" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B84" s="12"/>
-      <c r="G84" s="11" t="s">
+      <c r="G84" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="12"/>
+      <c r="G85" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B86" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C85" s="8">
+      <c r="C86" s="8">
         <v>1</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D86" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="E86" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F86" s="6">
         <v>70</v>
       </c>
-      <c r="G85" s="13" t="s">
+      <c r="G86" s="13" t="s">
         <v>41</v>
       </c>
     </row>
@@ -12591,11 +13754,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A41" sqref="A31:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12775,7 +13938,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>730</v>
+        <v>709</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -12785,32 +13948,32 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -12818,12 +13981,12 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
-        <v>727</v>
+        <v>707</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -12863,7 +14026,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -12873,7 +14036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">

--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="887">
   <si>
     <t>physical</t>
   </si>
@@ -1474,9 +1474,6 @@
     <t>Flash Freeze</t>
   </si>
   <si>
-    <t>Inflicts Stun(1) on target.</t>
-  </si>
-  <si>
     <t>Cold Immune</t>
   </si>
   <si>
@@ -1690,18 +1687,12 @@
     <t>High critical hit chance.</t>
   </si>
   <si>
-    <t>Inflicts Bleed(3) on target.</t>
-  </si>
-  <si>
     <t>Smite</t>
   </si>
   <si>
     <t>After combat gain a shield equal to 100% damage dealt.</t>
   </si>
   <si>
-    <t>Shield all allies for 10% of their max health.</t>
-  </si>
-  <si>
     <t>Targets 4 random units on the battlefield. Allies are healed for 15% of their max health, and enemies take damage and inflicted with Silence(1).</t>
   </si>
   <si>
@@ -1717,9 +1708,6 @@
     <t>Hellwurm</t>
   </si>
   <si>
-    <t>Inflicts Swarm(2) on target. (Swarm: target takes 40% increased damage from Swarm ability.)</t>
-  </si>
-  <si>
     <t>Dark Binding</t>
   </si>
   <si>
@@ -1897,9 +1885,6 @@
     <t>Immune to Poison. Increases damage dealth to Poisoned targets (20%).</t>
   </si>
   <si>
-    <t>Damages all enemies and has a chance (15%) to inflict Stun(1) on each target.</t>
-  </si>
-  <si>
     <t>Thundering Blow</t>
   </si>
   <si>
@@ -1912,9 +1897,6 @@
     <t>Has a chance (50%) to inflict Poison(4) on target.</t>
   </si>
   <si>
-    <t>High critical hit chance doubled, 90% against Burned targets).</t>
-  </si>
-  <si>
     <t>Execute</t>
   </si>
   <si>
@@ -1936,12 +1918,6 @@
     <t>self</t>
   </si>
   <si>
-    <t>Increases Amr/Res.</t>
-  </si>
-  <si>
-    <t>Increase all allies Str/Fcs/Spd.</t>
-  </si>
-  <si>
     <t>Heal target ally (100% unit's Focus).</t>
   </si>
   <si>
@@ -1963,9 +1939,6 @@
     <t>Immune to damage over time effects like Bleed, Burn, and Poison.</t>
   </si>
   <si>
-    <t>Has a 50% chance to inflict Stun(1) or Silence(1) on target.</t>
-  </si>
-  <si>
     <t>Shadow Swap</t>
   </si>
   <si>
@@ -2017,9 +1990,6 @@
     <t>Hasten</t>
   </si>
   <si>
-    <t>Increase target Speed (50%).</t>
-  </si>
-  <si>
     <t>Annihilate</t>
   </si>
   <si>
@@ -2053,9 +2023,6 @@
     <t>Taunt</t>
   </si>
   <si>
-    <t>Lower target Amr/Res (20%).</t>
-  </si>
-  <si>
     <t>Psychic Shackle</t>
   </si>
   <si>
@@ -2074,12 +2041,6 @@
     <t>debuff</t>
   </si>
   <si>
-    <t>Shield target ally (40% Strength) and increase Spd/Str/Fcs (10% Strength).</t>
-  </si>
-  <si>
-    <t>Increase target ally highgest stat by (10%).</t>
-  </si>
-  <si>
     <t>Damages all front line enemies and inflict Bleed(1).</t>
   </si>
   <si>
@@ -2101,9 +2062,6 @@
     <t>burn</t>
   </si>
   <si>
-    <t>Also damages unit directly behidn target.</t>
-  </si>
-  <si>
     <t>Combat</t>
   </si>
   <si>
@@ -2155,9 +2113,6 @@
     <t>Adaptive Blow</t>
   </si>
   <si>
-    <t>If units Health &gt; 50%, deals increased (1.5x) damage. Otherwise, unit heals for (80%) damage dealt.</t>
-  </si>
-  <si>
     <t>Energy Void</t>
   </si>
   <si>
@@ -2224,9 +2179,6 @@
     <t>Rekindle</t>
   </si>
   <si>
-    <t>Cures all allies of Status Conditions and inflicts Burn(2) on a random enemy for each ally healed.</t>
-  </si>
-  <si>
     <t>damage, silence</t>
   </si>
   <si>
@@ -2332,9 +2284,6 @@
     <t>Expunge</t>
   </si>
   <si>
-    <t>If target is Poisoned, removes all stacks of poison and greatly increases damage for each stack removed.</t>
-  </si>
-  <si>
     <t>Power Swap</t>
   </si>
   <si>
@@ -2350,18 +2299,12 @@
     <t>Toxic Cloud</t>
   </si>
   <si>
-    <t>Inflicts Poison(4) on target and all adjacent enemies.</t>
-  </si>
-  <si>
     <t>Inflicts Burn(2) on target. Ignores 20% of target's Resistance.</t>
   </si>
   <si>
     <t>Inflicts Stun(2) on target. Ignores 20% of target's Resistance.</t>
   </si>
   <si>
-    <t>Has a chance(75) to inflict Stun(1) on target.</t>
-  </si>
-  <si>
     <t>Whirlwind</t>
   </si>
   <si>
@@ -2395,24 +2338,15 @@
     <t>Incantation</t>
   </si>
   <si>
-    <t>Heal target ally (15% unit's Health) and increase Amr/Res(1).</t>
-  </si>
-  <si>
     <t>heal, buff</t>
   </si>
   <si>
     <t>Brilliant Cloudburst</t>
   </si>
   <si>
-    <t>Heal all Backline allies for (40% units Focus) and increase Str/Fcs by 1.</t>
-  </si>
-  <si>
     <t>Warding Rapture</t>
   </si>
   <si>
-    <t>Shield target ally for 100% of their max Health and increase Amr/Res by 2.</t>
-  </si>
-  <si>
     <t>Rolling Fortress</t>
   </si>
   <si>
@@ -2485,9 +2419,6 @@
     <t>Menacing Dredge</t>
   </si>
   <si>
-    <t>Decreases target Speed by 3.</t>
-  </si>
-  <si>
     <t>Umbral Drip</t>
   </si>
   <si>
@@ -2621,6 +2552,150 @@
   </si>
   <si>
     <t>Increases unit's Amr/Res by two.</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>VPE</t>
+  </si>
+  <si>
+    <t>Shield target ally (50% Strength) and increase Spd/Str/Fcs by one.</t>
+  </si>
+  <si>
+    <t>Increase target Speed by three.</t>
+  </si>
+  <si>
+    <t>Increase target ally highest stat by (10%).</t>
+  </si>
+  <si>
+    <t>Inflicts Swarm(2) on target. (Swarm: target takes 50% increased damage from Swarm ability.)</t>
+  </si>
+  <si>
+    <t>If target is Poisoned, removes all stacks of poison and greatly increases damage dealt for each stack removed (20 per stack).</t>
+  </si>
+  <si>
+    <t>Shield all allies for 10% of unit's max health.</t>
+  </si>
+  <si>
+    <t>Increases Amr/Res by two.</t>
+  </si>
+  <si>
+    <t>Heal target ally (15% unit's Health) and increase Str/Fcs/Amr/Res(1).</t>
+  </si>
+  <si>
+    <t>If units Health &gt; 50%, deals increased (2x) damage. Otherwise, unit heals for (80%) damage dealt.</t>
+  </si>
+  <si>
+    <t>Also damages unit directly behind target.</t>
+  </si>
+  <si>
+    <t>Inflicts Poison(2) on target and all adjacent enemies.</t>
+  </si>
+  <si>
+    <t>Increase all allies Spd by 1 and Heal for 10% max health.</t>
+  </si>
+  <si>
+    <t>Has a chance(75) to inflict Stun(2) on target.</t>
+  </si>
+  <si>
+    <t>Has a 50% chance to inflict Stun(2) or Silence(2) on target.</t>
+  </si>
+  <si>
+    <t>Damages all enemies and has a chance (10%) to inflict Stun(1) on each target.</t>
+  </si>
+  <si>
+    <t>Cures all allies of Status Conditions and stat debuffs and inflicts Burn(2) on a random enemy for each ally healed.</t>
+  </si>
+  <si>
+    <t>Stat Modifiers</t>
+  </si>
+  <si>
+    <t>4/2</t>
+  </si>
+  <si>
+    <t>4/9</t>
+  </si>
+  <si>
+    <t>4/10</t>
+  </si>
+  <si>
+    <t>3/2</t>
+  </si>
+  <si>
+    <t>9/4</t>
+  </si>
+  <si>
+    <t>10/4</t>
+  </si>
+  <si>
+    <t>11/4</t>
+  </si>
+  <si>
+    <t>12/4</t>
+  </si>
+  <si>
+    <t>13/4</t>
+  </si>
+  <si>
+    <t>14/4</t>
+  </si>
+  <si>
+    <t>15/4</t>
+  </si>
+  <si>
+    <t>16/4</t>
+  </si>
+  <si>
+    <t>2/2</t>
+  </si>
+  <si>
+    <t>2/4</t>
+  </si>
+  <si>
+    <t>2/3</t>
+  </si>
+  <si>
+    <t>4/11</t>
+  </si>
+  <si>
+    <t>4/12</t>
+  </si>
+  <si>
+    <t>4/13</t>
+  </si>
+  <si>
+    <t>4/14</t>
+  </si>
+  <si>
+    <t>4/15</t>
+  </si>
+  <si>
+    <t>4/16</t>
+  </si>
+  <si>
+    <t>typhoon</t>
+  </si>
+  <si>
+    <t>Shield target ally for 100% of their max Health and increase Amr/Res by 1.</t>
+  </si>
+  <si>
+    <t>Heal all allies for 15% of unit's Focus.</t>
+  </si>
+  <si>
+    <t>Heal all Backline allies for (30% units Focus) and increase Str/Fcs by 1.</t>
+  </si>
+  <si>
+    <t>Decreases target Speed by 2.</t>
+  </si>
+  <si>
+    <t>High critical hit chance doubled (90%) against Burned targets).</t>
+  </si>
+  <si>
+    <t>Inflicts Bleed(4) on target and decreases Speed by 1.</t>
+  </si>
+  <si>
+    <t>Lowers all of target's stats by one.</t>
   </si>
 </sst>
 </file>
@@ -2919,7 +2994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3101,6 +3176,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4400,7 +4478,7 @@
         <v>278</v>
       </c>
       <c r="O5" s="70" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -4469,10 +4547,10 @@
         <v>208</v>
       </c>
       <c r="N7" s="70" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="O7" s="67" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -4640,7 +4718,7 @@
         <v>257</v>
       </c>
       <c r="O12" s="70" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -4676,10 +4754,10 @@
         <v>258</v>
       </c>
       <c r="N13" s="70" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O13" s="70" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="P13" t="s">
         <v>292</v>
@@ -4754,10 +4832,10 @@
         <v>334</v>
       </c>
       <c r="K15" s="65" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O15" s="65" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -4793,10 +4871,10 @@
         <v>327</v>
       </c>
       <c r="K16" s="65" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O16" s="65" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -4832,7 +4910,7 @@
         <v>355</v>
       </c>
       <c r="K17" s="65" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -4934,16 +5012,16 @@
         <v>356</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="L20" s="71" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="N20" s="65" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="O20" s="65" t="s">
         <v>446</v>
@@ -4982,16 +5060,16 @@
         <v>356</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="L21" s="71" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="N21" s="65" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="O21" s="65" t="s">
         <v>446</v>
@@ -5030,7 +5108,7 @@
         <v>392</v>
       </c>
       <c r="O22" s="67" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -5066,7 +5144,7 @@
         <v>434</v>
       </c>
       <c r="N23" s="67" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -5102,7 +5180,7 @@
         <v>390</v>
       </c>
       <c r="N24" s="67" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -5138,19 +5216,19 @@
         <v>271</v>
       </c>
       <c r="K26" s="66" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="L26" s="57" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M26" s="65" t="s">
         <v>446</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="O26" s="66" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -5186,13 +5264,13 @@
         <v>257</v>
       </c>
       <c r="K27" s="66" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="M27" s="66" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O27" s="65" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -5228,7 +5306,7 @@
         <v>267</v>
       </c>
       <c r="K28" s="66" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="P28" t="s">
         <v>347</v>
@@ -5267,7 +5345,7 @@
         <v>281</v>
       </c>
       <c r="K29" s="66" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -5303,10 +5381,10 @@
         <v>315</v>
       </c>
       <c r="K30" s="66" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M30" s="66" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -5342,13 +5420,13 @@
         <v>285</v>
       </c>
       <c r="K31" s="66" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="N31" s="66" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -5384,13 +5462,13 @@
         <v>264</v>
       </c>
       <c r="K32" s="66" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="M32" s="66" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -5426,10 +5504,10 @@
         <v>274</v>
       </c>
       <c r="K33" s="66" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="L33" s="66" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="P33" t="s">
         <v>253</v>
@@ -5468,10 +5546,10 @@
         <v>373</v>
       </c>
       <c r="K34" s="66" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="N34" s="70" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -5507,7 +5585,7 @@
         <v>352</v>
       </c>
       <c r="L35" s="66" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -5869,7 +5947,7 @@
         <v>188</v>
       </c>
       <c r="C46" s="44" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D46" s="28">
         <v>99</v>
@@ -5894,16 +5972,16 @@
         <v>494</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="L46" s="66" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="M46" s="70" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
       <c r="N46" s="66" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -5914,7 +5992,7 @@
         <v>188</v>
       </c>
       <c r="C47" s="44" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D47" s="28">
         <v>99</v>
@@ -5939,10 +6017,10 @@
         <v>480</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="M47" s="70" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -5953,7 +6031,7 @@
         <v>188</v>
       </c>
       <c r="C48" s="44" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D48" s="28">
         <v>110</v>
@@ -5978,19 +6056,19 @@
         <v>551</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="M48" s="70" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
       <c r="N48" s="70" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="O48" s="68" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -6062,7 +6140,7 @@
         <v>392</v>
       </c>
       <c r="K51" s="65" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -6098,7 +6176,7 @@
         <v>397</v>
       </c>
       <c r="O52" s="70" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -6134,7 +6212,7 @@
         <v>346</v>
       </c>
       <c r="K53" s="67" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -6170,10 +6248,10 @@
         <v>366</v>
       </c>
       <c r="K54" s="65" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O54" s="68" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -6209,10 +6287,10 @@
         <v>338</v>
       </c>
       <c r="K55" s="65" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O55" s="68" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -6248,10 +6326,10 @@
         <v>295</v>
       </c>
       <c r="K56" s="65" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O56" s="68" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -6287,7 +6365,7 @@
         <v>401</v>
       </c>
       <c r="M57" s="67" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P57" t="s">
         <v>287</v>
@@ -6365,7 +6443,7 @@
         <v>333</v>
       </c>
       <c r="M59" s="67" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P59" t="s">
         <v>287</v>
@@ -6407,7 +6485,7 @@
         <v>443</v>
       </c>
       <c r="K60" s="67" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P60" t="s">
         <v>288</v>
@@ -6446,10 +6524,10 @@
         <v>451</v>
       </c>
       <c r="K61" s="66" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="M61" s="67" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -6485,7 +6563,7 @@
         <v>494</v>
       </c>
       <c r="K62" s="67" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P62" t="s">
         <v>294</v>
@@ -6524,7 +6602,7 @@
         <v>445</v>
       </c>
       <c r="K63" s="69" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -6560,7 +6638,7 @@
         <v>428</v>
       </c>
       <c r="N64" s="67" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="P64" t="s">
         <v>413</v>
@@ -6599,7 +6677,7 @@
         <v>381</v>
       </c>
       <c r="N65" s="67" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="P65" t="s">
         <v>413</v>
@@ -6638,7 +6716,7 @@
         <v>456</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -6677,7 +6755,7 @@
         <v>402</v>
       </c>
       <c r="N68" s="71" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="P68" t="s">
         <v>215</v>
@@ -6716,7 +6794,7 @@
         <v>392</v>
       </c>
       <c r="K69" s="65" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -6785,7 +6863,7 @@
         <v>400</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="P71" t="s">
         <v>259</v>
@@ -6824,7 +6902,7 @@
         <v>313</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="P72" t="s">
         <v>261</v>
@@ -6932,13 +7010,13 @@
         <v>367</v>
       </c>
       <c r="K75" s="71" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="N75" s="71" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="O75" s="69" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -7010,16 +7088,16 @@
         <v>328</v>
       </c>
       <c r="K77" s="71" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="L77" s="69" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M77" s="70" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="P77" t="s">
         <v>303</v>
@@ -7061,16 +7139,16 @@
         <v>423</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="M78" s="66" t="s">
         <v>448</v>
       </c>
       <c r="N78" s="70" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="O78" s="66" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P78" t="s">
         <v>304</v>
@@ -7109,13 +7187,13 @@
         <v>519</v>
       </c>
       <c r="K79" s="69" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="L79" s="72" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="M79" s="71" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="P79" t="s">
         <v>302</v>
@@ -7154,7 +7232,7 @@
         <v>429</v>
       </c>
       <c r="K80" s="71" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="P80" t="s">
         <v>318</v>
@@ -7193,7 +7271,7 @@
         <v>428</v>
       </c>
       <c r="O81" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -7229,10 +7307,10 @@
         <v>351</v>
       </c>
       <c r="L83" s="65" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O83" s="69" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -7268,10 +7346,10 @@
         <v>379</v>
       </c>
       <c r="K84" s="70" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="N84" s="70" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -7307,13 +7385,13 @@
         <v>367</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="N85" s="69" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="O85" s="70" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -7349,16 +7427,16 @@
         <v>401</v>
       </c>
       <c r="L86" s="70" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M86" s="69" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N86" s="70" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="O86" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -7394,10 +7472,10 @@
         <v>412</v>
       </c>
       <c r="K87" s="69" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N87" s="70" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -7433,7 +7511,7 @@
         <v>381</v>
       </c>
       <c r="L88" s="71" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -7469,7 +7547,7 @@
         <v>395</v>
       </c>
       <c r="L89" s="71" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -7541,10 +7619,10 @@
         <v>387</v>
       </c>
       <c r="L91" s="69" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O91" s="69" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -7580,10 +7658,10 @@
         <v>392</v>
       </c>
       <c r="L92" s="70" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N92" s="70" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -7619,10 +7697,10 @@
         <v>318</v>
       </c>
       <c r="N94" s="69" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="O94" s="66" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -7658,19 +7736,19 @@
         <v>402</v>
       </c>
       <c r="K95" s="70" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="L95" s="71" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
       <c r="N95" s="70" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O95" s="71" t="s">
-        <v>718</v>
+        <v>703</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -7706,16 +7784,16 @@
         <v>415</v>
       </c>
       <c r="K96" s="71" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="M96" s="69" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N96" s="66" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O96" s="65" t="s">
         <v>446</v>
@@ -7757,16 +7835,16 @@
         <v>435</v>
       </c>
       <c r="K97" s="71" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="M97" s="69" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N97" s="71" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="O97" s="65" t="s">
         <v>446</v>
@@ -7808,13 +7886,13 @@
         <v>435</v>
       </c>
       <c r="K98" s="71" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="M98" s="69" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N98" s="68" t="s">
         <v>433</v>
@@ -7859,7 +7937,7 @@
         <v>396</v>
       </c>
       <c r="L99" s="71" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="P99" t="s">
         <v>309</v>
@@ -7898,7 +7976,7 @@
         <v>431</v>
       </c>
       <c r="K100" s="65" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -7934,10 +8012,10 @@
         <v>640</v>
       </c>
       <c r="K101" s="71" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M101" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -7973,16 +8051,16 @@
         <v>670</v>
       </c>
       <c r="K102" s="71" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="L102" s="66" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M102" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="N102" s="71" t="s">
-        <v>718</v>
+        <v>703</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -8018,7 +8096,7 @@
         <v>735</v>
       </c>
       <c r="K103" s="65" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -8054,10 +8132,10 @@
         <v>700</v>
       </c>
       <c r="K104" s="71" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M104" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -8093,10 +8171,10 @@
         <v>700</v>
       </c>
       <c r="K105" s="71" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M105" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -8132,10 +8210,10 @@
         <v>867</v>
       </c>
       <c r="K106" s="71" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M106" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -8171,7 +8249,7 @@
         <v>459</v>
       </c>
       <c r="N108" s="70" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -8210,10 +8288,10 @@
         <v>478</v>
       </c>
       <c r="L109" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="M109" s="65" t="s">
         <v>480</v>
-      </c>
-      <c r="M109" s="65" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -8252,16 +8330,16 @@
         <v>478</v>
       </c>
       <c r="L110" s="65" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M110" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N110" s="68" t="s">
         <v>434</v>
       </c>
       <c r="O110" s="69" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -8300,10 +8378,10 @@
         <v>445</v>
       </c>
       <c r="N111" s="67" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O111" s="4" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -8342,7 +8420,7 @@
         <v>445</v>
       </c>
       <c r="O112" s="4" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -8378,7 +8456,7 @@
         <v>501</v>
       </c>
       <c r="O113" s="67" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -8414,7 +8492,7 @@
         <v>446</v>
       </c>
       <c r="N114" s="66" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P114" t="s">
         <v>4</v>
@@ -8489,7 +8567,7 @@
         <v>386</v>
       </c>
       <c r="L116" s="69" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="P116" t="s">
         <v>305</v>
@@ -8891,10 +8969,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G84"/>
+  <dimension ref="A2:G107"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9000,67 +9078,67 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="B19" s="56"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="B20" s="56"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="B21" s="56"/>
     </row>
     <row r="22" spans="1:2">
       <c r="B22" s="56" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="B23" s="56" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" s="56" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="B25" s="56"/>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" s="56" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="B27" s="56" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="B28" s="56"/>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" s="56" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="B30" s="56" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -9103,33 +9181,33 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>819</v>
+        <v>796</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="C48">
-        <f>COUNTIF(Skills!H2:H122, "*")</f>
-        <v>115</v>
+        <f>COUNTIF(Skills!J2:J122, "*")</f>
+        <v>114</v>
       </c>
       <c r="D48">
         <f>COUNT(Skills!G2:G122)</f>
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F48" s="75" t="s">
-        <v>837</v>
+        <v>814</v>
       </c>
       <c r="G48" s="76"/>
     </row>
@@ -9139,62 +9217,62 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="C50">
-        <f>COUNTIF(Skills!$H$2:$H$122, "*damage*")</f>
-        <v>90</v>
+        <f>COUNTIF(Skills!$J$2:$J$122, "*damage*")</f>
+        <v>89</v>
       </c>
       <c r="F50" s="77" t="s">
-        <v>841</v>
+        <v>818</v>
       </c>
       <c r="G50" s="78">
         <f>COUNTIF(Skills!$G$2:$G$122, "1")</f>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="C51">
-        <f>COUNTIF(Skills!$H$2:$H$122, "*heal*")</f>
+        <f>COUNTIF(Skills!$J$2:$J$122, "*heal*")</f>
         <v>10</v>
       </c>
       <c r="F51" s="77" t="s">
-        <v>838</v>
+        <v>815</v>
       </c>
       <c r="G51" s="78">
         <f>COUNTIF(Skills!$G$2:$G$122, "2")</f>
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="C52">
-        <f>COUNTIF(Skills!$H$2:$H$122, "*shield*")</f>
+        <f>COUNTIF(Skills!$J$2:$J$122, "*shield*")</f>
         <v>7</v>
       </c>
       <c r="F52" s="77" t="s">
-        <v>839</v>
+        <v>816</v>
       </c>
       <c r="G52" s="78">
         <f>COUNTIF(Skills!$G$2:$G$122, "3")</f>
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="C53">
-        <f>COUNTIF(Skills!$H$2:$H$122, "* buff*")</f>
+        <f>COUNTIF(Skills!$J$2:$J$122, "* buff*")</f>
         <v>16</v>
       </c>
       <c r="F53" s="79" t="s">
-        <v>840</v>
+        <v>817</v>
       </c>
       <c r="G53" s="80">
         <f>COUNTIF(Skills!$G$2:$G$122, "4")</f>
@@ -9203,29 +9281,32 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="C54">
-        <f>COUNTIF(Skills!$H$2:$H$122, "*debuff*")</f>
+        <f>COUNTIF(Skills!$J$2:$J$122, "*debuff*")</f>
         <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="C55">
         <f>SUM(C56:C64)</f>
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="C56">
-        <f>COUNTIF(Skills!$H$2:$H$122, "*bleed*")</f>
+        <f>COUNTIF(Skills!$J$2:$J$122, "*bleed*")</f>
         <v>12</v>
+      </c>
+      <c r="E56">
+        <v>15</v>
       </c>
       <c r="F56" s="17" t="s">
         <v>52</v>
@@ -9233,11 +9314,14 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="C57">
-        <f>COUNTIF(Skills!$H$2:$H$122, "*stun*")</f>
-        <v>11</v>
+        <f>COUNTIF(Skills!$J$2:$J$122, "*stun*")</f>
+        <v>10</v>
+      </c>
+      <c r="E57">
+        <v>20</v>
       </c>
       <c r="F57" s="17" t="s">
         <v>53</v>
@@ -9245,11 +9329,14 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="C58">
-        <f>COUNTIF(Skills!$H$2:$H$122, "*sleep*")</f>
+        <f>COUNTIF(Skills!$J$2:$J$122, "*sleep*")</f>
         <v>5</v>
+      </c>
+      <c r="E58">
+        <v>15</v>
       </c>
       <c r="F58" s="17" t="s">
         <v>144</v>
@@ -9257,12 +9344,15 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="B59" s="17"/>
       <c r="C59">
-        <f>COUNTIF(Skills!$H$2:$H$122, "*silence*")</f>
+        <f>COUNTIF(Skills!$J$2:$J$122, "*silence*")</f>
         <v>9</v>
+      </c>
+      <c r="E59">
+        <v>15</v>
       </c>
       <c r="F59" s="17" t="s">
         <v>145</v>
@@ -9270,80 +9360,92 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="B60" s="17"/>
       <c r="C60">
-        <f>COUNTIF(Skills!$H$2:$H$122, "*burn*")</f>
+        <f>COUNTIF(Skills!$J$2:$J$122, "*burn*")</f>
         <v>11</v>
       </c>
+      <c r="E60">
+        <v>15</v>
+      </c>
       <c r="F60" s="17" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="B61" s="17"/>
       <c r="C61">
-        <f>COUNTIF(Skills!$H$2:$H$122, "*poison*")</f>
+        <f>COUNTIF(Skills!$J$2:$J$122, "*poison*")</f>
         <v>8</v>
       </c>
+      <c r="E61">
+        <v>15</v>
+      </c>
       <c r="F61" s="17" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="B62" s="17"/>
       <c r="C62">
-        <f>COUNTIF(Skills!$H$2:$H$122, "*bind*")</f>
+        <f>COUNTIF(Skills!$J$2:$J$122, "*bind*")</f>
         <v>2</v>
       </c>
+      <c r="E62">
+        <v>10</v>
+      </c>
       <c r="F62" s="17" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="B63" s="17"/>
       <c r="C63">
-        <f>COUNTIF(Skills!$H$2:$H$122, "*curse*")</f>
+        <f>COUNTIF(Skills!$J$2:$J$122, "*curse*")</f>
         <v>2</v>
       </c>
+      <c r="E63">
+        <v>40</v>
+      </c>
       <c r="F63" s="17" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>844</v>
+        <v>821</v>
       </c>
       <c r="B64" s="17"/>
       <c r="C64">
-        <f>COUNTIF(Skills!$H$2:$H$122, "*energy*")</f>
+        <f>COUNTIF(Skills!$J$2:$J$122, "*energy*")</f>
         <v>3</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="B65" s="17"/>
       <c r="C65">
-        <f>COUNTIF(Skills!$H$2:$H$122, "*move*")</f>
+        <f>COUNTIF(Skills!$J$2:$J$122, "*move*")</f>
         <v>2</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -9351,70 +9453,70 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>834</v>
+        <v>811</v>
       </c>
       <c r="C67">
-        <f>COUNTIF(Skills!H132:H167, "**")</f>
+        <f>COUNTIF(Skills!J134:J169, "**")</f>
         <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="C69">
-        <f>COUNTIF(Skills!$H$132:$H$167, "*damage*")</f>
+        <f>COUNTIF(Skills!$J$134:$J$169, "*damage*")</f>
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>826</v>
+        <v>803</v>
       </c>
       <c r="C70">
-        <f>COUNTIF(Skills!$H$132:$H$167, "*immune*")</f>
+        <f>COUNTIF(Skills!$J$134:$J$169, "*immune*")</f>
         <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="C71">
-        <f>COUNTIF(Skills!$H$132:$H$167, "*heal*")</f>
+        <f>COUNTIF(Skills!$J$134:$J$169, "*heal*")</f>
         <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="C72">
-        <f>COUNTIF(Skills!$H$132:$H$167, "*shield*")</f>
+        <f>COUNTIF(Skills!$J$134:$J$169, "*shield*")</f>
         <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="C73">
-        <f>COUNTIF(Skills!$H$132:$H$167, "* buff*")</f>
+        <f>COUNTIF(Skills!$J$134:$J$169, "* buff*")</f>
         <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="C74">
-        <f>COUNTIF(Skills!$H$132:$H$167, "*debuff*")</f>
+        <f>COUNTIF(Skills!$J$134:$J$169, "*debuff*")</f>
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="C75">
         <f>SUM(C76:C84)</f>
@@ -9423,83 +9525,329 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="C76">
-        <f>COUNTIF(Skills!$H$132:$H$167, "*bleed*")</f>
+        <f>COUNTIF(Skills!$J$134:$J$169, "*bleed*")</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="C77">
-        <f>COUNTIF(Skills!$H$132:$H$167, "*stun*")</f>
+        <f>COUNTIF(Skills!$J$134:$J$169, "*stun*")</f>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="C78">
-        <f>COUNTIF(Skills!$H$132:$H$167, "*sleep*")</f>
+        <f>COUNTIF(Skills!$J$134:$J$169, "*sleep*")</f>
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="C79">
-        <f>COUNTIF(Skills!$H$132:$H$167, "*silence*")</f>
+        <f>COUNTIF(Skills!$J$134:$J$169, "*silence*")</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="C80">
-        <f>COUNTIF(Skills!$H$132:$H$167, "*burn*")</f>
+        <f>COUNTIF(Skills!$J$134:$J$169, "*burn*")</f>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="C81">
-        <f>COUNTIF(Skills!$H$132:$H$167, "*poison*")</f>
+        <f>COUNTIF(Skills!$J$134:$J$169, "*poison*")</f>
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="C82">
-        <f>COUNTIF(Skills!$H$132:$H$167, "*bind*")</f>
+        <f>COUNTIF(Skills!$J$134:$J$169, "*bind*")</f>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="C83">
-        <f>COUNTIF(Skills!$H$132:$H$167, "*curse*")</f>
+        <f>COUNTIF(Skills!$J$134:$J$169, "*curse*")</f>
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>844</v>
+        <v>821</v>
       </c>
       <c r="C84">
-        <f>COUNTIF(Skills!$H$132:$H$167, "*energy*")</f>
+        <f>COUNTIF(Skills!$J$134:$J$169, "*energy*")</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="16">
+        <v>-10</v>
+      </c>
+      <c r="B87" s="81" t="s">
+        <v>878</v>
+      </c>
+      <c r="C87" s="37">
+        <f>2/8</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="16">
+        <v>-9</v>
+      </c>
+      <c r="B88" s="81" t="s">
+        <v>877</v>
+      </c>
+      <c r="C88" s="37">
+        <f>1/3.75</f>
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>-8</v>
+      </c>
+      <c r="B89" s="81" t="s">
+        <v>876</v>
+      </c>
+      <c r="C89" s="37">
+        <f>1/3.5</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>-7</v>
+      </c>
+      <c r="B90" s="81" t="s">
+        <v>875</v>
+      </c>
+      <c r="C90" s="37">
+        <f>1/3.25</f>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>-6</v>
+      </c>
+      <c r="B91" s="81" t="s">
+        <v>874</v>
+      </c>
+      <c r="C91" s="37">
+        <f>2/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>-5</v>
+      </c>
+      <c r="B92" s="81" t="s">
+        <v>873</v>
+      </c>
+      <c r="C92" s="37">
+        <f>1/2.75</f>
+        <v>0.36363636363636365</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>-4</v>
+      </c>
+      <c r="B93" s="81" t="s">
+        <v>860</v>
+      </c>
+      <c r="C93" s="37">
+        <f>1/2.5</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>-3</v>
+      </c>
+      <c r="B94" s="81" t="s">
+        <v>859</v>
+      </c>
+      <c r="C94" s="37">
+        <f>1/2.25</f>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>-2</v>
+      </c>
+      <c r="B95" s="81" t="s">
+        <v>871</v>
+      </c>
+      <c r="C95" s="37">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>-1</v>
+      </c>
+      <c r="B96" s="81" t="s">
+        <v>872</v>
+      </c>
+      <c r="C96" s="37">
+        <f>1/1.5</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97" s="81" t="s">
+        <v>870</v>
+      </c>
+      <c r="C97" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98" s="81" t="s">
+        <v>861</v>
+      </c>
+      <c r="C98" s="37">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99" s="81" t="s">
+        <v>858</v>
+      </c>
+      <c r="C99" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>3</v>
+      </c>
+      <c r="B100" s="81" t="s">
+        <v>862</v>
+      </c>
+      <c r="C100" s="37">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>4</v>
+      </c>
+      <c r="B101" s="81" t="s">
+        <v>863</v>
+      </c>
+      <c r="C101" s="37">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>5</v>
+      </c>
+      <c r="B102" s="81" t="s">
+        <v>864</v>
+      </c>
+      <c r="C102" s="37">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>6</v>
+      </c>
+      <c r="B103" s="81" t="s">
+        <v>865</v>
+      </c>
+      <c r="C103" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>7</v>
+      </c>
+      <c r="B104" s="81" t="s">
+        <v>866</v>
+      </c>
+      <c r="C104" s="37">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>8</v>
+      </c>
+      <c r="B105" s="81" t="s">
+        <v>867</v>
+      </c>
+      <c r="C105" s="37">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>9</v>
+      </c>
+      <c r="B106" s="81" t="s">
+        <v>868</v>
+      </c>
+      <c r="C106" s="37">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>10</v>
+      </c>
+      <c r="B107" s="81" t="s">
+        <v>869</v>
+      </c>
+      <c r="C107" s="37">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -9510,11 +9858,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L188"/>
+  <dimension ref="A1:N190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I112" sqref="I112"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L85" sqref="L85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9524,11 +9872,11 @@
     <col min="3" max="3" width="27.42578125" style="47" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="6" customWidth="1"/>
     <col min="5" max="6" width="7.7109375" style="50" customWidth="1"/>
-    <col min="7" max="7" width="10" style="50" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="4"/>
+    <col min="7" max="9" width="10" style="50" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="51" t="s">
         <v>169</v>
       </c>
@@ -9548,18 +9896,24 @@
         <v>164</v>
       </c>
       <c r="G1" s="53" t="s">
-        <v>711</v>
-      </c>
-      <c r="H1" s="51" t="s">
+        <v>696</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>839</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>840</v>
+      </c>
+      <c r="J1" s="51" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>442</v>
@@ -9576,13 +9930,20 @@
       <c r="G2" s="50">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="H2" s="50">
+        <v>0</v>
+      </c>
+      <c r="I2" s="50">
+        <f>(E2+H2+(IF(ISNUMBER(F2),10*(F2-1),0)))/G2</f>
+        <v>55</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="B3" s="65" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>442</v>
@@ -9599,13 +9960,20 @@
       <c r="G3" s="50">
         <v>1</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="H3" s="50">
+        <v>0</v>
+      </c>
+      <c r="I3" s="50">
+        <f>(E3+H3+(IF(ISNUMBER(F3),10*(F3-1),0)))/G3</f>
+        <v>60</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="B4" s="65" t="s">
-        <v>843</v>
+        <v>820</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>442</v>
@@ -9622,13 +9990,20 @@
       <c r="G4" s="50">
         <v>1</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="H4" s="50">
+        <v>0</v>
+      </c>
+      <c r="I4" s="50">
+        <f>(E4+H4+(IF(ISNUMBER(F4),10*(F4-1),0)))/G4</f>
+        <v>70</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="B5" s="65" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
       <c r="C5" s="47" t="s">
         <v>442</v>
@@ -9645,16 +10020,23 @@
       <c r="G5" s="50">
         <v>2</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="H5" s="50">
+        <v>0</v>
+      </c>
+      <c r="I5" s="50">
+        <f>(E5+H5+(IF(ISNUMBER(F5),10*(F5-1),0)))/G5</f>
+        <v>45</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="B6" s="65" t="s">
         <v>421</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>11</v>
@@ -9668,16 +10050,23 @@
       <c r="G6" s="50">
         <v>1</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="45">
+      <c r="H6" s="50">
+        <v>10</v>
+      </c>
+      <c r="I6" s="50">
+        <f t="shared" ref="I6:I69" si="0">(E6+H6+(IF(ISNUMBER(F6),10*(F6-1),0)))/G6</f>
+        <v>65</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="45">
       <c r="B7" s="65" t="s">
-        <v>802</v>
+        <v>780</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>803</v>
+        <v>781</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>0</v>
@@ -9691,16 +10080,23 @@
       <c r="G7" s="50">
         <v>1</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7" s="50">
+        <v>15</v>
+      </c>
+      <c r="I7" s="50">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="B8" s="65" t="s">
         <v>478</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>11</v>
@@ -9714,13 +10110,20 @@
       <c r="G8" s="50">
         <v>1</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8" s="50">
+        <v>40</v>
+      </c>
+      <c r="I8" s="50">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="B9" s="65" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>422</v>
@@ -9737,16 +10140,23 @@
       <c r="G9" s="50">
         <v>1</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30">
+      <c r="H9" s="50">
+        <v>30</v>
+      </c>
+      <c r="I9" s="50">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30">
       <c r="B10" s="65" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>784</v>
+        <v>765</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>442</v>
@@ -9760,16 +10170,23 @@
       <c r="G10" s="50">
         <v>1</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30">
+      <c r="H10" s="50">
+        <v>50</v>
+      </c>
+      <c r="I10" s="50">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30">
       <c r="B11" s="65" t="s">
-        <v>848</v>
+        <v>825</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>768</v>
+        <v>751</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>0</v>
@@ -9783,11 +10200,18 @@
       <c r="G11" s="50">
         <v>1</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30">
+      <c r="H11" s="50">
+        <v>20</v>
+      </c>
+      <c r="I11" s="50">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30">
       <c r="B12" s="65" t="s">
         <v>446</v>
       </c>
@@ -9806,16 +10230,23 @@
       <c r="G12" s="50">
         <v>2</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30">
+      <c r="H12" s="50">
+        <v>-20</v>
+      </c>
+      <c r="I12" s="50">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30">
       <c r="B13" s="65" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>0</v>
@@ -9829,39 +10260,53 @@
       <c r="G13" s="50">
         <v>2</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30">
+      <c r="H13" s="50">
+        <v>60</v>
+      </c>
+      <c r="I13" s="50">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30">
       <c r="B14" s="65" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E14" s="50">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G14" s="50">
         <v>2</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="45">
+      <c r="H14" s="50">
+        <v>105</v>
+      </c>
+      <c r="I14" s="50">
+        <f t="shared" si="0"/>
+        <v>67.5</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="45">
       <c r="B15" s="65" t="s">
-        <v>775</v>
+        <v>756</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>0</v>
@@ -9870,21 +10315,28 @@
         <v>25</v>
       </c>
       <c r="F15" s="50" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G15" s="50">
         <v>2</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="45">
+      <c r="H15" s="50">
+        <v>25</v>
+      </c>
+      <c r="I15" s="50">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="45">
       <c r="B16" s="65" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>442</v>
@@ -9898,16 +10350,23 @@
       <c r="G16" s="50">
         <v>2</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="30">
+      <c r="H16" s="50">
+        <v>40</v>
+      </c>
+      <c r="I16" s="50">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30">
       <c r="B17" s="65" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>442</v>
@@ -9921,16 +10380,23 @@
       <c r="G17" s="50">
         <v>2</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="60">
+      <c r="H17" s="50">
+        <v>60</v>
+      </c>
+      <c r="I17" s="50">
+        <f>(E17+H17+(IF(ISNUMBER(F17),10*(F17-1),0)))/G17</f>
+        <v>30</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="60">
       <c r="B18" s="65" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>706</v>
+        <v>849</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>0</v>
@@ -9944,91 +10410,119 @@
       <c r="G18" s="50">
         <v>2</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30">
+      <c r="H18" s="50">
+        <v>45</v>
+      </c>
+      <c r="I18" s="50">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30">
       <c r="B19" s="65" t="s">
-        <v>857</v>
+        <v>834</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>858</v>
+        <v>835</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E19" s="50">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F19" s="50" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G19" s="50">
         <v>2</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30">
+      <c r="H19" s="50">
+        <v>120</v>
+      </c>
+      <c r="I19" s="50">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="B20" s="65" t="s">
-        <v>510</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>684</v>
+        <v>650</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>842</v>
       </c>
       <c r="D20" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E20" s="50">
         <v>0</v>
       </c>
-      <c r="E20" s="50">
-        <v>75</v>
-      </c>
-      <c r="F20" s="50">
+      <c r="F20" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="G20" s="50">
         <v>2</v>
       </c>
-      <c r="G20" s="50">
-        <v>3</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="H20" s="50">
+        <v>45</v>
+      </c>
+      <c r="I20" s="50">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="30">
       <c r="B21" s="65" t="s">
-        <v>661</v>
+        <v>509</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>112</v>
+        <v>671</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E21" s="50">
-        <v>85</v>
-      </c>
-      <c r="F21" s="50">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>443</v>
       </c>
       <c r="G21" s="50">
         <v>3</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30">
+      <c r="H21" s="50">
+        <v>50</v>
+      </c>
+      <c r="I21" s="50">
+        <f t="shared" si="0"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="B22" s="65" t="s">
-        <v>596</v>
+        <v>651</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>594</v>
+        <v>112</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="50" t="s">
-        <v>595</v>
+      <c r="E22" s="50">
+        <v>90</v>
       </c>
       <c r="F22" s="50">
         <v>1</v>
@@ -10036,22 +10530,29 @@
       <c r="G22" s="50">
         <v>3</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30">
+      <c r="H22" s="50">
+        <v>30</v>
+      </c>
+      <c r="I22" s="50">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="30">
       <c r="B23" s="65" t="s">
-        <v>626</v>
+        <v>592</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>627</v>
+        <v>590</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F23" s="50">
         <v>1</v>
@@ -10059,39 +10560,47 @@
       <c r="G23" s="50">
         <v>3</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="45">
+      <c r="I23" s="50" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30">
       <c r="B24" s="65" t="s">
-        <v>509</v>
+        <v>620</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>679</v>
+        <v>621</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="E24" s="50">
         <v>0</v>
       </c>
-      <c r="F24" s="50" t="s">
-        <v>443</v>
+      <c r="E24" s="50" t="s">
+        <v>591</v>
+      </c>
+      <c r="F24" s="50">
+        <v>1</v>
       </c>
       <c r="G24" s="50">
         <v>3</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="50" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="45">
       <c r="B25" s="65" t="s">
-        <v>659</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>660</v>
+        <v>508</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>841</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>442</v>
@@ -10105,16 +10614,23 @@
       <c r="G25" s="50">
         <v>3</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="30">
+      <c r="H25" s="50">
+        <v>95</v>
+      </c>
+      <c r="I25" s="50">
+        <f t="shared" si="0"/>
+        <v>31.666666666666668</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="30">
       <c r="B26" s="65" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>680</v>
+        <v>843</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>442</v>
@@ -10128,16 +10644,20 @@
       <c r="G26" s="50">
         <v>4</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="59" t="s">
         <v>117</v>
       </c>
       <c r="B27" s="66" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="C27" s="47" t="s">
         <v>442</v>
@@ -10154,14 +10674,21 @@
       <c r="G27" s="50">
         <v>1</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="H27" s="50">
+        <v>0</v>
+      </c>
+      <c r="I27" s="50">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="59"/>
       <c r="B28" s="66" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C28" s="47" t="s">
         <v>442</v>
@@ -10178,47 +10705,61 @@
       <c r="G28" s="50">
         <v>1</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="30">
+      <c r="H28" s="50">
+        <v>0</v>
+      </c>
+      <c r="I28" s="50">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="59"/>
       <c r="B29" s="66" t="s">
-        <v>778</v>
+        <v>625</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>768</v>
+        <v>847</v>
       </c>
       <c r="D29" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E29" s="50">
         <v>0</v>
       </c>
-      <c r="E29" s="50">
-        <v>60</v>
-      </c>
-      <c r="F29" s="50">
+      <c r="F29" s="50" t="s">
+        <v>626</v>
+      </c>
+      <c r="G29" s="50">
         <v>1</v>
       </c>
-      <c r="G29" s="50">
-        <v>2</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="30">
+      <c r="H29" s="50">
+        <v>40</v>
+      </c>
+      <c r="I29" s="50">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="30">
       <c r="A30" s="59"/>
       <c r="B30" s="66" t="s">
-        <v>513</v>
+        <v>759</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>624</v>
+        <v>751</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E30" s="50">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F30" s="50">
         <v>1</v>
@@ -10226,23 +10767,30 @@
       <c r="G30" s="50">
         <v>2</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="60">
+      <c r="H30" s="50">
+        <v>20</v>
+      </c>
+      <c r="I30" s="50">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="30">
       <c r="A31" s="59"/>
       <c r="B31" s="66" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>560</v>
+        <v>619</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E31" s="50">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F31" s="50">
         <v>1</v>
@@ -10250,41 +10798,55 @@
       <c r="G31" s="50">
         <v>2</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="30">
+      <c r="H31" s="50">
+        <v>30</v>
+      </c>
+      <c r="I31" s="50">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="60">
       <c r="A32" s="59"/>
       <c r="B32" s="66" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>553</v>
+        <v>844</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E32" s="50">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F32" s="50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="50">
         <v>2</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="H32" s="50">
+        <v>40</v>
+      </c>
+      <c r="I32" s="50">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="30">
       <c r="A33" s="59"/>
       <c r="B33" s="66" t="s">
-        <v>607</v>
+        <v>527</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>112</v>
+        <v>551</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>0</v>
@@ -10293,28 +10855,35 @@
         <v>55</v>
       </c>
       <c r="F33" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" s="50">
         <v>2</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="30">
+      <c r="H33" s="50">
+        <v>55</v>
+      </c>
+      <c r="I33" s="50">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="59"/>
       <c r="B34" s="66" t="s">
-        <v>638</v>
+        <v>603</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>688</v>
+        <v>112</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E34" s="50">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F34" s="50">
         <v>1</v>
@@ -10322,23 +10891,30 @@
       <c r="G34" s="50">
         <v>2</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="H34" s="50">
+        <v>30</v>
+      </c>
+      <c r="I34" s="50">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="30">
       <c r="A35" s="59"/>
       <c r="B35" s="66" t="s">
-        <v>647</v>
-      </c>
-      <c r="C35" s="74" t="s">
-        <v>648</v>
+        <v>630</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>850</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E35" s="50">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F35" s="50">
         <v>1</v>
@@ -10346,23 +10922,30 @@
       <c r="G35" s="50">
         <v>2</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="30">
+      <c r="H35" s="50">
+        <v>60</v>
+      </c>
+      <c r="I35" s="50">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="59"/>
       <c r="B36" s="66" t="s">
-        <v>808</v>
-      </c>
-      <c r="C36" s="47" t="s">
-        <v>807</v>
+        <v>638</v>
+      </c>
+      <c r="C36" s="74" t="s">
+        <v>639</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E36" s="50">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F36" s="50">
         <v>1</v>
@@ -10370,62 +10953,86 @@
       <c r="G36" s="50">
         <v>2</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="75">
+      <c r="H36" s="50">
+        <v>30</v>
+      </c>
+      <c r="I36" s="50">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="30">
       <c r="A37" s="59"/>
       <c r="B37" s="66" t="s">
-        <v>764</v>
+        <v>786</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E37" s="50">
         <v>40</v>
       </c>
       <c r="F37" s="50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" s="50">
         <v>2</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="30">
+      <c r="H37" s="50">
+        <v>40</v>
+      </c>
+      <c r="I37" s="50">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="75">
       <c r="A38" s="59"/>
       <c r="B38" s="66" t="s">
-        <v>448</v>
+        <v>748</v>
       </c>
       <c r="C38" s="47" t="s">
-        <v>554</v>
+        <v>845</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E38" s="50">
-        <v>0</v>
-      </c>
-      <c r="F38" s="50" t="s">
-        <v>443</v>
+        <v>40</v>
+      </c>
+      <c r="F38" s="50">
+        <v>2</v>
       </c>
       <c r="G38" s="50">
         <v>2</v>
       </c>
-      <c r="H38" s="4" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="H38" s="50">
+        <v>40</v>
+      </c>
+      <c r="I38" s="50">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="30">
       <c r="A39" s="59"/>
       <c r="B39" s="66" t="s">
-        <v>631</v>
+        <v>448</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>633</v>
+        <v>846</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>442</v>
@@ -10434,22 +11041,29 @@
         <v>0</v>
       </c>
       <c r="F39" s="50" t="s">
-        <v>632</v>
+        <v>443</v>
       </c>
       <c r="G39" s="50">
         <v>2</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="45">
+      <c r="H39" s="50">
+        <v>120</v>
+      </c>
+      <c r="I39" s="50">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="45">
       <c r="A40" s="59"/>
       <c r="B40" s="66" t="s">
-        <v>785</v>
+        <v>766</v>
       </c>
       <c r="C40" s="47" t="s">
-        <v>786</v>
+        <v>848</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>442</v>
@@ -10463,41 +11077,55 @@
       <c r="G40" s="50">
         <v>2</v>
       </c>
-      <c r="H40" s="4" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="60">
+      <c r="H40" s="50">
+        <v>70</v>
+      </c>
+      <c r="I40" s="50">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="30">
       <c r="A41" s="59"/>
       <c r="B41" s="66" t="s">
-        <v>517</v>
+        <v>441</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>597</v>
+        <v>627</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>11</v>
+        <v>442</v>
       </c>
       <c r="E41" s="50">
-        <v>20</v>
-      </c>
-      <c r="F41" s="50">
+        <v>0</v>
+      </c>
+      <c r="F41" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="G41" s="50">
         <v>2</v>
       </c>
-      <c r="G41" s="50">
-        <v>3</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="30">
+      <c r="H41" s="50">
+        <v>100</v>
+      </c>
+      <c r="I41" s="50">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="60">
       <c r="A42" s="59"/>
       <c r="B42" s="66" t="s">
-        <v>770</v>
+        <v>516</v>
       </c>
       <c r="C42" s="47" t="s">
-        <v>771</v>
+        <v>593</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>11</v>
@@ -10511,41 +11139,55 @@
       <c r="G42" s="50">
         <v>3</v>
       </c>
-      <c r="H42" s="4" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="30">
+      <c r="H42" s="50">
+        <v>80</v>
+      </c>
+      <c r="I42" s="50">
+        <f t="shared" si="0"/>
+        <v>43.333333333333336</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="30">
       <c r="A43" s="59"/>
       <c r="B43" s="66" t="s">
-        <v>441</v>
+        <v>753</v>
       </c>
       <c r="C43" s="47" t="s">
-        <v>635</v>
+        <v>851</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>442</v>
+        <v>11</v>
       </c>
       <c r="E43" s="50">
-        <v>0</v>
-      </c>
-      <c r="F43" s="50" t="s">
-        <v>443</v>
+        <v>40</v>
+      </c>
+      <c r="F43" s="50">
+        <v>2</v>
       </c>
       <c r="G43" s="50">
         <v>3</v>
       </c>
-      <c r="H43" s="4" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="30">
+      <c r="H43" s="50">
+        <v>120</v>
+      </c>
+      <c r="I43" s="50">
+        <f t="shared" si="0"/>
+        <v>56.666666666666664</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="30">
       <c r="A44" s="59"/>
       <c r="B44" s="66" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C44" s="47" t="s">
-        <v>634</v>
+        <v>852</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>442</v>
@@ -10559,14 +11201,21 @@
       <c r="G44" s="50">
         <v>3</v>
       </c>
-      <c r="H44" s="4" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="H44" s="50">
+        <v>160</v>
+      </c>
+      <c r="I44" s="50">
+        <f t="shared" si="0"/>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="59"/>
       <c r="B45" s="66" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C45" s="47" t="s">
         <v>422</v>
@@ -10575,7 +11224,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="50">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="F45" s="50">
         <v>1</v>
@@ -10583,19 +11232,26 @@
       <c r="G45" s="50">
         <v>4</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="30">
+      <c r="H45" s="50">
+        <v>30</v>
+      </c>
+      <c r="I45" s="50">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="30">
       <c r="A46" s="60" t="s">
         <v>192</v>
       </c>
       <c r="B46" s="67" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="C46" s="47" t="s">
-        <v>767</v>
+        <v>750</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>442</v>
@@ -10609,42 +11265,53 @@
       <c r="G46" s="50">
         <v>1</v>
       </c>
-      <c r="H46" s="4" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="30">
+      <c r="I46" s="50">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="30">
       <c r="A47" s="60"/>
       <c r="B47" s="67" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C47" s="47" t="s">
-        <v>846</v>
+        <v>823</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E47" s="50">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F47" s="50" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G47" s="50">
         <v>1</v>
       </c>
-      <c r="H47" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="I47" s="17"/>
-    </row>
-    <row r="48" spans="1:9" ht="30">
+      <c r="H47" s="50">
+        <v>80</v>
+      </c>
+      <c r="I47" s="50">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="K47" s="17"/>
+    </row>
+    <row r="48" spans="1:11" ht="30">
       <c r="A48" s="60"/>
       <c r="B48" s="67" t="s">
+        <v>502</v>
+      </c>
+      <c r="C48" s="47" t="s">
         <v>503</v>
-      </c>
-      <c r="C48" s="47" t="s">
-        <v>504</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>0</v>
@@ -10658,17 +11325,25 @@
       <c r="G48" s="50">
         <v>1</v>
       </c>
-      <c r="H48" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="30">
+      <c r="H48" s="50">
+        <f>E48/2</f>
+        <v>22.5</v>
+      </c>
+      <c r="I48" s="50">
+        <f t="shared" si="0"/>
+        <v>67.5</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="30">
       <c r="A49" s="60"/>
       <c r="B49" s="67" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C49" s="47" t="s">
-        <v>768</v>
+        <v>751</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>0</v>
@@ -10682,23 +11357,30 @@
       <c r="G49" s="50">
         <v>2</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="45">
+      <c r="H49" s="50">
+        <v>20</v>
+      </c>
+      <c r="I49" s="50">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="45">
       <c r="A50" s="60"/>
       <c r="B50" s="67" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C50" s="47" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="50">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F50" s="50">
         <v>1</v>
@@ -10706,18 +11388,25 @@
       <c r="G50" s="50">
         <v>2</v>
       </c>
-      <c r="H50" s="4" t="s">
-        <v>756</v>
-      </c>
-      <c r="I50" s="17"/>
-    </row>
-    <row r="51" spans="1:9" ht="30">
+      <c r="H50" s="50">
+        <v>15</v>
+      </c>
+      <c r="I50" s="50">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="K50" s="17"/>
+    </row>
+    <row r="51" spans="1:11" ht="30">
       <c r="A51" s="60"/>
       <c r="B51" s="67" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="C51" s="47" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>0</v>
@@ -10731,37 +11420,52 @@
       <c r="G51" s="50">
         <v>2</v>
       </c>
-      <c r="H51" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="H51" s="50">
+        <v>30</v>
+      </c>
+      <c r="I51" s="50">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="60"/>
       <c r="B52" s="67" t="s">
-        <v>533</v>
-      </c>
-      <c r="I52" s="17"/>
-    </row>
-    <row r="53" spans="1:9">
+        <v>532</v>
+      </c>
+      <c r="I52" s="50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K52" s="17"/>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="60"/>
       <c r="B53" s="67" t="s">
-        <v>847</v>
-      </c>
-      <c r="I53" s="17"/>
-    </row>
-    <row r="54" spans="1:9">
+        <v>824</v>
+      </c>
+      <c r="I53" s="50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K53" s="17"/>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="60"/>
       <c r="B54" s="67" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C54" s="47" t="s">
-        <v>805</v>
+        <v>783</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E54" s="50">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F54" s="50">
         <v>2</v>
@@ -10769,18 +11473,25 @@
       <c r="G54" s="50">
         <v>2</v>
       </c>
-      <c r="H54" s="4" t="s">
-        <v>762</v>
-      </c>
-      <c r="I54" s="17"/>
-    </row>
-    <row r="55" spans="1:9" ht="30">
+      <c r="H54" s="50">
+        <v>10</v>
+      </c>
+      <c r="I54" s="50">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="K54" s="17"/>
+    </row>
+    <row r="55" spans="1:11" ht="30">
       <c r="A55" s="60"/>
       <c r="B55" s="67" t="s">
-        <v>804</v>
+        <v>782</v>
       </c>
       <c r="C55" s="47" t="s">
-        <v>806</v>
+        <v>784</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>0</v>
@@ -10792,20 +11503,27 @@
         <v>2</v>
       </c>
       <c r="G55" s="50">
-        <v>3</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>741</v>
-      </c>
-      <c r="I55" s="17"/>
-    </row>
-    <row r="56" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="H55" s="50">
+        <v>20</v>
+      </c>
+      <c r="I55" s="50">
+        <f t="shared" si="0"/>
+        <v>47.5</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="K55" s="17"/>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="60"/>
       <c r="B56" s="67" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C56" s="47" t="s">
-        <v>479</v>
+        <v>697</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>0</v>
@@ -10817,43 +11535,58 @@
         <v>1</v>
       </c>
       <c r="G56" s="50">
-        <v>3</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="45">
+        <v>2</v>
+      </c>
+      <c r="H56" s="50">
+        <v>30</v>
+      </c>
+      <c r="I56" s="50">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="45">
       <c r="A57" s="60"/>
       <c r="B57" s="67" t="s">
-        <v>603</v>
+        <v>769</v>
       </c>
       <c r="C57" s="47" t="s">
-        <v>604</v>
+        <v>880</v>
       </c>
       <c r="D57" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E57" s="50">
         <v>0</v>
       </c>
-      <c r="E57" s="50">
-        <v>100</v>
-      </c>
-      <c r="F57" s="50">
-        <v>1</v>
+      <c r="F57" s="50" t="s">
+        <v>443</v>
       </c>
       <c r="G57" s="50">
-        <v>4</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="45">
+        <v>3</v>
+      </c>
+      <c r="H57" s="50">
+        <v>220</v>
+      </c>
+      <c r="I57" s="50">
+        <f t="shared" si="0"/>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="K57" s="17"/>
+    </row>
+    <row r="58" spans="1:11" ht="30">
       <c r="A58" s="60"/>
       <c r="B58" s="67" t="s">
-        <v>790</v>
+        <v>423</v>
       </c>
       <c r="C58" s="47" t="s">
-        <v>791</v>
+        <v>881</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>442</v>
@@ -10867,18 +11600,25 @@
       <c r="G58" s="50">
         <v>3</v>
       </c>
-      <c r="H58" s="4" t="s">
-        <v>736</v>
-      </c>
-      <c r="I58" s="17"/>
-    </row>
-    <row r="59" spans="1:9" ht="30">
+      <c r="H58" s="50">
+        <f>15*8</f>
+        <v>120</v>
+      </c>
+      <c r="I58" s="50">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="45">
       <c r="A59" s="60"/>
       <c r="B59" s="67" t="s">
-        <v>423</v>
+        <v>768</v>
       </c>
       <c r="C59" s="47" t="s">
-        <v>424</v>
+        <v>882</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>442</v>
@@ -10892,88 +11632,117 @@
       <c r="G59" s="50">
         <v>3</v>
       </c>
-      <c r="H59" s="4" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="45">
+      <c r="H59" s="50">
+        <f>50*4</f>
+        <v>200</v>
+      </c>
+      <c r="I59" s="50">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="45">
       <c r="A60" s="60"/>
       <c r="B60" s="67" t="s">
-        <v>788</v>
+        <v>616</v>
       </c>
       <c r="C60" s="47" t="s">
-        <v>789</v>
+        <v>854</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>442</v>
+        <v>0</v>
       </c>
       <c r="E60" s="50">
-        <v>0</v>
-      </c>
-      <c r="F60" s="50" t="s">
-        <v>443</v>
+        <v>95</v>
+      </c>
+      <c r="F60" s="50">
+        <v>1</v>
       </c>
       <c r="G60" s="50">
-        <v>2</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="61" t="s">
-        <v>193</v>
-      </c>
-      <c r="B61" s="69" t="s">
-        <v>849</v>
+        <v>3</v>
+      </c>
+      <c r="H60" s="50">
+        <v>30</v>
+      </c>
+      <c r="I60" s="50">
+        <f>(E60+H60+(IF(ISNUMBER(F60),10*(F60-1),0)))/G60</f>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="45">
+      <c r="A61" s="60"/>
+      <c r="B61" s="67" t="s">
+        <v>599</v>
       </c>
       <c r="C61" s="47" t="s">
-        <v>442</v>
+        <v>600</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E61" s="50">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="F61" s="50">
         <v>1</v>
       </c>
       <c r="G61" s="50">
+        <v>4</v>
+      </c>
+      <c r="H61" s="50">
+        <v>50</v>
+      </c>
+      <c r="I61" s="50">
+        <f>(E61+H61+(IF(ISNUMBER(F61),10*(F61-1),0)))/G61</f>
+        <v>42.5</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="61" t="s">
+        <v>193</v>
+      </c>
+      <c r="B62" s="69" t="s">
+        <v>826</v>
+      </c>
+      <c r="C62" s="47" t="s">
+        <v>442</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="50">
+        <v>55</v>
+      </c>
+      <c r="F62" s="50">
         <v>1</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="30">
-      <c r="A62" s="61"/>
-      <c r="B62" s="69" t="s">
-        <v>814</v>
-      </c>
-      <c r="C62" s="47" t="s">
-        <v>850</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="E62" s="50">
-        <v>0</v>
-      </c>
-      <c r="F62" s="50" t="s">
-        <v>576</v>
       </c>
       <c r="G62" s="50">
         <v>1</v>
       </c>
-      <c r="H62" s="4" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="H62" s="50">
+        <v>0</v>
+      </c>
+      <c r="I62" s="50">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="61"/>
       <c r="B63" s="69" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C63" s="47" t="s">
         <v>442</v>
@@ -10982,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="50">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F63" s="50">
         <v>2</v>
@@ -10990,14 +11759,21 @@
       <c r="G63" s="50">
         <v>2</v>
       </c>
-      <c r="H63" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="H63" s="50">
+        <v>0</v>
+      </c>
+      <c r="I63" s="50">
+        <f>(E63+H63+(IF(ISNUMBER(F63),10*(F63-1),0)))/G63</f>
+        <v>45</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="61"/>
       <c r="B64" s="69" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C64" s="47" t="s">
         <v>442</v>
@@ -11006,7 +11782,7 @@
         <v>11</v>
       </c>
       <c r="E64" s="50">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F64" s="50">
         <v>2</v>
@@ -11014,71 +11790,94 @@
       <c r="G64" s="50">
         <v>2</v>
       </c>
-      <c r="H64" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="45">
+      <c r="H64" s="50">
+        <v>0</v>
+      </c>
+      <c r="I64" s="50">
+        <f>(E64+H64+(IF(ISNUMBER(F64),10*(F64-1),0)))/G64</f>
+        <v>40</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="30">
       <c r="A65" s="61"/>
       <c r="B65" s="69" t="s">
-        <v>485</v>
+        <v>792</v>
       </c>
       <c r="C65" s="47" t="s">
-        <v>710</v>
+        <v>827</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>11</v>
+        <v>442</v>
       </c>
       <c r="E65" s="50">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F65" s="50" t="s">
-        <v>595</v>
+        <v>572</v>
       </c>
       <c r="G65" s="50">
-        <v>3</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="45">
+        <v>1</v>
+      </c>
+      <c r="H65" s="50">
+        <f>10*8</f>
+        <v>80</v>
+      </c>
+      <c r="I65" s="50">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="30">
       <c r="A66" s="61"/>
       <c r="B66" s="69" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="C66" s="47" t="s">
-        <v>574</v>
+        <v>499</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>11</v>
+        <v>442</v>
       </c>
       <c r="E66" s="50">
-        <v>55</v>
-      </c>
-      <c r="F66" s="50">
+        <v>0</v>
+      </c>
+      <c r="F66" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="G66" s="50">
         <v>1</v>
       </c>
-      <c r="G66" s="50">
-        <v>2</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="30">
+      <c r="H66" s="50">
+        <f>200-200</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="50">
+        <f>(E66+H66+(IF(ISNUMBER(F66),10*(F66-1),0)))/G66</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="45">
       <c r="A67" s="61"/>
       <c r="B67" s="69" t="s">
-        <v>709</v>
+        <v>505</v>
       </c>
       <c r="C67" s="47" t="s">
-        <v>725</v>
+        <v>570</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E67" s="50">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F67" s="50">
         <v>1</v>
@@ -11086,47 +11885,65 @@
       <c r="G67" s="50">
         <v>2</v>
       </c>
-      <c r="H67" s="4" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="H67" s="50">
+        <v>15</v>
+      </c>
+      <c r="I67" s="50">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="30">
       <c r="A68" s="61"/>
       <c r="B68" s="69" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="30">
+        <v>694</v>
+      </c>
+      <c r="C68" s="47" t="s">
+        <v>710</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="50">
+        <v>50</v>
+      </c>
+      <c r="F68" s="50">
+        <v>1</v>
+      </c>
+      <c r="G68" s="50">
+        <v>2</v>
+      </c>
+      <c r="H68" s="50">
+        <v>50</v>
+      </c>
+      <c r="I68" s="50">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="61"/>
       <c r="B69" s="69" t="s">
-        <v>581</v>
-      </c>
-      <c r="C69" s="47" t="s">
-        <v>582</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E69" s="50">
-        <v>60</v>
-      </c>
-      <c r="F69" s="50">
-        <v>2</v>
-      </c>
-      <c r="G69" s="50">
-        <v>3</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="30">
+        <v>536</v>
+      </c>
+      <c r="I69" s="50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="30">
       <c r="A70" s="61"/>
       <c r="B70" s="69" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C70" s="47" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>0</v>
@@ -11140,17 +11957,25 @@
       <c r="G70" s="50">
         <v>2</v>
       </c>
-      <c r="H70" s="4" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="45">
+      <c r="H70" s="50">
+        <f>E70/2</f>
+        <v>32.5</v>
+      </c>
+      <c r="I70" s="50">
+        <f t="shared" ref="I70:I128" si="1">(E70+H70+(IF(ISNUMBER(F70),10*(F70-1),0)))/G70</f>
+        <v>48.75</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="45">
       <c r="A71" s="61"/>
       <c r="B71" s="69" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="C71" s="47" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>0</v>
@@ -11164,268 +11989,348 @@
       <c r="G71" s="50">
         <v>2</v>
       </c>
-      <c r="H71" s="4" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="H71" s="50">
+        <v>50</v>
+      </c>
+      <c r="I71" s="50">
+        <f t="shared" si="1"/>
+        <v>47.5</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="61"/>
       <c r="B72" s="69" t="s">
-        <v>817</v>
+        <v>794</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="30">
+      <c r="I72" s="50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="30">
       <c r="A73" s="61"/>
       <c r="B73" s="69" t="s">
-        <v>820</v>
+        <v>634</v>
       </c>
       <c r="C73" s="47" t="s">
-        <v>821</v>
+        <v>795</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E73" s="50">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="F73" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73" s="50">
-        <v>4</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="30">
+        <v>2</v>
+      </c>
+      <c r="I73" s="50">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="45">
       <c r="A74" s="61"/>
       <c r="B74" s="69" t="s">
-        <v>643</v>
+        <v>787</v>
       </c>
       <c r="C74" s="47" t="s">
-        <v>818</v>
+        <v>788</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E74" s="50">
-        <v>50</v>
-      </c>
-      <c r="F74" s="50">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="F74" s="50" t="s">
+        <v>572</v>
       </c>
       <c r="G74" s="50">
         <v>2</v>
       </c>
-      <c r="H74" s="4" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="45">
+      <c r="H74" s="50">
+        <f>E74*3 + 10*4</f>
+        <v>130</v>
+      </c>
+      <c r="I74" s="50">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="61"/>
       <c r="B75" s="69" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
       <c r="C75" s="47" t="s">
-        <v>810</v>
+        <v>883</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E75" s="50">
-        <v>30</v>
-      </c>
-      <c r="F75" s="50" t="s">
-        <v>576</v>
+        <v>50</v>
+      </c>
+      <c r="F75" s="50">
+        <v>2</v>
       </c>
       <c r="G75" s="50">
         <v>2</v>
       </c>
-      <c r="H75" s="4" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="H75" s="50">
+        <v>20</v>
+      </c>
+      <c r="I75" s="50">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="30">
       <c r="A76" s="61"/>
       <c r="B76" s="69" t="s">
-        <v>815</v>
+        <v>577</v>
       </c>
       <c r="C76" s="47" t="s">
-        <v>816</v>
+        <v>578</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E76" s="50">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F76" s="50">
         <v>2</v>
       </c>
       <c r="G76" s="50">
-        <v>2</v>
-      </c>
-      <c r="H76" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" s="50">
+        <v>50</v>
+      </c>
+      <c r="I76" s="50">
+        <f>(E76+H76+(IF(ISNUMBER(F76),10*(F76-1),0)))/G76</f>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="J76" s="4" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="30">
+    <row r="77" spans="1:10" ht="45">
       <c r="A77" s="61"/>
       <c r="B77" s="69" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="C77" s="47" t="s">
-        <v>500</v>
+        <v>695</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>442</v>
+        <v>11</v>
       </c>
       <c r="E77" s="50">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F77" s="50" t="s">
-        <v>443</v>
+        <v>591</v>
       </c>
       <c r="G77" s="50">
-        <v>2</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="45">
-      <c r="A78" s="62" t="s">
-        <v>191</v>
-      </c>
-      <c r="B78" s="70" t="s">
-        <v>507</v>
+        <v>3</v>
+      </c>
+      <c r="H77" s="50">
+        <v>170</v>
+      </c>
+      <c r="I77" s="50">
+        <f>(E77+H77+(IF(ISNUMBER(F77),10*(F77-1),0)))/G77</f>
+        <v>70</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="30">
+      <c r="A78" s="61"/>
+      <c r="B78" s="69" t="s">
+        <v>797</v>
       </c>
       <c r="C78" s="47" t="s">
-        <v>625</v>
+        <v>798</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E78" s="50">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F78" s="50">
+        <v>1</v>
+      </c>
+      <c r="G78" s="50">
+        <v>4</v>
+      </c>
+      <c r="H78" s="50">
+        <v>50</v>
+      </c>
+      <c r="I78" s="50">
+        <f>(E78+H78+(IF(ISNUMBER(F78),10*(F78-1),0)))/G78</f>
+        <v>42.5</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="30">
+      <c r="A79" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="B79" s="70" t="s">
+        <v>648</v>
+      </c>
+      <c r="C79" s="47" t="s">
+        <v>649</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E79" s="50">
+        <v>0</v>
+      </c>
+      <c r="F79" s="50">
         <v>2</v>
       </c>
-      <c r="G78" s="50">
-        <v>2</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="62"/>
-      <c r="B79" s="70" t="s">
-        <v>515</v>
-      </c>
-      <c r="C79" s="47" t="s">
-        <v>593</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="50">
-        <v>45</v>
-      </c>
-      <c r="F79" s="50">
+      <c r="G79" s="50">
         <v>1</v>
       </c>
-      <c r="G79" s="50">
-        <v>3</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="H79" s="50">
+        <v>30</v>
+      </c>
+      <c r="I79" s="50">
+        <f>(E79+H79+(IF(ISNUMBER(F79),10*(F79-1),0)))/G79</f>
+        <v>40</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="45">
       <c r="A80" s="62"/>
       <c r="B80" s="70" t="s">
-        <v>526</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>551</v>
+        <v>506</v>
+      </c>
+      <c r="C80" s="47" t="s">
+        <v>884</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E80" s="50">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F80" s="50">
         <v>2</v>
       </c>
       <c r="G80" s="50">
-        <v>3</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="H80" s="50">
+        <f>E80*0.9</f>
+        <v>54</v>
+      </c>
+      <c r="I80" s="50">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="62"/>
       <c r="B81" s="70" t="s">
-        <v>671</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>672</v>
+        <v>514</v>
+      </c>
+      <c r="C81" s="47" t="s">
+        <v>589</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E81" s="50">
         <v>45</v>
       </c>
       <c r="F81" s="50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G81" s="50">
         <v>2</v>
       </c>
-      <c r="H81" s="4" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="30">
+      <c r="H81" s="50">
+        <v>60</v>
+      </c>
+      <c r="I81" s="50">
+        <f t="shared" si="1"/>
+        <v>52.5</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="30">
       <c r="A82" s="62"/>
       <c r="B82" s="70" t="s">
-        <v>781</v>
-      </c>
-      <c r="C82" s="47" t="s">
-        <v>549</v>
+        <v>661</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>886</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E82" s="50">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F82" s="50">
         <v>2</v>
       </c>
       <c r="G82" s="50">
-        <v>3</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="45">
+        <v>2</v>
+      </c>
+      <c r="H82" s="50">
+        <v>50</v>
+      </c>
+      <c r="I82" s="50">
+        <f t="shared" si="1"/>
+        <v>52.5</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="45">
       <c r="A83" s="62"/>
       <c r="B83" s="70" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C83" s="47" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>11</v>
@@ -11439,17 +12344,24 @@
       <c r="G83" s="50">
         <v>2</v>
       </c>
-      <c r="H83" s="4" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="45">
+      <c r="H83" s="50">
+        <v>40</v>
+      </c>
+      <c r="I83" s="50">
+        <f t="shared" si="1"/>
+        <v>47.5</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="45">
       <c r="A84" s="62"/>
       <c r="B84" s="70" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C84" s="47" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>0</v>
@@ -11463,89 +12375,111 @@
       <c r="G84" s="50">
         <v>2</v>
       </c>
-      <c r="H84" s="4" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="30">
+      <c r="H84" s="50">
+        <v>40</v>
+      </c>
+      <c r="I84" s="50">
+        <f t="shared" si="1"/>
+        <v>47.5</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="30">
       <c r="A85" s="62"/>
       <c r="B85" s="70" t="s">
-        <v>630</v>
+        <v>663</v>
       </c>
       <c r="C85" s="47" t="s">
-        <v>721</v>
+        <v>832</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E85" s="50">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F85" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G85" s="50">
-        <v>3</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="30">
+        <v>2</v>
+      </c>
+      <c r="H85" s="50">
+        <v>50</v>
+      </c>
+      <c r="I85" s="50">
+        <f>(E85+H85+(IF(ISNUMBER(F85),10*(F85-1),0)))/G85</f>
+        <v>55</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="30">
       <c r="A86" s="62"/>
       <c r="B86" s="70" t="s">
-        <v>673</v>
+        <v>628</v>
       </c>
       <c r="C86" s="47" t="s">
-        <v>854</v>
+        <v>629</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>11</v>
+        <v>442</v>
       </c>
       <c r="E86" s="50">
-        <v>65</v>
-      </c>
-      <c r="F86" s="50">
+        <v>0</v>
+      </c>
+      <c r="F86" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="G86" s="50">
         <v>2</v>
       </c>
-      <c r="G86" s="50">
-        <v>3</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="30">
+      <c r="I86" s="50">
+        <f>(E86+H86+(IF(ISNUMBER(F86),10*(F86-1),0)))/G86</f>
+        <v>0</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="62"/>
       <c r="B87" s="70" t="s">
-        <v>674</v>
+        <v>646</v>
       </c>
       <c r="C87" s="47" t="s">
-        <v>855</v>
+        <v>833</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>11</v>
+        <v>442</v>
       </c>
       <c r="E87" s="50">
-        <v>50</v>
-      </c>
-      <c r="F87" s="50">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F87" s="50" t="s">
+        <v>572</v>
       </c>
       <c r="G87" s="50">
         <v>2</v>
       </c>
-      <c r="H87" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="30">
+      <c r="I87" s="50">
+        <f>(E87+H87+(IF(ISNUMBER(F87),10*(F87-1),0)))/G87</f>
+        <v>0</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="30">
       <c r="A88" s="62"/>
       <c r="B88" s="70" t="s">
-        <v>636</v>
+        <v>654</v>
       </c>
       <c r="C88" s="47" t="s">
-        <v>637</v>
+        <v>655</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>442</v>
@@ -11559,397 +12493,502 @@
       <c r="G88" s="50">
         <v>2</v>
       </c>
-      <c r="H88" s="4" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="30">
+      <c r="I88" s="50">
+        <f>(E88+H88+(IF(ISNUMBER(F88),10*(F88-1),0)))/G88</f>
+        <v>0</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="30">
       <c r="A89" s="62"/>
       <c r="B89" s="70" t="s">
-        <v>657</v>
-      </c>
-      <c r="C89" s="47" t="s">
-        <v>658</v>
+        <v>525</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>885</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>442</v>
+        <v>11</v>
       </c>
       <c r="E89" s="50">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F89" s="50">
         <v>2</v>
       </c>
       <c r="G89" s="50">
-        <v>1</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>3</v>
+      </c>
+      <c r="H89" s="50">
+        <v>70</v>
+      </c>
+      <c r="I89" s="50">
+        <f>(E89+H89+(IF(ISNUMBER(F89),10*(F89-1),0)))/G89</f>
+        <v>43.333333333333336</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="30">
       <c r="A90" s="62"/>
       <c r="B90" s="70" t="s">
-        <v>655</v>
+        <v>624</v>
       </c>
       <c r="C90" s="47" t="s">
-        <v>856</v>
+        <v>706</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>442</v>
+        <v>11</v>
       </c>
       <c r="E90" s="50">
-        <v>0</v>
-      </c>
-      <c r="F90" s="50" t="s">
-        <v>576</v>
+        <v>70</v>
+      </c>
+      <c r="F90" s="50">
+        <v>1</v>
       </c>
       <c r="G90" s="50">
-        <v>2</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="30">
+        <v>3</v>
+      </c>
+      <c r="I90" s="50">
+        <f t="shared" si="1"/>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="30">
       <c r="A91" s="62"/>
       <c r="B91" s="70" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C91" s="47" t="s">
-        <v>665</v>
+        <v>831</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>442</v>
+        <v>11</v>
       </c>
       <c r="E91" s="50">
-        <v>0</v>
-      </c>
-      <c r="F91" s="50" t="s">
-        <v>443</v>
+        <v>65</v>
+      </c>
+      <c r="F91" s="50">
+        <v>2</v>
       </c>
       <c r="G91" s="50">
-        <v>2</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>3</v>
+      </c>
+      <c r="I91" s="50">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="30">
       <c r="A92" s="62"/>
       <c r="B92" s="70" t="s">
+        <v>762</v>
+      </c>
+      <c r="C92" s="47" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="D92" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="50">
+        <v>55</v>
+      </c>
+      <c r="F92" s="50">
+        <v>2</v>
+      </c>
+      <c r="G92" s="50">
+        <v>3</v>
+      </c>
+      <c r="I92" s="50">
+        <f>(E92+H92+(IF(ISNUMBER(F92),10*(F92-1),0)))/G92</f>
+        <v>21.666666666666668</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="62"/>
       <c r="B93" s="70" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="63" t="s">
+        <v>547</v>
+      </c>
+      <c r="I93" s="50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="62"/>
+      <c r="B94" s="70" t="s">
+        <v>656</v>
+      </c>
+      <c r="I94" s="50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="63" t="s">
         <v>190</v>
       </c>
-      <c r="B94" s="71" t="s">
-        <v>656</v>
-      </c>
-      <c r="C94" s="47" t="s">
+      <c r="B95" s="71" t="s">
+        <v>647</v>
+      </c>
+      <c r="C95" s="47" t="s">
         <v>442</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D95" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E94" s="50">
-        <v>5</v>
-      </c>
-      <c r="F94" s="50">
+      <c r="E95" s="50">
+        <v>50</v>
+      </c>
+      <c r="F95" s="50">
         <v>1</v>
-      </c>
-      <c r="G94" s="50">
-        <v>1</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="30">
-      <c r="A95" s="63"/>
-      <c r="B95" s="71" t="s">
-        <v>851</v>
-      </c>
-      <c r="C95" s="47" t="s">
-        <v>852</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="E95" s="50">
-        <v>0</v>
-      </c>
-      <c r="F95" s="50" t="s">
-        <v>632</v>
       </c>
       <c r="G95" s="50">
         <v>1</v>
       </c>
-      <c r="H95" s="4" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="30">
+      <c r="H95" s="50">
+        <v>0</v>
+      </c>
+      <c r="I95" s="50">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="63"/>
       <c r="B96" s="71" t="s">
-        <v>859</v>
+        <v>490</v>
       </c>
       <c r="C96" s="47" t="s">
-        <v>860</v>
+        <v>442</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E96" s="50">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F96" s="50">
         <v>1</v>
       </c>
       <c r="G96" s="50">
-        <v>1</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="H96" s="50">
+        <v>0</v>
+      </c>
+      <c r="I96" s="50">
+        <f>(E96+H96+(IF(ISNUMBER(F96),10*(F96-1),0)))/G96</f>
+        <v>35</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="63"/>
       <c r="B97" s="71" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C97" s="47" t="s">
         <v>442</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E97" s="50">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F97" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G97" s="50">
         <v>2</v>
       </c>
-      <c r="H97" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="H97" s="50">
+        <v>0</v>
+      </c>
+      <c r="I97" s="50">
+        <f>(E97+H97+(IF(ISNUMBER(F97),10*(F97-1),0)))/G97</f>
+        <v>45</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="30">
       <c r="A98" s="63"/>
       <c r="B98" s="71" t="s">
-        <v>552</v>
+        <v>828</v>
       </c>
       <c r="C98" s="47" t="s">
-        <v>550</v>
+        <v>829</v>
       </c>
       <c r="D98" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E98" s="50">
         <v>0</v>
       </c>
-      <c r="E98" s="50">
-        <v>70</v>
-      </c>
-      <c r="F98" s="50">
+      <c r="F98" s="50" t="s">
+        <v>626</v>
+      </c>
+      <c r="G98" s="50">
         <v>1</v>
       </c>
-      <c r="G98" s="50">
-        <v>2</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="60">
+      <c r="H98" s="50">
+        <v>30</v>
+      </c>
+      <c r="I98" s="50">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="30">
       <c r="A99" s="63"/>
       <c r="B99" s="71" t="s">
-        <v>518</v>
+        <v>836</v>
       </c>
       <c r="C99" s="47" t="s">
-        <v>597</v>
+        <v>837</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E99" s="50">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F99" s="50">
         <v>1</v>
       </c>
       <c r="G99" s="50">
-        <v>3</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="H99" s="50">
+        <v>-40</v>
+      </c>
+      <c r="I99" s="50">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="63"/>
       <c r="B100" s="71" t="s">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="C100" s="47" t="s">
-        <v>611</v>
+        <v>549</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E100" s="50">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F100" s="50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G100" s="50">
         <v>2</v>
       </c>
-      <c r="H100" s="4" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="45">
+      <c r="H100" s="50">
+        <v>20</v>
+      </c>
+      <c r="I100" s="50">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="60">
       <c r="A101" s="63"/>
       <c r="B101" s="71" t="s">
-        <v>583</v>
+        <v>517</v>
       </c>
       <c r="C101" s="47" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E101" s="50">
         <v>40</v>
       </c>
       <c r="F101" s="50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G101" s="50">
-        <v>2</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="45">
+        <v>3</v>
+      </c>
+      <c r="H101" s="50">
+        <v>80</v>
+      </c>
+      <c r="I101" s="50">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="63"/>
       <c r="B102" s="71" t="s">
-        <v>724</v>
+        <v>519</v>
       </c>
       <c r="C102" s="47" t="s">
-        <v>772</v>
+        <v>607</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E102" s="50">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F102" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G102" s="50">
         <v>2</v>
       </c>
-      <c r="H102" s="4" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="30">
+      <c r="H102" s="50">
+        <v>60</v>
+      </c>
+      <c r="I102" s="50">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="45">
       <c r="A103" s="63"/>
       <c r="B103" s="71" t="s">
-        <v>779</v>
+        <v>579</v>
       </c>
       <c r="C103" s="47" t="s">
-        <v>853</v>
+        <v>580</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E103" s="50" t="s">
-        <v>595</v>
+        <v>11</v>
+      </c>
+      <c r="E103" s="50">
+        <v>40</v>
       </c>
       <c r="F103" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G103" s="50">
         <v>2</v>
       </c>
-      <c r="H103" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="H103" s="50">
+        <v>50</v>
+      </c>
+      <c r="I103" s="50">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="45">
       <c r="A104" s="63"/>
       <c r="B104" s="71" t="s">
-        <v>493</v>
+        <v>709</v>
       </c>
       <c r="C104" s="47" t="s">
-        <v>442</v>
+        <v>754</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E104" s="50">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="F104" s="50">
+        <v>1</v>
+      </c>
+      <c r="G104" s="50">
         <v>2</v>
       </c>
-      <c r="G104" s="50">
-        <v>3</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="H104" s="50">
+        <v>50</v>
+      </c>
+      <c r="I104" s="50">
+        <f t="shared" si="1"/>
+        <v>52.5</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="30">
       <c r="A105" s="63"/>
       <c r="B105" s="71" t="s">
-        <v>589</v>
+        <v>760</v>
       </c>
       <c r="C105" s="47" t="s">
-        <v>479</v>
+        <v>830</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="50">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="E105" s="50" t="s">
+        <v>591</v>
       </c>
       <c r="F105" s="50">
+        <v>1</v>
+      </c>
+      <c r="G105" s="50">
         <v>2</v>
       </c>
-      <c r="G105" s="50">
-        <v>3</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="30">
+      <c r="I105" s="50" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="63"/>
       <c r="B106" s="71" t="s">
-        <v>650</v>
+        <v>585</v>
       </c>
       <c r="C106" s="47" t="s">
-        <v>651</v>
+        <v>697</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E106" s="50">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F106" s="50">
         <v>2</v>
@@ -11957,211 +12996,276 @@
       <c r="G106" s="50">
         <v>3</v>
       </c>
-      <c r="H106" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="45">
+      <c r="H106" s="50">
+        <v>40</v>
+      </c>
+      <c r="I106" s="50">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="30">
       <c r="A107" s="63"/>
       <c r="B107" s="71" t="s">
-        <v>726</v>
+        <v>641</v>
       </c>
       <c r="C107" s="47" t="s">
-        <v>727</v>
+        <v>642</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E107" s="50">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="F107" s="50">
         <v>2</v>
       </c>
       <c r="G107" s="50">
-        <v>3</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="30">
+        <v>2</v>
+      </c>
+      <c r="H107" s="50">
+        <v>-20</v>
+      </c>
+      <c r="I107" s="50">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="45">
       <c r="A108" s="63"/>
       <c r="B108" s="71" t="s">
-        <v>570</v>
+        <v>711</v>
       </c>
       <c r="C108" s="47" t="s">
-        <v>585</v>
+        <v>712</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E108" s="50">
-        <v>0</v>
-      </c>
-      <c r="F108" s="50" t="s">
-        <v>576</v>
+        <v>60</v>
+      </c>
+      <c r="F108" s="50">
+        <v>2</v>
       </c>
       <c r="G108" s="50">
         <v>3</v>
       </c>
-      <c r="H108" s="4" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="60">
+      <c r="H108" s="50">
+        <v>60</v>
+      </c>
+      <c r="I108" s="50">
+        <f t="shared" si="1"/>
+        <v>43.333333333333336</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="30">
       <c r="A109" s="63"/>
       <c r="B109" s="71" t="s">
-        <v>728</v>
+        <v>566</v>
       </c>
       <c r="C109" s="47" t="s">
-        <v>729</v>
+        <v>581</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>442</v>
+        <v>11</v>
       </c>
       <c r="E109" s="50">
         <v>0</v>
       </c>
       <c r="F109" s="50" t="s">
-        <v>595</v>
+        <v>572</v>
       </c>
       <c r="G109" s="50">
         <v>3</v>
       </c>
-      <c r="H109" s="4" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="30">
+      <c r="H109" s="50">
+        <f>60*7</f>
+        <v>420</v>
+      </c>
+      <c r="I109" s="50">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="75">
       <c r="A110" s="63"/>
       <c r="B110" s="71" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="C110" s="47" t="s">
-        <v>719</v>
+        <v>856</v>
       </c>
       <c r="D110" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E110" s="50">
+        <v>0</v>
+      </c>
+      <c r="F110" s="50" t="s">
+        <v>591</v>
+      </c>
+      <c r="G110" s="50">
+        <v>3</v>
+      </c>
+      <c r="H110" s="50">
+        <v>180</v>
+      </c>
+      <c r="I110" s="50">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="30">
+      <c r="A111" s="63"/>
+      <c r="B111" s="71" t="s">
+        <v>708</v>
+      </c>
+      <c r="C111" s="47" t="s">
+        <v>704</v>
+      </c>
+      <c r="D111" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E110" s="50">
+      <c r="E111" s="50">
         <v>90</v>
       </c>
-      <c r="F110" s="50" t="s">
-        <v>595</v>
-      </c>
-      <c r="G110" s="50">
+      <c r="F111" s="50" t="s">
+        <v>591</v>
+      </c>
+      <c r="G111" s="50">
         <v>4</v>
       </c>
-      <c r="H110" s="4" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="64" t="s">
+      <c r="H111" s="50">
+        <v>180</v>
+      </c>
+      <c r="I111" s="50">
+        <f t="shared" si="1"/>
+        <v>67.5</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="B111" s="68" t="s">
-        <v>514</v>
-      </c>
-      <c r="C111" s="47" t="s">
-        <v>442</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E111" s="50">
-        <v>60</v>
-      </c>
-      <c r="F111" s="50">
-        <v>2</v>
-      </c>
-      <c r="G111" s="50">
-        <v>2</v>
-      </c>
-      <c r="H111" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="64"/>
       <c r="B112" s="68" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="C112" s="47" t="s">
         <v>442</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E112" s="50">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="F112" s="50">
         <v>2</v>
       </c>
       <c r="G112" s="50">
-        <v>3</v>
-      </c>
-      <c r="H112" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="H112" s="50">
+        <v>0</v>
+      </c>
+      <c r="I112" s="50">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="64"/>
       <c r="B113" s="68" t="s">
-        <v>644</v>
+        <v>528</v>
       </c>
       <c r="C113" s="47" t="s">
-        <v>645</v>
+        <v>442</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E113" s="50">
-        <v>50</v>
-      </c>
-      <c r="F113" s="50" t="s">
-        <v>595</v>
+        <v>80</v>
+      </c>
+      <c r="F113" s="50">
+        <v>2</v>
       </c>
       <c r="G113" s="50">
         <v>2</v>
       </c>
-      <c r="H113" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="30">
+      <c r="H113" s="50">
+        <v>0</v>
+      </c>
+      <c r="I113" s="50">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="64"/>
       <c r="B114" s="68" t="s">
-        <v>516</v>
+        <v>635</v>
       </c>
       <c r="C114" s="47" t="s">
-        <v>761</v>
+        <v>636</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E114" s="50">
-        <v>50</v>
-      </c>
-      <c r="F114" s="50">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="F114" s="50" t="s">
+        <v>591</v>
       </c>
       <c r="G114" s="50">
         <v>2</v>
       </c>
-      <c r="H114" s="4" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="30">
+      <c r="H114" s="50">
+        <f>E114*3</f>
+        <v>120</v>
+      </c>
+      <c r="I114" s="50">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="30">
       <c r="A115" s="64"/>
       <c r="B115" s="68" t="s">
-        <v>433</v>
+        <v>515</v>
       </c>
       <c r="C115" s="47" t="s">
-        <v>483</v>
+        <v>745</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>11</v>
@@ -12170,148 +13274,163 @@
         <v>50</v>
       </c>
       <c r="F115" s="50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G115" s="50">
         <v>2</v>
       </c>
-      <c r="H115" s="4" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="30">
+      <c r="H115" s="50">
+        <v>30</v>
+      </c>
+      <c r="I115" s="50">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="30">
       <c r="A116" s="64"/>
       <c r="B116" s="68" t="s">
-        <v>685</v>
+        <v>433</v>
       </c>
       <c r="C116" s="47" t="s">
-        <v>861</v>
+        <v>482</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E116" s="50">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F116" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G116" s="50">
         <v>2</v>
       </c>
-      <c r="H116" s="4" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="30">
+      <c r="H116" s="50">
+        <v>15</v>
+      </c>
+      <c r="I116" s="50">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="30">
       <c r="A117" s="64"/>
       <c r="B117" s="68" t="s">
-        <v>434</v>
+        <v>672</v>
       </c>
       <c r="C117" s="47" t="s">
-        <v>435</v>
+        <v>838</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>442</v>
+        <v>11</v>
       </c>
       <c r="E117" s="50">
-        <v>0</v>
-      </c>
-      <c r="F117" s="50" t="s">
-        <v>443</v>
+        <v>45</v>
+      </c>
+      <c r="F117" s="50">
+        <v>1</v>
       </c>
       <c r="G117" s="50">
         <v>2</v>
       </c>
-      <c r="H117" s="4" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="45">
+      <c r="H117" s="50">
+        <v>40</v>
+      </c>
+      <c r="I117" s="50">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="30">
       <c r="A118" s="64"/>
       <c r="B118" s="68" t="s">
-        <v>722</v>
+        <v>434</v>
       </c>
       <c r="C118" s="47" t="s">
-        <v>773</v>
+        <v>435</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>11</v>
+        <v>442</v>
       </c>
       <c r="E118" s="50">
-        <v>55</v>
-      </c>
-      <c r="F118" s="50">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F118" s="50" t="s">
+        <v>443</v>
       </c>
       <c r="G118" s="50">
         <v>2</v>
       </c>
-      <c r="H118" s="4" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="45">
+      <c r="H118" s="50">
+        <v>100</v>
+      </c>
+      <c r="I118" s="50">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="45">
       <c r="A119" s="64"/>
       <c r="B119" s="68" t="s">
-        <v>575</v>
+        <v>707</v>
       </c>
       <c r="C119" s="47" t="s">
-        <v>620</v>
+        <v>755</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E119" s="50">
-        <v>50</v>
-      </c>
-      <c r="F119" s="50" t="s">
-        <v>576</v>
+        <v>55</v>
+      </c>
+      <c r="F119" s="50">
+        <v>1</v>
       </c>
       <c r="G119" s="50">
-        <v>3</v>
-      </c>
-      <c r="H119" s="4" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="45">
+        <v>2</v>
+      </c>
+      <c r="H119" s="50">
+        <v>60</v>
+      </c>
+      <c r="I119" s="50">
+        <f t="shared" si="1"/>
+        <v>57.5</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="64"/>
-      <c r="B120" s="68" t="s">
-        <v>621</v>
-      </c>
-      <c r="C120" s="47" t="s">
-        <v>642</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E120" s="50">
-        <v>80</v>
-      </c>
-      <c r="F120" s="50">
-        <v>1</v>
-      </c>
-      <c r="G120" s="50">
-        <v>3</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="B120" s="68"/>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="64"/>
       <c r="B121" s="68" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C121" s="47" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E121" s="50">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F121" s="50">
         <v>2</v>
@@ -12319,23 +13438,30 @@
       <c r="G121" s="50">
         <v>3</v>
       </c>
-      <c r="H121" s="4" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="30">
+      <c r="H121" s="50">
+        <v>60</v>
+      </c>
+      <c r="I121" s="50">
+        <f t="shared" si="1"/>
+        <v>48.333333333333336</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="30">
       <c r="A122" s="64"/>
       <c r="B122" s="68" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="C122" s="47" t="s">
-        <v>774</v>
+        <v>853</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E122" s="50">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F122" s="50">
         <v>2</v>
@@ -12343,711 +13469,746 @@
       <c r="G122" s="50">
         <v>3</v>
       </c>
-      <c r="H122" s="4" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="30">
+      <c r="H122" s="50">
+        <v>30</v>
+      </c>
+      <c r="I122" s="50">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="30">
       <c r="A123" s="64"/>
       <c r="B123" s="68" t="s">
-        <v>610</v>
+        <v>763</v>
       </c>
       <c r="C123" s="47" t="s">
-        <v>501</v>
+        <v>819</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E123" s="50">
-        <v>80</v>
-      </c>
-      <c r="F123" s="50" t="s">
-        <v>595</v>
+        <v>95</v>
+      </c>
+      <c r="F123" s="50">
+        <v>1</v>
       </c>
       <c r="G123" s="50">
-        <v>4</v>
-      </c>
-      <c r="H123" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="30">
+        <v>3</v>
+      </c>
+      <c r="H123" s="50">
+        <v>95</v>
+      </c>
+      <c r="I123" s="50">
+        <f>(E123+H123+(IF(ISNUMBER(F123),10*(F123-1),0)))/G123</f>
+        <v>63.333333333333336</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="45">
       <c r="A124" s="64"/>
       <c r="B124" s="68" t="s">
-        <v>782</v>
+        <v>571</v>
       </c>
       <c r="C124" s="47" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E124" s="50">
-        <v>95</v>
-      </c>
-      <c r="F124" s="50">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="F124" s="50" t="s">
+        <v>572</v>
       </c>
       <c r="G124" s="50">
         <v>4</v>
       </c>
-      <c r="H124" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+      <c r="H124" s="50">
+        <f>16+(40*7)</f>
+        <v>296</v>
+      </c>
+      <c r="I124" s="50">
+        <f>(E124+H124+(IF(ISNUMBER(F124),10*(F124-1),0)))/G124</f>
+        <v>84</v>
+      </c>
+      <c r="J124" s="4" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="30">
       <c r="A125" s="64"/>
       <c r="B125" s="68" t="s">
-        <v>780</v>
+        <v>606</v>
+      </c>
+      <c r="C125" s="47" t="s">
+        <v>500</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>442</v>
+        <v>11</v>
       </c>
       <c r="E125" s="50">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F125" s="50" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>591</v>
+      </c>
+      <c r="G125" s="50">
+        <v>4</v>
+      </c>
+      <c r="H125" s="50">
+        <v>160</v>
+      </c>
+      <c r="I125" s="50">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="64"/>
       <c r="B126" s="68" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12">
-      <c r="A131" s="51" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="64"/>
+      <c r="B127" s="68" t="s">
+        <v>761</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="E127" s="50">
+        <v>0</v>
+      </c>
+      <c r="F127" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="I127" s="50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="64"/>
+      <c r="B128" s="68" t="s">
+        <v>653</v>
+      </c>
+      <c r="I128" s="50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="A133" s="51" t="s">
         <v>436</v>
       </c>
-      <c r="L131" s="56"/>
-    </row>
-    <row r="132" spans="1:12">
-      <c r="A132" s="4" t="s">
+      <c r="N133" s="56"/>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="A134" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B132" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="C132" s="47" t="s">
-        <v>484</v>
-      </c>
-      <c r="E132" s="50" t="s">
-        <v>825</v>
-      </c>
-      <c r="H132" s="4" t="s">
-        <v>825</v>
-      </c>
-      <c r="L132" s="56"/>
-    </row>
-    <row r="133" spans="1:12" ht="30">
-      <c r="B133" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="C133" s="47" t="s">
-        <v>565</v>
-      </c>
-      <c r="H133" s="4" t="s">
-        <v>826</v>
-      </c>
-      <c r="L133" s="56"/>
-    </row>
-    <row r="134" spans="1:12">
       <c r="B134" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="L134" s="56"/>
-    </row>
-    <row r="135" spans="1:12">
+        <v>479</v>
+      </c>
+      <c r="C134" s="47" t="s">
+        <v>483</v>
+      </c>
+      <c r="E134" s="50" t="s">
+        <v>802</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="N134" s="56"/>
+    </row>
+    <row r="135" spans="1:14" ht="30">
       <c r="B135" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="L135" s="56"/>
-    </row>
-    <row r="136" spans="1:12" ht="30">
+        <v>491</v>
+      </c>
+      <c r="C135" s="47" t="s">
+        <v>561</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="N135" s="56"/>
+    </row>
+    <row r="136" spans="1:14">
       <c r="B136" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="N136" s="56"/>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="B137" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="N137" s="56"/>
+    </row>
+    <row r="138" spans="1:14" ht="30">
+      <c r="B138" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C138" s="47" t="s">
+        <v>560</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="N138" s="56"/>
+    </row>
+    <row r="139" spans="1:14" ht="60">
+      <c r="B139" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C139" s="47" t="s">
+        <v>564</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="N139" s="56"/>
+    </row>
+    <row r="140" spans="1:14" ht="45">
+      <c r="B140" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="C136" s="47" t="s">
-        <v>564</v>
-      </c>
-      <c r="H136" s="4" t="s">
-        <v>826</v>
-      </c>
-      <c r="L136" s="56"/>
-    </row>
-    <row r="137" spans="1:12" ht="60">
-      <c r="B137" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="C137" s="47" t="s">
+      <c r="C140" s="47" t="s">
+        <v>775</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="N140" s="56"/>
+    </row>
+    <row r="141" spans="1:14" ht="30">
+      <c r="B141" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="C141" s="47" t="s">
         <v>568</v>
       </c>
-      <c r="H137" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="L137" s="56"/>
-    </row>
-    <row r="138" spans="1:12" ht="45">
-      <c r="B138" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="C138" s="47" t="s">
-        <v>797</v>
-      </c>
-      <c r="H138" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="L138" s="56"/>
-    </row>
-    <row r="139" spans="1:12" ht="30">
-      <c r="B139" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="C139" s="47" t="s">
-        <v>572</v>
-      </c>
-      <c r="H139" s="4" t="s">
-        <v>738</v>
-      </c>
-      <c r="L139" s="56"/>
-    </row>
-    <row r="140" spans="1:12" ht="45">
-      <c r="B140" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="C140" s="47" t="s">
-        <v>824</v>
-      </c>
-      <c r="H140" s="4" t="s">
-        <v>827</v>
-      </c>
-      <c r="L140" s="56"/>
-    </row>
-    <row r="141" spans="1:12" ht="30">
-      <c r="B141" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="C141" s="47" t="s">
-        <v>592</v>
-      </c>
-      <c r="H141" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="L141" s="56"/>
-    </row>
-    <row r="142" spans="1:12" ht="30">
+      <c r="J141" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="N141" s="56"/>
+    </row>
+    <row r="142" spans="1:14" ht="45">
       <c r="B142" s="4" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="C142" s="47" t="s">
+        <v>801</v>
+      </c>
+      <c r="J142" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="N142" s="56"/>
+    </row>
+    <row r="143" spans="1:14" ht="30">
+      <c r="B143" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="C143" s="47" t="s">
+        <v>588</v>
+      </c>
+      <c r="J143" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="N143" s="56"/>
+    </row>
+    <row r="144" spans="1:14" ht="30">
+      <c r="B144" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C144" s="47" t="s">
+        <v>597</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="N144" s="56"/>
+    </row>
+    <row r="145" spans="1:14" ht="60">
+      <c r="B145" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="C145" s="47" t="s">
+        <v>598</v>
+      </c>
+      <c r="J145" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="N145" s="56"/>
+    </row>
+    <row r="146" spans="1:14" ht="75">
+      <c r="B146" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="H142" s="4" t="s">
-        <v>738</v>
-      </c>
-      <c r="L142" s="56"/>
-    </row>
-    <row r="143" spans="1:12" ht="60">
-      <c r="B143" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="C143" s="47" t="s">
+      <c r="C146" s="47" t="s">
         <v>602</v>
       </c>
-      <c r="H143" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="L143" s="56"/>
-    </row>
-    <row r="144" spans="1:12" ht="75">
-      <c r="B144" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="C144" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="H144" s="4" t="s">
-        <v>828</v>
-      </c>
-      <c r="L144" s="56"/>
-    </row>
-    <row r="145" spans="1:12">
-      <c r="B145" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="L145" s="56"/>
-    </row>
-    <row r="146" spans="1:12" ht="45">
-      <c r="B146" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="C146" s="47" t="s">
-        <v>829</v>
-      </c>
-      <c r="H146" s="4" t="s">
-        <v>830</v>
-      </c>
-      <c r="L146" s="56"/>
-    </row>
-    <row r="147" spans="1:12" ht="30">
+      <c r="J146" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="N146" s="56"/>
+    </row>
+    <row r="147" spans="1:14">
       <c r="B147" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="C147" s="47" t="s">
-        <v>654</v>
-      </c>
-      <c r="H147" s="4" t="s">
-        <v>827</v>
-      </c>
-      <c r="L147" s="56"/>
-    </row>
-    <row r="148" spans="1:12">
+        <v>640</v>
+      </c>
+      <c r="N147" s="56"/>
+    </row>
+    <row r="148" spans="1:14" ht="45">
       <c r="B148" s="4" t="s">
-        <v>667</v>
+        <v>643</v>
       </c>
       <c r="C148" s="47" t="s">
-        <v>668</v>
-      </c>
-      <c r="H148" s="4" t="s">
-        <v>826</v>
-      </c>
-      <c r="L148" s="56"/>
-    </row>
-    <row r="149" spans="1:12" ht="45">
+        <v>806</v>
+      </c>
+      <c r="J148" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="N148" s="56"/>
+    </row>
+    <row r="149" spans="1:14" ht="30">
       <c r="B149" s="4" t="s">
-        <v>707</v>
+        <v>644</v>
       </c>
       <c r="C149" s="47" t="s">
-        <v>708</v>
-      </c>
-      <c r="H149" s="4" t="s">
-        <v>845</v>
-      </c>
-      <c r="L149" s="56"/>
-    </row>
-    <row r="150" spans="1:12" ht="45">
+        <v>645</v>
+      </c>
+      <c r="J149" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="N149" s="56"/>
+    </row>
+    <row r="150" spans="1:14">
       <c r="B150" s="4" t="s">
-        <v>716</v>
+        <v>657</v>
       </c>
       <c r="C150" s="47" t="s">
-        <v>717</v>
-      </c>
-      <c r="H150" s="4" t="s">
-        <v>738</v>
-      </c>
-      <c r="L150" s="56"/>
-    </row>
-    <row r="151" spans="1:12" ht="45">
-      <c r="A151" s="73"/>
-      <c r="B151" s="72" t="s">
-        <v>524</v>
+        <v>658</v>
+      </c>
+      <c r="J150" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="N150" s="56"/>
+    </row>
+    <row r="151" spans="1:14" ht="45">
+      <c r="B151" s="4" t="s">
+        <v>692</v>
       </c>
       <c r="C151" s="47" t="s">
-        <v>622</v>
-      </c>
-      <c r="H151" s="4" t="s">
-        <v>831</v>
-      </c>
-      <c r="L151" s="56"/>
-    </row>
-    <row r="152" spans="1:12">
-      <c r="A152" s="73"/>
-      <c r="B152" s="72" t="s">
-        <v>823</v>
-      </c>
-      <c r="L152" s="56"/>
-    </row>
-    <row r="153" spans="1:12">
+        <v>693</v>
+      </c>
+      <c r="J151" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="N151" s="56"/>
+    </row>
+    <row r="152" spans="1:14" ht="45">
+      <c r="B152" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="C152" s="47" t="s">
+        <v>702</v>
+      </c>
+      <c r="J152" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="N152" s="56"/>
+    </row>
+    <row r="153" spans="1:14" ht="45">
       <c r="A153" s="73"/>
       <c r="B153" s="72" t="s">
-        <v>531</v>
-      </c>
-      <c r="L153" s="56"/>
-    </row>
-    <row r="154" spans="1:12" ht="60">
+        <v>523</v>
+      </c>
+      <c r="C153" s="47" t="s">
+        <v>617</v>
+      </c>
+      <c r="J153" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="N153" s="56"/>
+    </row>
+    <row r="154" spans="1:14">
       <c r="A154" s="73"/>
       <c r="B154" s="72" t="s">
-        <v>547</v>
-      </c>
-      <c r="C154" s="47" t="s">
-        <v>813</v>
-      </c>
-      <c r="H154" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="L154" s="56"/>
-    </row>
-    <row r="155" spans="1:12" ht="30">
+        <v>800</v>
+      </c>
+      <c r="N154" s="56"/>
+    </row>
+    <row r="155" spans="1:14">
       <c r="A155" s="73"/>
       <c r="B155" s="72" t="s">
-        <v>445</v>
-      </c>
-      <c r="C155" s="47" t="s">
-        <v>832</v>
-      </c>
-      <c r="H155" s="4" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12">
+        <v>530</v>
+      </c>
+      <c r="N155" s="56"/>
+    </row>
+    <row r="156" spans="1:14" ht="60">
       <c r="A156" s="73"/>
-      <c r="B156" s="72"/>
-      <c r="L156" s="56"/>
-    </row>
-    <row r="157" spans="1:12" ht="45">
+      <c r="B156" s="72" t="s">
+        <v>546</v>
+      </c>
+      <c r="C156" s="47" t="s">
+        <v>791</v>
+      </c>
+      <c r="J156" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="N156" s="56"/>
+    </row>
+    <row r="157" spans="1:14" ht="30">
       <c r="A157" s="73"/>
       <c r="B157" s="72" t="s">
-        <v>508</v>
+        <v>445</v>
       </c>
       <c r="C157" s="47" t="s">
-        <v>641</v>
-      </c>
-      <c r="H157" s="4" t="s">
-        <v>826</v>
-      </c>
-      <c r="L157" s="56"/>
-    </row>
-    <row r="158" spans="1:12" ht="30">
+        <v>809</v>
+      </c>
+      <c r="J157" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
       <c r="A158" s="73"/>
-      <c r="B158" s="72" t="s">
-        <v>792</v>
-      </c>
-      <c r="C158" s="47" t="s">
-        <v>793</v>
-      </c>
-      <c r="H158" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="L158" s="56"/>
-    </row>
-    <row r="159" spans="1:12">
+      <c r="B158" s="72"/>
+      <c r="N158" s="56"/>
+    </row>
+    <row r="159" spans="1:14" ht="45">
       <c r="A159" s="73"/>
       <c r="B159" s="72" t="s">
-        <v>532</v>
+        <v>507</v>
       </c>
       <c r="C159" s="47" t="s">
-        <v>795</v>
-      </c>
-      <c r="H159" s="4" t="s">
-        <v>826</v>
-      </c>
-      <c r="L159" s="56"/>
-    </row>
-    <row r="160" spans="1:12" ht="60">
+        <v>633</v>
+      </c>
+      <c r="J159" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="N159" s="56"/>
+    </row>
+    <row r="160" spans="1:14" ht="30">
       <c r="A160" s="73"/>
       <c r="B160" s="72" t="s">
-        <v>521</v>
+        <v>770</v>
       </c>
       <c r="C160" s="47" t="s">
-        <v>794</v>
-      </c>
-      <c r="H160" s="4" t="s">
-        <v>738</v>
-      </c>
-      <c r="L160" s="56"/>
-    </row>
-    <row r="161" spans="1:12" ht="30">
+        <v>771</v>
+      </c>
+      <c r="J160" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="N160" s="56"/>
+    </row>
+    <row r="161" spans="1:14">
       <c r="A161" s="73"/>
       <c r="B161" s="72" t="s">
-        <v>799</v>
+        <v>531</v>
       </c>
       <c r="C161" s="47" t="s">
-        <v>800</v>
-      </c>
-      <c r="H161" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="L161" s="56"/>
-    </row>
-    <row r="162" spans="1:12" ht="30">
+        <v>773</v>
+      </c>
+      <c r="J161" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="N161" s="56"/>
+    </row>
+    <row r="162" spans="1:14" ht="60">
       <c r="A162" s="73"/>
       <c r="B162" s="72" t="s">
-        <v>587</v>
+        <v>520</v>
       </c>
       <c r="C162" s="47" t="s">
-        <v>588</v>
-      </c>
-      <c r="H162" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="L162" s="56"/>
-    </row>
-    <row r="163" spans="1:12" ht="30">
+        <v>772</v>
+      </c>
+      <c r="J162" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="N162" s="56"/>
+    </row>
+    <row r="163" spans="1:14" ht="30">
       <c r="A163" s="73"/>
       <c r="B163" s="72" t="s">
-        <v>444</v>
+        <v>777</v>
       </c>
       <c r="C163" s="47" t="s">
-        <v>833</v>
-      </c>
-      <c r="H163" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="L163" s="56"/>
-    </row>
-    <row r="164" spans="1:12" ht="45">
+        <v>778</v>
+      </c>
+      <c r="J163" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="N163" s="56"/>
+    </row>
+    <row r="164" spans="1:14" ht="30">
       <c r="A164" s="73"/>
       <c r="B164" s="72" t="s">
-        <v>519</v>
+        <v>583</v>
       </c>
       <c r="C164" s="47" t="s">
-        <v>836</v>
-      </c>
-      <c r="H164" s="4" t="s">
-        <v>738</v>
-      </c>
-      <c r="L164" s="56"/>
-    </row>
-    <row r="165" spans="1:12" ht="60">
+        <v>584</v>
+      </c>
+      <c r="J164" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="N164" s="56"/>
+    </row>
+    <row r="165" spans="1:14" ht="30">
       <c r="A165" s="73"/>
       <c r="B165" s="72" t="s">
-        <v>523</v>
+        <v>444</v>
       </c>
       <c r="C165" s="47" t="s">
-        <v>796</v>
-      </c>
-      <c r="H165" s="4" t="s">
-        <v>737</v>
-      </c>
-      <c r="L165" s="56"/>
-    </row>
-    <row r="166" spans="1:12">
+        <v>810</v>
+      </c>
+      <c r="J165" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="N165" s="56"/>
+    </row>
+    <row r="166" spans="1:14" ht="45">
       <c r="A166" s="73"/>
       <c r="B166" s="72" t="s">
-        <v>535</v>
-      </c>
-      <c r="L166" s="56"/>
-    </row>
-    <row r="167" spans="1:12" ht="60">
-      <c r="B167" s="4" t="s">
-        <v>801</v>
+        <v>518</v>
+      </c>
+      <c r="C166" s="47" t="s">
+        <v>813</v>
+      </c>
+      <c r="J166" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="N166" s="56"/>
+    </row>
+    <row r="167" spans="1:14" ht="60">
+      <c r="A167" s="73"/>
+      <c r="B167" s="72" t="s">
+        <v>522</v>
       </c>
       <c r="C167" s="47" t="s">
-        <v>835</v>
-      </c>
-      <c r="H167" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12">
-      <c r="A168" s="51" t="s">
+        <v>774</v>
+      </c>
+      <c r="J167" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="N167" s="56"/>
+    </row>
+    <row r="168" spans="1:14">
+      <c r="A168" s="73"/>
+      <c r="B168" s="72" t="s">
+        <v>534</v>
+      </c>
+      <c r="N168" s="56"/>
+    </row>
+    <row r="169" spans="1:14" ht="60">
+      <c r="B169" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="C169" s="47" t="s">
+        <v>812</v>
+      </c>
+      <c r="J169" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
+      <c r="A170" s="51" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="169" spans="1:12">
-      <c r="A169" s="4" t="s">
+    <row r="171" spans="1:14">
+      <c r="A171" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B171" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="C169" s="47" t="s">
+      <c r="C171" s="47" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="170" spans="1:12">
-      <c r="B170" s="4" t="s">
+    <row r="172" spans="1:14">
+      <c r="B172" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="C170" s="47" t="s">
+      <c r="C172" s="47" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="171" spans="1:12">
-      <c r="B171" s="4" t="s">
+    <row r="173" spans="1:14">
+      <c r="B173" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="C171" s="47" t="s">
+      <c r="C173" s="47" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="172" spans="1:12">
-      <c r="B172" s="4" t="s">
+    <row r="174" spans="1:14">
+      <c r="B174" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="C172" s="47" t="s">
+      <c r="C174" s="47" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="173" spans="1:12">
-      <c r="B173" s="4" t="s">
+    <row r="175" spans="1:14">
+      <c r="B175" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="C173" s="47" t="s">
+      <c r="C175" s="47" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="174" spans="1:12">
-      <c r="B174" s="4" t="s">
+    <row r="176" spans="1:14">
+      <c r="B176" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="C174" s="47" t="s">
+      <c r="C176" s="47" t="s">
         <v>456</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12">
-      <c r="B175" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="C175" s="47" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12">
-      <c r="B176" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="C176" s="47" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="177" spans="1:7">
       <c r="B177" s="4" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="30">
+        <v>611</v>
+      </c>
+      <c r="C177" s="47" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="B178" s="4" t="s">
-        <v>577</v>
+        <v>612</v>
       </c>
       <c r="C178" s="47" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="45">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="B179" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="C179" s="47" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="30">
       <c r="B180" s="4" t="s">
-        <v>613</v>
+        <v>573</v>
       </c>
       <c r="C180" s="47" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
-      <c r="A181" s="59" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="45">
+      <c r="B181" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C181" s="47" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="B182" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="C182" s="47" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="B181" s="66" t="s">
-        <v>489</v>
-      </c>
-      <c r="D181" s="6" t="s">
+      <c r="B183" s="66" t="s">
+        <v>488</v>
+      </c>
+      <c r="D183" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E181" s="50">
+      <c r="E183" s="50">
         <v>135</v>
-      </c>
-      <c r="G181" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="90">
-      <c r="A182" s="59"/>
-      <c r="B182" s="66" t="s">
-        <v>556</v>
-      </c>
-      <c r="C182" s="47" t="s">
-        <v>555</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E182" s="50">
-        <v>25</v>
-      </c>
-      <c r="G182" s="50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="30">
-      <c r="A183" s="60" t="s">
-        <v>192</v>
-      </c>
-      <c r="B183" s="65" t="s">
-        <v>488</v>
-      </c>
-      <c r="C183" s="47" t="s">
-        <v>424</v>
-      </c>
-      <c r="D183" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E183" s="50">
-        <v>120</v>
       </c>
       <c r="G183" s="50">
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
-      <c r="A184" s="61" t="s">
+    <row r="184" spans="1:7" ht="90">
+      <c r="A184" s="59"/>
+      <c r="B184" s="66" t="s">
+        <v>553</v>
+      </c>
+      <c r="C184" s="47" t="s">
+        <v>552</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E184" s="50">
+        <v>25</v>
+      </c>
+      <c r="G184" s="50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="30">
+      <c r="A185" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="B185" s="65" t="s">
+        <v>487</v>
+      </c>
+      <c r="C185" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="D185" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E185" s="50">
+        <v>120</v>
+      </c>
+      <c r="G185" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="B184" s="65" t="s">
-        <v>490</v>
-      </c>
-      <c r="D184" s="6" t="s">
+      <c r="B186" s="65" t="s">
+        <v>489</v>
+      </c>
+      <c r="D186" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E184" s="50">
+      <c r="E186" s="50">
         <v>140</v>
-      </c>
-      <c r="G184" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="62"/>
-      <c r="B185" s="65" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="A186" s="62" t="s">
-        <v>191</v>
-      </c>
-      <c r="B186" s="65" t="s">
-        <v>487</v>
-      </c>
-      <c r="D186" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E186" s="50">
-        <v>135</v>
       </c>
       <c r="G186" s="50">
         <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="63" t="s">
-        <v>190</v>
-      </c>
+      <c r="A187" s="62"/>
       <c r="B187" s="65" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="62" t="s">
+        <v>191</v>
+      </c>
+      <c r="B188" s="65" t="s">
         <v>486</v>
       </c>
-      <c r="D187" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E187" s="50">
-        <v>140</v>
-      </c>
-      <c r="G187" s="50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="B188" s="65"/>
       <c r="D188" s="6" t="s">
         <v>11</v>
       </c>
@@ -13055,6 +14216,38 @@
         <v>135</v>
       </c>
       <c r="G188" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189" s="65" t="s">
+        <v>485</v>
+      </c>
+      <c r="D189" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E189" s="50">
+        <v>140</v>
+      </c>
+      <c r="G189" s="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="B190" s="65"/>
+      <c r="D190" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E190" s="50">
+        <v>135</v>
+      </c>
+      <c r="G190" s="50">
         <v>4</v>
       </c>
     </row>
@@ -14018,13 +15211,13 @@
         <v>9</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
       <c r="C46" s="8">
         <v>2</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>11</v>
@@ -14110,7 +15303,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C50" s="8">
         <v>1</v>
@@ -14815,7 +16008,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="17" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -14825,32 +16018,32 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="17" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="17" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="17" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="17" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="17" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="17" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -14858,12 +16051,12 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="17" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="17" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
     </row>
     <row r="46" spans="1:2">

--- a/Documentation.xlsx
+++ b/Documentation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Overview" sheetId="2" r:id="rId1"/>
@@ -21,21 +21,17 @@
     <sheet name="Religions" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="899">
   <si>
     <t>physical</t>
   </si>
@@ -1717,9 +1713,6 @@
     <t>Blood Boil</t>
   </si>
   <si>
-    <t>Unit deals massively increased damage (60%) while below 50% max Health.</t>
-  </si>
-  <si>
     <t>Black Blade</t>
   </si>
   <si>
@@ -2711,6 +2704,30 @@
   </si>
   <si>
     <t>Boost element/type damage by 20%; boost magical/physical damage by 10%</t>
+  </si>
+  <si>
+    <t>Unbreaking Resolve</t>
+  </si>
+  <si>
+    <t>Volatile Flesh</t>
+  </si>
+  <si>
+    <t>At the end of every round, decrease health by 5% and inflict Poison(2) on two random enemies.</t>
+  </si>
+  <si>
+    <t>Bottomfeeder</t>
+  </si>
+  <si>
+    <t>If this ability kills enemy unit, heal self for 25% of target's max health.</t>
+  </si>
+  <si>
+    <t>Unleashed</t>
+  </si>
+  <si>
+    <t>Unit deals massively increased damage (60%) while below 50% max Health and heals for 20% of damage dealt.</t>
+  </si>
+  <si>
+    <t>When unit drops below 50% health, increases Spd/Atk by two.</t>
   </si>
 </sst>
 </file>
@@ -4564,7 +4581,7 @@
         <v>208</v>
       </c>
       <c r="N7" s="68" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="O7" s="65" t="s">
         <v>498</v>
@@ -4774,7 +4791,7 @@
         <v>502</v>
       </c>
       <c r="O13" s="68" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="P13" t="s">
         <v>288</v>
@@ -4852,7 +4869,7 @@
         <v>540</v>
       </c>
       <c r="O15" s="63" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -4891,7 +4908,7 @@
         <v>540</v>
       </c>
       <c r="O16" s="63" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -5035,10 +5052,10 @@
         <v>546</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="N20" s="63" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O20" s="63" t="s">
         <v>442</v>
@@ -5083,10 +5100,10 @@
         <v>546</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="N21" s="63" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="O21" s="63" t="s">
         <v>442</v>
@@ -5125,7 +5142,7 @@
         <v>392</v>
       </c>
       <c r="O22" s="65" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -5161,7 +5178,7 @@
         <v>434</v>
       </c>
       <c r="N23" s="65" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -5197,7 +5214,7 @@
         <v>390</v>
       </c>
       <c r="N24" s="65" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -5233,7 +5250,7 @@
         <v>271</v>
       </c>
       <c r="K26" s="64" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L26" s="55" t="s">
         <v>519</v>
@@ -5242,7 +5259,7 @@
         <v>442</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="O26" s="64" t="s">
         <v>508</v>
@@ -5281,13 +5298,13 @@
         <v>257</v>
       </c>
       <c r="K27" s="64" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="M27" s="64" t="s">
         <v>520</v>
       </c>
       <c r="O27" s="63" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -5440,10 +5457,10 @@
         <v>520</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="N31" s="64" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -5482,7 +5499,7 @@
         <v>520</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M32" s="64" t="s">
         <v>522</v>
@@ -5521,7 +5538,7 @@
         <v>274</v>
       </c>
       <c r="K33" s="64" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L33" s="64" t="s">
         <v>520</v>
@@ -5563,10 +5580,10 @@
         <v>373</v>
       </c>
       <c r="K34" s="64" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N34" s="68" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -5602,7 +5619,7 @@
         <v>352</v>
       </c>
       <c r="L35" s="64" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -5992,10 +6009,10 @@
         <v>555</v>
       </c>
       <c r="L46" s="64" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M46" s="68" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="N46" s="64" t="s">
         <v>523</v>
@@ -6037,7 +6054,7 @@
         <v>555</v>
       </c>
       <c r="M47" s="68" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -6076,16 +6093,16 @@
         <v>555</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M48" s="68" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="N48" s="68" t="s">
         <v>553</v>
       </c>
       <c r="O48" s="66" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -6268,7 +6285,7 @@
         <v>540</v>
       </c>
       <c r="O54" s="66" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
@@ -6346,7 +6363,7 @@
         <v>540</v>
       </c>
       <c r="O56" s="66" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
@@ -6541,7 +6558,7 @@
         <v>451</v>
       </c>
       <c r="K61" s="64" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M61" s="65" t="s">
         <v>500</v>
@@ -6733,7 +6750,7 @@
         <v>456</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -6880,7 +6897,7 @@
         <v>400</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="P71" t="s">
         <v>255</v>
@@ -6919,7 +6936,7 @@
         <v>313</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="P72" t="s">
         <v>257</v>
@@ -7027,13 +7044,13 @@
         <v>367</v>
       </c>
       <c r="K75" s="69" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="N75" s="69" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O75" s="67" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
@@ -7105,16 +7122,16 @@
         <v>328</v>
       </c>
       <c r="K77" s="69" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L77" s="67" t="s">
         <v>517</v>
       </c>
       <c r="M77" s="68" t="s">
+        <v>589</v>
+      </c>
+      <c r="N77" s="4" t="s">
         <v>590</v>
-      </c>
-      <c r="N77" s="4" t="s">
-        <v>591</v>
       </c>
       <c r="P77" t="s">
         <v>299</v>
@@ -7156,7 +7173,7 @@
         <v>419</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M78" s="64" t="s">
         <v>444</v>
@@ -7204,13 +7221,13 @@
         <v>519</v>
       </c>
       <c r="K79" s="67" t="s">
+        <v>577</v>
+      </c>
+      <c r="L79" s="70" t="s">
         <v>578</v>
       </c>
-      <c r="L79" s="70" t="s">
-        <v>579</v>
-      </c>
       <c r="M79" s="69" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P79" t="s">
         <v>298</v>
@@ -7288,7 +7305,7 @@
         <v>428</v>
       </c>
       <c r="O81" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -7402,13 +7419,13 @@
         <v>367</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="N85" s="67" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="O85" s="68" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
@@ -7453,7 +7470,7 @@
         <v>521</v>
       </c>
       <c r="O86" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
@@ -7639,7 +7656,7 @@
         <v>517</v>
       </c>
       <c r="O91" s="67" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
@@ -7678,7 +7695,7 @@
         <v>502</v>
       </c>
       <c r="N92" s="68" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
@@ -7714,7 +7731,7 @@
         <v>318</v>
       </c>
       <c r="N94" s="67" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="O94" s="64" t="s">
         <v>512</v>
@@ -7753,19 +7770,19 @@
         <v>402</v>
       </c>
       <c r="K95" s="68" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="L95" s="69" t="s">
         <v>515</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="N95" s="68" t="s">
         <v>502</v>
       </c>
       <c r="O95" s="69" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
@@ -7801,10 +7818,10 @@
         <v>415</v>
       </c>
       <c r="K96" s="69" t="s">
+        <v>580</v>
+      </c>
+      <c r="L96" s="4" t="s">
         <v>581</v>
-      </c>
-      <c r="L96" s="4" t="s">
-        <v>582</v>
       </c>
       <c r="M96" s="67" t="s">
         <v>517</v>
@@ -7852,10 +7869,10 @@
         <v>435</v>
       </c>
       <c r="K97" s="69" t="s">
+        <v>580</v>
+      </c>
+      <c r="L97" s="4" t="s">
         <v>581</v>
-      </c>
-      <c r="L97" s="4" t="s">
-        <v>582</v>
       </c>
       <c r="M97" s="67" t="s">
         <v>517</v>
@@ -7903,10 +7920,10 @@
         <v>435</v>
       </c>
       <c r="K98" s="69" t="s">
+        <v>580</v>
+      </c>
+      <c r="L98" s="4" t="s">
         <v>581</v>
-      </c>
-      <c r="L98" s="4" t="s">
-        <v>582</v>
       </c>
       <c r="M98" s="67" t="s">
         <v>517</v>
@@ -7993,7 +8010,7 @@
         <v>431</v>
       </c>
       <c r="K100" s="63" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
@@ -8077,7 +8094,7 @@
         <v>492</v>
       </c>
       <c r="N102" s="69" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
@@ -8113,7 +8130,7 @@
         <v>735</v>
       </c>
       <c r="K103" s="63" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
@@ -8266,7 +8283,7 @@
         <v>459</v>
       </c>
       <c r="N108" s="68" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
@@ -8398,7 +8415,7 @@
         <v>498</v>
       </c>
       <c r="O111" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
@@ -8437,7 +8454,7 @@
         <v>441</v>
       </c>
       <c r="O112" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
@@ -8988,7 +9005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -9095,67 +9112,67 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B19" s="54"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B20" s="54"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B21" s="54"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="54" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="54" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="54" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B25" s="54"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="54" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" s="54" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B28" s="54"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="54" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" s="54" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -9188,12 +9205,12 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -9218,23 +9235,23 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C50">
         <f>COUNTIF(Skills!J2:J122, "*")</f>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D50">
         <f>COUNT(Skills!G2:G122)</f>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F50" s="72" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G50" s="73"/>
     </row>
@@ -9244,14 +9261,14 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C52">
         <f>COUNTIF(Skills!$J$2:$J$122, "*damage*")</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F52" s="74" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G52" s="75">
         <f>COUNTIF(Skills!$G$2:$G$122, "1")</f>
@@ -9260,30 +9277,30 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C53">
         <f>COUNTIF(Skills!$J$2:$J$122, "*heal*")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" s="74" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G53" s="75">
         <f>COUNTIF(Skills!$G$2:$G$122, "2")</f>
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C54">
         <f>COUNTIF(Skills!$J$2:$J$122, "*shield*")</f>
         <v>7</v>
       </c>
       <c r="F54" s="74" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G54" s="75">
         <f>COUNTIF(Skills!$G$2:$G$122, "3")</f>
@@ -9292,14 +9309,14 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C55">
         <f>COUNTIF(Skills!$J$2:$J$122, "* buff*")</f>
         <v>15</v>
       </c>
       <c r="F55" s="76" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G55" s="77">
         <f>COUNTIF(Skills!$G$2:$G$122, "4")</f>
@@ -9308,7 +9325,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C56">
         <f>COUNTIF(Skills!$J$2:$J$122, "*debuff*")</f>
@@ -9317,7 +9334,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C57">
         <f>SUM(C58:C66)</f>
@@ -9326,7 +9343,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C58">
         <f>COUNTIF(Skills!$J$2:$J$122, "*bleed*")</f>
@@ -9341,7 +9358,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C59">
         <f>COUNTIF(Skills!$J$2:$J$122, "*stun*")</f>
@@ -9356,7 +9373,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C60">
         <f>COUNTIF(Skills!$J$2:$J$122, "*sleep*")</f>
@@ -9371,7 +9388,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B61" s="17"/>
       <c r="C61">
@@ -9387,7 +9404,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B62" s="17"/>
       <c r="C62">
@@ -9398,12 +9415,12 @@
         <v>15</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B63" s="17"/>
       <c r="C63">
@@ -9414,12 +9431,12 @@
         <v>15</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B64" s="17"/>
       <c r="C64">
@@ -9430,12 +9447,12 @@
         <v>10</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B65" s="17"/>
       <c r="C65">
@@ -9446,12 +9463,12 @@
         <v>40</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B66" s="17"/>
       <c r="C66">
@@ -9459,12 +9476,12 @@
         <v>3</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B67" s="17"/>
       <c r="C67">
@@ -9472,7 +9489,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -9480,7 +9497,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C69">
         <f>COUNTIF(Skills!J134:J169, "**")</f>
@@ -9489,7 +9506,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C71">
         <f>COUNTIF(Skills!$J$134:$J$169, "*damage*")</f>
@@ -9498,7 +9515,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C72">
         <f>COUNTIF(Skills!$J$134:$J$169, "*immune*")</f>
@@ -9507,7 +9524,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C73">
         <f>COUNTIF(Skills!$J$134:$J$169, "*heal*")</f>
@@ -9516,7 +9533,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C74">
         <f>COUNTIF(Skills!$J$134:$J$169, "*shield*")</f>
@@ -9525,7 +9542,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C75">
         <f>COUNTIF(Skills!$J$134:$J$169, "* buff*")</f>
@@ -9534,7 +9551,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C76">
         <f>COUNTIF(Skills!$J$134:$J$169, "*debuff*")</f>
@@ -9543,7 +9560,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C77">
         <f>SUM(C78:C86)</f>
@@ -9552,7 +9569,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C78">
         <f>COUNTIF(Skills!$J$134:$J$169, "*bleed*")</f>
@@ -9561,7 +9578,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C79">
         <f>COUNTIF(Skills!$J$134:$J$169, "*stun*")</f>
@@ -9570,7 +9587,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C80">
         <f>COUNTIF(Skills!$J$134:$J$169, "*sleep*")</f>
@@ -9579,7 +9596,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C81">
         <f>COUNTIF(Skills!$J$134:$J$169, "*silence*")</f>
@@ -9588,7 +9605,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C82">
         <f>COUNTIF(Skills!$J$134:$J$169, "*burn*")</f>
@@ -9597,7 +9614,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C83">
         <f>COUNTIF(Skills!$J$134:$J$169, "*poison*")</f>
@@ -9606,7 +9623,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C84">
         <f>COUNTIF(Skills!$J$134:$J$169, "*bind*")</f>
@@ -9615,7 +9632,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C85">
         <f>COUNTIF(Skills!$J$134:$J$169, "*curse*")</f>
@@ -9624,7 +9641,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C86">
         <f>COUNTIF(Skills!$J$134:$J$169, "*energy*")</f>
@@ -9633,7 +9650,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -9641,7 +9658,7 @@
         <v>-10</v>
       </c>
       <c r="B89" s="78" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C89" s="37">
         <f>2/8</f>
@@ -9653,7 +9670,7 @@
         <v>-9</v>
       </c>
       <c r="B90" s="78" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C90" s="37">
         <f>1/3.75</f>
@@ -9665,7 +9682,7 @@
         <v>-8</v>
       </c>
       <c r="B91" s="78" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C91" s="37">
         <f>1/3.5</f>
@@ -9677,7 +9694,7 @@
         <v>-7</v>
       </c>
       <c r="B92" s="78" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C92" s="37">
         <f>1/3.25</f>
@@ -9689,7 +9706,7 @@
         <v>-6</v>
       </c>
       <c r="B93" s="78" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C93" s="37">
         <f>2/6</f>
@@ -9701,7 +9718,7 @@
         <v>-5</v>
       </c>
       <c r="B94" s="78" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C94" s="37">
         <f>1/2.75</f>
@@ -9713,7 +9730,7 @@
         <v>-4</v>
       </c>
       <c r="B95" s="78" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C95" s="37">
         <f>1/2.5</f>
@@ -9725,7 +9742,7 @@
         <v>-3</v>
       </c>
       <c r="B96" s="78" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C96" s="37">
         <f>1/2.25</f>
@@ -9737,7 +9754,7 @@
         <v>-2</v>
       </c>
       <c r="B97" s="78" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C97" s="37">
         <f>1/2</f>
@@ -9749,7 +9766,7 @@
         <v>-1</v>
       </c>
       <c r="B98" s="78" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C98" s="37">
         <f>1/1.5</f>
@@ -9761,7 +9778,7 @@
         <v>0</v>
       </c>
       <c r="B99" s="78" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C99" s="37">
         <v>1</v>
@@ -9772,7 +9789,7 @@
         <v>1</v>
       </c>
       <c r="B100" s="78" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C100" s="37">
         <v>1.5</v>
@@ -9783,7 +9800,7 @@
         <v>2</v>
       </c>
       <c r="B101" s="78" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C101" s="37">
         <v>2</v>
@@ -9794,7 +9811,7 @@
         <v>3</v>
       </c>
       <c r="B102" s="78" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C102" s="37">
         <v>2.25</v>
@@ -9805,7 +9822,7 @@
         <v>4</v>
       </c>
       <c r="B103" s="78" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C103" s="37">
         <v>2.5</v>
@@ -9816,7 +9833,7 @@
         <v>5</v>
       </c>
       <c r="B104" s="78" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C104" s="37">
         <v>2.75</v>
@@ -9827,7 +9844,7 @@
         <v>6</v>
       </c>
       <c r="B105" s="78" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C105" s="37">
         <v>3</v>
@@ -9838,7 +9855,7 @@
         <v>7</v>
       </c>
       <c r="B106" s="78" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C106" s="37">
         <v>3.25</v>
@@ -9849,7 +9866,7 @@
         <v>8</v>
       </c>
       <c r="B107" s="78" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C107" s="37">
         <v>3.5</v>
@@ -9860,7 +9877,7 @@
         <v>9</v>
       </c>
       <c r="B108" s="78" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C108" s="37">
         <v>3.75</v>
@@ -9871,7 +9888,7 @@
         <v>10</v>
       </c>
       <c r="B109" s="78" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C109" s="37">
         <v>4</v>
@@ -9885,11 +9902,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N190"/>
+  <dimension ref="A1:N194"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G91" sqref="G91"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9923,13 +9940,13 @@
         <v>160</v>
       </c>
       <c r="G1" s="51" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1" s="51" t="s">
+        <v>833</v>
+      </c>
+      <c r="I1" s="51" t="s">
         <v>834</v>
-      </c>
-      <c r="I1" s="51" t="s">
-        <v>835</v>
       </c>
       <c r="J1" s="50" t="s">
         <v>164</v>
@@ -9965,7 +9982,7 @@
         <v>55</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -9995,12 +10012,12 @@
         <v>60</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="63" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>438</v>
@@ -10025,12 +10042,12 @@
         <v>70</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="63" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>438</v>
@@ -10055,7 +10072,7 @@
         <v>45</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -10085,15 +10102,15 @@
         <v>65</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="63" t="s">
+        <v>775</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>776</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>777</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>0</v>
@@ -10115,7 +10132,7 @@
         <v>50</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -10123,7 +10140,7 @@
         <v>474</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>11</v>
@@ -10145,7 +10162,7 @@
         <v>70</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -10175,15 +10192,15 @@
         <v>40</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="63" t="s">
+        <v>759</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>760</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>761</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>438</v>
@@ -10205,15 +10222,15 @@
         <v>50</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="63" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>0</v>
@@ -10235,7 +10252,7 @@
         <v>75</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10265,12 +10282,12 @@
         <v>45</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="63" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>477</v>
@@ -10295,7 +10312,7 @@
         <v>55</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10303,7 +10320,7 @@
         <v>536</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>0</v>
@@ -10312,7 +10329,7 @@
         <v>30</v>
       </c>
       <c r="F14" s="49" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G14" s="49">
         <v>2</v>
@@ -10325,15 +10342,15 @@
         <v>67.5</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="63" t="s">
+        <v>751</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>752</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>753</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>0</v>
@@ -10342,7 +10359,7 @@
         <v>25</v>
       </c>
       <c r="F15" s="49" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G15" s="49">
         <v>2</v>
@@ -10355,15 +10372,15 @@
         <v>25</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="63" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>438</v>
@@ -10385,15 +10402,15 @@
         <v>20</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="63" t="s">
+        <v>654</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>655</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>656</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>438</v>
@@ -10415,15 +10432,15 @@
         <v>30</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B18" s="63" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>0</v>
@@ -10445,15 +10462,15 @@
         <v>45</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="63" t="s">
+        <v>828</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>829</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>830</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>0</v>
@@ -10462,7 +10479,7 @@
         <v>40</v>
       </c>
       <c r="F19" s="49" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G19" s="49">
         <v>2</v>
@@ -10475,15 +10492,15 @@
         <v>80</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" s="63" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>438</v>
@@ -10505,7 +10522,7 @@
         <v>22.5</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10513,7 +10530,7 @@
         <v>505</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>0</v>
@@ -10535,12 +10552,12 @@
         <v>41.666666666666664</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22" s="63" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>110</v>
@@ -10565,21 +10582,21 @@
         <v>40</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="63" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E23" s="49" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F23" s="49">
         <v>1</v>
@@ -10592,21 +10609,21 @@
         <v>#VALUE!</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="63" t="s">
+        <v>615</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>616</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>617</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E24" s="49" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F24" s="49">
         <v>1</v>
@@ -10619,7 +10636,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -10627,7 +10644,7 @@
         <v>504</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>438</v>
@@ -10649,15 +10666,15 @@
         <v>31.666666666666668</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="63" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>438</v>
@@ -10676,7 +10693,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -10684,7 +10701,7 @@
         <v>115</v>
       </c>
       <c r="B27" s="64" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>438</v>
@@ -10709,7 +10726,7 @@
         <v>50</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -10740,16 +10757,16 @@
         <v>65</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="57"/>
       <c r="B29" s="64" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>438</v>
@@ -10758,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="49" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G29" s="49">
         <v>1</v>
@@ -10771,16 +10788,16 @@
         <v>40</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="57"/>
       <c r="B30" s="64" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>0</v>
@@ -10802,7 +10819,7 @@
         <v>40</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10811,7 +10828,7 @@
         <v>508</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>0</v>
@@ -10833,7 +10850,7 @@
         <v>42.5</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -10842,7 +10859,7 @@
         <v>520</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>0</v>
@@ -10864,7 +10881,7 @@
         <v>40</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -10895,13 +10912,13 @@
         <v>60</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="57"/>
       <c r="B34" s="64" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>110</v>
@@ -10926,16 +10943,16 @@
         <v>42.5</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="57"/>
       <c r="B35" s="64" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>0</v>
@@ -10957,16 +10974,16 @@
         <v>60</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="57"/>
       <c r="B36" s="64" t="s">
+        <v>633</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>634</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>635</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>0</v>
@@ -10988,16 +11005,16 @@
         <v>45</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="57"/>
       <c r="B37" s="64" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>0</v>
@@ -11019,16 +11036,16 @@
         <v>40</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="57"/>
       <c r="B38" s="64" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>11</v>
@@ -11050,7 +11067,7 @@
         <v>45</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -11059,7 +11076,7 @@
         <v>444</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>438</v>
@@ -11081,16 +11098,16 @@
         <v>60</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="57"/>
       <c r="B40" s="64" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>438</v>
@@ -11112,7 +11129,7 @@
         <v>35</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -11121,7 +11138,7 @@
         <v>437</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>438</v>
@@ -11143,7 +11160,7 @@
         <v>50</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -11152,7 +11169,7 @@
         <v>512</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>11</v>
@@ -11174,16 +11191,16 @@
         <v>43.333333333333336</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="57"/>
       <c r="B43" s="64" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>11</v>
@@ -11205,7 +11222,7 @@
         <v>56.666666666666664</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -11214,7 +11231,7 @@
         <v>529</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>438</v>
@@ -11236,7 +11253,7 @@
         <v>53.333333333333336</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -11267,7 +11284,7 @@
         <v>40</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -11275,10 +11292,10 @@
         <v>188</v>
       </c>
       <c r="B46" s="65" t="s">
+        <v>744</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>745</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>746</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>438</v>
@@ -11297,7 +11314,7 @@
         <v>10</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -11306,7 +11323,7 @@
         <v>506</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>0</v>
@@ -11315,7 +11332,7 @@
         <v>20</v>
       </c>
       <c r="F47" s="49" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G47" s="49">
         <v>1</v>
@@ -11328,7 +11345,7 @@
         <v>100</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K47" s="17"/>
     </row>
@@ -11361,7 +11378,7 @@
         <v>67.5</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -11370,7 +11387,7 @@
         <v>497</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>0</v>
@@ -11392,7 +11409,7 @@
         <v>40</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -11401,7 +11418,7 @@
         <v>500</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>11</v>
@@ -11423,17 +11440,17 @@
         <v>40</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K50" s="17"/>
     </row>
     <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="58"/>
       <c r="B51" s="65" t="s">
+        <v>626</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>627</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>628</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>0</v>
@@ -11455,7 +11472,7 @@
         <v>50</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -11472,7 +11489,7 @@
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="58"/>
       <c r="B53" s="65" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I53" s="49" t="e">
         <f t="shared" si="0"/>
@@ -11486,7 +11503,7 @@
         <v>537</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>11</v>
@@ -11508,17 +11525,17 @@
         <v>40</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="K54" s="17"/>
     </row>
     <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="58"/>
       <c r="B55" s="65" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>0</v>
@@ -11540,17 +11557,17 @@
         <v>47.5</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="K55" s="17"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="58"/>
       <c r="B56" s="65" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>0</v>
@@ -11572,16 +11589,16 @@
         <v>50</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="58"/>
       <c r="B57" s="65" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>438</v>
@@ -11603,7 +11620,7 @@
         <v>73.333333333333329</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K57" s="17"/>
     </row>
@@ -11613,7 +11630,7 @@
         <v>419</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>438</v>
@@ -11636,16 +11653,16 @@
         <v>40</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="58"/>
       <c r="B59" s="65" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>438</v>
@@ -11668,16 +11685,16 @@
         <v>66.666666666666671</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="58"/>
       <c r="B60" s="65" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>0</v>
@@ -11699,16 +11716,16 @@
         <v>41.666666666666664</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="58"/>
       <c r="B61" s="65" t="s">
+        <v>594</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>595</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>596</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>0</v>
@@ -11730,7 +11747,7 @@
         <v>42.5</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -11738,7 +11755,7 @@
         <v>189</v>
       </c>
       <c r="B62" s="67" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>438</v>
@@ -11763,7 +11780,7 @@
         <v>55</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -11794,7 +11811,7 @@
         <v>45</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -11825,16 +11842,16 @@
         <v>40</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="59"/>
       <c r="B65" s="67" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>438</v>
@@ -11843,7 +11860,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="49" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G65" s="49">
         <v>1</v>
@@ -11857,7 +11874,7 @@
         <v>80</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -11889,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -11898,7 +11915,7 @@
         <v>501</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>11</v>
@@ -11920,16 +11937,16 @@
         <v>40</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="59"/>
       <c r="B68" s="67" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>0</v>
@@ -11951,7 +11968,7 @@
         <v>50</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -11967,7 +11984,7 @@
     <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="59"/>
       <c r="B70" s="67" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>544</v>
@@ -11993,16 +12010,16 @@
         <v>48.75</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="59"/>
       <c r="B71" s="67" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>0</v>
@@ -12024,13 +12041,13 @@
         <v>47.5</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="59"/>
       <c r="B72" s="67" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>11</v>
@@ -12043,10 +12060,10 @@
     <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="59"/>
       <c r="B73" s="67" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>11</v>
@@ -12065,16 +12082,16 @@
         <v>30</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="59"/>
       <c r="B74" s="67" t="s">
+        <v>782</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>783</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>784</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>11</v>
@@ -12083,7 +12100,7 @@
         <v>30</v>
       </c>
       <c r="F74" s="49" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G74" s="49">
         <v>2</v>
@@ -12097,16 +12114,16 @@
         <v>80</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="59"/>
       <c r="B75" s="67" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>0</v>
@@ -12128,16 +12145,16 @@
         <v>40</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="59"/>
       <c r="B76" s="67" t="s">
+        <v>572</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>573</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>574</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>0</v>
@@ -12159,7 +12176,7 @@
         <v>41.666666666666664</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -12168,7 +12185,7 @@
         <v>480</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>11</v>
@@ -12177,7 +12194,7 @@
         <v>40</v>
       </c>
       <c r="F77" s="49" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G77" s="49">
         <v>3</v>
@@ -12190,16 +12207,16 @@
         <v>70</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="59"/>
       <c r="B78" s="67" t="s">
+        <v>792</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>793</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>794</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>11</v>
@@ -12221,7 +12238,7 @@
         <v>42.5</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -12229,10 +12246,10 @@
         <v>187</v>
       </c>
       <c r="B79" s="68" t="s">
+        <v>643</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>644</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>645</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>438</v>
@@ -12254,7 +12271,7 @@
         <v>40</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -12263,7 +12280,7 @@
         <v>502</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>11</v>
@@ -12286,7 +12303,7 @@
         <v>62</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -12295,7 +12312,7 @@
         <v>510</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>11</v>
@@ -12317,16 +12334,16 @@
         <v>52.5</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="60"/>
       <c r="B82" s="68" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>0</v>
@@ -12348,7 +12365,7 @@
         <v>52.5</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -12379,13 +12396,13 @@
         <v>47.5</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="60"/>
       <c r="B84" s="68" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>554</v>
@@ -12410,16 +12427,16 @@
         <v>47.5</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="60"/>
       <c r="B85" s="68" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>11</v>
@@ -12441,16 +12458,16 @@
         <v>55</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="60"/>
       <c r="B86" s="68" t="s">
+        <v>623</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>624</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>625</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>438</v>
@@ -12472,16 +12489,16 @@
         <v>45</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="60"/>
       <c r="B87" s="68" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>438</v>
@@ -12490,7 +12507,7 @@
         <v>0</v>
       </c>
       <c r="F87" s="49" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G87" s="49">
         <v>2</v>
@@ -12503,16 +12520,16 @@
         <v>20</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="60"/>
       <c r="B88" s="68" t="s">
+        <v>649</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>650</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>651</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>438</v>
@@ -12534,7 +12551,7 @@
         <v>25</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -12543,7 +12560,7 @@
         <v>521</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>11</v>
@@ -12565,16 +12582,16 @@
         <v>43.333333333333336</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="60"/>
       <c r="B90" s="68" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>11</v>
@@ -12596,16 +12613,16 @@
         <v>40</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="60"/>
       <c r="B91" s="68" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>11</v>
@@ -12627,13 +12644,13 @@
         <v>41.666666666666664</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="60"/>
       <c r="B92" s="68" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>544</v>
@@ -12659,23 +12676,44 @@
         <v>50</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="60"/>
       <c r="B93" s="68" t="s">
         <v>543</v>
       </c>
-      <c r="I93" s="49" t="e">
+      <c r="C93" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="49">
+        <v>45</v>
+      </c>
+      <c r="F93" s="49">
+        <v>2</v>
+      </c>
+      <c r="G93" s="49">
+        <v>2</v>
+      </c>
+      <c r="H93" s="49">
+        <v>50</v>
+      </c>
+      <c r="I93" s="49">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>52.5</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="60"/>
       <c r="B94" s="68" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I94" s="49" t="e">
         <f t="shared" si="1"/>
@@ -12687,7 +12725,7 @@
         <v>186</v>
       </c>
       <c r="B95" s="69" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>438</v>
@@ -12712,7 +12750,7 @@
         <v>50</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -12743,7 +12781,7 @@
         <v>35</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -12774,16 +12812,16 @@
         <v>45</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="61"/>
       <c r="B98" s="69" t="s">
+        <v>823</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>824</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>825</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>438</v>
@@ -12792,7 +12830,7 @@
         <v>0</v>
       </c>
       <c r="F98" s="49" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G98" s="49">
         <v>1</v>
@@ -12805,16 +12843,16 @@
         <v>30</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="61"/>
       <c r="B99" s="69" t="s">
+        <v>830</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>831</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>832</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>0</v>
@@ -12836,7 +12874,7 @@
         <v>40</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -12867,7 +12905,7 @@
         <v>45</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -12876,7 +12914,7 @@
         <v>513</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D101" s="6" t="s">
         <v>0</v>
@@ -12898,7 +12936,7 @@
         <v>40</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -12907,7 +12945,7 @@
         <v>515</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>0</v>
@@ -12929,16 +12967,16 @@
         <v>55</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="61"/>
       <c r="B103" s="69" t="s">
+        <v>574</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>575</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>576</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>11</v>
@@ -12960,16 +12998,16 @@
         <v>50</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="61"/>
       <c r="B104" s="69" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>11</v>
@@ -12991,22 +13029,22 @@
         <v>52.5</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="61"/>
       <c r="B105" s="69" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E105" s="49" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F105" s="49">
         <v>1</v>
@@ -13019,16 +13057,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="61"/>
       <c r="B106" s="69" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>11</v>
@@ -13050,16 +13088,16 @@
         <v>40</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="61"/>
       <c r="B107" s="69" t="s">
+        <v>636</v>
+      </c>
+      <c r="C107" s="5" t="s">
         <v>637</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>638</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>11</v>
@@ -13081,16 +13119,16 @@
         <v>50</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="61"/>
       <c r="B108" s="69" t="s">
+        <v>706</v>
+      </c>
+      <c r="C108" s="5" t="s">
         <v>707</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>708</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>0</v>
@@ -13112,16 +13150,16 @@
         <v>43.333333333333336</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="61"/>
       <c r="B109" s="69" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>11</v>
@@ -13130,7 +13168,7 @@
         <v>0</v>
       </c>
       <c r="F109" s="49" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G109" s="49">
         <v>3</v>
@@ -13144,16 +13182,16 @@
         <v>140</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A110" s="61"/>
       <c r="B110" s="69" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>438</v>
@@ -13162,7 +13200,7 @@
         <v>0</v>
       </c>
       <c r="F110" s="49" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G110" s="49">
         <v>3</v>
@@ -13175,16 +13213,16 @@
         <v>60</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="61"/>
       <c r="B111" s="69" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>11</v>
@@ -13193,7 +13231,7 @@
         <v>90</v>
       </c>
       <c r="F111" s="49" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G111" s="49">
         <v>4</v>
@@ -13206,7 +13244,7 @@
         <v>67.5</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -13239,7 +13277,7 @@
         <v>65</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -13270,16 +13308,16 @@
         <v>45</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="62"/>
       <c r="B114" s="66" t="s">
+        <v>630</v>
+      </c>
+      <c r="C114" s="5" t="s">
         <v>631</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>632</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>11</v>
@@ -13288,7 +13326,7 @@
         <v>40</v>
       </c>
       <c r="F114" s="49" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G114" s="49">
         <v>2</v>
@@ -13302,7 +13340,7 @@
         <v>80</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -13311,7 +13349,7 @@
         <v>511</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>11</v>
@@ -13333,7 +13371,7 @@
         <v>40</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -13364,16 +13402,16 @@
         <v>40</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="62"/>
       <c r="B117" s="66" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>11</v>
@@ -13395,7 +13433,7 @@
         <v>42.5</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -13426,16 +13464,16 @@
         <v>50</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="62"/>
       <c r="B119" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>11</v>
@@ -13457,7 +13495,7 @@
         <v>57.5</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -13467,10 +13505,10 @@
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="62"/>
       <c r="B121" s="66" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>0</v>
@@ -13492,16 +13530,16 @@
         <v>48.333333333333336</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="62"/>
       <c r="B122" s="66" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>0</v>
@@ -13523,16 +13561,16 @@
         <v>40</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="62"/>
       <c r="B123" s="66" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>11</v>
@@ -13554,16 +13592,16 @@
         <v>63.333333333333336</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="62"/>
       <c r="B124" s="66" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>0</v>
@@ -13572,7 +13610,7 @@
         <v>40</v>
       </c>
       <c r="F124" s="49" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G124" s="49">
         <v>4</v>
@@ -13586,13 +13624,13 @@
         <v>84</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="62"/>
       <c r="B125" s="66" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>496</v>
@@ -13604,7 +13642,7 @@
         <v>80</v>
       </c>
       <c r="F125" s="49" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G125" s="49">
         <v>4</v>
@@ -13617,19 +13655,19 @@
         <v>60</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="62"/>
       <c r="B126" s="66" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="62"/>
       <c r="B127" s="66" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>438</v>
@@ -13648,7 +13686,7 @@
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="62"/>
       <c r="B128" s="66" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I128" s="49" t="e">
         <f t="shared" si="1"/>
@@ -13672,10 +13710,10 @@
         <v>479</v>
       </c>
       <c r="E134" s="49" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="N134" s="54"/>
     </row>
@@ -13687,13 +13725,13 @@
         <v>557</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="N135" s="54"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B136" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="N136" s="54"/>
     </row>
@@ -13711,19 +13749,19 @@
         <v>556</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="N138" s="54"/>
     </row>
-    <row r="139" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="B139" s="4" t="s">
         <v>558</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>560</v>
+        <v>897</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N139" s="54"/>
     </row>
@@ -13732,148 +13770,148 @@
         <v>559</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N140" s="54"/>
     </row>
     <row r="141" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B141" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C141" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="C141" s="5" t="s">
-        <v>564</v>
-      </c>
       <c r="J141" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="N141" s="54"/>
     </row>
     <row r="142" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B142" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="N142" s="54"/>
     </row>
     <row r="143" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B143" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="C143" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="C143" s="5" t="s">
-        <v>584</v>
-      </c>
       <c r="J143" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N143" s="54"/>
     </row>
     <row r="144" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B144" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J144" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="N144" s="54"/>
     </row>
     <row r="145" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="B145" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="N145" s="54"/>
     </row>
     <row r="146" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="B146" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="C146" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="C146" s="5" t="s">
-        <v>598</v>
-      </c>
       <c r="J146" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="N146" s="54"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B147" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="N147" s="54"/>
     </row>
     <row r="148" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B148" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C148" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="J148" s="4" t="s">
         <v>802</v>
-      </c>
-      <c r="J148" s="4" t="s">
-        <v>803</v>
       </c>
       <c r="N148" s="54"/>
     </row>
     <row r="149" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B149" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="C149" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="C149" s="5" t="s">
-        <v>641</v>
-      </c>
       <c r="J149" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="N149" s="54"/>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B150" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C150" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="C150" s="5" t="s">
-        <v>654</v>
-      </c>
       <c r="J150" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="N150" s="54"/>
     </row>
     <row r="151" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B151" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="C151" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="C151" s="5" t="s">
-        <v>689</v>
-      </c>
       <c r="J151" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="N151" s="54"/>
     </row>
     <row r="152" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B152" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="C152" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="C152" s="5" t="s">
-        <v>698</v>
-      </c>
       <c r="J152" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="N152" s="54"/>
     </row>
@@ -13883,17 +13921,17 @@
         <v>519</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="N153" s="54"/>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="71"/>
       <c r="B154" s="70" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="N154" s="54"/>
     </row>
@@ -13910,10 +13948,10 @@
         <v>542</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J156" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N156" s="54"/>
     </row>
@@ -13923,10 +13961,10 @@
         <v>441</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J157" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
@@ -13940,23 +13978,23 @@
         <v>503</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J159" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="N159" s="54"/>
     </row>
     <row r="160" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="71"/>
       <c r="B160" s="70" t="s">
+        <v>765</v>
+      </c>
+      <c r="C160" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="C160" s="5" t="s">
-        <v>767</v>
-      </c>
       <c r="J160" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N160" s="54"/>
     </row>
@@ -13966,10 +14004,10 @@
         <v>527</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="N161" s="54"/>
     </row>
@@ -13979,36 +14017,36 @@
         <v>516</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="N162" s="54"/>
     </row>
     <row r="163" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="71"/>
       <c r="B163" s="70" t="s">
+        <v>772</v>
+      </c>
+      <c r="C163" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="C163" s="5" t="s">
-        <v>774</v>
-      </c>
       <c r="J163" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N163" s="54"/>
     </row>
     <row r="164" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="71"/>
       <c r="B164" s="70" t="s">
+        <v>578</v>
+      </c>
+      <c r="C164" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="C164" s="5" t="s">
-        <v>580</v>
-      </c>
       <c r="J164" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N164" s="54"/>
     </row>
@@ -14018,10 +14056,10 @@
         <v>440</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J165" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N165" s="54"/>
     </row>
@@ -14031,10 +14069,10 @@
         <v>514</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J166" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="N166" s="54"/>
     </row>
@@ -14044,10 +14082,10 @@
         <v>518</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="N167" s="54"/>
     </row>
@@ -14060,240 +14098,266 @@
     </row>
     <row r="169" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="B169" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J169" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A170" s="50" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A171" s="4" t="s">
-        <v>130</v>
-      </c>
+      <c r="B170" s="4" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="B171" s="4" t="s">
-        <v>446</v>
+        <v>892</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>106</v>
+        <v>893</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B172" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B173" s="4" t="s">
-        <v>448</v>
+        <v>896</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>435</v>
+        <v>898</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B174" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>433</v>
+      <c r="A174" s="50" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="B175" s="4" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>436</v>
+        <v>106</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B176" s="4" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B177" s="4" t="s">
-        <v>607</v>
+        <v>448</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>609</v>
+        <v>435</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B178" s="4" t="s">
-        <v>608</v>
+        <v>449</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>610</v>
+        <v>433</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B179" s="4" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B180" s="4" t="s">
-        <v>569</v>
+        <v>451</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B181" s="4" t="s">
-        <v>570</v>
+        <v>606</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B182" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B183" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B184" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B185" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B186" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="C186" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="C182" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="57" t="s">
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="B183" s="64" t="s">
+      <c r="B187" s="64" t="s">
         <v>484</v>
       </c>
-      <c r="D183" s="6" t="s">
+      <c r="D187" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E183" s="49">
+      <c r="E187" s="49">
         <v>135</v>
       </c>
-      <c r="G183" s="49">
+      <c r="G187" s="49">
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A184" s="57"/>
-      <c r="B184" s="64" t="s">
+    <row r="188" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A188" s="57"/>
+      <c r="B188" s="64" t="s">
         <v>549</v>
       </c>
-      <c r="C184" s="5" t="s">
+      <c r="C188" s="5" t="s">
         <v>548</v>
-      </c>
-      <c r="D184" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E184" s="49">
-        <v>25</v>
-      </c>
-      <c r="G184" s="49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A185" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="B185" s="63" t="s">
-        <v>483</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="D185" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E185" s="49">
-        <v>120</v>
-      </c>
-      <c r="G185" s="49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="59" t="s">
-        <v>189</v>
-      </c>
-      <c r="B186" s="63" t="s">
-        <v>485</v>
-      </c>
-      <c r="D186" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E186" s="49">
-        <v>140</v>
-      </c>
-      <c r="G186" s="49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="60"/>
-      <c r="B187" s="63" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="B188" s="63" t="s">
-        <v>482</v>
       </c>
       <c r="D188" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E188" s="49">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="G188" s="49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="61" t="s">
-        <v>186</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A189" s="58" t="s">
+        <v>188</v>
       </c>
       <c r="B189" s="63" t="s">
-        <v>481</v>
+        <v>483</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>420</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E189" s="49">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="G189" s="49">
         <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="62" t="s">
+      <c r="A190" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190" s="63" t="s">
+        <v>485</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E190" s="49">
+        <v>140</v>
+      </c>
+      <c r="G190" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="60"/>
+      <c r="B191" s="63" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="B192" s="63" t="s">
+        <v>482</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E192" s="49">
+        <v>135</v>
+      </c>
+      <c r="G192" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="B193" s="63" t="s">
+        <v>481</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E193" s="49">
+        <v>140</v>
+      </c>
+      <c r="G193" s="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="B190" s="63"/>
-      <c r="D190" s="6" t="s">
+      <c r="B194" s="63"/>
+      <c r="D194" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E190" s="49">
+      <c r="E194" s="49">
         <v>135</v>
       </c>
-      <c r="G190" s="49">
+      <c r="G194" s="49">
         <v>4</v>
       </c>
     </row>
@@ -14308,8 +14372,8 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15199,13 +15263,13 @@
         <v>9</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C46" s="8">
         <v>2</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>11</v>
@@ -15219,7 +15283,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>14</v>
@@ -15345,7 +15409,7 @@
         <v>184</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C54" s="8">
         <v>1</v>
@@ -15365,7 +15429,7 @@
         <v>184</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C55" s="8">
         <v>1</v>
@@ -15409,7 +15473,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>0</v>
@@ -15690,7 +15754,7 @@
         <v>1</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C77" s="8">
         <v>1</v>
@@ -15900,7 +15964,7 @@
         <v>2</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>11</v>
@@ -15920,13 +15984,13 @@
     </row>
     <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B99" s="12" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C99" s="8">
         <v>2</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>11</v>
@@ -16152,7 +16216,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -16162,32 +16226,32 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -16195,12 +16259,12 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
